--- a/relazioni/esperienza_2/codici/Esperienza_2.xlsx
+++ b/relazioni/esperienza_2/codici/Esperienza_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessiobrusini/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70E3FC7-EEBF-AF44-9125-AB7DB164E0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729E32EF-9B90-9A48-AEE7-0DA0238896EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{9832D23C-5E2D-EB46-85A1-EE46353BB05C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>n.</t>
   </si>
@@ -83,12 +83,24 @@
   <si>
     <t>lnCorr(mA)</t>
   </si>
+  <si>
+    <t>qV/kT</t>
+  </si>
+  <si>
+    <t>carica elettrone</t>
+  </si>
+  <si>
+    <t>costante di Boltzman</t>
+  </si>
+  <si>
+    <t>i dati sono da modificare solo su queste colonne</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -126,8 +138,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFEEF0FF"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13.8"/>
+      <color rgb="FFEEF0FF"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,8 +188,14 @@
         <bgColor rgb="FF156082"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -165,17 +207,6 @@
       <left style="thin">
         <color theme="4" tint="0.39997558519241921"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color theme="4" tint="0.39997558519241921"/>
@@ -238,30 +269,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="0.39994506668294322"/>
+      </left>
+      <right style="medium">
+        <color theme="4" tint="0.39994506668294322"/>
+      </right>
+      <top style="medium">
+        <color theme="4" tint="0.39994506668294322"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="4" tint="0.39994506668294322"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1322,6 +1383,537 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Temp_1!$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lnCorr(mA)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Temp_1!$H$2:$H$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Temp_1!$AB$2:$AB$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9B99-0B4C-9602-B63F7C63EFB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="734762799"/>
+        <c:axId val="734764511"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="734762799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="734764511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="734764511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="734762799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1402,6 +1994,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2434,14 +3066,530 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>202471</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>149069</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3155950" cy="778931"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2459,7 +3607,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6208947" y="284397"/>
+              <a:off x="6948045" y="357266"/>
               <a:ext cx="3155950" cy="778931"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2655,7 +3803,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6208947" y="284397"/>
+              <a:off x="6948045" y="357266"/>
               <a:ext cx="3155950" cy="778931"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2719,14 +3867,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>118152</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>134391</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3270249" cy="1091517"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="CasellaDiTesto 3">
@@ -2740,7 +3888,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6153150" y="1009650"/>
+              <a:off x="6863726" y="1175375"/>
               <a:ext cx="3270249" cy="1091517"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2896,7 +4044,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="CasellaDiTesto 3">
@@ -2910,7 +4058,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6153150" y="1009650"/>
+              <a:off x="6863726" y="1175375"/>
               <a:ext cx="3270249" cy="1091517"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2938,6 +4086,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="it-IT" sz="2400" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -2949,9 +4098,7 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:endParaRPr lang="it-IT" sz="1100" i="0">
-                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-              </a:endParaRPr>
+              <a:endParaRPr/>
             </a:p>
             <a:p>
               <a:endParaRPr lang="it-IT" sz="1100"/>
@@ -2964,16 +4111,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>439087</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>135327</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>416394</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>124918</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2988,8 +4135,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1104900" y="7924800"/>
-          <a:ext cx="4356100" cy="596900"/>
+          <a:off x="439087" y="9171065"/>
+          <a:ext cx="5900504" cy="405984"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3039,14 +4186,14 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>450850</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>273882</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:rowOff>164789</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="933450" cy="861261"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="CasellaDiTesto 5">
@@ -3060,7 +4207,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6381750" y="1847851"/>
+              <a:off x="7841833" y="2038559"/>
               <a:ext cx="933450" cy="861261"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3143,7 +4290,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="CasellaDiTesto 5">
@@ -3157,7 +4304,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6381750" y="1847851"/>
+              <a:off x="7841833" y="2038559"/>
               <a:ext cx="933450" cy="861261"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3185,6 +4332,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="it-IT" sz="2400" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -3272,6 +4420,117 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>40598</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>101390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>405982</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>10408</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Grafico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{707E8C47-1016-D178-DE2E-49DBE449FD5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>645410</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>83279</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>291476</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>166558</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="CasellaDiTesto 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3ED0D2D-59FA-B062-0D5A-67DE61734CCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="645410" y="9743607"/>
+          <a:ext cx="5569263" cy="707869"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1400"/>
+            <a:t>dopo aver preso la prima temperatura e capito cosa non va,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1400" baseline="0"/>
+            <a:t> duplicare questo foglio, cambiare nome tabelle ed eliminare dati </a:t>
+          </a:r>
+          <a:endParaRPr lang="it-IT" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3612,37 +4871,41 @@
   <dimension ref="A1:AC41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.33203125" customWidth="1"/>
     <col min="28" max="29" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>3</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="M1" t="s">
         <v>7</v>
@@ -3650,23 +4913,27 @@
       <c r="N1" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AC1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
+    <row r="2" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="11"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="7" t="e">
+        <f>J17*D2/(J20*B2)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M2" t="e">
         <f t="shared" ref="M2:M38" si="0">(D3-D2)/(F3-F2)</f>
         <v>#DIV/0!</v>
@@ -3675,22 +4942,26 @@
         <f t="shared" ref="N2:N38" si="1">M2*(2*E3/(D3-D2)+2*G3/(F3-F2))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB2" s="16" t="e">
+      <c r="AB2" s="10" t="e">
         <f>LN(F2)</f>
         <v>#NUM!</v>
       </c>
-      <c r="AC2" s="17"/>
+      <c r="AC2" s="11"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A3" s="12">
+    <row r="3" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="7" t="e">
+        <f t="shared" ref="H3:H38" si="2">J18*D3/(J21*B3)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -3699,22 +4970,26 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB3" s="16" t="e">
-        <f t="shared" ref="AB3:AB41" si="2">LN(F3)</f>
+      <c r="AB3" s="10" t="e">
+        <f t="shared" ref="AB3:AB41" si="3">LN(F3)</f>
         <v>#NUM!</v>
       </c>
-      <c r="AC3" s="18"/>
+      <c r="AC3" s="12"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
+    <row r="4" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="11"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="M4" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -3723,22 +4998,26 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB4" s="16" t="e">
+      <c r="AB4" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC4" s="11"/>
+    </row>
+    <row r="5" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="7" t="e">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC4" s="17"/>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A5" s="12">
-        <v>3</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -3747,22 +5026,26 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB5" s="16" t="e">
+      <c r="AB5" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC5" s="12"/>
+    </row>
+    <row r="6" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="7" t="e">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC5" s="18"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
-        <v>4</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="11"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M6" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -3771,22 +5054,26 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB6" s="16" t="e">
+      <c r="AB6" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC6" s="11"/>
+    </row>
+    <row r="7" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="7" t="e">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC6" s="17"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
-        <v>5</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M7" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -3795,22 +5082,26 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB7" s="16" t="e">
+      <c r="AB7" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC7" s="12"/>
+    </row>
+    <row r="8" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="7" t="e">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC7" s="18"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="11"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -3819,22 +5110,26 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB8" s="16" t="e">
+      <c r="AB8" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC8" s="11"/>
+    </row>
+    <row r="9" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="7" t="e">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC8" s="17"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A9" s="12">
-        <v>7</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -3843,22 +5138,26 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB9" s="16" t="e">
+      <c r="AB9" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC9" s="12"/>
+    </row>
+    <row r="10" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="7" t="e">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC9" s="18"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
-        <v>8</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="11"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M10" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -3867,22 +5166,26 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB10" s="16" t="e">
+      <c r="AB10" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC10" s="11"/>
+    </row>
+    <row r="11" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>9</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="7" t="e">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC10" s="17"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
-        <v>9</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M11" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -3891,22 +5194,26 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB11" s="16" t="e">
+      <c r="AB11" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC11" s="12"/>
+    </row>
+    <row r="12" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="7" t="e">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC11" s="18"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
-        <v>10</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="11"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -3915,22 +5222,26 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB12" s="16" t="e">
+      <c r="AB12" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC12" s="11"/>
+    </row>
+    <row r="13" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>11</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="7" t="e">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC12" s="17"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
-        <v>11</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -3939,22 +5250,26 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB13" s="16" t="e">
+      <c r="AB13" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC13" s="12"/>
+    </row>
+    <row r="14" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>12</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="7" t="e">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC13" s="18"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
-        <v>12</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="11"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -3963,22 +5278,26 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB14" s="16" t="e">
+      <c r="AB14" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC14" s="11"/>
+    </row>
+    <row r="15" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>13</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="7" t="e">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC14" s="17"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A15" s="12">
-        <v>13</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="14"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M15" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -3987,22 +5306,29 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB15" s="16" t="e">
+      <c r="AB15" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC15" s="12"/>
+    </row>
+    <row r="16" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>14</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="7" t="e">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC15" s="18"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
-        <v>14</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J16" t="s">
+        <v>12</v>
+      </c>
       <c r="M16" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4011,22 +5337,30 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB16" s="16" t="e">
+      <c r="AB16" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC16" s="11"/>
+    </row>
+    <row r="17" spans="1:29" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>15</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="7" t="e">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC16" s="17"/>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A17" s="12">
-        <v>15</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J17" s="13">
+        <f>1.602176634*10^(-19)</f>
+        <v>1.6021766340000001E-19</v>
+      </c>
       <c r="M17" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4035,22 +5369,26 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB17" s="16" t="e">
+      <c r="AB17" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC17" s="12"/>
+    </row>
+    <row r="18" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>16</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="7" t="e">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC17" s="18"/>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
-        <v>16</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="11"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M18" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4059,22 +5397,29 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB18" s="16" t="e">
+      <c r="AB18" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC18" s="11"/>
+    </row>
+    <row r="19" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>17</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="7" t="e">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC18" s="17"/>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A19" s="12">
-        <v>17</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J19" t="s">
+        <v>13</v>
+      </c>
       <c r="M19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4083,22 +5428,30 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB19" s="16" t="e">
+      <c r="AB19" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC19" s="12"/>
+    </row>
+    <row r="20" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>18</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="7" t="e">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC19" s="18"/>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
-        <v>18</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J20" s="16">
+        <f>1.3806503*10^(-23)</f>
+        <v>1.3806503000000004E-23</v>
+      </c>
       <c r="M20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4107,22 +5460,27 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB20" s="16" t="e">
+      <c r="AB20" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC20" s="11"/>
+    </row>
+    <row r="21" spans="1:29" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>19</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="7" t="e">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC20" s="17"/>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A21" s="12">
-        <v>19</v>
-      </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J21" s="14"/>
       <c r="M21" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4131,22 +5489,27 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB21" s="16" t="e">
+      <c r="AB21" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC21" s="12"/>
+    </row>
+    <row r="22" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>20</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="7" t="e">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC21" s="18"/>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A22" s="8">
-        <v>20</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J22" s="15"/>
       <c r="M22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4155,22 +5518,26 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB22" s="16" t="e">
+      <c r="AB22" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC22" s="11"/>
+    </row>
+    <row r="23" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>21</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="7" t="e">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC22" s="17"/>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A23" s="12">
-        <v>21</v>
-      </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="14"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M23" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4179,22 +5546,26 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB23" s="16" t="e">
+      <c r="AB23" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC23" s="12"/>
+    </row>
+    <row r="24" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>22</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="7" t="e">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC23" s="18"/>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A24" s="8">
-        <v>22</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="11"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4203,22 +5574,26 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB24" s="16" t="e">
+      <c r="AB24" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC24" s="11"/>
+    </row>
+    <row r="25" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>23</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="7" t="e">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC24" s="17"/>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A25" s="12">
-        <v>23</v>
-      </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="14"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M25" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4227,22 +5602,26 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB25" s="16" t="e">
+      <c r="AB25" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC25" s="12"/>
+    </row>
+    <row r="26" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>24</v>
+      </c>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="7" t="e">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC25" s="18"/>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A26" s="8">
-        <v>24</v>
-      </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="11"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4251,22 +5630,26 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB26" s="16" t="e">
+      <c r="AB26" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC26" s="11"/>
+    </row>
+    <row r="27" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>25</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="7" t="e">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC26" s="17"/>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A27" s="12">
-        <v>25</v>
-      </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="14"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M27" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4275,22 +5658,26 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB27" s="16" t="e">
+      <c r="AB27" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC27" s="12"/>
+    </row>
+    <row r="28" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>26</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="7" t="e">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC27" s="18"/>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A28" s="8">
-        <v>26</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="11"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M28" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4299,22 +5686,26 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB28" s="16" t="e">
+      <c r="AB28" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC28" s="11"/>
+    </row>
+    <row r="29" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>27</v>
+      </c>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="7" t="e">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC28" s="17"/>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A29" s="12">
-        <v>27</v>
-      </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="14"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M29" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4323,22 +5714,26 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB29" s="16" t="e">
+      <c r="AB29" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC29" s="12"/>
+    </row>
+    <row r="30" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>28</v>
+      </c>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="7" t="e">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC29" s="18"/>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A30" s="8">
-        <v>28</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="11"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M30" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4347,22 +5742,26 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB30" s="16" t="e">
+      <c r="AB30" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC30" s="11"/>
+    </row>
+    <row r="31" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>29</v>
+      </c>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="7" t="e">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC30" s="17"/>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A31" s="12">
-        <v>29</v>
-      </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="14"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M31" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4371,22 +5770,26 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB31" s="16" t="e">
+      <c r="AB31" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC31" s="12"/>
+    </row>
+    <row r="32" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>30</v>
+      </c>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="7" t="e">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC31" s="18"/>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A32" s="8">
-        <v>30</v>
-      </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="11"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M32" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4395,22 +5798,26 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB32" s="16" t="e">
+      <c r="AB32" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC32" s="11"/>
+    </row>
+    <row r="33" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>31</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="7" t="e">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC32" s="17"/>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A33" s="12">
-        <v>31</v>
-      </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="14"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M33" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4419,22 +5826,26 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB33" s="16" t="e">
+      <c r="AB33" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC33" s="12"/>
+    </row>
+    <row r="34" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>32</v>
+      </c>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="7" t="e">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC33" s="18"/>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A34" s="8">
-        <v>32</v>
-      </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="11"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4443,22 +5854,26 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB34" s="16" t="e">
+      <c r="AB34" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC34" s="11"/>
+    </row>
+    <row r="35" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>33</v>
+      </c>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="7" t="e">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC34" s="17"/>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A35" s="12">
-        <v>33</v>
-      </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="14"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M35" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4467,22 +5882,26 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB35" s="16" t="e">
+      <c r="AB35" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC35" s="12"/>
+    </row>
+    <row r="36" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>34</v>
+      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="7" t="e">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC35" s="18"/>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A36" s="8">
-        <v>34</v>
-      </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="11"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M36" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4491,22 +5910,26 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB36" s="16" t="e">
+      <c r="AB36" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC36" s="11"/>
+    </row>
+    <row r="37" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>35</v>
+      </c>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="7" t="e">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC36" s="17"/>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A37" s="12">
-        <v>35</v>
-      </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="14"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M37" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4515,20 +5938,24 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB37" s="16" t="e">
+      <c r="AB37" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC37" s="12"/>
+    </row>
+    <row r="38" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="7" t="e">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC37" s="18"/>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M38" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4537,34 +5964,51 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB38" s="16" t="e">
-        <f t="shared" si="2"/>
+      <c r="AB38" s="10" t="e">
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="AC38" s="17"/>
+      <c r="AC38" s="11"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="AB39" s="16" t="e">
-        <f t="shared" si="2"/>
+      <c r="B39" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="AB39" s="10" t="e">
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="AC39" s="18"/>
+      <c r="AC39" s="12"/>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="AB40" s="16" t="e">
-        <f t="shared" si="2"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="AB40" s="10" t="e">
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="AC40" s="17"/>
+      <c r="AC40" s="11"/>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="AB41" s="16" t="e">
-        <f t="shared" si="2"/>
+      <c r="AB41" s="10" t="e">
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="AC41" s="15"/>
+      <c r="AC41" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B39:G40"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/relazioni/esperienza_2/codici/Esperienza_2.xlsx
+++ b/relazioni/esperienza_2/codici/Esperienza_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\UNIVERSITA'\II ANNO\LABORATORIO-DI-ELETTROMAGNETISMO\relazioni\esperienza_2\codici\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEBC20A2-9C48-4278-B18A-120B2C8B0A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99540A1C-6701-4581-9060-6F1C7D8DBDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9832D23C-5E2D-EB46-85A1-EE46353BB05C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{9832D23C-5E2D-EB46-85A1-EE46353BB05C}"/>
   </bookViews>
   <sheets>
     <sheet name="Temp_1" sheetId="1" r:id="rId1"/>
@@ -33627,7 +33627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E1A82FF-E1AA-4776-B209-3745AF2BEED6}">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
@@ -35434,7 +35434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B8D5F5-4DDF-2344-BE93-713864C91CD6}">
   <dimension ref="A1:AC58"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="AA58" sqref="AA58"/>
     </sheetView>
   </sheetViews>

--- a/relazioni/esperienza_2/codici/Esperienza_2.xlsx
+++ b/relazioni/esperienza_2/codici/Esperienza_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\UNIVERSITA'\II ANNO\LABORATORIO-DI-ELETTROMAGNETISMO\relazioni\esperienza_2\codici\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99540A1C-6701-4581-9060-6F1C7D8DBDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB80DC03-0591-4140-8236-9F5BF8FEE058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{9832D23C-5E2D-EB46-85A1-EE46353BB05C}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="21">
   <si>
     <t>n.</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t>Corr(μA)</t>
+  </si>
+  <si>
+    <t>qV/kTη</t>
+  </si>
+  <si>
+    <t>Corr_prev(mA)</t>
   </si>
 </sst>
 </file>
@@ -311,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -329,13 +335,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1267,90 +1274,220 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11163039702854866"/>
+                  <c:y val="9.7073195757659894E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Temp_3!$H$2:$H$31</c:f>
+              <c:f>Temp_3!$H$2:$H$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>325.01866765017371</c:v>
+                  <c:v>27.352786447675978</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>322.70701283047123</c:v>
+                  <c:v>27.158243158574443</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>319.47069608288768</c:v>
+                  <c:v>26.885882553832293</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>315.30971740742319</c:v>
+                  <c:v>26.535704633449527</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>314.38505547954219</c:v>
+                  <c:v>26.457887317808915</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>311.92915339909024</c:v>
+                  <c:v>26.155387673913321</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>310.53661253570141</c:v>
+                  <c:v>26.038622550369062</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>308.21571109672016</c:v>
+                  <c:v>25.844014011128635</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>304.96644908214626</c:v>
+                  <c:v>25.57156205619204</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>303.10972793096118</c:v>
+                  <c:v>25.415875224799695</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>298.93210534079486</c:v>
+                  <c:v>25.065579854166931</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>295.21866303842467</c:v>
+                  <c:v>24.754206191382249</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>291.50522073605453</c:v>
+                  <c:v>24.442832528597567</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>286.39923757029561</c:v>
+                  <c:v>24.014693742268626</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>283.61415584351801</c:v>
+                  <c:v>23.781163495180113</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>278.50817267775915</c:v>
+                  <c:v>23.353024708851176</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>276.18727123877784</c:v>
+                  <c:v>23.158416169610753</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>269.68874720963009</c:v>
+                  <c:v>22.613512259737554</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>257.1558794391309</c:v>
+                  <c:v>21.562626147839254</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>242.76629051744669</c:v>
+                  <c:v>20.356053204548612</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>207.02440835713429</c:v>
+                  <c:v>17.359081700246044</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>177.31686993817334</c:v>
+                  <c:v>14.868092397968583</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>160.60637957750777</c:v>
+                  <c:v>13.466910915437513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Temp_3!$AB$31</c:f>
+              <c:f>Temp_3!$AB$2:$AB$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>-4.2097554137334283</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.3260244445585965</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.4750195015230458</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.6788167261563895</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.7284684023325845</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.8995412465906689</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.9820478372443429</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-5.0783789461827755</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-5.249527202378605</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-5.3454089740818871</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5.5340397000691066</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-5.7260280836035209</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-5.8961543673036569</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-6.1469494499483766</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-6.2871787912570269</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-6.5224928781914926</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-6.6301235423838571</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-6.9485772735023925</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-7.5810998322459024</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-8.3348716346222833</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-10.41431317630212</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-11.512925464970229</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1636,20 +1773,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="exp"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Temp_4!$D$2:$D$80</c:f>
@@ -1792,6 +1915,181 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5214-2447-8E94-106ED6B4C24F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Previsione</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Temp_4!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>721</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>718</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>706</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>703</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>696</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>696</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>683</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>682</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>673</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>663</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>656</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>615</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>595</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>268</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Temp_4!$J$2:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>16.6722169926148</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.465883958078372</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.646158225517047</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.452500508266638</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.623844679924167</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.8551469774843419</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.9160322244986219</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.9160322244986219</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.4390875628979973</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.2798816879663333</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.012976152914101</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.9251995539319537</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.294013040214796</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.20647591851194</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1797319984508143</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8102776200203442</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.71490884167365776</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.14036829038705337</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3001147565192075E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9818176071075881E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4476-B74C-8C57-AB724B0476A6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1813,20 +2111,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1979,14 +2263,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="1.8854242204496011E-2"/>
-              <c:y val="0.42476516579793722"/>
-            </c:manualLayout>
-          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2065,6 +2341,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2611,6 +2918,84 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.6502104664024249E-2"/>
+                  <c:y val="-0.12454151243559024"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="it-IT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Temp_4!$H$2:$H$21</c:f>
@@ -2618,64 +3003,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>526.2169614797283</c:v>
+                  <c:v>28.946029017566794</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>524.0274318203119</c:v>
+                  <c:v>28.825587842736418</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>520.37821572128473</c:v>
+                  <c:v>28.624852551352458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>515.26931318264656</c:v>
+                  <c:v>28.343823143414916</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>513.07978352323016</c:v>
+                  <c:v>28.22338196858454</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>510.89025386381377</c:v>
+                  <c:v>28.102940793754165</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>507.97088098459204</c:v>
+                  <c:v>27.942352560646999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>507.97088098459204</c:v>
+                  <c:v>27.942352560646999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>498.48291912712119</c:v>
+                  <c:v>27.420440803048706</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>497.75307590731575</c:v>
+                  <c:v>27.380293744771915</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>491.18448692906674</c:v>
+                  <c:v>27.018970220280789</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>486.94862469766429</c:v>
+                  <c:v>26.626711438737136</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>481.80738733283226</c:v>
+                  <c:v>26.345584771963139</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>470.05598764178751</c:v>
+                  <c:v>25.703009533622573</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>451.69442562453025</c:v>
+                  <c:v>24.698985723715442</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>440.6774884141758</c:v>
+                  <c:v>24.096571437771164</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>437.00517601072437</c:v>
+                  <c:v>23.895766675789737</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>389.26511476585529</c:v>
+                  <c:v>21.285304770031196</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>319.49117910027741</c:v>
+                  <c:v>17.470014292384093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>196.83594482499853</c:v>
+                  <c:v>10.763135242204452</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2954,37 +3339,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -3028,20 +3383,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="exp"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Temp_5!$D$2:$D$80</c:f>
@@ -3244,6 +3585,249 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-19E3-E64B-A5E5-40C0887078E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Temp_5!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Corr_prev(mA)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Temp_5!$D$2:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>748</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>744</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>741</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>739</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>727</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>723</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>719</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>711</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>704</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>697</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>695</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>689</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>685</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>679</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>673</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>668</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>662</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>655</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>643</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>586</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>449</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Temp_5!$J$2:$J$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>15.780974159983806</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.32345565369074</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.248264995180472</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.57669335642337</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.333952900868201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.9517639860222395</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.2047345016089288</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.2951873223610075</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.4755152031770145</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.071150398181091</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.0605430202537258</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.560495718308788</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.2181619579076193</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.0043378861908208</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.4257298553709021</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.0872233011073522</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.6411340216299042</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.2595025484779701</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9839535440527403</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6972815641981989</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.4147510387134425</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0354396946206759</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75782616595978436</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.43888219673725937</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.23509181317633834</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.13265375534992949</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.4465643654885061E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.3258273274764182E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.410128226239939E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.6341464541896144E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2680-B645-AED1-FD248B38AE95}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3279,32 +3863,21 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="it-IT"/>
-                  <a:t>Voltaggio(mV)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3335,7 +3908,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -3396,49 +3969,21 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="it-IT"/>
-                  <a:t>Am</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="it-IT"/>
-                  <a:t>peraggio(mA)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="1.8854242204496011E-2"/>
-              <c:y val="0.42476516579793722"/>
-            </c:manualLayout>
-          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3469,7 +4014,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -3517,6 +4062,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -4123,6 +4699,70 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.9412642657973783E-2"/>
+                  <c:y val="-0.16685003180640098"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="it-IT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Temp_5!$H$2:$H$31</c:f>
@@ -4224,12 +4864,96 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Temp_5!$AB$31</c:f>
+              <c:f>Temp_5!$AB$2:$AB$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.6939512767227085</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6019486702196644</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5273273656719524</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4578779774000812</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3627390158137929</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2417729535972883</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1690537003695232</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0819384218784229</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9906103279732201</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7884205679625405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6094379124341003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5129270120532565</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4398351280479205</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3912819026309295</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2527629684953681</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1474024528375417</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.9895411936137477</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.8586616190375187</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.74668794748797507</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.59883650108870401</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.42526773540434409</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.13976194237515863</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.1743533871447778</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.3093333199837622</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.8971199848858813</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-2.5257286443082556</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3.5065578973199818</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-4.6051701859880909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26972,10 +27696,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>202471</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>149069</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>583471</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>22069</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3155950" cy="778931"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -26993,7 +27717,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7009671" y="364969"/>
+              <a:off x="8355871" y="7565869"/>
               <a:ext cx="3155950" cy="778931"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -27189,7 +27913,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7009671" y="364969"/>
+              <a:off x="8355871" y="7565869"/>
               <a:ext cx="3155950" cy="778931"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -27253,10 +27977,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>118152</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>134391</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>626152</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>159791</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3270249" cy="1091517"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -27274,7 +27998,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6925352" y="1213891"/>
+              <a:off x="626152" y="7703591"/>
               <a:ext cx="3270249" cy="1091517"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -27444,7 +28168,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6925352" y="1213891"/>
+              <a:off x="626152" y="7703591"/>
               <a:ext cx="3270249" cy="1091517"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -27572,10 +28296,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>273882</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>164789</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>477082</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>139389</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="933450" cy="861261"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -27593,7 +28317,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7931982" y="2107889"/>
+              <a:off x="10332282" y="6667189"/>
               <a:ext cx="933450" cy="861261"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -27690,7 +28414,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7931982" y="2107889"/>
+              <a:off x="10332282" y="6667189"/>
               <a:ext cx="933450" cy="861261"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -27739,15 +28463,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
+      <xdr:colOff>82549</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>105508</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>812799</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>35169</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -27932,10 +28656,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>202471</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>149069</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>67004</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>182935</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3155950" cy="778931"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -27953,7 +28677,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7009671" y="364969"/>
+              <a:off x="7687004" y="7921468"/>
               <a:ext cx="3155950" cy="778931"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -28149,7 +28873,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7009671" y="364969"/>
+              <a:off x="7687004" y="7921468"/>
               <a:ext cx="3155950" cy="778931"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -28214,9 +28938,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>118152</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>134391</xdr:rowOff>
+      <xdr:colOff>727752</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>66658</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3270249" cy="1091517"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -28234,7 +28958,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6925352" y="1213891"/>
+              <a:off x="7501085" y="9024391"/>
               <a:ext cx="3270249" cy="1091517"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -28404,7 +29128,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6925352" y="1213891"/>
+              <a:off x="7501085" y="9024391"/>
               <a:ext cx="3270249" cy="1091517"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -28532,10 +29256,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>273882</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>164789</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>460149</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>130922</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="933450" cy="861261"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -28553,7 +29277,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7931982" y="2107889"/>
+              <a:off x="10992682" y="8479055"/>
               <a:ext cx="933450" cy="861261"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -28650,7 +29374,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7931982" y="2107889"/>
+              <a:off x="10992682" y="8479055"/>
               <a:ext cx="933450" cy="861261"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -30808,10 +31532,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1D24399E-9836-7741-BBCC-767E9D9754F5}" name="Tabella2" displayName="Tabella2" ref="M1:N57" totalsRowShown="0">
   <autoFilter ref="M1:N57" xr:uid="{1D24399E-9836-7741-BBCC-767E9D9754F5}"/>
@@ -31236,7 +31956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B86F6C1-2CF0-4541-BBC4-14B6AD42230F}">
   <dimension ref="A1:AC63"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="64" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="F45" zoomScale="64" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="AB1" sqref="AB1:AB1048576"/>
     </sheetView>
   </sheetViews>
@@ -33581,24 +34301,24 @@
       <c r="AC59" s="8"/>
     </row>
     <row r="60" spans="1:29">
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
       <c r="AB60" s="5"/>
       <c r="AC60" s="6"/>
     </row>
     <row r="61" spans="1:29">
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
       <c r="AB61" s="5"/>
       <c r="AC61" s="6"/>
     </row>
@@ -33627,20 +34347,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E1A82FF-E1AA-4776-B209-3745AF2BEED6}">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A54" workbookViewId="0">
       <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6"/>
   <cols>
     <col min="2" max="2" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>10</v>
       </c>
     </row>
@@ -35401,22 +36121,22 @@
     </row>
     <row r="33" spans="2:7" ht="16.2" thickBot="1"/>
     <row r="34" spans="2:7">
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -35434,8 +36154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B8D5F5-4DDF-2344-BE93-713864C91CD6}">
   <dimension ref="A1:AC58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AA58" sqref="AA58"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -35489,6 +36209,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="12">
+        <f>25.1</f>
         <v>25.1</v>
       </c>
       <c r="C2" s="12">
@@ -35507,8 +36228,8 @@
         <v>0.01</v>
       </c>
       <c r="H2" s="6">
-        <f>$J$17*D2/($J$20*B2)/1000</f>
-        <v>325.01866765017371</v>
+        <f>$J$17*D2/($J$20*(273.15+B2))/1000</f>
+        <v>27.352786447675978</v>
       </c>
       <c r="M2">
         <f>(D3-D2)/(F3-F2)</f>
@@ -35519,8 +36240,8 @@
         <v>-1.2646317136512484</v>
       </c>
       <c r="AB2" s="5">
-        <f>LN(F2)</f>
-        <v>2.6979998652487085</v>
+        <f>LN(F2/1000)</f>
+        <v>-4.2097554137334283</v>
       </c>
       <c r="AC2" s="6"/>
     </row>
@@ -35547,8 +36268,8 @@
         <v>0.01</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" ref="H3:H24" si="1">$J$17*D3/($J$20*B3)/1000</f>
-        <v>322.70701283047123</v>
+        <f t="shared" ref="H3:H24" si="1">$J$17*D3/($J$20*(273.15+B3))/1000</f>
+        <v>27.158243158574443</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M23" si="2">(D4-D3)/(F4-F3)</f>
@@ -35559,8 +36280,8 @@
         <v>-1.1347009465794737</v>
       </c>
       <c r="AB3" s="5">
-        <f t="shared" ref="AB3:AB23" si="3">LN(F3)</f>
-        <v>2.5817308344235403</v>
+        <f t="shared" ref="AB3:AB23" si="3">LN(F3/1000)</f>
+        <v>-4.3260244445585965</v>
       </c>
       <c r="AC3" s="8"/>
     </row>
@@ -35588,7 +36309,7 @@
       </c>
       <c r="H4" s="6">
         <f t="shared" si="1"/>
-        <v>319.47069608288768</v>
+        <v>26.885882553832293</v>
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
@@ -35600,7 +36321,7 @@
       </c>
       <c r="AB4" s="5">
         <f t="shared" si="3"/>
-        <v>2.432735777459091</v>
+        <v>-4.4750195015230458</v>
       </c>
       <c r="AC4" s="6"/>
     </row>
@@ -35628,7 +36349,7 @@
       </c>
       <c r="H5" s="6">
         <f t="shared" si="1"/>
-        <v>315.30971740742319</v>
+        <v>26.535704633449527</v>
       </c>
       <c r="M5">
         <f t="shared" si="2"/>
@@ -35640,7 +36361,7 @@
       </c>
       <c r="AB5" s="5">
         <f t="shared" si="3"/>
-        <v>2.2289385528257473</v>
+        <v>-4.6788167261563895</v>
       </c>
       <c r="AC5" s="8"/>
     </row>
@@ -35668,7 +36389,7 @@
       </c>
       <c r="H6" s="6">
         <f t="shared" si="1"/>
-        <v>314.38505547954219</v>
+        <v>26.457887317808915</v>
       </c>
       <c r="M6">
         <f t="shared" si="2"/>
@@ -35680,7 +36401,7 @@
       </c>
       <c r="AB6" s="5">
         <f t="shared" si="3"/>
-        <v>2.1792868766495519</v>
+        <v>-4.7284684023325845</v>
       </c>
       <c r="AC6" s="6"/>
     </row>
@@ -35708,7 +36429,7 @@
       </c>
       <c r="H7" s="6">
         <f t="shared" si="1"/>
-        <v>311.92915339909024</v>
+        <v>26.155387673913321</v>
       </c>
       <c r="M7">
         <f t="shared" si="2"/>
@@ -35720,7 +36441,7 @@
       </c>
       <c r="AB7" s="5">
         <f t="shared" si="3"/>
-        <v>2.0082140323914683</v>
+        <v>-4.8995412465906689</v>
       </c>
       <c r="AC7" s="8"/>
     </row>
@@ -35748,7 +36469,7 @@
       </c>
       <c r="H8" s="6">
         <f t="shared" si="1"/>
-        <v>310.53661253570141</v>
+        <v>26.038622550369062</v>
       </c>
       <c r="M8">
         <f t="shared" si="2"/>
@@ -35760,7 +36481,7 @@
       </c>
       <c r="AB8" s="5">
         <f t="shared" si="3"/>
-        <v>1.925707441737794</v>
+        <v>-4.9820478372443429</v>
       </c>
       <c r="AC8" s="6"/>
     </row>
@@ -35788,7 +36509,7 @@
       </c>
       <c r="H9" s="6">
         <f t="shared" si="1"/>
-        <v>308.21571109672016</v>
+        <v>25.844014011128635</v>
       </c>
       <c r="M9">
         <f t="shared" si="2"/>
@@ -35800,7 +36521,7 @@
       </c>
       <c r="AB9" s="5">
         <f t="shared" si="3"/>
-        <v>1.8293763327993617</v>
+        <v>-5.0783789461827755</v>
       </c>
       <c r="AC9" s="8"/>
     </row>
@@ -35828,7 +36549,7 @@
       </c>
       <c r="H10" s="6">
         <f t="shared" si="1"/>
-        <v>304.96644908214626</v>
+        <v>25.57156205619204</v>
       </c>
       <c r="M10">
         <f t="shared" si="2"/>
@@ -35840,7 +36561,7 @@
       </c>
       <c r="AB10" s="5">
         <f t="shared" si="3"/>
-        <v>1.6582280766035324</v>
+        <v>-5.249527202378605</v>
       </c>
       <c r="AC10" s="6"/>
     </row>
@@ -35868,7 +36589,7 @@
       </c>
       <c r="H11" s="6">
         <f t="shared" si="1"/>
-        <v>303.10972793096118</v>
+        <v>25.415875224799695</v>
       </c>
       <c r="M11">
         <f t="shared" si="2"/>
@@ -35880,7 +36601,7 @@
       </c>
       <c r="AB11" s="5">
         <f t="shared" si="3"/>
-        <v>1.5623463049002497</v>
+        <v>-5.3454089740818871</v>
       </c>
       <c r="AC11" s="8"/>
     </row>
@@ -35908,7 +36629,7 @@
       </c>
       <c r="H12" s="6">
         <f t="shared" si="1"/>
-        <v>298.93210534079486</v>
+        <v>25.065579854166931</v>
       </c>
       <c r="M12">
         <f t="shared" si="2"/>
@@ -35920,7 +36641,7 @@
       </c>
       <c r="AB12" s="5">
         <f t="shared" si="3"/>
-        <v>1.3737155789130306</v>
+        <v>-5.5340397000691066</v>
       </c>
       <c r="AC12" s="6"/>
     </row>
@@ -35948,7 +36669,7 @@
       </c>
       <c r="H13" s="6">
         <f t="shared" si="1"/>
-        <v>295.21866303842467</v>
+        <v>24.754206191382249</v>
       </c>
       <c r="M13">
         <f t="shared" si="2"/>
@@ -35960,7 +36681,7 @@
       </c>
       <c r="AB13" s="5">
         <f t="shared" si="3"/>
-        <v>1.1817271953786161</v>
+        <v>-5.7260280836035209</v>
       </c>
       <c r="AC13" s="8"/>
     </row>
@@ -35988,7 +36709,7 @@
       </c>
       <c r="H14" s="6">
         <f t="shared" si="1"/>
-        <v>291.50522073605453</v>
+        <v>24.442832528597567</v>
       </c>
       <c r="M14">
         <f t="shared" si="2"/>
@@ -36000,7 +36721,7 @@
       </c>
       <c r="AB14" s="5">
         <f t="shared" si="3"/>
-        <v>1.0116009116784799</v>
+        <v>-5.8961543673036569</v>
       </c>
       <c r="AC14" s="6"/>
     </row>
@@ -36028,7 +36749,7 @@
       </c>
       <c r="H15" s="6">
         <f t="shared" si="1"/>
-        <v>286.39923757029561</v>
+        <v>24.014693742268626</v>
       </c>
       <c r="M15">
         <f t="shared" si="2"/>
@@ -36040,7 +36761,7 @@
       </c>
       <c r="AB15" s="5">
         <f t="shared" si="3"/>
-        <v>0.76080582903376015</v>
+        <v>-6.1469494499483766</v>
       </c>
       <c r="AC15" s="8"/>
     </row>
@@ -36068,7 +36789,7 @@
       </c>
       <c r="H16" s="6">
         <f t="shared" si="1"/>
-        <v>283.61415584351801</v>
+        <v>23.781163495180113</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -36083,7 +36804,7 @@
       </c>
       <c r="AB16" s="5">
         <f t="shared" si="3"/>
-        <v>0.62057648772510998</v>
+        <v>-6.2871787912570269</v>
       </c>
       <c r="AC16" s="6"/>
     </row>
@@ -36111,7 +36832,7 @@
       </c>
       <c r="H17" s="6">
         <f t="shared" si="1"/>
-        <v>278.50817267775915</v>
+        <v>23.353024708851176</v>
       </c>
       <c r="J17" s="9">
         <f>1.602176634*10^(-19)</f>
@@ -36127,7 +36848,7 @@
       </c>
       <c r="AB17" s="5">
         <f t="shared" si="3"/>
-        <v>0.38526240079064489</v>
+        <v>-6.5224928781914926</v>
       </c>
       <c r="AC17" s="8"/>
     </row>
@@ -36155,7 +36876,7 @@
       </c>
       <c r="H18" s="6">
         <f t="shared" si="1"/>
-        <v>276.18727123877784</v>
+        <v>23.158416169610753</v>
       </c>
       <c r="M18">
         <f t="shared" si="2"/>
@@ -36167,7 +36888,7 @@
       </c>
       <c r="AB18" s="5">
         <f t="shared" si="3"/>
-        <v>0.27763173659827955</v>
+        <v>-6.6301235423838571</v>
       </c>
       <c r="AC18" s="6"/>
     </row>
@@ -36195,7 +36916,7 @@
       </c>
       <c r="H19" s="6">
         <f t="shared" si="1"/>
-        <v>269.68874720963009</v>
+        <v>22.613512259737554</v>
       </c>
       <c r="J19" t="s">
         <v>13</v>
@@ -36210,7 +36931,7 @@
       </c>
       <c r="AB19" s="5">
         <f t="shared" si="3"/>
-        <v>-4.0821994520255166E-2</v>
+        <v>-6.9485772735023925</v>
       </c>
       <c r="AC19" s="8"/>
     </row>
@@ -36238,7 +36959,7 @@
       </c>
       <c r="H20" s="6">
         <f t="shared" si="1"/>
-        <v>257.1558794391309</v>
+        <v>21.562626147839254</v>
       </c>
       <c r="J20" s="11">
         <f>1.3806503*10^(-23)</f>
@@ -36254,7 +36975,7 @@
       </c>
       <c r="AB20" s="5">
         <f t="shared" si="3"/>
-        <v>-0.67334455326376563</v>
+        <v>-7.5810998322459024</v>
       </c>
       <c r="AC20" s="6"/>
     </row>
@@ -36282,7 +37003,7 @@
       </c>
       <c r="H21" s="6">
         <f t="shared" si="1"/>
-        <v>242.76629051744669</v>
+        <v>20.356053204548612</v>
       </c>
       <c r="J21" s="10"/>
       <c r="M21">
@@ -36295,7 +37016,7 @@
       </c>
       <c r="AB21" s="5">
         <f t="shared" si="3"/>
-        <v>-1.4271163556401458</v>
+        <v>-8.3348716346222833</v>
       </c>
       <c r="AC21" s="8"/>
     </row>
@@ -36323,7 +37044,7 @@
       </c>
       <c r="H22" s="6">
         <f t="shared" si="1"/>
-        <v>207.02440835713429</v>
+        <v>17.359081700246044</v>
       </c>
       <c r="J22" s="14" t="s">
         <v>14</v>
@@ -36338,7 +37059,7 @@
       </c>
       <c r="AB22" s="5">
         <f t="shared" si="3"/>
-        <v>-3.5065578973199818</v>
+        <v>-10.41431317630212</v>
       </c>
       <c r="AC22" s="6"/>
     </row>
@@ -36366,7 +37087,7 @@
       </c>
       <c r="H23" s="6">
         <f t="shared" si="1"/>
-        <v>177.31686993817334</v>
+        <v>14.868092397968583</v>
       </c>
       <c r="J23" t="s">
         <v>15</v>
@@ -36381,7 +37102,7 @@
       </c>
       <c r="AB23" s="5">
         <f t="shared" si="3"/>
-        <v>-4.6051701859880909</v>
+        <v>-11.512925464970229</v>
       </c>
       <c r="AC23" s="8"/>
     </row>
@@ -36409,27 +37130,27 @@
       </c>
       <c r="H24" s="6">
         <f t="shared" si="1"/>
-        <v>160.60637957750777</v>
+        <v>13.466910915437513</v>
       </c>
     </row>
     <row r="56" spans="9:14" ht="16.2" thickBot="1"/>
     <row r="57" spans="9:14">
-      <c r="I57" s="17" t="s">
+      <c r="I57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J57" s="17"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
     </row>
     <row r="58" spans="9:14">
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18"/>
-      <c r="L58" s="18"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="18"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -36445,17 +37166,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF5D825E-8ABD-AB46-9243-4AAB60C8E7B6}">
-  <dimension ref="A1:AC24"/>
+  <dimension ref="A1:AC44"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AC39" sqref="AC39"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="4" width="11.19921875" customWidth="1"/>
+    <col min="6" max="6" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.19921875" customWidth="1"/>
+    <col min="14" max="14" width="11.296875" bestFit="1" customWidth="1"/>
     <col min="28" max="29" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -36514,8 +37239,16 @@
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="6">
-        <f>$J$17*D2/($J$20*B2)/1000</f>
-        <v>526.2169614797283</v>
+        <f>$G$38*D2/($G$41*(B2+273.15))/1000</f>
+        <v>28.946029017566794</v>
+      </c>
+      <c r="I2">
+        <f>H2*0.6236</f>
+        <v>18.050743695354655</v>
+      </c>
+      <c r="J2">
+        <f>EXP(-15.237)*(EXP(I2)-1)</f>
+        <v>16.6722169926148</v>
       </c>
       <c r="M2">
         <f>(D3-D2)/(F3-F2)</f>
@@ -36548,11 +37281,19 @@
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="6">
-        <f t="shared" ref="H3:H21" si="1">$J$17*D3/($J$20*B3)/1000</f>
-        <v>524.0274318203119</v>
+        <f t="shared" ref="H3:H21" si="1">$G$38*D3/($G$41*(B3+273.15))/1000</f>
+        <v>28.825587842736418</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I21" si="2">H3*0.6236</f>
+        <v>17.97563657873043</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J21" si="3">EXP(-15.237)*(EXP(I3)-1)</f>
+        <v>15.465883958078372</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M20" si="2">(D4-D3)/(F4-F3)</f>
+        <f t="shared" ref="M3:M20" si="4">(D4-D3)/(F4-F3)</f>
         <v>3.1055900621118022</v>
       </c>
       <c r="N3">
@@ -36560,7 +37301,7 @@
         <v>0</v>
       </c>
       <c r="AB3" s="5">
-        <f t="shared" ref="AB3:AB20" si="3">LN(F3)</f>
+        <f t="shared" ref="AB3:AB20" si="5">LN(F3)</f>
         <v>2.6616571615324998</v>
       </c>
       <c r="AC3" s="8"/>
@@ -36583,10 +37324,18 @@
       <c r="G4" s="12"/>
       <c r="H4" s="6">
         <f t="shared" si="1"/>
-        <v>520.37821572128473</v>
+        <v>28.624852551352458</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>17.850458051023395</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>13.646158225517047</v>
       </c>
       <c r="M4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.664921465968586</v>
       </c>
       <c r="N4">
@@ -36594,7 +37343,7 @@
         <v>0</v>
       </c>
       <c r="AB4" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.5423890852013629</v>
       </c>
       <c r="AC4" s="6"/>
@@ -36617,10 +37366,18 @@
       <c r="G5" s="13"/>
       <c r="H5" s="6">
         <f t="shared" si="1"/>
-        <v>515.26931318264656</v>
+        <v>28.343823143414916</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>17.675208112233541</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>11.452500508266638</v>
       </c>
       <c r="M5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.1578947368421018</v>
       </c>
       <c r="N5">
@@ -36628,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="AB5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.379546134130174</v>
       </c>
       <c r="AC5" s="8"/>
@@ -36651,10 +37408,18 @@
       <c r="G6" s="12"/>
       <c r="H6" s="6">
         <f t="shared" si="1"/>
-        <v>513.07978352323016</v>
+        <v>28.22338196858454</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>17.600100995609321</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>10.623844679924167</v>
       </c>
       <c r="M6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.2499999999999947</v>
       </c>
       <c r="N6">
@@ -36662,7 +37427,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.2874714551839976</v>
       </c>
       <c r="AC6" s="6"/>
@@ -36685,10 +37450,18 @@
       <c r="G7" s="13"/>
       <c r="H7" s="6">
         <f t="shared" si="1"/>
-        <v>510.89025386381377</v>
+        <v>28.102940793754165</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>17.5249938789851</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>9.8551469774843419</v>
       </c>
       <c r="M7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.0606060606060757</v>
       </c>
       <c r="N7">
@@ -36696,7 +37469,7 @@
         <v>0</v>
       </c>
       <c r="AB7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.2375130962503307</v>
       </c>
       <c r="AC7" s="8"/>
@@ -36719,10 +37492,18 @@
       <c r="G8" s="12"/>
       <c r="H8" s="6">
         <f t="shared" si="1"/>
-        <v>507.97088098459204</v>
+        <v>27.942352560646999</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>17.42485105681947</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>8.9160322244986219</v>
       </c>
       <c r="M8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N8" t="e">
@@ -36730,7 +37511,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB8" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.1644717908644115</v>
       </c>
       <c r="AC8" s="6"/>
@@ -36753,10 +37534,18 @@
       <c r="G9" s="13"/>
       <c r="H9" s="6">
         <f t="shared" si="1"/>
-        <v>507.97088098459204</v>
+        <v>27.942352560646999</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>17.42485105681947</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>8.9160322244986219</v>
       </c>
       <c r="M9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.7777777777777777</v>
       </c>
       <c r="N9">
@@ -36764,7 +37553,7 @@
         <v>0</v>
       </c>
       <c r="AB9" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.1482677326096886</v>
       </c>
       <c r="AC9" s="8"/>
@@ -36787,10 +37576,18 @@
       <c r="G10" s="12"/>
       <c r="H10" s="6">
         <f t="shared" si="1"/>
-        <v>498.48291912712119</v>
+        <v>27.420440803048706</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>17.099386884781175</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>6.4390875628979973</v>
       </c>
       <c r="M10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12.499999999999989</v>
       </c>
       <c r="N10">
@@ -36798,7 +37595,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.8437192081587661</v>
       </c>
       <c r="AC10" s="6"/>
@@ -36821,10 +37618,18 @@
       <c r="G11" s="13"/>
       <c r="H11" s="6">
         <f t="shared" si="1"/>
-        <v>497.75307590731575</v>
+        <v>27.380293744771915</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>17.074351179239766</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>6.2798816879663333</v>
       </c>
       <c r="M11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.9646017699115053</v>
       </c>
       <c r="N11">
@@ -36832,7 +37637,7 @@
         <v>0</v>
       </c>
       <c r="AB11" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.8309801823813363</v>
       </c>
       <c r="AC11" s="8"/>
@@ -36855,10 +37660,18 @@
       <c r="G12" s="12"/>
       <c r="H12" s="6">
         <f t="shared" si="1"/>
-        <v>491.18448692906674</v>
+        <v>27.018970220280789</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>16.849029829367101</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>5.012976152914101</v>
       </c>
       <c r="M12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11.111111111111107</v>
       </c>
       <c r="N12">
@@ -36866,7 +37679,7 @@
         <v>0</v>
       </c>
       <c r="AB12" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.631199404215613</v>
       </c>
       <c r="AC12" s="6"/>
@@ -36889,10 +37702,18 @@
       <c r="G13" s="13"/>
       <c r="H13" s="6">
         <f t="shared" si="1"/>
-        <v>486.94862469766429</v>
+        <v>26.626711438737136</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>16.60441725319648</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>3.9251995539319537</v>
       </c>
       <c r="M13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.9743589743589762</v>
       </c>
       <c r="N13">
@@ -36900,7 +37721,7 @@
         <v>0</v>
       </c>
       <c r="AB13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.43746264769429</v>
       </c>
       <c r="AC13" s="8"/>
@@ -36923,10 +37744,18 @@
       <c r="G14" s="12"/>
       <c r="H14" s="6">
         <f t="shared" si="1"/>
-        <v>481.80738733283226</v>
+        <v>26.345584771963139</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>16.429106663796215</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>3.294013040214796</v>
       </c>
       <c r="M14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15.094339622641508</v>
       </c>
       <c r="N14">
@@ -36934,7 +37763,7 @@
         <v>0</v>
       </c>
       <c r="AB14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.2325602611778486</v>
       </c>
       <c r="AC14" s="6"/>
@@ -36957,10 +37786,18 @@
       <c r="G15" s="13"/>
       <c r="H15" s="6">
         <f t="shared" si="1"/>
-        <v>470.05598764178751</v>
+        <v>25.703009533622573</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>16.028396745167036</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>2.20647591851194</v>
       </c>
       <c r="M15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>23.364485981308409</v>
       </c>
       <c r="N15">
@@ -36968,7 +37805,7 @@
         <v>0</v>
       </c>
       <c r="AB15" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.86288995514703981</v>
       </c>
       <c r="AC15" s="8"/>
@@ -36991,13 +37828,18 @@
       <c r="G16" s="12"/>
       <c r="H16" s="6">
         <f t="shared" si="1"/>
-        <v>451.69442562453025</v>
-      </c>
-      <c r="J16" t="s">
-        <v>12</v>
+        <v>24.698985723715442</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>15.402287497308951</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>1.1797319984508143</v>
       </c>
       <c r="M16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>39.473684210526315</v>
       </c>
       <c r="N16">
@@ -37005,12 +37847,12 @@
         <v>0</v>
       </c>
       <c r="AB16" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.26236426446749106</v>
       </c>
       <c r="AC16" s="6"/>
     </row>
-    <row r="17" spans="1:29" ht="18" thickBot="1">
+    <row r="17" spans="1:29" ht="16.2" thickBot="1">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -37028,14 +37870,18 @@
       <c r="G17" s="13"/>
       <c r="H17" s="6">
         <f t="shared" si="1"/>
-        <v>440.6774884141758</v>
-      </c>
-      <c r="J17" s="9">
-        <f>1.602176634*10^(-19)</f>
-        <v>1.6021766340000001E-19</v>
+        <v>24.096571437771164</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>15.0266219485941</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>0.8102776200203442</v>
       </c>
       <c r="M17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>55.555555555555507</v>
       </c>
       <c r="N17">
@@ -37043,7 +37889,7 @@
         <v>0</v>
       </c>
       <c r="AB17" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-8.3381608939051013E-2</v>
       </c>
       <c r="AC17" s="8"/>
@@ -37066,10 +37912,18 @@
       <c r="G18" s="12"/>
       <c r="H18" s="6">
         <f t="shared" si="1"/>
-        <v>437.00517601072437</v>
+        <v>23.895766675789737</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>14.901400099022482</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>0.71490884167365776</v>
       </c>
       <c r="M18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>97.014925373134332</v>
       </c>
       <c r="N18">
@@ -37077,7 +37931,7 @@
         <v>0</v>
       </c>
       <c r="AB18" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-0.18632957819149348</v>
       </c>
       <c r="AC18" s="6"/>
@@ -37100,13 +37954,18 @@
       <c r="G19" s="13"/>
       <c r="H19" s="6">
         <f t="shared" si="1"/>
-        <v>389.26511476585529</v>
-      </c>
-      <c r="J19" t="s">
-        <v>13</v>
+        <v>21.285304770031196</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>13.273516054591456</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>0.14036829038705337</v>
       </c>
       <c r="M19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>633.33333333333337</v>
       </c>
       <c r="N19">
@@ -37114,12 +37973,12 @@
         <v>0</v>
       </c>
       <c r="AB19" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1.8325814637483102</v>
       </c>
       <c r="AC19" s="8"/>
     </row>
-    <row r="20" spans="1:29" ht="17.399999999999999" thickBot="1">
+    <row r="20" spans="1:29" ht="16.2" thickBot="1">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -37137,14 +37996,18 @@
       <c r="G20" s="12"/>
       <c r="H20" s="6">
         <f t="shared" si="1"/>
-        <v>319.49117910027741</v>
-      </c>
-      <c r="J20" s="11">
-        <f>1.3806503*10^(-23)</f>
-        <v>1.3806503000000004E-23</v>
+        <v>17.470014292384093</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>10.894300912730721</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>1.3001147565192075E-2</v>
       </c>
       <c r="M20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16700</v>
       </c>
       <c r="N20">
@@ -37152,12 +38015,12 @@
         <v>0</v>
       </c>
       <c r="AB20" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-4.6051701859880909</v>
       </c>
       <c r="AC20" s="6"/>
     </row>
-    <row r="21" spans="1:29" ht="17.399999999999999">
+    <row r="21" spans="1:29">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -37175,35 +38038,70 @@
       <c r="G21" s="16"/>
       <c r="H21" s="6">
         <f t="shared" si="1"/>
-        <v>196.83594482499853</v>
-      </c>
-      <c r="J21" s="10"/>
+        <v>10.763135242204452</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>6.7118911370386964</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>1.9818176071075881E-4</v>
+      </c>
     </row>
-    <row r="22" spans="1:29" ht="21" thickBot="1">
-      <c r="J22" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
+    <row r="22" spans="1:29" ht="16.2" thickBot="1"/>
     <row r="23" spans="1:29">
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="J23" t="s">
-        <v>15</v>
-      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
     </row>
     <row r="24" spans="1:29">
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+    </row>
+    <row r="37" spans="7:7">
+      <c r="G37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="7:7" ht="17.399999999999999">
+      <c r="G38" s="9">
+        <f>1.602176634*10^(-19)</f>
+        <v>1.6021766340000001E-19</v>
+      </c>
+    </row>
+    <row r="40" spans="7:7">
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="7:7" ht="16.8">
+      <c r="G41" s="11">
+        <f>1.3806503*10^(-23)</f>
+        <v>1.3806503000000004E-23</v>
+      </c>
+    </row>
+    <row r="42" spans="7:7" ht="17.399999999999999">
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="7:7" ht="20.399999999999999">
+      <c r="G43" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="7:7">
+      <c r="G44" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -37222,14 +38120,17 @@
   <dimension ref="A1:AC63"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="N40" sqref="M31:N40"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="4" width="11.19921875" customWidth="1"/>
+    <col min="6" max="6" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.69921875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.19921875" customWidth="1"/>
+    <col min="14" max="14" width="11.296875" bestFit="1" customWidth="1"/>
     <col min="28" max="29" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -37258,6 +38159,12 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>20</v>
+      </c>
       <c r="M1" t="s">
         <v>8</v>
       </c>
@@ -37288,15 +38195,23 @@
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="6">
-        <f>$J$17*D2/($J$20*(B2+273.15))/1000</f>
+        <f t="shared" ref="H2:H31" si="0">$H$44*D2/($H$47*(B2+273.15))/1000</f>
         <v>31.836315355914756</v>
+      </c>
+      <c r="I2">
+        <f>H2*0.6109</f>
+        <v>19.448805050928325</v>
+      </c>
+      <c r="J2">
+        <f>EXP(-16.69)*(EXP(I2)-1)</f>
+        <v>15.780974159983806</v>
       </c>
       <c r="M2">
         <f>(D3-D2)/(F3-F2)</f>
         <v>3.0769230769230793</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2:N30" si="0">M2*(2*E3/(D3-D2)+2*G3/(F3-F2))</f>
+        <f t="shared" ref="N2:N30" si="1">M2*(2*E3/(D3-D2)+2*G3/(F3-F2))</f>
         <v>0</v>
       </c>
       <c r="AB2" s="5">
@@ -37322,19 +38237,27 @@
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="6">
-        <f t="shared" ref="H3:H31" si="1">$J$17*D3/($J$20*(B3+273.15))/1000</f>
+        <f t="shared" si="0"/>
         <v>31.677686123685685</v>
       </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I31" si="2">H3*0.6109</f>
+        <v>19.351898452959585</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J31" si="3">EXP(-16.69)*(EXP(I3)-1)</f>
+        <v>14.32345565369074</v>
+      </c>
       <c r="M3">
-        <f t="shared" ref="M3:M30" si="2">(D4-D3)/(F4-F3)</f>
+        <f t="shared" ref="M3:M30" si="4">(D4-D3)/(F4-F3)</f>
         <v>3.0927835051546371</v>
       </c>
       <c r="N3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB3" s="5">
-        <f t="shared" ref="AB3:AB57" si="3">LN(F3)</f>
+        <f t="shared" ref="AB3:AB57" si="5">LN(F3)</f>
         <v>2.6019486702196644</v>
       </c>
       <c r="AC3" s="8"/>
@@ -37356,19 +38279,27 @@
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="6">
+        <f t="shared" si="0"/>
+        <v>31.549953518348239</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>19.27386660435894</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>13.248264995180472</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="4"/>
+        <v>2.3809523809523814</v>
+      </c>
+      <c r="N4">
         <f t="shared" si="1"/>
-        <v>31.549953518348239</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="2"/>
-        <v>2.3809523809523814</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB4" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.5273273656719524</v>
       </c>
       <c r="AC4" s="6"/>
@@ -37390,19 +38321,27 @@
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="6">
+        <f t="shared" si="0"/>
+        <v>31.464798448123283</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>19.221845371958512</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>12.57669335642337</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="4"/>
+        <v>3.7735849056603756</v>
+      </c>
+      <c r="N5">
         <f t="shared" si="1"/>
-        <v>31.464798448123283</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="2"/>
-        <v>3.7735849056603756</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.4578779774000812</v>
       </c>
       <c r="AC5" s="8"/>
@@ -37424,19 +38363,27 @@
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="6">
-        <f>$J$17*D6/($J$20*(B6+273.15))/1000</f>
+        <f t="shared" si="0"/>
         <v>31.294488307673362</v>
       </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>19.117802907157657</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>11.333952900868201</v>
+      </c>
       <c r="M6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.1322314049586808</v>
       </c>
       <c r="N6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.3627390158137929</v>
       </c>
       <c r="AC6" s="6"/>
@@ -37458,19 +38405,27 @@
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="6">
+        <f t="shared" si="0"/>
+        <v>31.081600632110955</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>18.987749826156584</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>9.9517639860222395</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="4"/>
+        <v>4.5454545454545441</v>
+      </c>
+      <c r="N7">
         <f t="shared" si="1"/>
-        <v>31.081600632110955</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="2"/>
-        <v>4.5454545454545441</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.2417729535972883</v>
       </c>
       <c r="AC7" s="8"/>
@@ -37492,19 +38447,27 @@
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="6">
+        <f t="shared" si="0"/>
+        <v>30.95386802677351</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>18.909717977555935</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>9.2047345016089288</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="4"/>
+        <v>5.4794520547945176</v>
+      </c>
+      <c r="N8">
         <f t="shared" si="1"/>
-        <v>30.95386802677351</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="2"/>
-        <v>5.4794520547945176</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB8" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.1690537003695232</v>
       </c>
       <c r="AC8" s="6"/>
@@ -37526,19 +38489,27 @@
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="6">
+        <f t="shared" si="0"/>
+        <v>30.783557886323589</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>18.80567551275508</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>8.2951873223610075</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="4"/>
+        <v>5.7142857142857197</v>
+      </c>
+      <c r="N9">
         <f t="shared" si="1"/>
-        <v>30.783557886323589</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="2"/>
-        <v>5.7142857142857197</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB9" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.0819384218784229</v>
       </c>
       <c r="AC9" s="8"/>
@@ -37560,19 +38531,27 @@
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="6">
+        <f t="shared" si="0"/>
+        <v>30.613247745873664</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>18.701633047954221</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>7.4755152031770145</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="4"/>
+        <v>5.9701492537313436</v>
+      </c>
+      <c r="N10">
         <f t="shared" si="1"/>
-        <v>30.613247745873664</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="2"/>
-        <v>5.9701492537313436</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB10" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.9906103279732201</v>
       </c>
       <c r="AC10" s="6"/>
@@ -37594,19 +38573,27 @@
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="6">
+        <f t="shared" si="0"/>
+        <v>30.272627464973823</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>18.493548118352507</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>6.071150398181091</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="4"/>
+        <v>7.1428571428571397</v>
+      </c>
+      <c r="N11">
         <f t="shared" si="1"/>
-        <v>30.272627464973823</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="2"/>
-        <v>7.1428571428571397</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB11" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.7884205679625405</v>
       </c>
       <c r="AC11" s="8"/>
@@ -37628,19 +38615,27 @@
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="6">
+        <f t="shared" si="0"/>
+        <v>29.974584719186456</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>18.311473804951007</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>5.0605430202537258</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="4"/>
+        <v>8.6956521739130448</v>
+      </c>
+      <c r="N12">
         <f t="shared" si="1"/>
-        <v>29.974584719186456</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="2"/>
-        <v>8.6956521739130448</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB12" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.6094379124341003</v>
       </c>
       <c r="AC12" s="6"/>
@@ -37662,19 +38657,27 @@
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="6">
+        <f t="shared" si="0"/>
+        <v>29.804274578736528</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>18.207431340150144</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>4.560495718308788</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="4"/>
+        <v>9.3749999999999911</v>
+      </c>
+      <c r="N13">
         <f t="shared" si="1"/>
-        <v>29.804274578736528</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="2"/>
-        <v>9.3749999999999911</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.5129270120532565</v>
       </c>
       <c r="AC13" s="8"/>
@@ -37696,19 +38699,27 @@
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="6">
+        <f t="shared" si="0"/>
+        <v>29.676541973399093</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>18.129399491549506</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>4.2181619579076193</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999911</v>
+      </c>
+      <c r="N14">
         <f t="shared" si="1"/>
-        <v>29.676541973399093</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="2"/>
-        <v>9.9999999999999911</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.4398351280479205</v>
       </c>
       <c r="AC14" s="6"/>
@@ -37730,19 +38741,27 @@
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="6">
+        <f t="shared" si="0"/>
+        <v>29.591386903174129</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>18.077378259149075</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>4.0043378861908208</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="4"/>
+        <v>11.538461538461547</v>
+      </c>
+      <c r="N15">
         <f t="shared" si="1"/>
-        <v>29.591386903174129</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="2"/>
-        <v>11.538461538461547</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB15" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.3912819026309295</v>
       </c>
       <c r="AC15" s="8"/>
@@ -37764,27 +38783,32 @@
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="6">
+        <f t="shared" si="0"/>
+        <v>29.335921692499245</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>17.921314561947788</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>3.4257298553709021</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="4"/>
+        <v>11.428571428571425</v>
+      </c>
+      <c r="N16">
         <f t="shared" si="1"/>
-        <v>29.335921692499245</v>
-      </c>
-      <c r="J16" t="s">
-        <v>12</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="2"/>
-        <v>11.428571428571425</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB16" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.2527629684953681</v>
       </c>
       <c r="AC16" s="6"/>
     </row>
-    <row r="17" spans="1:29" ht="18" thickBot="1">
+    <row r="17" spans="1:29" ht="16.2" thickBot="1">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -37801,23 +38825,27 @@
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="6">
+        <f t="shared" si="0"/>
+        <v>29.16561155204932</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>17.81727209714693</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>3.0872233011073522</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="4"/>
+        <v>13.043478260869566</v>
+      </c>
+      <c r="N17">
         <f t="shared" si="1"/>
-        <v>29.16561155204932</v>
-      </c>
-      <c r="J17" s="9">
-        <f>1.602176634*10^(-19)</f>
-        <v>1.6021766340000001E-19</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="2"/>
-        <v>13.043478260869566</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB17" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.1474024528375417</v>
       </c>
       <c r="AC17" s="8"/>
@@ -37839,19 +38867,27 @@
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="6">
+        <f t="shared" si="0"/>
+        <v>28.910146341374436</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>17.661208399945643</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>2.6411340216299042</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="4"/>
+        <v>18.181818181818176</v>
+      </c>
+      <c r="N18">
         <f t="shared" si="1"/>
-        <v>28.910146341374436</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="2"/>
-        <v>18.181818181818176</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB18" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.9895411936137477</v>
       </c>
       <c r="AC18" s="6"/>
@@ -37873,27 +38909,32 @@
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="6">
+        <f t="shared" si="0"/>
+        <v>28.654681130699551</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>17.505144702744357</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>2.2595025484779701</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="N19">
         <f t="shared" si="1"/>
-        <v>28.654681130699551</v>
-      </c>
-      <c r="J19" t="s">
-        <v>13</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB19" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.8586616190375187</v>
       </c>
       <c r="AC19" s="8"/>
     </row>
-    <row r="20" spans="1:29" ht="17.399999999999999" thickBot="1">
+    <row r="20" spans="1:29" ht="16.2" thickBot="1">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -37910,28 +38951,32 @@
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="6">
+        <f t="shared" si="0"/>
+        <v>28.441793455137148</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>17.375091621743284</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>1.9839535440527403</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="4"/>
+        <v>20.689655172413808</v>
+      </c>
+      <c r="N20">
         <f t="shared" si="1"/>
-        <v>28.441793455137148</v>
-      </c>
-      <c r="J20" s="11">
-        <f>1.3806503*10^(-23)</f>
-        <v>1.3806503000000004E-23</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="2"/>
-        <v>20.689655172413808</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB20" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.74668794748797507</v>
       </c>
       <c r="AC20" s="6"/>
     </row>
-    <row r="21" spans="1:29" ht="18" thickBot="1">
+    <row r="21" spans="1:29" ht="16.2" thickBot="1">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -37948,25 +38993,32 @@
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="6">
+        <f t="shared" si="0"/>
+        <v>28.186328244462263</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>17.219027924541997</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>1.6972815641981989</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="4"/>
+        <v>24.137931034482754</v>
+      </c>
+      <c r="N21">
         <f t="shared" si="1"/>
-        <v>28.186328244462263</v>
-      </c>
-      <c r="J21" s="10"/>
-      <c r="M21">
-        <f t="shared" si="2"/>
-        <v>24.137931034482754</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB21" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.59883650108870401</v>
       </c>
       <c r="AC21" s="8"/>
     </row>
-    <row r="22" spans="1:29" ht="21" thickBot="1">
+    <row r="22" spans="1:29" ht="16.2" thickBot="1">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -37983,22 +39035,27 @@
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="6">
+        <f t="shared" si="0"/>
+        <v>27.888285498674897</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>17.036953611140493</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>1.4147510387134425</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="4"/>
+        <v>31.578947368421044</v>
+      </c>
+      <c r="N22">
         <f t="shared" si="1"/>
-        <v>27.888285498674897</v>
-      </c>
-      <c r="J22" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="2"/>
-        <v>31.578947368421044</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB22" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.42526773540434409</v>
       </c>
       <c r="AC22" s="6"/>
@@ -38020,22 +39077,27 @@
       </c>
       <c r="G23" s="13"/>
       <c r="H23" s="6">
+        <f t="shared" si="0"/>
+        <v>27.377355077325127</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>16.72482621673792</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>1.0354396946206759</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="4"/>
+        <v>38.709677419354847</v>
+      </c>
+      <c r="N23">
         <f t="shared" si="1"/>
-        <v>27.377355077325127</v>
-      </c>
-      <c r="J23" t="s">
-        <v>15</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="2"/>
-        <v>38.709677419354847</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB23" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.13976194237515863</v>
       </c>
       <c r="AC23" s="8"/>
@@ -38057,19 +39119,27 @@
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="6">
+        <f t="shared" si="0"/>
+        <v>26.866424655975358</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>16.412698822335347</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>0.75782616595978436</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="4"/>
+        <v>61.764705882352949</v>
+      </c>
+      <c r="N24">
         <f t="shared" si="1"/>
-        <v>26.866424655975358</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="2"/>
-        <v>61.764705882352949</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB24" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-0.1743533871447778</v>
       </c>
       <c r="AC24" s="6"/>
@@ -38091,19 +39161,27 @@
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="6">
+        <f t="shared" si="0"/>
+        <v>25.972296418613261</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>15.866475882130841</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>0.43888219673725937</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="4"/>
+        <v>104.34782608695653</v>
+      </c>
+      <c r="N25">
         <f t="shared" si="1"/>
-        <v>25.972296418613261</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="2"/>
-        <v>104.34782608695653</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB25" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-0.69314718055994529</v>
       </c>
       <c r="AC25" s="8"/>
@@ -38125,19 +39203,27 @@
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="6">
+        <f t="shared" si="0"/>
+        <v>24.950435575913726</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>15.242221093325695</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>0.23509181317633834</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="4"/>
+        <v>183.33333333333329</v>
+      </c>
+      <c r="N26">
         <f t="shared" si="1"/>
-        <v>24.950435575913726</v>
-      </c>
-      <c r="M26">
-        <f t="shared" si="2"/>
-        <v>183.33333333333329</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB26" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1.3093333199837622</v>
       </c>
       <c r="AC26" s="6"/>
@@ -38159,19 +39245,27 @@
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="6">
+        <f t="shared" si="0"/>
+        <v>24.013729803439151</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>14.669987536920978</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="3"/>
+        <v>0.13265375534992949</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="4"/>
+        <v>314.28571428571433</v>
+      </c>
+      <c r="N27">
         <f t="shared" si="1"/>
-        <v>24.013729803439151</v>
-      </c>
-      <c r="M27">
-        <f t="shared" si="2"/>
-        <v>314.28571428571433</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB27" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1.8971199848858813</v>
       </c>
       <c r="AC27" s="8"/>
@@ -38193,19 +39287,27 @@
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="6">
+        <f t="shared" si="0"/>
+        <v>23.068560057360695</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>14.092583339041649</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="3"/>
+        <v>7.4465643654885061E-2</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="4"/>
+        <v>620</v>
+      </c>
+      <c r="N28">
         <f t="shared" si="1"/>
-        <v>23.068560057360695</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="2"/>
-        <v>620</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB28" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2.5257286443082556</v>
       </c>
       <c r="AC28" s="6"/>
@@ -38227,19 +39329,27 @@
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="6">
+        <f t="shared" si="0"/>
+        <v>21.749140570685086</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>13.286549974631519</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="3"/>
+        <v>3.3258273274764182E-2</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="4"/>
+        <v>1650.0000000000002</v>
+      </c>
+      <c r="N29">
         <f t="shared" si="1"/>
-        <v>21.749140570685086</v>
-      </c>
-      <c r="M29">
-        <f t="shared" si="2"/>
-        <v>1650.0000000000002</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB29" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-3.5065578973199818</v>
       </c>
       <c r="AC29" s="8"/>
@@ -38261,19 +39371,27 @@
       </c>
       <c r="G30" s="12"/>
       <c r="H30" s="6">
+        <f t="shared" si="0"/>
+        <v>20.344597246159431</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>12.428514457678796</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="3"/>
+        <v>1.410128226239939E-2</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="4"/>
+        <v>2900</v>
+      </c>
+      <c r="N30">
         <f t="shared" si="1"/>
-        <v>20.344597246159431</v>
-      </c>
-      <c r="M30">
-        <f t="shared" si="2"/>
-        <v>2900</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB30" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-4.6051701859880909</v>
       </c>
       <c r="AC30" s="6"/>
@@ -38295,31 +39413,39 @@
       </c>
       <c r="G31" s="16"/>
       <c r="H31" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19.110301597333862</v>
       </c>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>11.674483245811256</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="3"/>
+        <v>6.6341464541896144E-3</v>
+      </c>
       <c r="AB31" s="5" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
       <c r="AC31" s="6"/>
     </row>
     <row r="32" spans="1:29" ht="16.2" thickBot="1">
       <c r="AB32" s="5" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
       <c r="AC32" s="8"/>
     </row>
     <row r="33" spans="2:29">
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
       <c r="AB33" s="5" t="e">
         <f>LN(#REF!)</f>
         <v>#REF!</v>
@@ -38327,12 +39453,12 @@
       <c r="AC33" s="6"/>
     </row>
     <row r="34" spans="2:29">
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
       <c r="AB34" s="5" t="e">
         <f>LN(#REF!)</f>
         <v>#REF!</v>
@@ -38341,186 +39467,207 @@
     </row>
     <row r="35" spans="2:29">
       <c r="AB35" s="5" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
       <c r="AC35" s="8"/>
     </row>
     <row r="36" spans="2:29">
       <c r="AB36" s="5" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
       <c r="AC36" s="6"/>
     </row>
     <row r="37" spans="2:29">
       <c r="AB37" s="5" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
       <c r="AC37" s="6"/>
     </row>
     <row r="38" spans="2:29">
       <c r="AB38" s="5" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
       <c r="AC38" s="8"/>
     </row>
     <row r="39" spans="2:29">
       <c r="AB39" s="5" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
       <c r="AC39" s="6"/>
     </row>
     <row r="40" spans="2:29">
       <c r="AB40" s="5" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
       <c r="AC40" s="6"/>
     </row>
     <row r="41" spans="2:29">
       <c r="AB41" s="5" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
       <c r="AC41" s="8"/>
     </row>
     <row r="42" spans="2:29">
       <c r="AB42" s="5" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
       <c r="AC42" s="6"/>
     </row>
     <row r="43" spans="2:29">
+      <c r="H43" t="s">
+        <v>12</v>
+      </c>
       <c r="AB43" s="5" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
       <c r="AC43" s="6"/>
     </row>
-    <row r="44" spans="2:29">
+    <row r="44" spans="2:29" ht="17.399999999999999">
+      <c r="H44" s="9">
+        <f>1.602176634*10^(-19)</f>
+        <v>1.6021766340000001E-19</v>
+      </c>
       <c r="AB44" s="5" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
       <c r="AC44" s="8"/>
     </row>
     <row r="45" spans="2:29">
       <c r="AB45" s="5" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
       <c r="AC45" s="6"/>
     </row>
     <row r="46" spans="2:29">
+      <c r="H46" t="s">
+        <v>13</v>
+      </c>
       <c r="AB46" s="5" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
       <c r="AC46" s="6"/>
     </row>
-    <row r="47" spans="2:29">
+    <row r="47" spans="2:29" ht="16.8">
+      <c r="H47" s="11">
+        <f>1.3806503*10^(-23)</f>
+        <v>1.3806503000000004E-23</v>
+      </c>
       <c r="AB47" s="5" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
       <c r="AC47" s="8"/>
     </row>
-    <row r="48" spans="2:29">
+    <row r="48" spans="2:29" ht="17.399999999999999">
+      <c r="H48" s="10"/>
       <c r="AB48" s="5" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
       <c r="AC48" s="6"/>
     </row>
-    <row r="49" spans="28:29">
+    <row r="49" spans="8:29" ht="20.399999999999999">
+      <c r="H49" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="AB49" s="5" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
       <c r="AC49" s="6"/>
     </row>
-    <row r="50" spans="28:29">
+    <row r="50" spans="8:29">
+      <c r="H50" t="s">
+        <v>15</v>
+      </c>
       <c r="AB50" s="5" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
       <c r="AC50" s="8"/>
     </row>
-    <row r="51" spans="28:29">
+    <row r="51" spans="8:29">
       <c r="AB51" s="5" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
       <c r="AC51" s="6"/>
     </row>
-    <row r="52" spans="28:29">
+    <row r="52" spans="8:29">
       <c r="AB52" s="5" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
       <c r="AC52" s="6"/>
     </row>
-    <row r="53" spans="28:29">
+    <row r="53" spans="8:29">
       <c r="AB53" s="5" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
       <c r="AC53" s="8"/>
     </row>
-    <row r="54" spans="28:29">
+    <row r="54" spans="8:29">
       <c r="AB54" s="5" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
       <c r="AC54" s="6"/>
     </row>
-    <row r="55" spans="28:29">
+    <row r="55" spans="8:29">
       <c r="AB55" s="5" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
       <c r="AC55" s="6"/>
     </row>
-    <row r="56" spans="28:29">
+    <row r="56" spans="8:29">
       <c r="AB56" s="5" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
       <c r="AC56" s="8"/>
     </row>
-    <row r="57" spans="28:29">
+    <row r="57" spans="8:29">
       <c r="AB57" s="5" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
       <c r="AC57" s="6"/>
     </row>
-    <row r="58" spans="28:29">
+    <row r="58" spans="8:29">
       <c r="AB58" s="5"/>
       <c r="AC58" s="6"/>
     </row>
-    <row r="59" spans="28:29">
+    <row r="59" spans="8:29">
       <c r="AB59" s="5"/>
       <c r="AC59" s="8"/>
     </row>
-    <row r="60" spans="28:29">
+    <row r="60" spans="8:29">
       <c r="AB60" s="5"/>
       <c r="AC60" s="6"/>
     </row>
-    <row r="61" spans="28:29">
+    <row r="61" spans="8:29">
       <c r="AB61" s="5"/>
       <c r="AC61" s="6"/>
     </row>
-    <row r="62" spans="28:29">
+    <row r="62" spans="8:29">
       <c r="AB62" s="5"/>
       <c r="AC62" s="8"/>
     </row>
-    <row r="63" spans="28:29">
+    <row r="63" spans="8:29">
       <c r="AB63" s="5"/>
       <c r="AC63" s="6"/>
     </row>
@@ -38540,7 +39687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C9F8CB-8527-E840-9CEF-74962860B9C8}">
   <dimension ref="A1:AC82"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="L39" zoomScale="86" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -40189,14 +41336,14 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I57" s="17" t="s">
+      <c r="I57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J57" s="17"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
       <c r="AB57" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
@@ -40217,12 +41364,12 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18"/>
-      <c r="L58" s="18"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="18"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="20"/>
       <c r="AB58" s="5"/>
       <c r="AC58" s="6"/>
     </row>
@@ -41398,22 +42545,22 @@
     </row>
     <row r="56" spans="9:14" ht="16.2" thickBot="1"/>
     <row r="57" spans="9:14">
-      <c r="I57" s="17" t="s">
+      <c r="I57" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J57" s="17"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
     </row>
     <row r="58" spans="9:14">
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18"/>
-      <c r="L58" s="18"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="18"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -41428,20 +42575,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="21343963-c43f-42a4-b0bc-b203e64410f4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="21343963-c43f-42a4-b0bc-b203e64410f4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -41627,25 +42774,25 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0E5A08E-764A-49CD-B663-0CFE39F0EF50}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB974918-D618-4A8E-9BED-86443E84A1C9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="21343963-c43f-42a4-b0bc-b203e64410f4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB974918-D618-4A8E-9BED-86443E84A1C9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0E5A08E-764A-49CD-B663-0CFE39F0EF50}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="21343963-c43f-42a4-b0bc-b203e64410f4"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/relazioni/esperienza_2/codici/Esperienza_2.xlsx
+++ b/relazioni/esperienza_2/codici/Esperienza_2.xlsx
@@ -8,19 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\UNIVERSITA'\II ANNO\LABORATORIO-DI-ELETTROMAGNETISMO\relazioni\esperienza_2\codici\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB80DC03-0591-4140-8236-9F5BF8FEE058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2467A9C4-FFE4-4680-ABA7-5A2DDA13EA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{9832D23C-5E2D-EB46-85A1-EE46353BB05C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{9832D23C-5E2D-EB46-85A1-EE46353BB05C}"/>
   </bookViews>
   <sheets>
     <sheet name="Temp_1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
-    <sheet name="Temp_2" sheetId="2" r:id="rId3"/>
-    <sheet name="Temp_3" sheetId="3" r:id="rId4"/>
-    <sheet name="Temp_4" sheetId="4" r:id="rId5"/>
-    <sheet name="Temp_5" sheetId="5" r:id="rId6"/>
+    <sheet name="Temp_2" sheetId="2" r:id="rId2"/>
+    <sheet name="Temp_3" sheetId="3" r:id="rId3"/>
+    <sheet name="Temp_4" sheetId="4" r:id="rId4"/>
+    <sheet name="Temp_5" sheetId="5" r:id="rId5"/>
+    <sheet name="Temp_6" sheetId="7" r:id="rId6"/>
     <sheet name="Pol_inv" sheetId="6" r:id="rId7"/>
-    <sheet name="Temp_6" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="21">
   <si>
     <t>n.</t>
   </si>
@@ -125,7 +124,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -186,14 +185,6 @@
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -317,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -335,7 +326,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5207,11 +5197,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Pol_inv!$F$1</c:f>
+              <c:f>Temp_6!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Corr(μA)</c:v>
+                  <c:v>Corr(mA)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5256,102 +5246,132 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Pol_inv!$D$2:$D$80</c:f>
+              <c:f>Temp_6!$D$2:$D$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="79"/>
                 <c:pt idx="0">
-                  <c:v>-1</c:v>
+                  <c:v>1063</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-32</c:v>
+                  <c:v>1060</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-122</c:v>
+                  <c:v>1057</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-198</c:v>
+                  <c:v>1055</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-885</c:v>
+                  <c:v>1053</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1216</c:v>
+                  <c:v>1052</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1887</c:v>
+                  <c:v>1049</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2178</c:v>
+                  <c:v>1047</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2330</c:v>
+                  <c:v>1043</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2617</c:v>
+                  <c:v>1041</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2763</c:v>
+                  <c:v>1039</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2844</c:v>
+                  <c:v>1036</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-3226</c:v>
+                  <c:v>1033</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-3833</c:v>
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1018</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1013</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>994</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>976</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>962</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Pol_inv!$F$2:$F$80</c:f>
+              <c:f>Temp_6!$F$2:$F$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="79"/>
                 <c:pt idx="0">
-                  <c:v>-0.2</c:v>
+                  <c:v>14.65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.2</c:v>
+                  <c:v>12.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.2</c:v>
+                  <c:v>10.16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.2</c:v>
+                  <c:v>8.7100000000000009</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.3</c:v>
+                  <c:v>7.36</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.4</c:v>
+                  <c:v>6.68</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.8</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1</c:v>
+                  <c:v>4.59</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.1000000000000001</c:v>
+                  <c:v>3.52</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.2</c:v>
+                  <c:v>2.89</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.4</c:v>
+                  <c:v>2.44</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.5</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.7</c:v>
+                  <c:v>1.54</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-2.1</c:v>
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5359,7 +5379,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B509-204D-B2E2-90A6DA7F1C86}"/>
+              <c16:uniqueId val="{00000001-611C-B646-AD58-A870F66B1EA4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5764,7 +5784,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Pol_inv!$A$2:$A$36</c:f>
+              <c:f>Temp_6!$A$2:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -5837,104 +5857,68 @@
                 <c:pt idx="22">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Pol_inv!$M$2:$M$31</c:f>
+              <c:f>Temp_6!$M$2:$M$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.2499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.4354066985645935</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.379310344827587</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6870.0000000000018</c:v>
+                  <c:v>1.481481481481481</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3309.9999999999991</c:v>
+                  <c:v>1.4705882352941164</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1677.5</c:v>
+                  <c:v>2.542372881355933</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1455.0000000000002</c:v>
+                  <c:v>2.1978021978021975</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1519.9999999999986</c:v>
+                  <c:v>3.7383177570093462</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2870.0000000000036</c:v>
+                  <c:v>3.1746031746031753</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>730.00000000000011</c:v>
+                  <c:v>4.4444444444444429</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>809.99999999999932</c:v>
+                  <c:v>6.9767441860465089</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1910.0000000000005</c:v>
+                  <c:v>6.3829787234042588</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1517.4999999999995</c:v>
+                  <c:v>11.39240506329114</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1825.2380952380952</c:v>
+                  <c:v>19.35483870967742</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>29.411764705882355</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>86.363636363636346</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -5946,30 +5930,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5978,7 +5938,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D140-B247-89D1-38018B5AFE2F}"/>
+              <c16:uniqueId val="{00000000-D42C-C74E-9A4C-362BDB042418}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6224,7 +6184,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Pol_inv!$AB$1</c:f>
+              <c:f>Temp_6!$AB$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6259,66 +6219,66 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Pol_inv!$H$2:$H$31</c:f>
+              <c:f>Temp_6!$H$2:$H$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>-4.2624452506544099E-2</c:v>
+                  <c:v>159.78745010603299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.3639824802094112</c:v>
+                  <c:v>159.33649775389932</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-5.2001832057983792</c:v>
+                  <c:v>158.88554540176563</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-8.439641596295731</c:v>
+                  <c:v>158.58491050034317</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-37.722640468291523</c:v>
+                  <c:v>158.28427559892074</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-51.831334247957621</c:v>
+                  <c:v>158.1339581482095</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-80.432341879848707</c:v>
+                  <c:v>157.68300579607583</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-92.836057559253035</c:v>
+                  <c:v>157.38237089465335</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-99.314974340247744</c:v>
+                  <c:v>156.78110109180847</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-111.5481922096259</c:v>
+                  <c:v>156.48046619038601</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-117.77136227558134</c:v>
+                  <c:v>156.17983128896356</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-121.22394292861142</c:v>
+                  <c:v>155.72887893682989</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-137.50648378611126</c:v>
+                  <c:v>155.27792658469619</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-163.37952645758349</c:v>
+                  <c:v>153.92506952829515</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>153.02316482402782</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>152.27157757047172</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>149.41554600695841</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>146.70983189415634</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>144.60538758419918</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
@@ -6330,27 +6290,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6358,20 +6297,17 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Pol_inv!$AB$31</c:f>
+              <c:f>Temp_6!$AB$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-68CD-B14E-A408-A63B6C9DBE6B}"/>
+              <c16:uniqueId val="{00000000-A32D-F641-A9F6-6B25EFA05DE3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7306,11 +7242,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Temp_6!$F$1</c:f>
+              <c:f>Pol_inv!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Corr(mA)</c:v>
+                  <c:v>Corr(μA)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7355,132 +7291,102 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Temp_6!$D$2:$D$80</c:f>
+              <c:f>Pol_inv!$D$2:$D$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="79"/>
                 <c:pt idx="0">
-                  <c:v>1063</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1060</c:v>
+                  <c:v>-32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1057</c:v>
+                  <c:v>-122</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1055</c:v>
+                  <c:v>-198</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1053</c:v>
+                  <c:v>-885</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1052</c:v>
+                  <c:v>-1216</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1049</c:v>
+                  <c:v>-1887</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1047</c:v>
+                  <c:v>-2178</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1043</c:v>
+                  <c:v>-2330</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1041</c:v>
+                  <c:v>-2617</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1039</c:v>
+                  <c:v>-2763</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1036</c:v>
+                  <c:v>-2844</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1033</c:v>
+                  <c:v>-3226</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1018</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1013</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>994</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>976</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>962</c:v>
+                  <c:v>-3833</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Temp_6!$F$2:$F$80</c:f>
+              <c:f>Pol_inv!$F$2:$F$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="79"/>
                 <c:pt idx="0">
-                  <c:v>14.65</c:v>
+                  <c:v>-0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.25</c:v>
+                  <c:v>-0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.16</c:v>
+                  <c:v>-0.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.7100000000000009</c:v>
+                  <c:v>-0.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.36</c:v>
+                  <c:v>-0.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.68</c:v>
+                  <c:v>-0.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5</c:v>
+                  <c:v>-0.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.59</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.52</c:v>
+                  <c:v>-1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.89</c:v>
+                  <c:v>-1.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.44</c:v>
+                  <c:v>-1.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.0099999999999998</c:v>
+                  <c:v>-1.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.54</c:v>
+                  <c:v>-1.7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.44</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.27</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>-2.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7488,7 +7394,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-611C-B646-AD58-A870F66B1EA4}"/>
+              <c16:uniqueId val="{00000001-B509-204D-B2E2-90A6DA7F1C86}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7893,7 +7799,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Temp_6!$A$2:$A$36</c:f>
+              <c:f>Pol_inv!$A$2:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -7966,68 +7872,104 @@
                 <c:pt idx="22">
                   <c:v>22</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Temp_6!$M$2:$M$31</c:f>
+              <c:f>Pol_inv!$M$2:$M$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1.2499999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4354066985645935</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.379310344827587</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.481481481481481</c:v>
+                  <c:v>6870.0000000000018</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4705882352941164</c:v>
+                  <c:v>3309.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.542372881355933</c:v>
+                  <c:v>1677.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1978021978021975</c:v>
+                  <c:v>1455.0000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.7383177570093462</c:v>
+                  <c:v>1519.9999999999986</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.1746031746031753</c:v>
+                  <c:v>2870.0000000000036</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.4444444444444429</c:v>
+                  <c:v>730.00000000000011</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.9767441860465089</c:v>
+                  <c:v>809.99999999999932</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.3829787234042588</c:v>
+                  <c:v>1910.0000000000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.39240506329114</c:v>
+                  <c:v>1517.4999999999995</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19.35483870967742</c:v>
+                  <c:v>1825.2380952380952</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>29.411764705882355</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>86.363636363636346</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>450</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1400</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -8039,6 +7981,30 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -8047,7 +8013,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D42C-C74E-9A4C-362BDB042418}"/>
+              <c16:uniqueId val="{00000000-D140-B247-89D1-38018B5AFE2F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8293,7 +8259,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Temp_6!$AB$1</c:f>
+              <c:f>Pol_inv!$AB$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8328,51 +8294,51 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Temp_6!$H$2:$H$31</c:f>
+              <c:f>Pol_inv!$H$2:$H$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-4.2624452506544099E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-1.3639824802094112</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-5.2001832057983792</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-8.439641596295731</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-37.722640468291523</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-51.831334247957621</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>-80.432341879848707</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>-92.836057559253035</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>-99.314974340247744</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>-111.5481922096259</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>-117.77136227558134</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>-121.22394292861142</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>-137.50648378611126</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>-163.37952645758349</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -8399,6 +8365,27 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -8406,17 +8393,20 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Temp_6!$AB$31</c:f>
+              <c:f>Pol_inv!$AB$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A32D-F641-A9F6-6B25EFA05DE3}"/>
+              <c16:uniqueId val="{00000000-68CD-B14E-A408-A63B6C9DBE6B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -29629,6 +29619,966 @@
             <xdr:cNvPr id="2" name="CasellaDiTesto 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAFBDD42-992F-654F-9231-CD7DC6A8E6E9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7009671" y="364969"/>
+              <a:ext cx="3155950" cy="778931"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐼</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="it-IT" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>tot</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="it-IT" sz="2400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐼</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>0</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="it-IT" sz="2400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="it-IT" sz="2400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑒</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="it-IT" sz="2400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:r>
+                                  <m:rPr>
+                                    <m:sty m:val="p"/>
+                                  </m:rPr>
+                                  <a:rPr lang="it-IT" sz="2400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>qV</m:t>
+                                </m:r>
+                              </m:num>
+                              <m:den>
+                                <m:r>
+                                  <a:rPr lang="it-IT" sz="2400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑘𝑇</m:t>
+                                </m:r>
+                                <m:r>
+                                  <m:rPr>
+                                    <m:sty m:val="p"/>
+                                  </m:rPr>
+                                  <a:rPr lang="el-GR" sz="2400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>η</m:t>
+                                </m:r>
+                              </m:den>
+                            </m:f>
+                          </m:sup>
+                        </m:sSup>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−1</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="it-IT" sz="2400" b="0" i="1">
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="it-IT" sz="1100" b="0" i="1">
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="CasellaDiTesto 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAFBDD42-992F-654F-9231-CD7DC6A8E6E9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7009671" y="364969"/>
+              <a:ext cx="3155950" cy="778931"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="it-IT" sz="2400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐼_tot=𝐼_0 (𝑒^(qV/𝑘𝑇</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" sz="2400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>η</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="it-IT" sz="2400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)−1)</a:t>
+              </a:r>
+              <a:endParaRPr lang="it-IT" sz="2400" b="0" i="1">
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="it-IT" sz="1100" b="0" i="1">
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>118152</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>134391</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3270249" cy="1091517"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="CasellaDiTesto 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84AFAA1A-7886-A644-9D1F-98777280C238}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6925352" y="1213891"/>
+              <a:ext cx="3270249" cy="1091517"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="it-IT" sz="2400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑙𝑛</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐼</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡𝑜𝑡</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="it-IT" sz="2400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="it-IT" sz="2400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑙𝑛</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐼</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>0</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="it-IT" sz="2400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑞𝑉</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑘𝑇</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜂</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="it-IT" sz="2400" i="1">
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="it-IT" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="CasellaDiTesto 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84AFAA1A-7886-A644-9D1F-98777280C238}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6925352" y="1213891"/>
+              <a:ext cx="3270249" cy="1091517"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="it-IT" sz="2400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑙𝑛𝐼_𝑡𝑜𝑡=𝑙𝑛𝐼_0+𝑞𝑉/𝑘𝑇𝜂</a:t>
+              </a:r>
+              <a:endParaRPr lang="it-IT" sz="2400" i="1">
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="it-IT" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>251518</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>135326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>721194</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>124918</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CasellaDiTesto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A2953B7-9B80-BB42-A753-7FD749B2198E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7058718" y="12352726"/>
+          <a:ext cx="5943376" cy="395992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1400"/>
+            <a:t>N.B:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1400" baseline="0"/>
+            <a:t> Ricordarsi di fare misure anche a polarizzazione inversa per misurare I_0 </a:t>
+          </a:r>
+          <a:endParaRPr lang="it-IT" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>273882</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>164789</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="933450" cy="861261"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="CasellaDiTesto 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4E8AFA9-3A5E-4649-BF86-46BE6386577E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7931982" y="2107889"/>
+              <a:ext cx="933450" cy="861261"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="it-IT" sz="2400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑅</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="it-IT" sz="2400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="it-IT" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑉</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="it-IT" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐼</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="it-IT" sz="2400" b="0"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="it-IT" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="CasellaDiTesto 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4E8AFA9-3A5E-4649-BF86-46BE6386577E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7931982" y="2107889"/>
+              <a:ext cx="933450" cy="861261"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="it-IT" sz="2400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑅=𝑉/𝐼</a:t>
+              </a:r>
+              <a:endParaRPr lang="it-IT" sz="2400" b="0"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="it-IT" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>105508</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>35169</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Grafico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49A620C2-52CF-A84E-AEB0-F8A34C0C3C9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>71828</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>153441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>458033</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>156146</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Grafico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE0166C9-2A3B-9B47-9461-BDC3EAE3A3AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>40598</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>101390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>405982</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>10408</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Grafico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34AA7297-E474-7445-AA4A-98BBA4B740C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>176487</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>165340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>314922</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>49326</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="CasellaDiTesto 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72723EBD-6D05-9E48-AD40-3F8E7EFCEDFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6983687" y="12992340"/>
+          <a:ext cx="5612135" cy="696786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1400"/>
+            <a:t>dopo aver preso la prima temperatura e capito cosa non va,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1400" baseline="0"/>
+            <a:t> duplicare questo foglio, cambiare nome tabelle ed eliminare dati </a:t>
+          </a:r>
+          <a:endParaRPr lang="it-IT" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>202471</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>149069</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3155950" cy="778931"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="CasellaDiTesto 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{225C8382-F64C-034A-BF80-AE4DC2EA4E4D}"/>
                 </a:ext>
               </a:extLst>
@@ -30572,966 +31522,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>202471</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>149069</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3155950" cy="778931"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="CasellaDiTesto 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAFBDD42-992F-654F-9231-CD7DC6A8E6E9}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7009671" y="364969"/>
-              <a:ext cx="3155950" cy="778931"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="it-IT" sz="2400" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="it-IT" sz="2400" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝐼</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <m:rPr>
-                            <m:sty m:val="p"/>
-                          </m:rPr>
-                          <a:rPr lang="it-IT" sz="2400" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>tot</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                    <m:r>
-                      <a:rPr lang="it-IT" sz="2400" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>=</m:t>
-                    </m:r>
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="it-IT" sz="2400" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="it-IT" sz="2400" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝐼</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="it-IT" sz="2400" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>0</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                    <m:d>
-                      <m:dPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="it-IT" sz="2400" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:dPr>
-                      <m:e>
-                        <m:sSup>
-                          <m:sSupPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="it-IT" sz="2400" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSupPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="it-IT" sz="2400" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>𝑒</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sup>
-                            <m:f>
-                              <m:fPr>
-                                <m:ctrlPr>
-                                  <a:rPr lang="it-IT" sz="2400" b="0" i="1">
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  </a:rPr>
-                                </m:ctrlPr>
-                              </m:fPr>
-                              <m:num>
-                                <m:r>
-                                  <m:rPr>
-                                    <m:sty m:val="p"/>
-                                  </m:rPr>
-                                  <a:rPr lang="it-IT" sz="2400" b="0" i="1">
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  </a:rPr>
-                                  <m:t>qV</m:t>
-                                </m:r>
-                              </m:num>
-                              <m:den>
-                                <m:r>
-                                  <a:rPr lang="it-IT" sz="2400" b="0" i="1">
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  </a:rPr>
-                                  <m:t>𝑘𝑇</m:t>
-                                </m:r>
-                                <m:r>
-                                  <m:rPr>
-                                    <m:sty m:val="p"/>
-                                  </m:rPr>
-                                  <a:rPr lang="el-GR" sz="2400" b="0" i="1">
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  </a:rPr>
-                                  <m:t>η</m:t>
-                                </m:r>
-                              </m:den>
-                            </m:f>
-                          </m:sup>
-                        </m:sSup>
-                        <m:r>
-                          <a:rPr lang="it-IT" sz="2400" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>−1</m:t>
-                        </m:r>
-                      </m:e>
-                    </m:d>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="it-IT" sz="2400" b="0" i="1">
-                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="it-IT" sz="1100" b="0" i="1">
-                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="CasellaDiTesto 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAFBDD42-992F-654F-9231-CD7DC6A8E6E9}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7009671" y="364969"/>
-              <a:ext cx="3155950" cy="778931"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a:r>
-                <a:rPr lang="it-IT" sz="2400" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝐼_tot=𝐼_0 (𝑒^(qV/𝑘𝑇</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="el-GR" sz="2400" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>η</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="it-IT" sz="2400" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>)−1)</a:t>
-              </a:r>
-              <a:endParaRPr lang="it-IT" sz="2400" b="0" i="1">
-                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="it-IT" sz="1100" b="0" i="1">
-                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>118152</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>134391</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3270249" cy="1091517"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="CasellaDiTesto 2">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84AFAA1A-7886-A644-9D1F-98777280C238}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6925352" y="1213891"/>
-              <a:ext cx="3270249" cy="1091517"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:r>
-                      <a:rPr lang="it-IT" sz="2400" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝑙𝑛</m:t>
-                    </m:r>
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="it-IT" sz="2400" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="it-IT" sz="2400" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝐼</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="it-IT" sz="2400" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑡𝑜𝑡</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                    <m:r>
-                      <a:rPr lang="it-IT" sz="2400" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>=</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="it-IT" sz="2400" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝑙𝑛</m:t>
-                    </m:r>
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="it-IT" sz="2400" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="it-IT" sz="2400" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝐼</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="it-IT" sz="2400" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>0</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                    <m:r>
-                      <a:rPr lang="it-IT" sz="2400" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>+</m:t>
-                    </m:r>
-                    <m:f>
-                      <m:fPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="it-IT" sz="2400" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:fPr>
-                      <m:num>
-                        <m:r>
-                          <a:rPr lang="it-IT" sz="2400" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑞𝑉</m:t>
-                        </m:r>
-                      </m:num>
-                      <m:den>
-                        <m:r>
-                          <a:rPr lang="it-IT" sz="2400" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑘𝑇</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="it-IT" sz="2400" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝜂</m:t>
-                        </m:r>
-                      </m:den>
-                    </m:f>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="it-IT" sz="2400" i="1">
-                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:endParaRPr/>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="it-IT" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="CasellaDiTesto 2">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84AFAA1A-7886-A644-9D1F-98777280C238}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6925352" y="1213891"/>
-              <a:ext cx="3270249" cy="1091517"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a:r>
-                <a:rPr lang="it-IT" sz="2400" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑙𝑛𝐼_𝑡𝑜𝑡=𝑙𝑛𝐼_0+𝑞𝑉/𝑘𝑇𝜂</a:t>
-              </a:r>
-              <a:endParaRPr lang="it-IT" sz="2400" i="1">
-                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:endParaRPr/>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="it-IT" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>251518</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>135326</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>721194</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>124918</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CasellaDiTesto 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A2953B7-9B80-BB42-A753-7FD749B2198E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7058718" y="12352726"/>
-          <a:ext cx="5943376" cy="395992"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="it-IT" sz="1400"/>
-            <a:t>N.B:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="it-IT" sz="1400" baseline="0"/>
-            <a:t> Ricordarsi di fare misure anche a polarizzazione inversa per misurare I_0 </a:t>
-          </a:r>
-          <a:endParaRPr lang="it-IT" sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>273882</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>164789</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="933450" cy="861261"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="CasellaDiTesto 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4E8AFA9-3A5E-4649-BF86-46BE6386577E}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7931982" y="2107889"/>
-              <a:ext cx="933450" cy="861261"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:r>
-                      <a:rPr lang="it-IT" sz="2400" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝑅</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="it-IT" sz="2400" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>=</m:t>
-                    </m:r>
-                    <m:f>
-                      <m:fPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="it-IT" sz="2400" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:fPr>
-                      <m:num>
-                        <m:r>
-                          <a:rPr lang="it-IT" sz="2400" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑉</m:t>
-                        </m:r>
-                      </m:num>
-                      <m:den>
-                        <m:r>
-                          <a:rPr lang="it-IT" sz="2400" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝐼</m:t>
-                        </m:r>
-                      </m:den>
-                    </m:f>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="it-IT" sz="2400" b="0"/>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="it-IT" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="CasellaDiTesto 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4E8AFA9-3A5E-4649-BF86-46BE6386577E}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7931982" y="2107889"/>
-              <a:ext cx="933450" cy="861261"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a:r>
-                <a:rPr lang="it-IT" sz="2400" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑅=𝑉/𝐼</a:t>
-              </a:r>
-              <a:endParaRPr lang="it-IT" sz="2400" b="0"/>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="it-IT" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>105508</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>35169</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Grafico 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49A620C2-52CF-A84E-AEB0-F8A34C0C3C9B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>71828</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>153441</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>458033</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>156146</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Grafico 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE0166C9-2A3B-9B47-9461-BDC3EAE3A3AE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>40598</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>101390</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>405982</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>10408</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Grafico 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34AA7297-E474-7445-AA4A-98BBA4B740C7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>176487</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>165340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>314922</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>49326</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="CasellaDiTesto 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72723EBD-6D05-9E48-AD40-3F8E7EFCEDFE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6983687" y="12992340"/>
-          <a:ext cx="5612135" cy="696786"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="it-IT" sz="1400"/>
-            <a:t>dopo aver preso la prima temperatura e capito cosa non va,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="it-IT" sz="1400" baseline="0"/>
-            <a:t> duplicare questo foglio, cambiare nome tabelle ed eliminare dati </a:t>
-          </a:r>
-          <a:endParaRPr lang="it-IT" sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1D24399E-9836-7741-BBCC-767E9D9754F5}" name="Tabella2" displayName="Tabella2" ref="M1:N57" totalsRowShown="0">
   <autoFilter ref="M1:N57" xr:uid="{1D24399E-9836-7741-BBCC-767E9D9754F5}"/>
@@ -31608,13 +31598,13 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{03517C75-9DF7-D746-90C6-9C656B52FF3B}" name="Tabella224567" displayName="Tabella224567" ref="M1:N38" totalsRowShown="0">
-  <autoFilter ref="M1:N38" xr:uid="{1D24399E-9836-7741-BBCC-767E9D9754F5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F91291F7-6839-984A-8494-FF9B698FFA17}" name="Tabella2248" displayName="Tabella2248" ref="M1:N23" totalsRowShown="0">
+  <autoFilter ref="M1:N23" xr:uid="{1D24399E-9836-7741-BBCC-767E9D9754F5}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{55B969CD-0C09-F64C-8FA1-7C0FEB3EB204}" name="R_din(Ω)" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{B862E566-0423-3648-A8AF-EEA94094A685}" name="R_din(Ω)" dataDxfId="1">
       <calculatedColumnFormula>(D3-D2)/(F3-F2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{FBAE4F12-D677-6644-BF15-CE3303813CC7}" name="ΔR_din(Ω)" dataDxfId="2">
+    <tableColumn id="2" xr3:uid="{58D212AC-226A-3446-8DA0-C95B192DBAE3}" name="ΔR_din(Ω)" dataDxfId="0">
       <calculatedColumnFormula>M2*(2*E3/(D3-D2)+2*G3/(F3-F2))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -31623,13 +31613,13 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F91291F7-6839-984A-8494-FF9B698FFA17}" name="Tabella2248" displayName="Tabella2248" ref="M1:N23" totalsRowShown="0">
-  <autoFilter ref="M1:N23" xr:uid="{1D24399E-9836-7741-BBCC-767E9D9754F5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{03517C75-9DF7-D746-90C6-9C656B52FF3B}" name="Tabella224567" displayName="Tabella224567" ref="M1:N38" totalsRowShown="0">
+  <autoFilter ref="M1:N38" xr:uid="{1D24399E-9836-7741-BBCC-767E9D9754F5}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B862E566-0423-3648-A8AF-EEA94094A685}" name="R_din(Ω)" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{55B969CD-0C09-F64C-8FA1-7C0FEB3EB204}" name="R_din(Ω)" dataDxfId="3">
       <calculatedColumnFormula>(D3-D2)/(F3-F2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{58D212AC-226A-3446-8DA0-C95B192DBAE3}" name="ΔR_din(Ω)" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{FBAE4F12-D677-6644-BF15-CE3303813CC7}" name="ΔR_din(Ω)" dataDxfId="2">
       <calculatedColumnFormula>M2*(2*E3/(D3-D2)+2*G3/(F3-F2))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -31956,8 +31946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B86F6C1-2CF0-4541-BBC4-14B6AD42230F}">
   <dimension ref="A1:AC63"/>
   <sheetViews>
-    <sheetView topLeftCell="F45" zoomScale="64" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1:AB1048576"/>
+    <sheetView zoomScale="64" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -34301,24 +34291,24 @@
       <c r="AC59" s="8"/>
     </row>
     <row r="60" spans="1:29">
-      <c r="B60" s="19" t="s">
+      <c r="B60" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
       <c r="AB60" s="5"/>
       <c r="AC60" s="6"/>
     </row>
     <row r="61" spans="1:29">
-      <c r="B61" s="20"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
       <c r="AB61" s="5"/>
       <c r="AC61" s="6"/>
     </row>
@@ -34344,480 +34334,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E1A82FF-E1AA-4776-B209-3745AF2BEED6}">
-  <dimension ref="A1:B57"/>
-  <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6"/>
-  <cols>
-    <col min="2" max="2" width="10.19921875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>22.252837767011961</v>
-      </c>
-      <c r="B2">
-        <v>2.6686161318568029</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>22.224726802173947</v>
-      </c>
-      <c r="B3">
-        <v>2.6560549059838299</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>22.189946322045351</v>
-      </c>
-      <c r="B4">
-        <v>2.6440448711262978</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>22.161808074218335</v>
-      </c>
-      <c r="B5">
-        <v>2.6239436918052106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>22.161808074218335</v>
-      </c>
-      <c r="B6">
-        <v>2.6034301519721073</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>22.092226259228635</v>
-      </c>
-      <c r="B7">
-        <v>2.5741377835159431</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>22.098851608234245</v>
-      </c>
-      <c r="B8">
-        <v>2.5595501927837661</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>22.070669151254851</v>
-      </c>
-      <c r="B9">
-        <v>2.5431755579119759</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>22.03585737025918</v>
-      </c>
-      <c r="B10">
-        <v>2.5176964726109912</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>22.001045589263509</v>
-      </c>
-      <c r="B11">
-        <v>2.4948569806411682</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>21.972825326289826</v>
-      </c>
-      <c r="B12">
-        <v>2.4798941079644559</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>21.972825326289826</v>
-      </c>
-      <c r="B13">
-        <v>2.4680995314716192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>21.938003099148318</v>
-      </c>
-      <c r="B14">
-        <v>2.448415541205585</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>21.903180872006814</v>
-      </c>
-      <c r="B15">
-        <v>2.4274540750399152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>21.874922762723592</v>
-      </c>
-      <c r="B16">
-        <v>2.4069451083182885</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>21.840090083165112</v>
-      </c>
-      <c r="B17">
-        <v>2.3841650799864684</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>21.805257403606635</v>
-      </c>
-      <c r="B18">
-        <v>2.3683728335320486</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>21.776961407646436</v>
-      </c>
-      <c r="B19">
-        <v>2.349468678892896</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>21.776961407646436</v>
-      </c>
-      <c r="B20">
-        <v>2.33214389523559</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>21.742118269394201</v>
-      </c>
-      <c r="B21">
-        <v>2.3204250111223765</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>21.713794811313498</v>
-      </c>
-      <c r="B22">
-        <v>2.2975725511705014</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>21.720318408973505</v>
-      </c>
-      <c r="B23">
-        <v>2.2874714551839976</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>21.726845927653883</v>
-      </c>
-      <c r="B24">
-        <v>2.2772672850097559</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>21.698492334982486</v>
-      </c>
-      <c r="B25">
-        <v>2.2544447176661109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>21.628722263165823</v>
-      </c>
-      <c r="B26">
-        <v>2.2332350148592526</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>21.600330637940775</v>
-      </c>
-      <c r="B27">
-        <v>2.2082744135228043</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>21.565435111869785</v>
-      </c>
-      <c r="B28">
-        <v>2.1826747963214879</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>21.530539585798799</v>
-      </c>
-      <c r="B29">
-        <v>2.1610215286722587</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>21.502109887389032</v>
-      </c>
-      <c r="B30">
-        <v>2.145931282948669</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>21.480126184703018</v>
-      </c>
-      <c r="B31">
-        <v>2.1053529234643369</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>21.451655630506309</v>
-      </c>
-      <c r="B32">
-        <v>2.0831845279586703</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>21.381780530732673</v>
-      </c>
-      <c r="B33">
-        <v>2.0515563381903004</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>21.346842980845857</v>
-      </c>
-      <c r="B34">
-        <v>2.0162354657760435</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>21.27696788107222</v>
-      </c>
-      <c r="B35">
-        <v>1.969905654611529</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <v>21.178531426331627</v>
-      </c>
-      <c r="B36">
-        <v>1.9154509415706047</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>21.038739139689181</v>
-      </c>
-      <c r="B37">
-        <v>1.8547342683894434</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>20.933894924707335</v>
-      </c>
-      <c r="B38">
-        <v>1.7900914121273581</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <v>20.870284064947306</v>
-      </c>
-      <c r="B39">
-        <v>1.7298840655099674</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
-        <v>20.730449665852181</v>
-      </c>
-      <c r="B40">
-        <v>1.6601310267496185</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
-        <v>20.63178919691099</v>
-      </c>
-      <c r="B41">
-        <v>1.6114359150967734</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
-        <v>20.52688179421483</v>
-      </c>
-      <c r="B42">
-        <v>1.536867219599265</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
-        <v>20.387005257286624</v>
-      </c>
-      <c r="B43">
-        <v>1.4655675420143985</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
-        <v>20.25323184883478</v>
-      </c>
-      <c r="B44">
-        <v>1.3737155789130306</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45">
-        <v>20.078333473628955</v>
-      </c>
-      <c r="B45">
-        <v>1.2781522025001875</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46">
-        <v>19.868455423381963</v>
-      </c>
-      <c r="B46">
-        <v>1.1537315878891892</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47">
-        <v>19.699495102464745</v>
-      </c>
-      <c r="B47">
-        <v>1.0681530811834012</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48">
-        <v>19.594524435844153</v>
-      </c>
-      <c r="B48">
-        <v>1.0188473201992472</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49">
-        <v>19.36126860396249</v>
-      </c>
-      <c r="B49">
-        <v>0.88376754016859504</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50">
-        <v>18.946848928457783</v>
-      </c>
-      <c r="B50">
-        <v>0.636576829071551</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51">
-        <v>18.345939870662466</v>
-      </c>
-      <c r="B51">
-        <v>0.30010459245033816</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52">
-        <v>17.966235675228916</v>
-      </c>
-      <c r="B52">
-        <v>8.6177696241052412E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53">
-        <v>16.985622422000048</v>
-      </c>
-      <c r="B53">
-        <v>-0.4780358009429998</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54">
-        <v>16.745522835216203</v>
-      </c>
-      <c r="B54">
-        <v>-0.57981849525294205</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55">
-        <v>15.528762082294632</v>
-      </c>
-      <c r="B55">
-        <v>-1.2378743560016174</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56">
-        <v>14.415754744163895</v>
-      </c>
-      <c r="B56">
-        <v>-1.8971199848858813</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57">
-        <v>12.416489487674014</v>
-      </c>
-      <c r="B57">
-        <v>-3.2188758248682006</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64FDFDC-13B1-AB4C-B1C3-7FF9E2CAD166}">
   <dimension ref="A1:AC35"/>
   <sheetViews>
@@ -36121,22 +35637,22 @@
     </row>
     <row r="33" spans="2:7" ht="16.2" thickBot="1"/>
     <row r="34" spans="2:7">
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -36150,11 +35666,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B8D5F5-4DDF-2344-BE93-713864C91CD6}">
   <dimension ref="A1:AC58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
@@ -37135,22 +36651,22 @@
     </row>
     <row r="56" spans="9:14" ht="16.2" thickBot="1"/>
     <row r="57" spans="9:14">
-      <c r="I57" s="19" t="s">
+      <c r="I57" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="19"/>
-      <c r="M57" s="19"/>
-      <c r="N57" s="19"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="18"/>
+      <c r="N57" s="18"/>
     </row>
     <row r="58" spans="9:14">
-      <c r="I58" s="20"/>
-      <c r="J58" s="20"/>
-      <c r="K58" s="20"/>
-      <c r="L58" s="20"/>
-      <c r="M58" s="20"/>
-      <c r="N58" s="20"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -37164,7 +36680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF5D825E-8ABD-AB46-9243-4AAB60C8E7B6}">
   <dimension ref="A1:AC44"/>
   <sheetViews>
@@ -38051,22 +37567,22 @@
     </row>
     <row r="22" spans="1:29" ht="16.2" thickBot="1"/>
     <row r="23" spans="1:29">
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="1:29">
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
     </row>
     <row r="37" spans="7:7">
       <c r="G37" t="s">
@@ -38115,7 +37631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29EA75CD-2EAA-AD46-B54B-F32D80398925}">
   <dimension ref="A1:AC63"/>
   <sheetViews>
@@ -38159,10 +37675,10 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>20</v>
       </c>
       <c r="M1" t="s">
@@ -39438,14 +38954,14 @@
       <c r="AC32" s="8"/>
     </row>
     <row r="33" spans="2:29">
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
       <c r="AB33" s="5" t="e">
         <f>LN(#REF!)</f>
         <v>#REF!</v>
@@ -39453,12 +38969,12 @@
       <c r="AC33" s="6"/>
     </row>
     <row r="34" spans="2:29">
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
       <c r="AB34" s="5" t="e">
         <f>LN(#REF!)</f>
         <v>#REF!</v>
@@ -39683,11 +39199,1008 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964810A6-0329-CE44-9434-FAE1DDC1CC77}">
+  <dimension ref="A1:AC58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="4" width="11.19921875" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.19921875" customWidth="1"/>
+    <col min="28" max="29" width="11.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="16.2" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="16.2" thickBot="1">
+      <c r="A2" s="5">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12">
+        <v>77.2</v>
+      </c>
+      <c r="C2" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="12">
+        <v>1063</v>
+      </c>
+      <c r="E2" s="12">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12">
+        <v>14.65</v>
+      </c>
+      <c r="G2" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="H2" s="6">
+        <f>$J$17*D2/($J$20*B2)/1000</f>
+        <v>159.78745010603299</v>
+      </c>
+      <c r="M2">
+        <f>(D3-D2)/(F3-F2)</f>
+        <v>1.2499999999999998</v>
+      </c>
+      <c r="N2">
+        <f t="shared" ref="N2:N23" si="0">M2*(2*E3/(D3-D2)+2*G3/(F3-F2))</f>
+        <v>-0.84374999999999978</v>
+      </c>
+      <c r="AB2" s="5">
+        <f>LN(F2)</f>
+        <v>2.6844403354630764</v>
+      </c>
+      <c r="AC2" s="6"/>
+    </row>
+    <row r="3" spans="1:29" ht="16.2" thickBot="1">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12">
+        <v>77.2</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="13">
+        <v>1060</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+      <c r="F3" s="13">
+        <v>12.25</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" ref="H3:H24" si="1">$J$17*D3/($J$20*B3)/1000</f>
+        <v>159.33649775389932</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M23" si="2">(D4-D3)/(F4-F3)</f>
+        <v>1.4354066985645935</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="0"/>
+        <v>-0.97067374831162301</v>
+      </c>
+      <c r="AB3" s="5">
+        <f t="shared" ref="AB3:AB23" si="3">LN(F3)</f>
+        <v>2.5055259369907361</v>
+      </c>
+      <c r="AC3" s="8"/>
+    </row>
+    <row r="4" spans="1:29" ht="16.2" thickBot="1">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12">
+        <v>77.2</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1057</v>
+      </c>
+      <c r="E4" s="12">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12">
+        <v>10.16</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="H4" s="6">
+        <f t="shared" si="1"/>
+        <v>158.88554540176563</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="2"/>
+        <v>1.379310344827587</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>-1.3983353151010709</v>
+      </c>
+      <c r="AB4" s="5">
+        <f t="shared" si="3"/>
+        <v>2.318458442150336</v>
+      </c>
+      <c r="AC4" s="6"/>
+    </row>
+    <row r="5" spans="1:29" ht="16.2" thickBot="1">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12">
+        <v>77.2</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1055</v>
+      </c>
+      <c r="E5" s="12">
+        <v>1</v>
+      </c>
+      <c r="F5" s="13">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="H5" s="6">
+        <f t="shared" si="1"/>
+        <v>158.58491050034317</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="2"/>
+        <v>1.481481481481481</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>-1.5034293552812066</v>
+      </c>
+      <c r="AB5" s="5">
+        <f t="shared" si="3"/>
+        <v>2.1644717908644115</v>
+      </c>
+      <c r="AC5" s="8"/>
+    </row>
+    <row r="6" spans="1:29" ht="16.2" thickBot="1">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12">
+        <v>77.2</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="12">
+        <v>1053</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12">
+        <v>7.36</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="1"/>
+        <v>158.28427559892074</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="2"/>
+        <v>1.4705882352941164</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>-2.9844290657439418</v>
+      </c>
+      <c r="AB6" s="5">
+        <f t="shared" si="3"/>
+        <v>1.9960599327407849</v>
+      </c>
+      <c r="AC6" s="6"/>
+    </row>
+    <row r="7" spans="1:29" ht="16.2" thickBot="1">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12">
+        <v>77.2</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1052</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+      <c r="F7" s="13">
+        <v>6.68</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="1"/>
+        <v>158.1339581482095</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>2.542372881355933</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>-1.7380063200229823</v>
+      </c>
+      <c r="AB7" s="5">
+        <f t="shared" si="3"/>
+        <v>1.8991179875485542</v>
+      </c>
+      <c r="AC7" s="8"/>
+    </row>
+    <row r="8" spans="1:29" ht="16.2" thickBot="1">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12">
+        <v>77.2</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="12">
+        <v>1049</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12">
+        <v>5.5</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="1"/>
+        <v>157.68300579607583</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>2.1978021978021975</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>-2.2461055428088392</v>
+      </c>
+      <c r="AB8" s="5">
+        <f t="shared" si="3"/>
+        <v>1.7047480922384253</v>
+      </c>
+      <c r="AC8" s="6"/>
+    </row>
+    <row r="9" spans="1:29" ht="16.2" thickBot="1">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12">
+        <v>77.2</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="D9" s="13">
+        <v>1047</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1</v>
+      </c>
+      <c r="F9" s="13">
+        <v>4.59</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" si="1"/>
+        <v>157.38237089465335</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>3.7383177570093462</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>-1.9390339767665301</v>
+      </c>
+      <c r="AB9" s="5">
+        <f t="shared" si="3"/>
+        <v>1.5238800240724537</v>
+      </c>
+      <c r="AC9" s="8"/>
+    </row>
+    <row r="10" spans="1:29" ht="16.2" thickBot="1">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="12">
+        <v>77.2</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1043</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12">
+        <v>3.52</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" si="1"/>
+        <v>156.78110109180847</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>3.1746031746031753</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>-3.2753842277651812</v>
+      </c>
+      <c r="AB10" s="5">
+        <f t="shared" si="3"/>
+        <v>1.2584609896100056</v>
+      </c>
+      <c r="AC10" s="6"/>
+    </row>
+    <row r="11" spans="1:29" ht="16.2" thickBot="1">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12">
+        <v>77.2</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="13">
+        <v>1041</v>
+      </c>
+      <c r="E11" s="12">
+        <v>1</v>
+      </c>
+      <c r="F11" s="13">
+        <v>2.89</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" si="1"/>
+        <v>156.48046619038601</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>4.4444444444444429</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>-4.6419753086419737</v>
+      </c>
+      <c r="AB11" s="5">
+        <f t="shared" si="3"/>
+        <v>1.0612565021243408</v>
+      </c>
+      <c r="AC11" s="8"/>
+    </row>
+    <row r="12" spans="1:29" ht="16.2" thickBot="1">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="12">
+        <v>77.2</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="12">
+        <v>1039</v>
+      </c>
+      <c r="E12" s="12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="12">
+        <v>2.44</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="1"/>
+        <v>156.17983128896356</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>6.9767441860465089</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>-4.9756625202812303</v>
+      </c>
+      <c r="AB12" s="5">
+        <f t="shared" si="3"/>
+        <v>0.89199803930511046</v>
+      </c>
+      <c r="AC12" s="6"/>
+    </row>
+    <row r="13" spans="1:29" ht="16.2" thickBot="1">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="12">
+        <v>77.2</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="13">
+        <v>1036</v>
+      </c>
+      <c r="E13" s="12">
+        <v>1</v>
+      </c>
+      <c r="F13" s="13">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="1"/>
+        <v>155.72887893682989</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>6.3829787234042588</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>-4.526935264825716</v>
+      </c>
+      <c r="AB13" s="5">
+        <f t="shared" si="3"/>
+        <v>0.69813472207098426</v>
+      </c>
+      <c r="AC13" s="8"/>
+    </row>
+    <row r="14" spans="1:29" ht="16.2" thickBot="1">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" s="12">
+        <v>77.2</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="D14" s="12">
+        <v>1033</v>
+      </c>
+      <c r="E14" s="12">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12">
+        <v>1.54</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="1"/>
+        <v>155.27792658469619</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>11.39240506329114</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>-2.8200608876782565</v>
+      </c>
+      <c r="AB14" s="5">
+        <f t="shared" si="3"/>
+        <v>0.43178241642553783</v>
+      </c>
+      <c r="AC14" s="6"/>
+    </row>
+    <row r="15" spans="1:29" ht="16.2" thickBot="1">
+      <c r="A15" s="7">
+        <v>13</v>
+      </c>
+      <c r="B15" s="12">
+        <v>77.2</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="D15" s="13">
+        <v>1024</v>
+      </c>
+      <c r="E15" s="12">
+        <v>1</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" si="1"/>
+        <v>153.92506952829515</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>19.35483870967742</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>-7.7003121748178982</v>
+      </c>
+      <c r="AB15" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.2876820724517809</v>
+      </c>
+      <c r="AC15" s="8"/>
+    </row>
+    <row r="16" spans="1:29" ht="16.2" thickBot="1">
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="B16" s="12">
+        <v>77.2</v>
+      </c>
+      <c r="C16" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="D16" s="12">
+        <v>1018</v>
+      </c>
+      <c r="E16" s="12">
+        <v>1</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0.44</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" si="1"/>
+        <v>153.02316482402782</v>
+      </c>
+      <c r="J16" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>29.411764705882355</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>-15.224913494809691</v>
+      </c>
+      <c r="AB16" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.82098055206983023</v>
+      </c>
+      <c r="AC16" s="6"/>
+    </row>
+    <row r="17" spans="1:29" ht="18" thickBot="1">
+      <c r="A17" s="7">
+        <v>15</v>
+      </c>
+      <c r="B17" s="12">
+        <v>77.2</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="D17" s="13">
+        <v>1013</v>
+      </c>
+      <c r="E17" s="12">
+        <v>1</v>
+      </c>
+      <c r="F17" s="13">
+        <v>0.27</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" si="1"/>
+        <v>152.27157757047172</v>
+      </c>
+      <c r="J17" s="9">
+        <f>1.602176634*10^(-19)</f>
+        <v>1.6021766340000001E-19</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>86.363636363636346</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>-16.942148760330571</v>
+      </c>
+      <c r="AB17" s="5">
+        <f t="shared" si="3"/>
+        <v>-1.3093333199837622</v>
+      </c>
+      <c r="AC17" s="8"/>
+    </row>
+    <row r="18" spans="1:29" ht="16.2" thickBot="1">
+      <c r="A18" s="5">
+        <v>16</v>
+      </c>
+      <c r="B18" s="12">
+        <v>77.2</v>
+      </c>
+      <c r="C18" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="D18" s="12">
+        <v>994</v>
+      </c>
+      <c r="E18" s="12">
+        <v>1</v>
+      </c>
+      <c r="F18" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="G18" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" si="1"/>
+        <v>149.41554600695841</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="2"/>
+        <v>450</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>-275</v>
+      </c>
+      <c r="AB18" s="5">
+        <f t="shared" si="3"/>
+        <v>-2.9957322735539909</v>
+      </c>
+      <c r="AC18" s="6"/>
+    </row>
+    <row r="19" spans="1:29" ht="16.2" thickBot="1">
+      <c r="A19" s="7">
+        <v>17</v>
+      </c>
+      <c r="B19" s="12">
+        <v>77.2</v>
+      </c>
+      <c r="C19" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="D19" s="13">
+        <v>976</v>
+      </c>
+      <c r="E19" s="12">
+        <v>1</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="H19" s="6">
+        <f t="shared" si="1"/>
+        <v>146.70983189415634</v>
+      </c>
+      <c r="J19" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="2"/>
+        <v>1400</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>-3000</v>
+      </c>
+      <c r="AB19" s="5">
+        <f t="shared" si="3"/>
+        <v>-4.6051701859880909</v>
+      </c>
+      <c r="AC19" s="8"/>
+    </row>
+    <row r="20" spans="1:29" ht="17.399999999999999" thickBot="1">
+      <c r="A20" s="5">
+        <v>18</v>
+      </c>
+      <c r="B20" s="12">
+        <v>77.2</v>
+      </c>
+      <c r="C20" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="D20" s="12">
+        <v>962</v>
+      </c>
+      <c r="E20" s="12">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12">
+        <v>0</v>
+      </c>
+      <c r="G20" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="H20" s="6">
+        <f t="shared" si="1"/>
+        <v>144.60538758419918</v>
+      </c>
+      <c r="J20" s="11">
+        <f>1.3806503*10^(-23)</f>
+        <v>1.3806503000000004E-23</v>
+      </c>
+      <c r="M20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N20" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB20" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC20" s="6"/>
+    </row>
+    <row r="21" spans="1:29" ht="18" thickBot="1">
+      <c r="A21" s="7">
+        <v>19</v>
+      </c>
+      <c r="B21" s="12">
+        <v>77.2</v>
+      </c>
+      <c r="C21" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="12">
+        <v>1</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="H21" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="10"/>
+      <c r="M21" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB21" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC21" s="8"/>
+    </row>
+    <row r="22" spans="1:29" ht="21" thickBot="1">
+      <c r="A22" s="5">
+        <v>20</v>
+      </c>
+      <c r="B22" s="12">
+        <v>77.2</v>
+      </c>
+      <c r="C22" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12">
+        <v>1</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="H22" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M22" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB22" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC22" s="6"/>
+    </row>
+    <row r="23" spans="1:29" ht="16.2" thickBot="1">
+      <c r="A23" s="7">
+        <v>21</v>
+      </c>
+      <c r="B23" s="12">
+        <v>77.2</v>
+      </c>
+      <c r="C23" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="12">
+        <v>1</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="H23" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>15</v>
+      </c>
+      <c r="M23" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB23" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AC23" s="8"/>
+    </row>
+    <row r="24" spans="1:29" ht="16.2" thickBot="1">
+      <c r="A24" s="5">
+        <v>22</v>
+      </c>
+      <c r="B24" s="12">
+        <v>77.2</v>
+      </c>
+      <c r="C24" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="12">
+        <v>1</v>
+      </c>
+      <c r="F24" s="15"/>
+      <c r="G24" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="H24" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="9:14" ht="16.2" thickBot="1"/>
+    <row r="57" spans="9:14">
+      <c r="I57" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="18"/>
+      <c r="N57" s="18"/>
+    </row>
+    <row r="58" spans="9:14">
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I57:N58"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C9F8CB-8527-E840-9CEF-74962860B9C8}">
   <dimension ref="A1:AC82"/>
   <sheetViews>
-    <sheetView topLeftCell="L39" zoomScale="86" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="86" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -41336,14 +41849,14 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I57" s="19" t="s">
+      <c r="I57" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="19"/>
-      <c r="M57" s="19"/>
-      <c r="N57" s="19"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="18"/>
+      <c r="N57" s="18"/>
       <c r="AB57" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
@@ -41364,12 +41877,12 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I58" s="20"/>
-      <c r="J58" s="20"/>
-      <c r="K58" s="20"/>
-      <c r="L58" s="20"/>
-      <c r="M58" s="20"/>
-      <c r="N58" s="20"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
       <c r="AB58" s="5"/>
       <c r="AC58" s="6"/>
     </row>
@@ -41742,825 +42255,6 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I57:N58"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964810A6-0329-CE44-9434-FAE1DDC1CC77}">
-  <dimension ref="A1:AC58"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="79" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
-  <cols>
-    <col min="1" max="4" width="11.19921875" customWidth="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.19921875" customWidth="1"/>
-    <col min="28" max="29" width="11.19921875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:29" ht="16.2" thickBot="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="16.2" thickBot="1">
-      <c r="A2" s="5">
-        <v>0</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="D2" s="12">
-        <v>1063</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12">
-        <v>14.65</v>
-      </c>
-      <c r="G2" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="H2" s="6" t="e">
-        <f>$J$17*D2/($J$20*B2)/1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M2">
-        <f>(D3-D2)/(F3-F2)</f>
-        <v>1.2499999999999998</v>
-      </c>
-      <c r="N2">
-        <f t="shared" ref="N2:N23" si="0">M2*(2*E3/(D3-D2)+2*G3/(F3-F2))</f>
-        <v>0</v>
-      </c>
-      <c r="AB2" s="5">
-        <f>LN(F2)</f>
-        <v>2.6844403354630764</v>
-      </c>
-      <c r="AC2" s="6"/>
-    </row>
-    <row r="3" spans="1:29" ht="16.2" thickBot="1">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13">
-        <v>1060</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13">
-        <v>12.25</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="6" t="e">
-        <f t="shared" ref="H3:H24" si="1">$J$17*D3/($J$20*B3)/1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M23" si="2">(D4-D3)/(F4-F3)</f>
-        <v>1.4354066985645935</v>
-      </c>
-      <c r="N3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB3" s="5">
-        <f t="shared" ref="AB3:AB23" si="3">LN(F3)</f>
-        <v>2.5055259369907361</v>
-      </c>
-      <c r="AC3" s="8"/>
-    </row>
-    <row r="4" spans="1:29" ht="16.2" thickBot="1">
-      <c r="A4" s="5">
-        <v>2</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12">
-        <v>1057</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12">
-        <v>10.16</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="2"/>
-        <v>1.379310344827587</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB4" s="5">
-        <f t="shared" si="3"/>
-        <v>2.318458442150336</v>
-      </c>
-      <c r="AC4" s="6"/>
-    </row>
-    <row r="5" spans="1:29" ht="16.2" thickBot="1">
-      <c r="A5" s="7">
-        <v>3</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13">
-        <v>1055</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13">
-        <v>8.7100000000000009</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="2"/>
-        <v>1.481481481481481</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB5" s="5">
-        <f t="shared" si="3"/>
-        <v>2.1644717908644115</v>
-      </c>
-      <c r="AC5" s="8"/>
-    </row>
-    <row r="6" spans="1:29" ht="16.2" thickBot="1">
-      <c r="A6" s="5">
-        <v>4</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12">
-        <v>1053</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12">
-        <v>7.36</v>
-      </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="2"/>
-        <v>1.4705882352941164</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="5">
-        <f t="shared" si="3"/>
-        <v>1.9960599327407849</v>
-      </c>
-      <c r="AC6" s="6"/>
-    </row>
-    <row r="7" spans="1:29" ht="16.2" thickBot="1">
-      <c r="A7" s="7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13">
-        <v>1052</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13">
-        <v>6.68</v>
-      </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="2"/>
-        <v>2.542372881355933</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB7" s="5">
-        <f t="shared" si="3"/>
-        <v>1.8991179875485542</v>
-      </c>
-      <c r="AC7" s="8"/>
-    </row>
-    <row r="8" spans="1:29" ht="16.2" thickBot="1">
-      <c r="A8" s="5">
-        <v>6</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12">
-        <v>1049</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12">
-        <v>5.5</v>
-      </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="2"/>
-        <v>2.1978021978021975</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB8" s="5">
-        <f t="shared" si="3"/>
-        <v>1.7047480922384253</v>
-      </c>
-      <c r="AC8" s="6"/>
-    </row>
-    <row r="9" spans="1:29" ht="16.2" thickBot="1">
-      <c r="A9" s="7">
-        <v>7</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13">
-        <v>1047</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13">
-        <v>4.59</v>
-      </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="2"/>
-        <v>3.7383177570093462</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB9" s="5">
-        <f t="shared" si="3"/>
-        <v>1.5238800240724537</v>
-      </c>
-      <c r="AC9" s="8"/>
-    </row>
-    <row r="10" spans="1:29" ht="16.2" thickBot="1">
-      <c r="A10" s="5">
-        <v>8</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12">
-        <v>1043</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12">
-        <v>3.52</v>
-      </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="2"/>
-        <v>3.1746031746031753</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB10" s="5">
-        <f t="shared" si="3"/>
-        <v>1.2584609896100056</v>
-      </c>
-      <c r="AC10" s="6"/>
-    </row>
-    <row r="11" spans="1:29" ht="16.2" thickBot="1">
-      <c r="A11" s="7">
-        <v>9</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13">
-        <v>1041</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13">
-        <v>2.89</v>
-      </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="2"/>
-        <v>4.4444444444444429</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB11" s="5">
-        <f t="shared" si="3"/>
-        <v>1.0612565021243408</v>
-      </c>
-      <c r="AC11" s="8"/>
-    </row>
-    <row r="12" spans="1:29" ht="16.2" thickBot="1">
-      <c r="A12" s="5">
-        <v>10</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12">
-        <v>1039</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12">
-        <v>2.44</v>
-      </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="2"/>
-        <v>6.9767441860465089</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB12" s="5">
-        <f t="shared" si="3"/>
-        <v>0.89199803930511046</v>
-      </c>
-      <c r="AC12" s="6"/>
-    </row>
-    <row r="13" spans="1:29" ht="16.2" thickBot="1">
-      <c r="A13" s="7">
-        <v>11</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13">
-        <v>1036</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="2"/>
-        <v>6.3829787234042588</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB13" s="5">
-        <f t="shared" si="3"/>
-        <v>0.69813472207098426</v>
-      </c>
-      <c r="AC13" s="8"/>
-    </row>
-    <row r="14" spans="1:29" ht="16.2" thickBot="1">
-      <c r="A14" s="5">
-        <v>12</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12">
-        <v>1033</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12">
-        <v>1.54</v>
-      </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="2"/>
-        <v>11.39240506329114</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB14" s="5">
-        <f t="shared" si="3"/>
-        <v>0.43178241642553783</v>
-      </c>
-      <c r="AC14" s="6"/>
-    </row>
-    <row r="15" spans="1:29" ht="16.2" thickBot="1">
-      <c r="A15" s="7">
-        <v>13</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13">
-        <v>1024</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="2"/>
-        <v>19.35483870967742</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB15" s="5">
-        <f t="shared" si="3"/>
-        <v>-0.2876820724517809</v>
-      </c>
-      <c r="AC15" s="8"/>
-    </row>
-    <row r="16" spans="1:29" ht="16.2" thickBot="1">
-      <c r="A16" s="5">
-        <v>14</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12">
-        <v>1018</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12">
-        <v>0.44</v>
-      </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J16" t="s">
-        <v>12</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="2"/>
-        <v>29.411764705882355</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB16" s="5">
-        <f t="shared" si="3"/>
-        <v>-0.82098055206983023</v>
-      </c>
-      <c r="AC16" s="6"/>
-    </row>
-    <row r="17" spans="1:29" ht="18" thickBot="1">
-      <c r="A17" s="7">
-        <v>15</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13">
-        <v>1013</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13">
-        <v>0.27</v>
-      </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J17" s="9">
-        <f>1.602176634*10^(-19)</f>
-        <v>1.6021766340000001E-19</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="2"/>
-        <v>86.363636363636346</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB17" s="5">
-        <f t="shared" si="3"/>
-        <v>-1.3093333199837622</v>
-      </c>
-      <c r="AC17" s="8"/>
-    </row>
-    <row r="18" spans="1:29" ht="16.2" thickBot="1">
-      <c r="A18" s="5">
-        <v>16</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12">
-        <v>994</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="2"/>
-        <v>450</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB18" s="5">
-        <f t="shared" si="3"/>
-        <v>-2.9957322735539909</v>
-      </c>
-      <c r="AC18" s="6"/>
-    </row>
-    <row r="19" spans="1:29" ht="16.2" thickBot="1">
-      <c r="A19" s="7">
-        <v>17</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13">
-        <v>976</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13">
-        <v>0.01</v>
-      </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J19" t="s">
-        <v>13</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="2"/>
-        <v>1400</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB19" s="5">
-        <f t="shared" si="3"/>
-        <v>-4.6051701859880909</v>
-      </c>
-      <c r="AC19" s="8"/>
-    </row>
-    <row r="20" spans="1:29" ht="17.399999999999999" thickBot="1">
-      <c r="A20" s="5">
-        <v>18</v>
-      </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12">
-        <v>962</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12">
-        <v>0</v>
-      </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J20" s="11">
-        <f>1.3806503*10^(-23)</f>
-        <v>1.3806503000000004E-23</v>
-      </c>
-      <c r="M20" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N20" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB20" s="5" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC20" s="6"/>
-    </row>
-    <row r="21" spans="1:29" ht="18" thickBot="1">
-      <c r="A21" s="7">
-        <v>19</v>
-      </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J21" s="10"/>
-      <c r="M21" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB21" s="5" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC21" s="8"/>
-    </row>
-    <row r="22" spans="1:29" ht="21" thickBot="1">
-      <c r="A22" s="5">
-        <v>20</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J22" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="M22" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N22" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB22" s="5" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC22" s="6"/>
-    </row>
-    <row r="23" spans="1:29" ht="16.2" thickBot="1">
-      <c r="A23" s="7">
-        <v>21</v>
-      </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J23" t="s">
-        <v>15</v>
-      </c>
-      <c r="M23" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N23" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB23" s="5" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC23" s="8"/>
-    </row>
-    <row r="24" spans="1:29" ht="16.2" thickBot="1">
-      <c r="A24" s="5">
-        <v>22</v>
-      </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="56" spans="9:14" ht="16.2" thickBot="1"/>
-    <row r="57" spans="9:14">
-      <c r="I57" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="19"/>
-      <c r="M57" s="19"/>
-      <c r="N57" s="19"/>
-    </row>
-    <row r="58" spans="9:14">
-      <c r="I58" s="20"/>
-      <c r="J58" s="20"/>
-      <c r="K58" s="20"/>
-      <c r="L58" s="20"/>
-      <c r="M58" s="20"/>
-      <c r="N58" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -42575,20 +42269,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="21343963-c43f-42a4-b0bc-b203e64410f4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="21343963-c43f-42a4-b0bc-b203e64410f4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -42774,14 +42468,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB974918-D618-4A8E-9BED-86443E84A1C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0E5A08E-764A-49CD-B663-0CFE39F0EF50}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -42793,6 +42479,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB974918-D618-4A8E-9BED-86443E84A1C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/relazioni/esperienza_2/codici/Esperienza_2.xlsx
+++ b/relazioni/esperienza_2/codici/Esperienza_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\UNIVERSITA'\II ANNO\LABORATORIO-DI-ELETTROMAGNETISMO\relazioni\esperienza_2\codici\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessiobrusini/Desktop/LABORATORIO-DI-ELETTROMAGNETISMO/relazioni/esperienza_2/codici/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2467A9C4-FFE4-4680-ABA7-5A2DDA13EA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73688E18-612B-8A49-ABAF-B2FA67B07B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{9832D23C-5E2D-EB46-85A1-EE46353BB05C}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="27100" windowHeight="15920" activeTab="4" xr2:uid="{9832D23C-5E2D-EB46-85A1-EE46353BB05C}"/>
   </bookViews>
   <sheets>
     <sheet name="Temp_1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="24">
   <si>
     <t>n.</t>
   </si>
@@ -119,12 +119,21 @@
   <si>
     <t>Corr_prev(mA)</t>
   </si>
+  <si>
+    <t>lnCorr(A)</t>
+  </si>
+  <si>
+    <t>pendenza</t>
+  </si>
+  <si>
+    <t>intercetta</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -308,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -333,9 +342,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -396,7 +406,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1179,7 +1189,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1678,7 +1688,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2014,64 +2024,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>16.6722169926148</c:v>
+                  <c:v>16.668137449897625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.465883958078372</c:v>
+                  <c:v>15.462099594289572</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.646158225517047</c:v>
+                  <c:v>13.642819132375985</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.452500508266638</c:v>
+                  <c:v>11.449698183593043</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.623844679924167</c:v>
+                  <c:v>10.621245119936939</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.8551469774843419</c:v>
+                  <c:v>9.8527355109651324</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.9160322244986219</c:v>
+                  <c:v>8.9138505509789177</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.9160322244986219</c:v>
+                  <c:v>8.9138505509789177</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.4390875628979973</c:v>
+                  <c:v>6.4375119756330212</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.2798816879663333</c:v>
+                  <c:v>6.2783450569582184</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.012976152914101</c:v>
+                  <c:v>5.0117495223846964</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.9251995539319537</c:v>
+                  <c:v>3.9242390926291288</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.294013040214796</c:v>
+                  <c:v>3.2932070246192433</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.20647591851194</c:v>
+                  <c:v>2.2059360135450135</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1797319984508143</c:v>
+                  <c:v>1.1794433285585841</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.8102776200203442</c:v>
+                  <c:v>0.81007935231754813</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.71490884167365776</c:v>
+                  <c:v>0.71473390985986318</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.14036829038705337</c:v>
+                  <c:v>0.14033394351902589</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.3001147565192075E-2</c:v>
+                  <c:v>1.2997966300403596E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.9818176071075881E-4</c:v>
+                  <c:v>1.9813326740246377E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2409,7 +2419,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2823,7 +2833,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2879,7 +2889,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>lnCorr(mA)</c:v>
+                  <c:v>lnCorr(A)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2986,6 +2996,20 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Temp_4!$H$2:$H$21</c:f>
@@ -3062,61 +3086,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>2.8094026953624978</c:v>
+                  <c:v>-4.0983525836196391</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6616571615324998</c:v>
+                  <c:v>-4.2460981174496375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5423890852013629</c:v>
+                  <c:v>-4.3653661937807744</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.379546134130174</c:v>
+                  <c:v>-4.5282091448519628</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2874714551839976</c:v>
+                  <c:v>-4.6202838237981396</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2375130962503307</c:v>
+                  <c:v>-4.6702421827318066</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1644717908644115</c:v>
+                  <c:v>-4.7432834881177257</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.1482677326096886</c:v>
+                  <c:v>-4.7594875463724486</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.8437192081587661</c:v>
+                  <c:v>-5.0640360708233709</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.8309801823813363</c:v>
+                  <c:v>-5.0767750966008007</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.631199404215613</c:v>
+                  <c:v>-5.2765558747665242</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.43746264769429</c:v>
+                  <c:v>-5.4702926312878466</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2325602611778486</c:v>
+                  <c:v>-5.6751950178042883</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.86288995514703981</c:v>
+                  <c:v>-6.0448653238350971</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.26236426446749106</c:v>
+                  <c:v>-6.6453910145146464</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-8.3381608939051013E-2</c:v>
+                  <c:v>-6.9911368879211881</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.18632957819149348</c:v>
+                  <c:v>-7.0940848571736304</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1.8325814637483102</c:v>
+                  <c:v>-8.740336742730447</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-4.6051701859880909</c:v>
+                  <c:v>-11.512925464970229</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3318,7 +3342,7 @@
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3722,94 +3746,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>15.780974159983806</c:v>
+                  <c:v>15.777112696434461</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.32345565369074</c:v>
+                  <c:v>14.319950831913154</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.248264995180472</c:v>
+                  <c:v>13.245023262962146</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.57669335642337</c:v>
+                  <c:v>12.573615951792021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.333952900868201</c:v>
+                  <c:v>11.331179583736253</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.9517639860222395</c:v>
+                  <c:v>9.949328878183259</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.2047345016089288</c:v>
+                  <c:v>9.2024821852183809</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.2951873223610075</c:v>
+                  <c:v>8.293157564048526</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.4755152031770145</c:v>
+                  <c:v>7.4736860113174357</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.071150398181091</c:v>
+                  <c:v>6.0696648418569064</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.0605430202537258</c:v>
+                  <c:v>5.0593047505363753</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.560495718308788</c:v>
+                  <c:v>4.5593798057038573</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.2181619579076193</c:v>
+                  <c:v>4.2171298113189124</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.0043378861908208</c:v>
+                  <c:v>4.003358060444322</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.4257298553709021</c:v>
+                  <c:v>3.4248916098461128</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.0872233011073522</c:v>
+                  <c:v>3.0864678851155976</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.6411340216299042</c:v>
+                  <c:v>2.6404877597039884</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.2595025484779701</c:v>
+                  <c:v>2.2589496683678991</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.9839535440527403</c:v>
+                  <c:v>1.9834680883250841</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.6972815641981989</c:v>
+                  <c:v>1.6968662545457855</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.4147510387134425</c:v>
+                  <c:v>1.4144048617593452</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0354396946206759</c:v>
+                  <c:v>1.0351863317675472</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.75782616595978436</c:v>
+                  <c:v>0.75764073265972764</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.43888219673725937</c:v>
+                  <c:v>0.43877480618025211</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.23509181317633834</c:v>
+                  <c:v>0.23503428830758644</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.13265375534992949</c:v>
+                  <c:v>0.13262129615978224</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.4465643654885061E-2</c:v>
+                  <c:v>7.4447422576405561E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.3258273274764182E-2</c:v>
+                  <c:v>3.325013527208686E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.410128226239939E-2</c:v>
+                  <c:v>1.4097831804468006E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.6341464541896144E-3</c:v>
+                  <c:v>6.6325231377546354E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4130,7 +4154,7 @@
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4604,7 +4628,7 @@
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4859,91 +4883,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>2.6939512767227085</c:v>
+                  <c:v>-4.2138040022594287</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6019486702196644</c:v>
+                  <c:v>-4.3058066087624729</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5273273656719524</c:v>
+                  <c:v>-4.3804279133101849</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4578779774000812</c:v>
+                  <c:v>-4.4498773015820561</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3627390158137929</c:v>
+                  <c:v>-4.5450162631683444</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2417729535972883</c:v>
+                  <c:v>-4.6659823253848485</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1690537003695232</c:v>
+                  <c:v>-4.7387015786126137</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0819384218784229</c:v>
+                  <c:v>-4.8258168571037139</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.9906103279732201</c:v>
+                  <c:v>-4.9171449510089165</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.7884205679625405</c:v>
+                  <c:v>-5.1193347110195964</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.6094379124341003</c:v>
+                  <c:v>-5.2983173665480363</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5129270120532565</c:v>
+                  <c:v>-5.3948282669288803</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.4398351280479205</c:v>
+                  <c:v>-5.4679201509342166</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3912819026309295</c:v>
+                  <c:v>-5.5164733763512075</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.2527629684953681</c:v>
+                  <c:v>-5.6549923104867688</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.1474024528375417</c:v>
+                  <c:v>-5.7603528261445955</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.9895411936137477</c:v>
+                  <c:v>-5.9182140853683896</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.8586616190375187</c:v>
+                  <c:v>-6.0490936599446181</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.74668794748797507</c:v>
+                  <c:v>-6.161067331494162</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.59883650108870401</c:v>
+                  <c:v>-6.3089187778934335</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.42526773540434409</c:v>
+                  <c:v>-6.4824875435777924</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.13976194237515863</c:v>
+                  <c:v>-6.7679933366069784</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.1743533871447778</c:v>
+                  <c:v>-7.0821086661269153</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.69314718055994529</c:v>
+                  <c:v>-7.6009024595420822</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-1.3093333199837622</c:v>
+                  <c:v>-8.2170885989658995</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-1.8971199848858813</c:v>
+                  <c:v>-8.8048752638680181</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-2.5257286443082556</c:v>
+                  <c:v>-9.4334839232903924</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-3.5065578973199818</c:v>
+                  <c:v>-10.41431317630212</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-4.6051701859880909</c:v>
+                  <c:v>-11.512925464970229</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5145,7 +5169,7 @@
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5700,7 +5724,7 @@
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5845,18 +5869,6 @@
                 <c:pt idx="18">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5919,18 +5931,6 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6132,7 +6132,7 @@
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6143,37 +6143,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -6188,7 +6158,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>lnCorr(mA)</c:v>
+                  <c:v>lnCorr(A)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6217,6 +6187,70 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.7311549385710442E-2"/>
+                  <c:y val="-2.2905930720516242E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="it-IT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Temp_6!$H$2:$H$31</c:f>
@@ -6224,83 +6258,125 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>159.78745010603299</c:v>
+                  <c:v>35.209336800872698</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>159.33649775389932</c:v>
+                  <c:v>35.109968964181618</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>158.88554540176563</c:v>
+                  <c:v>35.010601127490531</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>158.58491050034317</c:v>
+                  <c:v>34.944355903029816</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>158.28427559892074</c:v>
+                  <c:v>34.878110678569094</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>158.1339581482095</c:v>
+                  <c:v>34.844988066338729</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>157.68300579607583</c:v>
+                  <c:v>34.745620229647656</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>157.38237089465335</c:v>
+                  <c:v>34.679375005186934</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>156.78110109180847</c:v>
+                  <c:v>34.546884556265496</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>156.48046619038601</c:v>
+                  <c:v>34.480639331804781</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>156.17983128896356</c:v>
+                  <c:v>34.414394107344059</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>155.72887893682989</c:v>
+                  <c:v>34.315026270652979</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>155.27792658469619</c:v>
+                  <c:v>34.215658433961892</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>153.92506952829515</c:v>
+                  <c:v>33.917554923888652</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>153.02316482402782</c:v>
+                  <c:v>33.718819250506492</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>152.27157757047172</c:v>
+                  <c:v>33.553206189354697</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>149.41554600695841</c:v>
+                  <c:v>32.923876556977852</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>146.70983189415634</c:v>
+                  <c:v>32.327669536831372</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>144.60538758419918</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>31.863952965606334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Temp_6!$AB$31</c:f>
+              <c:f>Temp_6!$AB$2:$AB$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>-4.2233149435190604</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.4022293419914007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.5892968368318012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.7432834881177257</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.911695346241352</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.0086372914335824</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.2030071867437115</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-5.3838752549096833</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-5.649294289372131</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-5.8464987768577963</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-6.0157572396770265</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-6.2096205569111529</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-6.4759728625565991</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-7.1954373514339176</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-7.7287358310519672</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-8.2170885989658995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-9.9034875525361272</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-11.512925464970229</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6343,8 +6419,52 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -6405,8 +6525,52 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -6454,6 +6618,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -6501,7 +6696,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7190,7 +7385,7 @@
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7715,7 +7910,7 @@
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8207,7 +8402,7 @@
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8263,7 +8458,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>lnCorr(mA)</c:v>
+                  <c:v>lnCorr(A)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8294,10 +8489,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Pol_inv!$H$2:$H$31</c:f>
+              <c:f>Pol_inv!$H$2:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>-4.2624452506544099E-2</c:v>
                 </c:pt>
@@ -8339,66 +8534,57 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>-163.37952645758349</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Pol_inv!$AB$31</c:f>
+              <c:f>Pol_inv!$AB$2:$AB$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-15.424948470398375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-15.424948470398375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-15.424948470398375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-15.424948470398375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-15.01948336229021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-14.73180128983843</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-14.038654109278484</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-13.815510557964274</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-13.72020037815995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-13.633189001170319</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-13.479038321343062</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-13.41004544985611</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-13.284882306902103</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-13.073573213234896</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8600,7 +8786,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8666,7 +8852,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>lnCorr(mA)</c:v>
+                  <c:v>lnCorr(A)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8895,124 +9081,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>2.6686161318568029</c:v>
+                  <c:v>-4.2391391471253339</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6560549059838299</c:v>
+                  <c:v>-4.2517003729983074</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6440448711262978</c:v>
+                  <c:v>-4.2637104078558394</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6239436918052106</c:v>
+                  <c:v>-4.2838115871769267</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6034301519721073</c:v>
+                  <c:v>-4.3043251270100296</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5741377835159431</c:v>
+                  <c:v>-4.3336174954661937</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5595501927837661</c:v>
+                  <c:v>-4.3482050861983712</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5431755579119759</c:v>
+                  <c:v>-4.3645797210701609</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.5176964726109912</c:v>
+                  <c:v>-4.3900588063711456</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.4948569806411682</c:v>
+                  <c:v>-4.412898298340969</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.4798941079644559</c:v>
+                  <c:v>-4.427861171017681</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.4680995314716192</c:v>
+                  <c:v>-4.4396557475105176</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.448415541205585</c:v>
+                  <c:v>-4.4593397377765518</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.4274540750399152</c:v>
+                  <c:v>-4.4803012039422221</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.4069451083182885</c:v>
+                  <c:v>-4.5008101706638488</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.3841650799864684</c:v>
+                  <c:v>-4.5235901989956684</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.3683728335320486</c:v>
+                  <c:v>-4.5393824454500882</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.349468678892896</c:v>
+                  <c:v>-4.5582866000892412</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.33214389523559</c:v>
+                  <c:v>-4.5756113837465469</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.3204250111223765</c:v>
+                  <c:v>-4.5873302678597607</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.2975725511705014</c:v>
+                  <c:v>-4.6101827278116358</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.2874714551839976</c:v>
+                  <c:v>-4.6202838237981396</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.2772672850097559</c:v>
+                  <c:v>-4.6304879939723813</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.2544447176661109</c:v>
+                  <c:v>-4.6533105613160268</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.2332350148592526</c:v>
+                  <c:v>-4.6745202641228847</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.2082744135228043</c:v>
+                  <c:v>-4.699480865459333</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.1826747963214879</c:v>
+                  <c:v>-4.7250804826606494</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.1610215286722587</c:v>
+                  <c:v>-4.7467337503098781</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.145931282948669</c:v>
+                  <c:v>-4.7618239960334678</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.1053529234643369</c:v>
+                  <c:v>-4.8024023555177999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.0831845279586703</c:v>
+                  <c:v>-4.824570751023467</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.0515563381903004</c:v>
+                  <c:v>-4.8561989407918364</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.0162354657760435</c:v>
+                  <c:v>-4.8915198132060933</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.969905654611529</c:v>
+                  <c:v>-4.9378496243706085</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.9154509415706047</c:v>
+                  <c:v>-4.9923043374115323</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.8547342683894434</c:v>
+                  <c:v>-5.053021010592694</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.7900914121273581</c:v>
+                  <c:v>-5.1176638668547794</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.7298840655099674</c:v>
+                  <c:v>-5.1778712134721694</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.6601310267496185</c:v>
+                  <c:v>-5.2476242522325185</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.6114359150967734</c:v>
+                  <c:v>-5.2963193638853641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9291,7 +9477,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9945,7 +10131,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10572,7 +10758,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11052,7 +11238,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11137,6 +11323,56 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.7374446773461793E-2"/>
+                  <c:y val="-7.7408065567997508E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="it-IT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Temp_2!$H$2:$H$31</c:f>
@@ -11243,94 +11479,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>2.7127060126384039</c:v>
+                  <c:v>-4.1950492663437329</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.642622395779755</c:v>
+                  <c:v>-4.2651328832023827</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5952547069568657</c:v>
+                  <c:v>-4.3125005720252716</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5541217188094731</c:v>
+                  <c:v>-4.3536335601726641</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4807312783775197</c:v>
+                  <c:v>-4.4270240006046171</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3960754360813845</c:v>
+                  <c:v>-4.5116798429007527</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3466019784108201</c:v>
+                  <c:v>-4.5611533005713172</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.281361456542419</c:v>
+                  <c:v>-4.6263938224397183</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.2170272046323989</c:v>
+                  <c:v>-4.6907280743497379</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.1377104498038118</c:v>
+                  <c:v>-4.7700448291783255</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.0068708488450007</c:v>
+                  <c:v>-4.9008844301371361</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.9300710850255671</c:v>
+                  <c:v>-4.9776841939565699</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.8578592709325787</c:v>
+                  <c:v>-5.0498960080495587</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.7884205679625405</c:v>
+                  <c:v>-5.1193347110195964</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.7316555451583497</c:v>
+                  <c:v>-5.1760997338237873</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.6351056591826783</c:v>
+                  <c:v>-5.2726496197994592</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.4632554022560189</c:v>
+                  <c:v>-5.4444998767261179</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.3056264580524357</c:v>
+                  <c:v>-5.6021288209297015</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.98581679452276538</c:v>
+                  <c:v>-5.9219384844593721</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.92028275314369246</c:v>
+                  <c:v>-5.9874725258384442</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.48858001481867092</c:v>
+                  <c:v>-6.4191752641634663</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.22314355131420976</c:v>
+                  <c:v>-6.6846117276679271</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.15082288973458366</c:v>
+                  <c:v>-7.0585781687167204</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.61618613942381695</c:v>
+                  <c:v>-7.5239414184059541</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-1.0788096613719298</c:v>
+                  <c:v>-7.9865649403540671</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-1.5141277326297755</c:v>
+                  <c:v>-8.4218830116119126</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-1.8971199848858813</c:v>
+                  <c:v>-8.8048752638680181</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-2.3025850929940455</c:v>
+                  <c:v>-9.2103403719761818</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-3.5065578973199818</c:v>
+                  <c:v>-10.41431317630212</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-4.6051701859880909</c:v>
+                  <c:v>-11.512925464970229</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11532,7 +11768,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12111,7 +12347,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -31598,13 +31834,13 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F91291F7-6839-984A-8494-FF9B698FFA17}" name="Tabella2248" displayName="Tabella2248" ref="M1:N23" totalsRowShown="0">
-  <autoFilter ref="M1:N23" xr:uid="{1D24399E-9836-7741-BBCC-767E9D9754F5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F91291F7-6839-984A-8494-FF9B698FFA17}" name="Tabella2248" displayName="Tabella2248" ref="M1:N19" totalsRowShown="0">
+  <autoFilter ref="M1:N19" xr:uid="{1D24399E-9836-7741-BBCC-767E9D9754F5}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B862E566-0423-3648-A8AF-EEA94094A685}" name="R_din(Ω)" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{B862E566-0423-3648-A8AF-EEA94094A685}" name="R_din(Ω)" dataDxfId="3">
       <calculatedColumnFormula>(D3-D2)/(F3-F2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{58D212AC-226A-3446-8DA0-C95B192DBAE3}" name="ΔR_din(Ω)" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{58D212AC-226A-3446-8DA0-C95B192DBAE3}" name="ΔR_din(Ω)" dataDxfId="2">
       <calculatedColumnFormula>M2*(2*E3/(D3-D2)+2*G3/(F3-F2))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -31616,10 +31852,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{03517C75-9DF7-D746-90C6-9C656B52FF3B}" name="Tabella224567" displayName="Tabella224567" ref="M1:N38" totalsRowShown="0">
   <autoFilter ref="M1:N38" xr:uid="{1D24399E-9836-7741-BBCC-767E9D9754F5}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{55B969CD-0C09-F64C-8FA1-7C0FEB3EB204}" name="R_din(Ω)" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{55B969CD-0C09-F64C-8FA1-7C0FEB3EB204}" name="R_din(Ω)" dataDxfId="1">
       <calculatedColumnFormula>(D3-D2)/(F3-F2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{FBAE4F12-D677-6644-BF15-CE3303813CC7}" name="ΔR_din(Ω)" dataDxfId="2">
+    <tableColumn id="2" xr3:uid="{FBAE4F12-D677-6644-BF15-CE3303813CC7}" name="ΔR_din(Ω)" dataDxfId="0">
       <calculatedColumnFormula>M2*(2*E3/(D3-D2)+2*G3/(F3-F2))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -31946,19 +32182,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B86F6C1-2CF0-4541-BBC4-14B6AD42230F}">
   <dimension ref="A1:AC63"/>
   <sheetViews>
-    <sheetView zoomScale="64" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="B1" zoomScale="64" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="11.19921875" customWidth="1"/>
+    <col min="1" max="4" width="11.1640625" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.19921875" customWidth="1"/>
-    <col min="28" max="29" width="11.19921875" customWidth="1"/>
+    <col min="13" max="13" width="11.1640625" customWidth="1"/>
+    <col min="28" max="29" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16.2" thickBot="1">
+    <row r="1" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -31990,13 +32226,13 @@
         <v>9</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AC1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="16.2" thickBot="1">
+    <row r="2" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -32031,12 +32267,12 @@
         <v>-11.728395061728413</v>
       </c>
       <c r="AB2" s="5">
-        <f>LN(F2)</f>
-        <v>2.6686161318568029</v>
+        <f t="shared" ref="AB2:AB3" si="0">LN(F2/1000)</f>
+        <v>-4.2391391471253339</v>
       </c>
       <c r="AC2" s="6"/>
     </row>
-    <row r="3" spans="1:29" ht="16.2" thickBot="1">
+    <row r="3" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -32059,24 +32295,24 @@
         <v>0.01</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" ref="H3:H58" si="0">$J$17*D3/($J$20*(B3+273.15))/1000</f>
+        <f t="shared" ref="H3:H58" si="1">$J$17*D3/($J$20*(B3+273.15))/1000</f>
         <v>22.224726802173947</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M37" si="1">(D4-D3)/(F4-F3)</f>
+        <f t="shared" ref="M3:M37" si="2">(D4-D3)/(F4-F3)</f>
         <v>5.8823529411764728</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N57" si="2">M3*(2*E4/(D4-D3)+2*G4/(F4-F3))</f>
+        <f t="shared" ref="N3:N57" si="3">M3*(2*E4/(D4-D3)+2*G4/(F4-F3))</f>
         <v>-12.456747404844295</v>
       </c>
       <c r="AB3" s="5">
-        <f t="shared" ref="AB3:AB30" si="3">LN(F3)</f>
-        <v>2.6560549059838299</v>
+        <f t="shared" si="0"/>
+        <v>-4.2517003729983074</v>
       </c>
       <c r="AC3" s="8"/>
     </row>
-    <row r="4" spans="1:29" ht="16.2" thickBot="1">
+    <row r="4" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -32099,24 +32335,24 @@
         <v>0.01</v>
       </c>
       <c r="H4" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22.189946322045351</v>
       </c>
       <c r="M4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.571428571428557</v>
       </c>
       <c r="N4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-7.3979591836734384</v>
       </c>
       <c r="AB4" s="5">
-        <f t="shared" si="3"/>
-        <v>2.6440448711262978</v>
+        <f>LN(F4/1000)</f>
+        <v>-4.2637104078558394</v>
       </c>
       <c r="AC4" s="6"/>
     </row>
-    <row r="5" spans="1:29" ht="16.2" thickBot="1">
+    <row r="5" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -32139,24 +32375,24 @@
         <v>0.01</v>
       </c>
       <c r="H5" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22.161808074218335</v>
       </c>
       <c r="M5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB5" s="5">
-        <f t="shared" si="3"/>
-        <v>2.6239436918052106</v>
+        <f t="shared" ref="AB5:AB57" si="4">LN(F5/1000)</f>
+        <v>-4.2838115871769267</v>
       </c>
       <c r="AC5" s="8"/>
     </row>
-    <row r="6" spans="1:29" ht="16.2" thickBot="1">
+    <row r="6" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -32179,24 +32415,24 @@
         <v>0.01</v>
       </c>
       <c r="H6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22.161808074218335</v>
       </c>
       <c r="M6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.1282051282051206</v>
       </c>
       <c r="N6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-5.3911900065746128</v>
       </c>
       <c r="AB6" s="5">
-        <f t="shared" si="3"/>
-        <v>2.6034301519721073</v>
+        <f t="shared" si="4"/>
+        <v>-4.3043251270100296</v>
       </c>
       <c r="AC6" s="6"/>
     </row>
-    <row r="7" spans="1:29" ht="16.2" thickBot="1">
+    <row r="7" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -32219,24 +32455,24 @@
         <v>0.01</v>
       </c>
       <c r="H7" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22.092226259228635</v>
       </c>
       <c r="M7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N7" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB7" s="5">
-        <f t="shared" si="3"/>
-        <v>2.5741377835159431</v>
+        <f t="shared" si="4"/>
+        <v>-4.3336174954661937</v>
       </c>
       <c r="AC7" s="8"/>
     </row>
-    <row r="8" spans="1:29" ht="16.2" thickBot="1">
+    <row r="8" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -32259,24 +32495,24 @@
         <v>0.01</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22.098851608234245</v>
       </c>
       <c r="M8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.7619047619047832</v>
       </c>
       <c r="N8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-9.9773242630385965</v>
       </c>
       <c r="AB8" s="5">
-        <f t="shared" si="3"/>
-        <v>2.5595501927837661</v>
+        <f t="shared" si="4"/>
+        <v>-4.3482050861983712</v>
       </c>
       <c r="AC8" s="6"/>
     </row>
-    <row r="9" spans="1:29" ht="16.2" thickBot="1">
+    <row r="9" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -32299,24 +32535,24 @@
         <v>0.01</v>
       </c>
       <c r="H9" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22.070669151254851</v>
       </c>
       <c r="M9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.1249999999999973</v>
       </c>
       <c r="N9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-6.4453124999999947</v>
       </c>
       <c r="AB9" s="5">
-        <f t="shared" si="3"/>
-        <v>2.5431755579119759</v>
+        <f t="shared" si="4"/>
+        <v>-4.3645797210701609</v>
       </c>
       <c r="AC9" s="8"/>
     </row>
-    <row r="10" spans="1:29" ht="16.2" thickBot="1">
+    <row r="10" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -32339,24 +32575,24 @@
         <v>0.01</v>
       </c>
       <c r="H10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22.03585737025918</v>
       </c>
       <c r="M10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.571428571428557</v>
       </c>
       <c r="N10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-7.3979591836734384</v>
       </c>
       <c r="AB10" s="5">
-        <f t="shared" si="3"/>
-        <v>2.5176964726109912</v>
+        <f t="shared" si="4"/>
+        <v>-4.3900588063711456</v>
       </c>
       <c r="AC10" s="6"/>
     </row>
-    <row r="11" spans="1:29" ht="16.2" thickBot="1">
+    <row r="11" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -32379,24 +32615,24 @@
         <v>0.01</v>
       </c>
       <c r="H11" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22.001045589263509</v>
       </c>
       <c r="M11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.5555555555555642</v>
       </c>
       <c r="N11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-11.728395061728413</v>
       </c>
       <c r="AB11" s="5">
-        <f t="shared" si="3"/>
-        <v>2.4948569806411682</v>
+        <f t="shared" si="4"/>
+        <v>-4.412898298340969</v>
       </c>
       <c r="AC11" s="8"/>
     </row>
-    <row r="12" spans="1:29" ht="16.2" thickBot="1">
+    <row r="12" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -32419,24 +32655,24 @@
         <v>0.01</v>
       </c>
       <c r="H12" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.972825326289826</v>
       </c>
       <c r="M12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N12" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB12" s="5">
-        <f t="shared" si="3"/>
-        <v>2.4798941079644559</v>
+        <f t="shared" si="4"/>
+        <v>-4.427861171017681</v>
       </c>
       <c r="AC12" s="6"/>
     </row>
-    <row r="13" spans="1:29" ht="16.2" thickBot="1">
+    <row r="13" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -32459,24 +32695,24 @@
         <v>0.01</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.972825326289826</v>
       </c>
       <c r="M13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.3478260869565135</v>
       </c>
       <c r="N13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-9.0737240075614185</v>
       </c>
       <c r="AB13" s="5">
-        <f t="shared" si="3"/>
-        <v>2.4680995314716192</v>
+        <f t="shared" si="4"/>
+        <v>-4.4396557475105176</v>
       </c>
       <c r="AC13" s="8"/>
     </row>
-    <row r="14" spans="1:29" ht="16.2" thickBot="1">
+    <row r="14" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -32499,24 +32735,24 @@
         <v>0.01</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.938003099148318</v>
       </c>
       <c r="M14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.1666666666666625</v>
       </c>
       <c r="N14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-8.6805555555555465</v>
       </c>
       <c r="AB14" s="5">
-        <f t="shared" si="3"/>
-        <v>2.448415541205585</v>
+        <f t="shared" si="4"/>
+        <v>-4.4593397377765518</v>
       </c>
       <c r="AC14" s="6"/>
     </row>
-    <row r="15" spans="1:29" ht="16.2" thickBot="1">
+    <row r="15" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -32539,24 +32775,24 @@
         <v>0.01</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.903180872006814</v>
       </c>
       <c r="M15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.3478260869565135</v>
       </c>
       <c r="N15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-9.0737240075614185</v>
       </c>
       <c r="AB15" s="5">
-        <f t="shared" si="3"/>
-        <v>2.4274540750399152</v>
+        <f t="shared" si="4"/>
+        <v>-4.4803012039422221</v>
       </c>
       <c r="AC15" s="8"/>
     </row>
-    <row r="16" spans="1:29" ht="16.2" thickBot="1">
+    <row r="16" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -32579,27 +32815,27 @@
         <v>0.01</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.874922762723592</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
       </c>
       <c r="M16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="N16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-8.32</v>
       </c>
       <c r="AB16" s="5">
-        <f t="shared" si="3"/>
-        <v>2.4069451083182885</v>
+        <f t="shared" si="4"/>
+        <v>-4.5008101706638488</v>
       </c>
       <c r="AC16" s="6"/>
     </row>
-    <row r="17" spans="1:29" ht="18" thickBot="1">
+    <row r="17" spans="1:29" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -32622,7 +32858,7 @@
         <v>0.01</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.840090083165112</v>
       </c>
       <c r="J17" s="9">
@@ -32630,20 +32866,20 @@
         <v>1.6021766340000001E-19</v>
       </c>
       <c r="M17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.8823529411764728</v>
       </c>
       <c r="N17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-12.456747404844295</v>
       </c>
       <c r="AB17" s="5">
-        <f t="shared" si="3"/>
-        <v>2.3841650799864684</v>
+        <f t="shared" si="4"/>
+        <v>-4.5235901989956684</v>
       </c>
       <c r="AC17" s="8"/>
     </row>
-    <row r="18" spans="1:29" ht="16.2" thickBot="1">
+    <row r="18" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -32666,24 +32902,24 @@
         <v>0.01</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.805257403606635</v>
       </c>
       <c r="M18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.0000000000000178</v>
       </c>
       <c r="N18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-10.500000000000041</v>
       </c>
       <c r="AB18" s="5">
-        <f t="shared" si="3"/>
-        <v>2.3683728335320486</v>
+        <f t="shared" si="4"/>
+        <v>-4.5393824454500882</v>
       </c>
       <c r="AC18" s="6"/>
     </row>
-    <row r="19" spans="1:29" ht="16.2" thickBot="1">
+    <row r="19" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -32706,27 +32942,27 @@
         <v>0.01</v>
       </c>
       <c r="H19" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.776961407646436</v>
       </c>
       <c r="J19" t="s">
         <v>13</v>
       </c>
       <c r="M19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N19" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB19" s="5">
-        <f t="shared" si="3"/>
-        <v>2.349468678892896</v>
+        <f t="shared" si="4"/>
+        <v>-4.5582866000892412</v>
       </c>
       <c r="AC19" s="8"/>
     </row>
-    <row r="20" spans="1:29" ht="17.399999999999999" thickBot="1">
+    <row r="20" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -32749,7 +32985,7 @@
         <v>0.01</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.776961407646436</v>
       </c>
       <c r="J20" s="11">
@@ -32757,20 +32993,20 @@
         <v>1.3806503000000004E-23</v>
       </c>
       <c r="M20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.3333333333332646</v>
       </c>
       <c r="N20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-18.055555555555394</v>
       </c>
       <c r="AB20" s="5">
-        <f t="shared" si="3"/>
-        <v>2.33214389523559</v>
+        <f t="shared" si="4"/>
+        <v>-4.5756113837465469</v>
       </c>
       <c r="AC20" s="6"/>
     </row>
-    <row r="21" spans="1:29" ht="18" thickBot="1">
+    <row r="21" spans="1:29" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -32793,25 +33029,25 @@
         <v>0.01</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.742118269394201</v>
       </c>
       <c r="J21" s="10"/>
       <c r="M21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.3478260869565135</v>
       </c>
       <c r="N21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-9.0737240075614185</v>
       </c>
       <c r="AB21" s="5">
-        <f t="shared" si="3"/>
-        <v>2.3204250111223765</v>
+        <f t="shared" si="4"/>
+        <v>-4.5873302678597607</v>
       </c>
       <c r="AC21" s="8"/>
     </row>
-    <row r="22" spans="1:29" ht="21" thickBot="1">
+    <row r="22" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -32834,27 +33070,27 @@
         <v>0.01</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.713794811313498</v>
       </c>
       <c r="J22" s="14" t="s">
         <v>14</v>
       </c>
       <c r="M22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N22" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB22" s="5">
-        <f t="shared" si="3"/>
-        <v>2.2975725511705014</v>
+        <f t="shared" si="4"/>
+        <v>-4.6101827278116358</v>
       </c>
       <c r="AC22" s="6"/>
     </row>
-    <row r="23" spans="1:29" ht="16.2" thickBot="1">
+    <row r="23" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -32877,27 +33113,27 @@
         <v>0.01</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.720318408973505</v>
       </c>
       <c r="J23" t="s">
         <v>15</v>
       </c>
       <c r="M23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N23" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB23" s="5">
-        <f t="shared" si="3"/>
-        <v>2.2874714551839976</v>
+        <f t="shared" si="4"/>
+        <v>-4.6202838237981396</v>
       </c>
       <c r="AC23" s="8"/>
     </row>
-    <row r="24" spans="1:29" ht="16.2" thickBot="1">
+    <row r="24" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -32920,24 +33156,24 @@
         <v>0.01</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.726845927653883</v>
       </c>
       <c r="M24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5454545454545325</v>
       </c>
       <c r="N24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-9.504132231404931</v>
       </c>
       <c r="AB24" s="5">
-        <f t="shared" si="3"/>
-        <v>2.2772672850097559</v>
+        <f t="shared" si="4"/>
+        <v>-4.6304879939723813</v>
       </c>
       <c r="AC24" s="6"/>
     </row>
-    <row r="25" spans="1:29" ht="16.2" thickBot="1">
+    <row r="25" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -32960,24 +33196,24 @@
         <v>0.01</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.698492334982486</v>
       </c>
       <c r="M25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.000000000000036</v>
       </c>
       <c r="N25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-11.000000000000043</v>
       </c>
       <c r="AB25" s="5">
-        <f t="shared" si="3"/>
-        <v>2.2544447176661109</v>
+        <f t="shared" si="4"/>
+        <v>-4.6533105613160268</v>
       </c>
       <c r="AC25" s="8"/>
     </row>
-    <row r="26" spans="1:29" ht="16.2" thickBot="1">
+    <row r="26" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -33000,24 +33236,24 @@
         <v>0.01</v>
       </c>
       <c r="H26" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.628722263165823</v>
       </c>
       <c r="M26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.3478260869565135</v>
       </c>
       <c r="N26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-9.0737240075614185</v>
       </c>
       <c r="AB26" s="5">
-        <f t="shared" si="3"/>
-        <v>2.2332350148592526</v>
+        <f t="shared" si="4"/>
+        <v>-4.6745202641228847</v>
       </c>
       <c r="AC26" s="6"/>
     </row>
-    <row r="27" spans="1:29" ht="16.2" thickBot="1">
+    <row r="27" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>25</v>
       </c>
@@ -33040,24 +33276,24 @@
         <v>0.01</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.600330637940775</v>
       </c>
       <c r="M27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.3478260869565135</v>
       </c>
       <c r="N27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-9.0737240075614185</v>
       </c>
       <c r="AB27" s="5">
-        <f t="shared" si="3"/>
-        <v>2.2082744135228043</v>
+        <f t="shared" si="4"/>
+        <v>-4.699480865459333</v>
       </c>
       <c r="AC27" s="8"/>
     </row>
-    <row r="28" spans="1:29" ht="16.2" thickBot="1">
+    <row r="28" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -33080,24 +33316,24 @@
         <v>0.01</v>
       </c>
       <c r="H28" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.565435111869785</v>
       </c>
       <c r="M28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.2631578947368558</v>
       </c>
       <c r="N28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-11.08033240997233</v>
       </c>
       <c r="AB28" s="5">
-        <f t="shared" si="3"/>
-        <v>2.1826747963214879</v>
+        <f t="shared" si="4"/>
+        <v>-4.7250804826606494</v>
       </c>
       <c r="AC28" s="6"/>
     </row>
-    <row r="29" spans="1:29" ht="16.2" thickBot="1">
+    <row r="29" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>27</v>
       </c>
@@ -33120,24 +33356,24 @@
         <v>0.01</v>
       </c>
       <c r="H29" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.530539585798799</v>
       </c>
       <c r="M29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.6923076923077511</v>
       </c>
       <c r="N29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-16.568047337278244</v>
       </c>
       <c r="AB29" s="5">
-        <f t="shared" si="3"/>
-        <v>2.1610215286722587</v>
+        <f t="shared" si="4"/>
+        <v>-4.7467337503098781</v>
       </c>
       <c r="AC29" s="8"/>
     </row>
-    <row r="30" spans="1:29" ht="16.2" thickBot="1">
+    <row r="30" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -33160,24 +33396,24 @@
         <v>0.01</v>
       </c>
       <c r="H30" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.502109887389032</v>
       </c>
       <c r="M30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9411764705882364</v>
       </c>
       <c r="N30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-6.0553633217993106</v>
       </c>
       <c r="AB30" s="5">
-        <f t="shared" si="3"/>
-        <v>2.145931282948669</v>
+        <f t="shared" si="4"/>
+        <v>-4.7618239960334678</v>
       </c>
       <c r="AC30" s="6"/>
     </row>
-    <row r="31" spans="1:29" ht="16.2" thickBot="1">
+    <row r="31" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>29</v>
       </c>
@@ -33200,24 +33436,24 @@
         <v>0.01</v>
       </c>
       <c r="H31" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.480126184703018</v>
       </c>
       <c r="M31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.5555555555555092</v>
       </c>
       <c r="N31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-11.728395061728293</v>
       </c>
       <c r="AB31" s="5">
-        <f t="shared" ref="AB31:AB57" si="4">LN(F31)</f>
-        <v>2.1053529234643369</v>
+        <f t="shared" si="4"/>
+        <v>-4.8024023555177999</v>
       </c>
       <c r="AC31" s="6"/>
     </row>
-    <row r="32" spans="1:29" ht="16.2" thickBot="1">
+    <row r="32" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>30</v>
       </c>
@@ -33240,24 +33476,24 @@
         <v>0.01</v>
       </c>
       <c r="H32" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.451655630506309</v>
       </c>
       <c r="M32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.0000000000000284</v>
       </c>
       <c r="N32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-8.6400000000000325</v>
       </c>
       <c r="AB32" s="5">
         <f t="shared" si="4"/>
-        <v>2.0831845279586703</v>
+        <v>-4.824570751023467</v>
       </c>
       <c r="AC32" s="8"/>
     </row>
-    <row r="33" spans="1:29" ht="16.2" thickBot="1">
+    <row r="33" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>31</v>
       </c>
@@ -33280,24 +33516,24 @@
         <v>0.01</v>
       </c>
       <c r="H33" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.381780530732673</v>
       </c>
       <c r="M33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.7037037037036975</v>
       </c>
       <c r="N33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-7.681755829903965</v>
       </c>
       <c r="AB33" s="5">
         <f t="shared" si="4"/>
-        <v>2.0515563381903004</v>
+        <v>-4.8561989407918364</v>
       </c>
       <c r="AC33" s="6"/>
     </row>
-    <row r="34" spans="1:29" ht="16.2" thickBot="1">
+    <row r="34" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>32</v>
       </c>
@@ -33320,24 +33556,24 @@
         <v>0.01</v>
       </c>
       <c r="H34" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.346842980845857</v>
       </c>
       <c r="M34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.8823529411764728</v>
       </c>
       <c r="N34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-6.2283737024221475</v>
       </c>
       <c r="AB34" s="5">
         <f t="shared" si="4"/>
-        <v>2.0162354657760435</v>
+        <v>-4.8915198132060933</v>
       </c>
       <c r="AC34" s="6"/>
     </row>
-    <row r="35" spans="1:29" ht="16.2" thickBot="1">
+    <row r="35" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>33</v>
       </c>
@@ -33360,24 +33596,24 @@
         <v>0.01</v>
       </c>
       <c r="H35" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.27696788107222</v>
       </c>
       <c r="M35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.8947368421052655</v>
       </c>
       <c r="N35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-5.6786703601108055</v>
       </c>
       <c r="AB35" s="5">
         <f t="shared" si="4"/>
-        <v>1.969905654611529</v>
+        <v>-4.9378496243706085</v>
       </c>
       <c r="AC35" s="8"/>
     </row>
-    <row r="36" spans="1:29" ht="16.2" thickBot="1">
+    <row r="36" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>34</v>
       </c>
@@ -33400,24 +33636,24 @@
         <v>0.01</v>
       </c>
       <c r="H36" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.178531426331627</v>
       </c>
       <c r="M36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999911</v>
       </c>
       <c r="N36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-5.4999999999999947</v>
       </c>
       <c r="AB36" s="5">
         <f t="shared" si="4"/>
-        <v>1.9154509415706047</v>
+        <v>-4.9923043374115323</v>
       </c>
       <c r="AC36" s="6"/>
     </row>
-    <row r="37" spans="1:29" ht="16.2" thickBot="1">
+    <row r="37" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>35</v>
       </c>
@@ -33440,24 +33676,24 @@
         <v>0.01</v>
       </c>
       <c r="H37" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.038739139689181</v>
       </c>
       <c r="M37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.5000000000000098</v>
       </c>
       <c r="N37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-5.3750000000000071</v>
       </c>
       <c r="AB37" s="5">
         <f t="shared" si="4"/>
-        <v>1.8547342683894434</v>
+        <v>-5.053021010592694</v>
       </c>
       <c r="AC37" s="6"/>
     </row>
-    <row r="38" spans="1:29" ht="16.2" thickBot="1">
+    <row r="38" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>36</v>
       </c>
@@ -33480,7 +33716,7 @@
         <v>0.01</v>
       </c>
       <c r="H38" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20.933894924707335</v>
       </c>
       <c r="M38">
@@ -33488,16 +33724,16 @@
         <v>100</v>
       </c>
       <c r="N38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-105.71428571428572</v>
       </c>
       <c r="AB38" s="5">
         <f t="shared" si="4"/>
-        <v>1.7900914121273581</v>
+        <v>-5.1176638668547794</v>
       </c>
       <c r="AC38" s="8"/>
     </row>
-    <row r="39" spans="1:29" ht="16.2" thickBot="1">
+    <row r="39" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>37</v>
       </c>
@@ -33520,7 +33756,7 @@
         <v>0.01</v>
       </c>
       <c r="H39" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20.870284064947306</v>
       </c>
       <c r="M39">
@@ -33528,16 +33764,16 @@
         <v>10.526315789473687</v>
       </c>
       <c r="N39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-5.8171745152354593</v>
       </c>
       <c r="AB39" s="5">
         <f t="shared" si="4"/>
-        <v>1.7298840655099674</v>
+        <v>-5.1778712134721694</v>
       </c>
       <c r="AC39" s="6"/>
     </row>
-    <row r="40" spans="1:29" ht="16.2" thickBot="1">
+    <row r="40" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>38</v>
       </c>
@@ -33560,7 +33796,7 @@
         <v>0.01</v>
       </c>
       <c r="H40" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20.730449665852181</v>
       </c>
       <c r="M40">
@@ -33568,16 +33804,16 @@
         <v>12</v>
       </c>
       <c r="N40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-8.9599999999999991</v>
       </c>
       <c r="AB40" s="5">
         <f t="shared" si="4"/>
-        <v>1.6601310267496185</v>
+        <v>-5.2476242522325185</v>
       </c>
       <c r="AC40" s="6"/>
     </row>
-    <row r="41" spans="1:29" ht="16.2" thickBot="1">
+    <row r="41" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>39</v>
       </c>
@@ -33600,7 +33836,7 @@
         <v>0.01</v>
       </c>
       <c r="H41" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20.63178919691099</v>
       </c>
       <c r="M41">
@@ -33608,16 +33844,16 @@
         <v>8.3333333333333464</v>
       </c>
       <c r="N41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-6.0185185185185288</v>
       </c>
       <c r="AB41" s="5">
         <f t="shared" si="4"/>
-        <v>1.6114359150967734</v>
+        <v>-5.2963193638853641</v>
       </c>
       <c r="AC41" s="8"/>
     </row>
-    <row r="42" spans="1:29" ht="16.2" thickBot="1">
+    <row r="42" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>40</v>
       </c>
@@ -33640,7 +33876,7 @@
         <v>0.01</v>
       </c>
       <c r="H42" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20.52688179421483</v>
       </c>
       <c r="M42">
@@ -33648,16 +33884,16 @@
         <v>12.499999999999989</v>
       </c>
       <c r="N42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-7.0312499999999938</v>
       </c>
       <c r="AB42" s="5">
         <f t="shared" si="4"/>
-        <v>1.536867219599265</v>
+        <v>-5.3708880593828718</v>
       </c>
       <c r="AC42" s="6"/>
     </row>
-    <row r="43" spans="1:29" ht="16.2" thickBot="1">
+    <row r="43" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>41</v>
       </c>
@@ -33680,7 +33916,7 @@
         <v>0.01</v>
       </c>
       <c r="H43" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20.387005257286624</v>
       </c>
       <c r="M43">
@@ -33688,16 +33924,16 @@
         <v>10.526315789473687</v>
       </c>
       <c r="N43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-5.8171745152354593</v>
       </c>
       <c r="AB43" s="5">
         <f t="shared" si="4"/>
-        <v>1.4655675420143985</v>
+        <v>-5.4421877369677389</v>
       </c>
       <c r="AC43" s="6"/>
     </row>
-    <row r="44" spans="1:29" ht="16.2" thickBot="1">
+    <row r="44" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>42</v>
       </c>
@@ -33720,7 +33956,7 @@
         <v>0.01</v>
       </c>
       <c r="H44" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20.25323184883478</v>
       </c>
       <c r="M44">
@@ -33728,16 +33964,16 @@
         <v>13.888888888888877</v>
       </c>
       <c r="N44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-6.3271604938271553</v>
       </c>
       <c r="AB44" s="5">
         <f t="shared" si="4"/>
-        <v>1.3737155789130306</v>
+        <v>-5.5340397000691066</v>
       </c>
       <c r="AC44" s="8"/>
     </row>
-    <row r="45" spans="1:29" ht="16.2" thickBot="1">
+    <row r="45" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>43</v>
       </c>
@@ -33760,7 +33996,7 @@
         <v>0.01</v>
       </c>
       <c r="H45" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20.078333473628955</v>
       </c>
       <c r="M45">
@@ -33768,16 +34004,16 @@
         <v>14.285714285714288</v>
       </c>
       <c r="N45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-5.4421768707483</v>
       </c>
       <c r="AB45" s="5">
         <f t="shared" si="4"/>
-        <v>1.2781522025001875</v>
+        <v>-5.62960307648195</v>
       </c>
       <c r="AC45" s="6"/>
     </row>
-    <row r="46" spans="1:29" ht="16.2" thickBot="1">
+    <row r="46" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>44</v>
       </c>
@@ -33800,7 +34036,7 @@
         <v>0.01</v>
       </c>
       <c r="H46" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.868455423381963</v>
       </c>
       <c r="M46">
@@ -33808,16 +34044,16 @@
         <v>19.230769230769248</v>
       </c>
       <c r="N46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-9.1715976331361038</v>
       </c>
       <c r="AB46" s="5">
         <f t="shared" si="4"/>
-        <v>1.1537315878891892</v>
+        <v>-5.7540236910929474</v>
       </c>
       <c r="AC46" s="6"/>
     </row>
-    <row r="47" spans="1:29" ht="16.2" thickBot="1">
+    <row r="47" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>45</v>
       </c>
@@ -33840,7 +34076,7 @@
         <v>0.01</v>
       </c>
       <c r="H47" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.699495102464745</v>
       </c>
       <c r="M47">
@@ -33848,16 +34084,16 @@
         <v>21.428571428571409</v>
       </c>
       <c r="N47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-17.346938775510186</v>
       </c>
       <c r="AB47" s="5">
         <f t="shared" si="4"/>
-        <v>1.0681530811834012</v>
+        <v>-5.8396021977987358</v>
       </c>
       <c r="AC47" s="8"/>
     </row>
-    <row r="48" spans="1:29" ht="16.2" thickBot="1">
+    <row r="48" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>46</v>
       </c>
@@ -33880,7 +34116,7 @@
         <v>0.01</v>
       </c>
       <c r="H48" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.594524435844153</v>
       </c>
       <c r="M48">
@@ -33888,16 +34124,16 @@
         <v>19.999999999999996</v>
       </c>
       <c r="N48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-6.857142857142855</v>
       </c>
       <c r="AB48" s="5">
         <f t="shared" si="4"/>
-        <v>1.0188473201992472</v>
+        <v>-5.8889079587828901</v>
       </c>
       <c r="AC48" s="6"/>
     </row>
-    <row r="49" spans="1:29" ht="16.2" thickBot="1">
+    <row r="49" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>47</v>
       </c>
@@ -33920,7 +34156,7 @@
         <v>0.01</v>
       </c>
       <c r="H49" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.36126860396249</v>
       </c>
       <c r="M49">
@@ -33928,16 +34164,16 @@
         <v>22.641509433962263</v>
       </c>
       <c r="N49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-4.6279814880740471</v>
       </c>
       <c r="AB49" s="5">
         <f t="shared" si="4"/>
-        <v>0.88376754016859504</v>
+        <v>-6.0239877388135419</v>
       </c>
       <c r="AC49" s="6"/>
     </row>
-    <row r="50" spans="1:29" ht="16.2" thickBot="1">
+    <row r="50" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>48</v>
       </c>
@@ -33960,7 +34196,7 @@
         <v>0.01</v>
       </c>
       <c r="H50" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.946848928457783</v>
       </c>
       <c r="M50">
@@ -33968,16 +34204,16 @@
         <v>31.481481481481492</v>
       </c>
       <c r="N50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-4.8696844993141308</v>
       </c>
       <c r="AB50" s="5">
         <f t="shared" si="4"/>
-        <v>0.636576829071551</v>
+        <v>-6.271178449910586</v>
       </c>
       <c r="AC50" s="8"/>
     </row>
-    <row r="51" spans="1:29" ht="16.2" thickBot="1">
+    <row r="51" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>49</v>
       </c>
@@ -34000,7 +34236,7 @@
         <v>0.01</v>
       </c>
       <c r="H51" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.345939870662466</v>
       </c>
       <c r="M51">
@@ -34008,16 +34244,16 @@
         <v>42.307692307692307</v>
       </c>
       <c r="N51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-10.946745562130177</v>
       </c>
       <c r="AB51" s="5">
         <f t="shared" si="4"/>
-        <v>0.30010459245033816</v>
+        <v>-6.607650686531799</v>
       </c>
       <c r="AC51" s="6"/>
     </row>
-    <row r="52" spans="1:29" ht="16.2" thickBot="1">
+    <row r="52" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>50</v>
       </c>
@@ -34040,7 +34276,7 @@
         <v>0.01</v>
       </c>
       <c r="H52" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17.966235675228916</v>
       </c>
       <c r="M52">
@@ -34048,16 +34284,16 @@
         <v>59.574468085106375</v>
       </c>
       <c r="N52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-6.7904028972385682</v>
       </c>
       <c r="AB52" s="5">
         <f t="shared" si="4"/>
-        <v>8.6177696241052412E-2</v>
+        <v>-6.8215775827410843</v>
       </c>
       <c r="AC52" s="6"/>
     </row>
-    <row r="53" spans="1:29" ht="16.2" thickBot="1">
+    <row r="53" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>51</v>
       </c>
@@ -34080,7 +34316,7 @@
         <v>0.01</v>
       </c>
       <c r="H53" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.985622422000048</v>
       </c>
       <c r="M53">
@@ -34088,16 +34324,16 @@
         <v>116.66666666666679</v>
       </c>
       <c r="N53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-72.222222222222328</v>
       </c>
       <c r="AB53" s="5">
         <f t="shared" si="4"/>
-        <v>-0.4780358009429998</v>
+        <v>-7.3857910799251369</v>
       </c>
       <c r="AC53" s="8"/>
     </row>
-    <row r="54" spans="1:29" ht="16.2" thickBot="1">
+    <row r="54" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>52</v>
       </c>
@@ -34120,7 +34356,7 @@
         <v>0.01</v>
       </c>
       <c r="H54" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.745522835216203</v>
       </c>
       <c r="M54">
@@ -34128,16 +34364,16 @@
         <v>129.62962962962959</v>
       </c>
       <c r="N54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-17.009602194787373</v>
       </c>
       <c r="AB54" s="5">
         <f t="shared" si="4"/>
-        <v>-0.57981849525294205</v>
+        <v>-7.487573774235079</v>
       </c>
       <c r="AC54" s="6"/>
     </row>
-    <row r="55" spans="1:29" ht="16.2" thickBot="1">
+    <row r="55" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>53</v>
       </c>
@@ -34160,7 +34396,7 @@
         <v>0.01</v>
       </c>
       <c r="H55" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.528762082294632</v>
       </c>
       <c r="M55">
@@ -34168,16 +34404,16 @@
         <v>228.57142857142858</v>
       </c>
       <c r="N55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-46.938775510204088</v>
       </c>
       <c r="AB55" s="5">
         <f t="shared" si="4"/>
-        <v>-1.2378743560016174</v>
+        <v>-8.145629634983754</v>
       </c>
       <c r="AC55" s="6"/>
     </row>
-    <row r="56" spans="1:29" ht="16.2" thickBot="1">
+    <row r="56" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>54</v>
       </c>
@@ -34200,7 +34436,7 @@
         <v>0.01</v>
       </c>
       <c r="H56" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.415754744163895</v>
       </c>
       <c r="M56">
@@ -34208,16 +34444,16 @@
         <v>518.18181818181824</v>
       </c>
       <c r="N56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-112.39669421487606</v>
       </c>
       <c r="AB56" s="5">
         <f t="shared" si="4"/>
-        <v>-1.8971199848858813</v>
+        <v>-8.8048752638680181</v>
       </c>
       <c r="AC56" s="8"/>
     </row>
-    <row r="57" spans="1:29" ht="16.2" thickBot="1">
+    <row r="57" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>55</v>
       </c>
@@ -34240,7 +34476,7 @@
         <v>0.01</v>
       </c>
       <c r="H57" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.416489487674014</v>
       </c>
       <c r="M57">
@@ -34248,16 +34484,16 @@
         <v>2700</v>
       </c>
       <c r="N57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1400</v>
       </c>
       <c r="AB57" s="5">
         <f t="shared" si="4"/>
-        <v>-3.2188758248682006</v>
+        <v>-10.126631103850338</v>
       </c>
       <c r="AC57" s="6"/>
     </row>
-    <row r="58" spans="1:29">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>56</v>
       </c>
@@ -34280,17 +34516,17 @@
         <v>0.01</v>
       </c>
       <c r="H58" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.6284079490616019</v>
       </c>
       <c r="AB58" s="5"/>
       <c r="AC58" s="6"/>
     </row>
-    <row r="59" spans="1:29" ht="16.2" thickBot="1">
+    <row r="59" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AB59" s="5"/>
       <c r="AC59" s="8"/>
     </row>
-    <row r="60" spans="1:29">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B60" s="18" t="s">
         <v>16</v>
       </c>
@@ -34302,7 +34538,7 @@
       <c r="AB60" s="5"/>
       <c r="AC60" s="6"/>
     </row>
-    <row r="61" spans="1:29">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
       <c r="D61" s="19"/>
@@ -34312,11 +34548,11 @@
       <c r="AB61" s="5"/>
       <c r="AC61" s="6"/>
     </row>
-    <row r="62" spans="1:29">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
       <c r="AB62" s="5"/>
       <c r="AC62" s="8"/>
     </row>
-    <row r="63" spans="1:29">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
       <c r="AB63" s="5"/>
       <c r="AC63" s="6"/>
     </row>
@@ -34337,19 +34573,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64FDFDC-13B1-AB4C-B1C3-7FF9E2CAD166}">
   <dimension ref="A1:AC35"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+    <sheetView topLeftCell="G1" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="X65" sqref="X65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="11.19921875" customWidth="1"/>
+    <col min="1" max="4" width="11.1640625" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.19921875" customWidth="1"/>
-    <col min="28" max="29" width="11.19921875" customWidth="1"/>
+    <col min="13" max="13" width="11.1640625" customWidth="1"/>
+    <col min="28" max="29" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16.2" thickBot="1">
+    <row r="1" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -34387,7 +34623,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="16.2" thickBot="1">
+    <row r="2" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -34422,12 +34658,12 @@
         <v>-1.9992310649750102</v>
       </c>
       <c r="AB2" s="5">
-        <f>LN(F2)</f>
-        <v>2.7127060126384039</v>
+        <f>LN(F2/1000)</f>
+        <v>-4.1950492663437329</v>
       </c>
       <c r="AC2" s="6"/>
     </row>
-    <row r="3" spans="1:29" ht="16.2" thickBot="1">
+    <row r="3" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -34462,12 +34698,12 @@
         <v>-3.1715976331360927</v>
       </c>
       <c r="AB3" s="5">
-        <f t="shared" ref="AB3:AB31" si="3">LN(F3)</f>
-        <v>2.642622395779755</v>
+        <f t="shared" ref="AB3:AB31" si="3">LN(F3/1000)</f>
+        <v>-4.2651328832023827</v>
       </c>
       <c r="AC3" s="8"/>
     </row>
-    <row r="4" spans="1:29" ht="16.2" thickBot="1">
+    <row r="4" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -34503,11 +34739,11 @@
       </c>
       <c r="AB4" s="5">
         <f t="shared" si="3"/>
-        <v>2.5952547069568657</v>
+        <v>-4.3125005720252716</v>
       </c>
       <c r="AC4" s="6"/>
     </row>
-    <row r="5" spans="1:29" ht="16.2" thickBot="1">
+    <row r="5" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -34543,11 +34779,11 @@
       </c>
       <c r="AB5" s="5">
         <f t="shared" si="3"/>
-        <v>2.5541217188094731</v>
+        <v>-4.3536335601726641</v>
       </c>
       <c r="AC5" s="8"/>
     </row>
-    <row r="6" spans="1:29" ht="16.2" thickBot="1">
+    <row r="6" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -34583,11 +34819,11 @@
       </c>
       <c r="AB6" s="5">
         <f t="shared" si="3"/>
-        <v>2.4807312783775197</v>
+        <v>-4.4270240006046171</v>
       </c>
       <c r="AC6" s="6"/>
     </row>
-    <row r="7" spans="1:29" ht="16.2" thickBot="1">
+    <row r="7" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -34623,11 +34859,11 @@
       </c>
       <c r="AB7" s="5">
         <f t="shared" si="3"/>
-        <v>2.3960754360813845</v>
+        <v>-4.5116798429007527</v>
       </c>
       <c r="AC7" s="8"/>
     </row>
-    <row r="8" spans="1:29" ht="16.2" thickBot="1">
+    <row r="8" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -34663,11 +34899,11 @@
       </c>
       <c r="AB8" s="5">
         <f t="shared" si="3"/>
-        <v>2.3466019784108201</v>
+        <v>-4.5611533005713172</v>
       </c>
       <c r="AC8" s="6"/>
     </row>
-    <row r="9" spans="1:29" ht="16.2" thickBot="1">
+    <row r="9" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -34703,11 +34939,11 @@
       </c>
       <c r="AB9" s="5">
         <f t="shared" si="3"/>
-        <v>2.281361456542419</v>
+        <v>-4.6263938224397183</v>
       </c>
       <c r="AC9" s="8"/>
     </row>
-    <row r="10" spans="1:29" ht="16.2" thickBot="1">
+    <row r="10" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -34743,11 +34979,11 @@
       </c>
       <c r="AB10" s="5">
         <f t="shared" si="3"/>
-        <v>2.2170272046323989</v>
+        <v>-4.6907280743497379</v>
       </c>
       <c r="AC10" s="6"/>
     </row>
-    <row r="11" spans="1:29" ht="16.2" thickBot="1">
+    <row r="11" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -34783,11 +35019,11 @@
       </c>
       <c r="AB11" s="5">
         <f t="shared" si="3"/>
-        <v>2.1377104498038118</v>
+        <v>-4.7700448291783255</v>
       </c>
       <c r="AC11" s="8"/>
     </row>
-    <row r="12" spans="1:29" ht="16.2" thickBot="1">
+    <row r="12" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -34823,11 +35059,11 @@
       </c>
       <c r="AB12" s="5">
         <f t="shared" si="3"/>
-        <v>2.0068708488450007</v>
+        <v>-4.9008844301371361</v>
       </c>
       <c r="AC12" s="6"/>
     </row>
-    <row r="13" spans="1:29" ht="16.2" thickBot="1">
+    <row r="13" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -34863,11 +35099,11 @@
       </c>
       <c r="AB13" s="5">
         <f t="shared" si="3"/>
-        <v>1.9300710850255671</v>
+        <v>-4.9776841939565699</v>
       </c>
       <c r="AC13" s="8"/>
     </row>
-    <row r="14" spans="1:29" ht="16.2" thickBot="1">
+    <row r="14" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -34903,11 +35139,11 @@
       </c>
       <c r="AB14" s="5">
         <f t="shared" si="3"/>
-        <v>1.8578592709325787</v>
+        <v>-5.0498960080495587</v>
       </c>
       <c r="AC14" s="6"/>
     </row>
-    <row r="15" spans="1:29" ht="16.2" thickBot="1">
+    <row r="15" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -34943,11 +35179,11 @@
       </c>
       <c r="AB15" s="5">
         <f t="shared" si="3"/>
-        <v>1.7884205679625405</v>
+        <v>-5.1193347110195964</v>
       </c>
       <c r="AC15" s="8"/>
     </row>
-    <row r="16" spans="1:29" ht="16.2" thickBot="1">
+    <row r="16" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -34986,11 +35222,11 @@
       </c>
       <c r="AB16" s="5">
         <f t="shared" si="3"/>
-        <v>1.7316555451583497</v>
+        <v>-5.1760997338237873</v>
       </c>
       <c r="AC16" s="6"/>
     </row>
-    <row r="17" spans="1:29" ht="18" thickBot="1">
+    <row r="17" spans="1:29" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -35030,11 +35266,11 @@
       </c>
       <c r="AB17" s="5">
         <f t="shared" si="3"/>
-        <v>1.6351056591826783</v>
+        <v>-5.2726496197994592</v>
       </c>
       <c r="AC17" s="8"/>
     </row>
-    <row r="18" spans="1:29" ht="16.2" thickBot="1">
+    <row r="18" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -35070,11 +35306,11 @@
       </c>
       <c r="AB18" s="5">
         <f t="shared" si="3"/>
-        <v>1.4632554022560189</v>
+        <v>-5.4444998767261179</v>
       </c>
       <c r="AC18" s="6"/>
     </row>
-    <row r="19" spans="1:29" ht="16.2" thickBot="1">
+    <row r="19" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -35113,11 +35349,11 @@
       </c>
       <c r="AB19" s="5">
         <f t="shared" si="3"/>
-        <v>1.3056264580524357</v>
+        <v>-5.6021288209297015</v>
       </c>
       <c r="AC19" s="8"/>
     </row>
-    <row r="20" spans="1:29" ht="17.399999999999999" thickBot="1">
+    <row r="20" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -35157,11 +35393,11 @@
       </c>
       <c r="AB20" s="5">
         <f t="shared" si="3"/>
-        <v>0.98581679452276538</v>
+        <v>-5.9219384844593721</v>
       </c>
       <c r="AC20" s="6"/>
     </row>
-    <row r="21" spans="1:29" ht="18" thickBot="1">
+    <row r="21" spans="1:29" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -35198,11 +35434,11 @@
       </c>
       <c r="AB21" s="5">
         <f t="shared" si="3"/>
-        <v>0.92028275314369246</v>
+        <v>-5.9874725258384442</v>
       </c>
       <c r="AC21" s="8"/>
     </row>
-    <row r="22" spans="1:29" ht="21" thickBot="1">
+    <row r="22" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -35241,11 +35477,11 @@
       </c>
       <c r="AB22" s="5">
         <f t="shared" si="3"/>
-        <v>0.48858001481867092</v>
+        <v>-6.4191752641634663</v>
       </c>
       <c r="AC22" s="6"/>
     </row>
-    <row r="23" spans="1:29" ht="16.2" thickBot="1">
+    <row r="23" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -35284,11 +35520,11 @@
       </c>
       <c r="AB23" s="5">
         <f t="shared" si="3"/>
-        <v>0.22314355131420976</v>
+        <v>-6.6846117276679271</v>
       </c>
       <c r="AC23" s="8"/>
     </row>
-    <row r="24" spans="1:29" ht="16.2" thickBot="1">
+    <row r="24" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -35324,11 +35560,11 @@
       </c>
       <c r="AB24" s="5">
         <f t="shared" si="3"/>
-        <v>-0.15082288973458366</v>
+        <v>-7.0585781687167204</v>
       </c>
       <c r="AC24" s="6"/>
     </row>
-    <row r="25" spans="1:29" ht="16.2" thickBot="1">
+    <row r="25" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -35364,11 +35600,11 @@
       </c>
       <c r="AB25" s="5">
         <f t="shared" si="3"/>
-        <v>-0.61618613942381695</v>
+        <v>-7.5239414184059541</v>
       </c>
       <c r="AC25" s="8"/>
     </row>
-    <row r="26" spans="1:29" ht="16.2" thickBot="1">
+    <row r="26" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -35404,11 +35640,11 @@
       </c>
       <c r="AB26" s="5">
         <f t="shared" si="3"/>
-        <v>-1.0788096613719298</v>
+        <v>-7.9865649403540671</v>
       </c>
       <c r="AC26" s="6"/>
     </row>
-    <row r="27" spans="1:29" ht="16.2" thickBot="1">
+    <row r="27" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>25</v>
       </c>
@@ -35444,11 +35680,11 @@
       </c>
       <c r="AB27" s="5">
         <f t="shared" si="3"/>
-        <v>-1.5141277326297755</v>
+        <v>-8.4218830116119126</v>
       </c>
       <c r="AC27" s="8"/>
     </row>
-    <row r="28" spans="1:29" ht="16.2" thickBot="1">
+    <row r="28" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -35484,11 +35720,11 @@
       </c>
       <c r="AB28" s="5">
         <f t="shared" si="3"/>
-        <v>-1.8971199848858813</v>
+        <v>-8.8048752638680181</v>
       </c>
       <c r="AC28" s="6"/>
     </row>
-    <row r="29" spans="1:29" ht="16.2" thickBot="1">
+    <row r="29" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>27</v>
       </c>
@@ -35524,11 +35760,11 @@
       </c>
       <c r="AB29" s="5">
         <f t="shared" si="3"/>
-        <v>-2.3025850929940455</v>
+        <v>-9.2103403719761818</v>
       </c>
       <c r="AC29" s="8"/>
     </row>
-    <row r="30" spans="1:29" ht="16.2" thickBot="1">
+    <row r="30" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -35564,11 +35800,11 @@
       </c>
       <c r="AB30" s="5">
         <f t="shared" si="3"/>
-        <v>-3.5065578973199818</v>
+        <v>-10.41431317630212</v>
       </c>
       <c r="AC30" s="6"/>
     </row>
-    <row r="31" spans="1:29" ht="16.2" thickBot="1">
+    <row r="31" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>29</v>
       </c>
@@ -35604,11 +35840,11 @@
       </c>
       <c r="AB31" s="5">
         <f t="shared" si="3"/>
-        <v>-4.6051701859880909</v>
+        <v>-11.512925464970229</v>
       </c>
       <c r="AC31" s="6"/>
     </row>
-    <row r="32" spans="1:29" ht="16.2" thickBot="1">
+    <row r="32" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>30</v>
       </c>
@@ -35635,8 +35871,8 @@
         <v>11.240110077866133</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="16.2" thickBot="1"/>
-    <row r="34" spans="2:7">
+    <row r="33" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" s="18" t="s">
         <v>16</v>
       </c>
@@ -35646,7 +35882,7 @@
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
@@ -35670,19 +35906,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B8D5F5-4DDF-2344-BE93-713864C91CD6}">
   <dimension ref="A1:AC58"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14"/>
+    <sheetView topLeftCell="J13" zoomScale="70" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="11.19921875" customWidth="1"/>
+    <col min="1" max="4" width="11.1640625" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.19921875" customWidth="1"/>
-    <col min="28" max="29" width="11.19921875" customWidth="1"/>
+    <col min="13" max="13" width="11.1640625" customWidth="1"/>
+    <col min="28" max="29" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16.2" thickBot="1">
+    <row r="1" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -35720,7 +35956,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="16.2" thickBot="1">
+    <row r="2" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -35761,7 +35997,7 @@
       </c>
       <c r="AC2" s="6"/>
     </row>
-    <row r="3" spans="1:29" ht="16.2" thickBot="1">
+    <row r="3" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -35801,7 +36037,7 @@
       </c>
       <c r="AC3" s="8"/>
     </row>
-    <row r="4" spans="1:29" ht="16.2" thickBot="1">
+    <row r="4" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -35841,7 +36077,7 @@
       </c>
       <c r="AC4" s="6"/>
     </row>
-    <row r="5" spans="1:29" ht="16.2" thickBot="1">
+    <row r="5" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -35881,7 +36117,7 @@
       </c>
       <c r="AC5" s="8"/>
     </row>
-    <row r="6" spans="1:29" ht="16.2" thickBot="1">
+    <row r="6" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -35921,7 +36157,7 @@
       </c>
       <c r="AC6" s="6"/>
     </row>
-    <row r="7" spans="1:29" ht="16.2" thickBot="1">
+    <row r="7" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -35961,7 +36197,7 @@
       </c>
       <c r="AC7" s="8"/>
     </row>
-    <row r="8" spans="1:29" ht="16.2" thickBot="1">
+    <row r="8" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -36001,7 +36237,7 @@
       </c>
       <c r="AC8" s="6"/>
     </row>
-    <row r="9" spans="1:29" ht="16.2" thickBot="1">
+    <row r="9" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -36041,7 +36277,7 @@
       </c>
       <c r="AC9" s="8"/>
     </row>
-    <row r="10" spans="1:29" ht="16.2" thickBot="1">
+    <row r="10" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -36081,7 +36317,7 @@
       </c>
       <c r="AC10" s="6"/>
     </row>
-    <row r="11" spans="1:29" ht="16.2" thickBot="1">
+    <row r="11" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -36121,7 +36357,7 @@
       </c>
       <c r="AC11" s="8"/>
     </row>
-    <row r="12" spans="1:29" ht="16.2" thickBot="1">
+    <row r="12" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -36161,7 +36397,7 @@
       </c>
       <c r="AC12" s="6"/>
     </row>
-    <row r="13" spans="1:29" ht="16.2" thickBot="1">
+    <row r="13" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -36201,7 +36437,7 @@
       </c>
       <c r="AC13" s="8"/>
     </row>
-    <row r="14" spans="1:29" ht="16.2" thickBot="1">
+    <row r="14" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -36241,7 +36477,7 @@
       </c>
       <c r="AC14" s="6"/>
     </row>
-    <row r="15" spans="1:29" ht="16.2" thickBot="1">
+    <row r="15" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -36281,7 +36517,7 @@
       </c>
       <c r="AC15" s="8"/>
     </row>
-    <row r="16" spans="1:29" ht="16.2" thickBot="1">
+    <row r="16" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -36324,7 +36560,7 @@
       </c>
       <c r="AC16" s="6"/>
     </row>
-    <row r="17" spans="1:29" ht="18" thickBot="1">
+    <row r="17" spans="1:29" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -36368,7 +36604,7 @@
       </c>
       <c r="AC17" s="8"/>
     </row>
-    <row r="18" spans="1:29" ht="16.2" thickBot="1">
+    <row r="18" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -36408,7 +36644,7 @@
       </c>
       <c r="AC18" s="6"/>
     </row>
-    <row r="19" spans="1:29" ht="16.2" thickBot="1">
+    <row r="19" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -36451,7 +36687,7 @@
       </c>
       <c r="AC19" s="8"/>
     </row>
-    <row r="20" spans="1:29" ht="17.399999999999999" thickBot="1">
+    <row r="20" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -36495,7 +36731,7 @@
       </c>
       <c r="AC20" s="6"/>
     </row>
-    <row r="21" spans="1:29" ht="18" thickBot="1">
+    <row r="21" spans="1:29" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -36536,7 +36772,7 @@
       </c>
       <c r="AC21" s="8"/>
     </row>
-    <row r="22" spans="1:29" ht="21" thickBot="1">
+    <row r="22" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -36579,7 +36815,7 @@
       </c>
       <c r="AC22" s="6"/>
     </row>
-    <row r="23" spans="1:29" ht="16.2" thickBot="1">
+    <row r="23" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -36622,7 +36858,7 @@
       </c>
       <c r="AC23" s="8"/>
     </row>
-    <row r="24" spans="1:29" ht="16.2" thickBot="1">
+    <row r="24" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -36649,8 +36885,8 @@
         <v>13.466910915437513</v>
       </c>
     </row>
-    <row r="56" spans="9:14" ht="16.2" thickBot="1"/>
-    <row r="57" spans="9:14">
+    <row r="56" spans="9:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I57" s="18" t="s">
         <v>16</v>
       </c>
@@ -36660,7 +36896,7 @@
       <c r="M57" s="18"/>
       <c r="N57" s="18"/>
     </row>
-    <row r="58" spans="9:14">
+    <row r="58" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I58" s="19"/>
       <c r="J58" s="19"/>
       <c r="K58" s="19"/>
@@ -36684,23 +36920,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF5D825E-8ABD-AB46-9243-4AAB60C8E7B6}">
   <dimension ref="A1:AC44"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView zoomScale="58" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="11.19921875" customWidth="1"/>
-    <col min="6" max="6" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="11.1640625" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.19921875" customWidth="1"/>
-    <col min="14" max="14" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="11.19921875" customWidth="1"/>
+    <col min="13" max="13" width="11.1640625" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16.2" thickBot="1">
+    <row r="1" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -36732,13 +36968,13 @@
         <v>9</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AC1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="16.2" thickBot="1">
+    <row r="2" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -36763,8 +36999,8 @@
         <v>18.050743695354655</v>
       </c>
       <c r="J2">
-        <f>EXP(-15.237)*(EXP(I2)-1)</f>
-        <v>16.6722169926148</v>
+        <f>EXP(-22.145)*(EXP(I2)-1)*1000</f>
+        <v>16.668137449897625</v>
       </c>
       <c r="M2">
         <f>(D3-D2)/(F3-F2)</f>
@@ -36775,12 +37011,12 @@
         <v>0</v>
       </c>
       <c r="AB2" s="5">
-        <f>LN(F2)</f>
-        <v>2.8094026953624978</v>
+        <f>LN(F2/1000)</f>
+        <v>-4.0983525836196391</v>
       </c>
       <c r="AC2" s="6"/>
     </row>
-    <row r="3" spans="1:29" ht="16.2" thickBot="1">
+    <row r="3" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -36805,8 +37041,8 @@
         <v>17.97563657873043</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J21" si="3">EXP(-15.237)*(EXP(I3)-1)</f>
-        <v>15.465883958078372</v>
+        <f t="shared" ref="J3:J21" si="3">EXP(-22.145)*(EXP(I3)-1)*1000</f>
+        <v>15.462099594289572</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M20" si="4">(D4-D3)/(F4-F3)</f>
@@ -36817,12 +37053,12 @@
         <v>0</v>
       </c>
       <c r="AB3" s="5">
-        <f t="shared" ref="AB3:AB20" si="5">LN(F3)</f>
-        <v>2.6616571615324998</v>
+        <f t="shared" ref="AB3:AB20" si="5">LN(F3/1000)</f>
+        <v>-4.2460981174496375</v>
       </c>
       <c r="AC3" s="8"/>
     </row>
-    <row r="4" spans="1:29" ht="16.2" thickBot="1">
+    <row r="4" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -36848,7 +37084,7 @@
       </c>
       <c r="J4">
         <f t="shared" si="3"/>
-        <v>13.646158225517047</v>
+        <v>13.642819132375985</v>
       </c>
       <c r="M4">
         <f t="shared" si="4"/>
@@ -36860,11 +37096,11 @@
       </c>
       <c r="AB4" s="5">
         <f t="shared" si="5"/>
-        <v>2.5423890852013629</v>
+        <v>-4.3653661937807744</v>
       </c>
       <c r="AC4" s="6"/>
     </row>
-    <row r="5" spans="1:29" ht="16.2" thickBot="1">
+    <row r="5" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -36890,7 +37126,7 @@
       </c>
       <c r="J5">
         <f t="shared" si="3"/>
-        <v>11.452500508266638</v>
+        <v>11.449698183593043</v>
       </c>
       <c r="M5">
         <f t="shared" si="4"/>
@@ -36902,11 +37138,11 @@
       </c>
       <c r="AB5" s="5">
         <f t="shared" si="5"/>
-        <v>2.379546134130174</v>
+        <v>-4.5282091448519628</v>
       </c>
       <c r="AC5" s="8"/>
     </row>
-    <row r="6" spans="1:29" ht="16.2" thickBot="1">
+    <row r="6" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -36932,7 +37168,7 @@
       </c>
       <c r="J6">
         <f t="shared" si="3"/>
-        <v>10.623844679924167</v>
+        <v>10.621245119936939</v>
       </c>
       <c r="M6">
         <f t="shared" si="4"/>
@@ -36944,11 +37180,11 @@
       </c>
       <c r="AB6" s="5">
         <f t="shared" si="5"/>
-        <v>2.2874714551839976</v>
+        <v>-4.6202838237981396</v>
       </c>
       <c r="AC6" s="6"/>
     </row>
-    <row r="7" spans="1:29" ht="16.2" thickBot="1">
+    <row r="7" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -36974,7 +37210,7 @@
       </c>
       <c r="J7">
         <f t="shared" si="3"/>
-        <v>9.8551469774843419</v>
+        <v>9.8527355109651324</v>
       </c>
       <c r="M7">
         <f t="shared" si="4"/>
@@ -36986,11 +37222,11 @@
       </c>
       <c r="AB7" s="5">
         <f t="shared" si="5"/>
-        <v>2.2375130962503307</v>
+        <v>-4.6702421827318066</v>
       </c>
       <c r="AC7" s="8"/>
     </row>
-    <row r="8" spans="1:29" ht="16.2" thickBot="1">
+    <row r="8" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -37016,7 +37252,7 @@
       </c>
       <c r="J8">
         <f t="shared" si="3"/>
-        <v>8.9160322244986219</v>
+        <v>8.9138505509789177</v>
       </c>
       <c r="M8">
         <f t="shared" si="4"/>
@@ -37028,11 +37264,11 @@
       </c>
       <c r="AB8" s="5">
         <f t="shared" si="5"/>
-        <v>2.1644717908644115</v>
+        <v>-4.7432834881177257</v>
       </c>
       <c r="AC8" s="6"/>
     </row>
-    <row r="9" spans="1:29" ht="16.2" thickBot="1">
+    <row r="9" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -37058,7 +37294,7 @@
       </c>
       <c r="J9">
         <f t="shared" si="3"/>
-        <v>8.9160322244986219</v>
+        <v>8.9138505509789177</v>
       </c>
       <c r="M9">
         <f t="shared" si="4"/>
@@ -37070,11 +37306,11 @@
       </c>
       <c r="AB9" s="5">
         <f t="shared" si="5"/>
-        <v>2.1482677326096886</v>
+        <v>-4.7594875463724486</v>
       </c>
       <c r="AC9" s="8"/>
     </row>
-    <row r="10" spans="1:29" ht="16.2" thickBot="1">
+    <row r="10" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -37100,7 +37336,7 @@
       </c>
       <c r="J10">
         <f t="shared" si="3"/>
-        <v>6.4390875628979973</v>
+        <v>6.4375119756330212</v>
       </c>
       <c r="M10">
         <f t="shared" si="4"/>
@@ -37112,11 +37348,11 @@
       </c>
       <c r="AB10" s="5">
         <f t="shared" si="5"/>
-        <v>1.8437192081587661</v>
+        <v>-5.0640360708233709</v>
       </c>
       <c r="AC10" s="6"/>
     </row>
-    <row r="11" spans="1:29" ht="16.2" thickBot="1">
+    <row r="11" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -37142,7 +37378,7 @@
       </c>
       <c r="J11">
         <f t="shared" si="3"/>
-        <v>6.2798816879663333</v>
+        <v>6.2783450569582184</v>
       </c>
       <c r="M11">
         <f t="shared" si="4"/>
@@ -37154,11 +37390,11 @@
       </c>
       <c r="AB11" s="5">
         <f t="shared" si="5"/>
-        <v>1.8309801823813363</v>
+        <v>-5.0767750966008007</v>
       </c>
       <c r="AC11" s="8"/>
     </row>
-    <row r="12" spans="1:29" ht="16.2" thickBot="1">
+    <row r="12" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -37184,7 +37420,7 @@
       </c>
       <c r="J12">
         <f t="shared" si="3"/>
-        <v>5.012976152914101</v>
+        <v>5.0117495223846964</v>
       </c>
       <c r="M12">
         <f t="shared" si="4"/>
@@ -37196,11 +37432,11 @@
       </c>
       <c r="AB12" s="5">
         <f t="shared" si="5"/>
-        <v>1.631199404215613</v>
+        <v>-5.2765558747665242</v>
       </c>
       <c r="AC12" s="6"/>
     </row>
-    <row r="13" spans="1:29" ht="16.2" thickBot="1">
+    <row r="13" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -37226,7 +37462,7 @@
       </c>
       <c r="J13">
         <f t="shared" si="3"/>
-        <v>3.9251995539319537</v>
+        <v>3.9242390926291288</v>
       </c>
       <c r="M13">
         <f t="shared" si="4"/>
@@ -37238,11 +37474,11 @@
       </c>
       <c r="AB13" s="5">
         <f t="shared" si="5"/>
-        <v>1.43746264769429</v>
+        <v>-5.4702926312878466</v>
       </c>
       <c r="AC13" s="8"/>
     </row>
-    <row r="14" spans="1:29" ht="16.2" thickBot="1">
+    <row r="14" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -37268,7 +37504,7 @@
       </c>
       <c r="J14">
         <f t="shared" si="3"/>
-        <v>3.294013040214796</v>
+        <v>3.2932070246192433</v>
       </c>
       <c r="M14">
         <f t="shared" si="4"/>
@@ -37280,11 +37516,11 @@
       </c>
       <c r="AB14" s="5">
         <f t="shared" si="5"/>
-        <v>1.2325602611778486</v>
+        <v>-5.6751950178042883</v>
       </c>
       <c r="AC14" s="6"/>
     </row>
-    <row r="15" spans="1:29" ht="16.2" thickBot="1">
+    <row r="15" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -37310,7 +37546,7 @@
       </c>
       <c r="J15">
         <f t="shared" si="3"/>
-        <v>2.20647591851194</v>
+        <v>2.2059360135450135</v>
       </c>
       <c r="M15">
         <f t="shared" si="4"/>
@@ -37322,11 +37558,11 @@
       </c>
       <c r="AB15" s="5">
         <f t="shared" si="5"/>
-        <v>0.86288995514703981</v>
+        <v>-6.0448653238350971</v>
       </c>
       <c r="AC15" s="8"/>
     </row>
-    <row r="16" spans="1:29" ht="16.2" thickBot="1">
+    <row r="16" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -37352,7 +37588,7 @@
       </c>
       <c r="J16">
         <f t="shared" si="3"/>
-        <v>1.1797319984508143</v>
+        <v>1.1794433285585841</v>
       </c>
       <c r="M16">
         <f t="shared" si="4"/>
@@ -37364,11 +37600,11 @@
       </c>
       <c r="AB16" s="5">
         <f t="shared" si="5"/>
-        <v>0.26236426446749106</v>
+        <v>-6.6453910145146464</v>
       </c>
       <c r="AC16" s="6"/>
     </row>
-    <row r="17" spans="1:29" ht="16.2" thickBot="1">
+    <row r="17" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -37394,7 +37630,7 @@
       </c>
       <c r="J17">
         <f t="shared" si="3"/>
-        <v>0.8102776200203442</v>
+        <v>0.81007935231754813</v>
       </c>
       <c r="M17">
         <f t="shared" si="4"/>
@@ -37406,11 +37642,11 @@
       </c>
       <c r="AB17" s="5">
         <f t="shared" si="5"/>
-        <v>-8.3381608939051013E-2</v>
+        <v>-6.9911368879211881</v>
       </c>
       <c r="AC17" s="8"/>
     </row>
-    <row r="18" spans="1:29" ht="16.2" thickBot="1">
+    <row r="18" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -37436,7 +37672,7 @@
       </c>
       <c r="J18">
         <f t="shared" si="3"/>
-        <v>0.71490884167365776</v>
+        <v>0.71473390985986318</v>
       </c>
       <c r="M18">
         <f t="shared" si="4"/>
@@ -37448,11 +37684,11 @@
       </c>
       <c r="AB18" s="5">
         <f t="shared" si="5"/>
-        <v>-0.18632957819149348</v>
+        <v>-7.0940848571736304</v>
       </c>
       <c r="AC18" s="6"/>
     </row>
-    <row r="19" spans="1:29" ht="16.2" thickBot="1">
+    <row r="19" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -37478,7 +37714,7 @@
       </c>
       <c r="J19">
         <f t="shared" si="3"/>
-        <v>0.14036829038705337</v>
+        <v>0.14033394351902589</v>
       </c>
       <c r="M19">
         <f t="shared" si="4"/>
@@ -37490,11 +37726,11 @@
       </c>
       <c r="AB19" s="5">
         <f t="shared" si="5"/>
-        <v>-1.8325814637483102</v>
+        <v>-8.740336742730447</v>
       </c>
       <c r="AC19" s="8"/>
     </row>
-    <row r="20" spans="1:29" ht="16.2" thickBot="1">
+    <row r="20" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -37520,7 +37756,7 @@
       </c>
       <c r="J20">
         <f t="shared" si="3"/>
-        <v>1.3001147565192075E-2</v>
+        <v>1.2997966300403596E-2</v>
       </c>
       <c r="M20">
         <f t="shared" si="4"/>
@@ -37532,11 +37768,11 @@
       </c>
       <c r="AB20" s="5">
         <f t="shared" si="5"/>
-        <v>-4.6051701859880909</v>
+        <v>-11.512925464970229</v>
       </c>
       <c r="AC20" s="6"/>
     </row>
-    <row r="21" spans="1:29">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -37562,11 +37798,11 @@
       </c>
       <c r="J21">
         <f t="shared" si="3"/>
-        <v>1.9818176071075881E-4</v>
+        <v>1.9813326740246377E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="16.2" thickBot="1"/>
-    <row r="23" spans="1:29">
+    <row r="22" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B23" s="18" t="s">
         <v>16</v>
       </c>
@@ -37576,7 +37812,7 @@
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
     </row>
-    <row r="24" spans="1:29">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
@@ -37584,37 +37820,37 @@
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
     </row>
-    <row r="37" spans="7:7">
+    <row r="37" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G37" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="7:7" ht="17.399999999999999">
+    <row r="38" spans="7:7" ht="18" x14ac:dyDescent="0.2">
       <c r="G38" s="9">
         <f>1.602176634*10^(-19)</f>
         <v>1.6021766340000001E-19</v>
       </c>
     </row>
-    <row r="40" spans="7:7">
+    <row r="40" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G40" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="7:7" ht="16.8">
+    <row r="41" spans="7:7" ht="17" x14ac:dyDescent="0.2">
       <c r="G41" s="11">
         <f>1.3806503*10^(-23)</f>
         <v>1.3806503000000004E-23</v>
       </c>
     </row>
-    <row r="42" spans="7:7" ht="17.399999999999999">
+    <row r="42" spans="7:7" ht="18" x14ac:dyDescent="0.2">
       <c r="G42" s="10"/>
     </row>
-    <row r="43" spans="7:7" ht="20.399999999999999">
+    <row r="43" spans="7:7" ht="20" x14ac:dyDescent="0.2">
       <c r="G43" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="7:7">
+    <row r="44" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G44" t="s">
         <v>15</v>
       </c>
@@ -37633,24 +37869,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29EA75CD-2EAA-AD46-B54B-F32D80398925}">
-  <dimension ref="A1:AC63"/>
+  <dimension ref="A1:AC64"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="11.19921875" customWidth="1"/>
-    <col min="6" max="6" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="11.1640625" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.19921875" customWidth="1"/>
-    <col min="14" max="14" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="11.19921875" customWidth="1"/>
+    <col min="13" max="13" width="11.1640625" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16.2" thickBot="1">
+    <row r="1" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -37694,7 +37930,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="16.2" thickBot="1">
+    <row r="2" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -37719,8 +37955,8 @@
         <v>19.448805050928325</v>
       </c>
       <c r="J2">
-        <f>EXP(-16.69)*(EXP(I2)-1)</f>
-        <v>15.780974159983806</v>
+        <f>EXP(-23.598)*(EXP(I2)-1)*10^3</f>
+        <v>15.777112696434461</v>
       </c>
       <c r="M2">
         <f>(D3-D2)/(F3-F2)</f>
@@ -37731,12 +37967,12 @@
         <v>0</v>
       </c>
       <c r="AB2" s="5">
-        <f>LN(F2)</f>
-        <v>2.6939512767227085</v>
+        <f>LN(F2/1000)</f>
+        <v>-4.2138040022594287</v>
       </c>
       <c r="AC2" s="6"/>
     </row>
-    <row r="3" spans="1:29" ht="16.2" thickBot="1">
+    <row r="3" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -37761,8 +37997,8 @@
         <v>19.351898452959585</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J31" si="3">EXP(-16.69)*(EXP(I3)-1)</f>
-        <v>14.32345565369074</v>
+        <f t="shared" ref="J3:J31" si="3">EXP(-23.598)*(EXP(I3)-1)*10^3</f>
+        <v>14.319950831913154</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M30" si="4">(D4-D3)/(F4-F3)</f>
@@ -37773,12 +38009,12 @@
         <v>0</v>
       </c>
       <c r="AB3" s="5">
-        <f t="shared" ref="AB3:AB57" si="5">LN(F3)</f>
-        <v>2.6019486702196644</v>
+        <f t="shared" ref="AB3:AB30" si="5">LN(F3/1000)</f>
+        <v>-4.3058066087624729</v>
       </c>
       <c r="AC3" s="8"/>
     </row>
-    <row r="4" spans="1:29" ht="16.2" thickBot="1">
+    <row r="4" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -37804,7 +38040,7 @@
       </c>
       <c r="J4">
         <f t="shared" si="3"/>
-        <v>13.248264995180472</v>
+        <v>13.245023262962146</v>
       </c>
       <c r="M4">
         <f t="shared" si="4"/>
@@ -37816,11 +38052,11 @@
       </c>
       <c r="AB4" s="5">
         <f t="shared" si="5"/>
-        <v>2.5273273656719524</v>
+        <v>-4.3804279133101849</v>
       </c>
       <c r="AC4" s="6"/>
     </row>
-    <row r="5" spans="1:29" ht="16.2" thickBot="1">
+    <row r="5" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -37846,7 +38082,7 @@
       </c>
       <c r="J5">
         <f t="shared" si="3"/>
-        <v>12.57669335642337</v>
+        <v>12.573615951792021</v>
       </c>
       <c r="M5">
         <f t="shared" si="4"/>
@@ -37858,11 +38094,11 @@
       </c>
       <c r="AB5" s="5">
         <f t="shared" si="5"/>
-        <v>2.4578779774000812</v>
+        <v>-4.4498773015820561</v>
       </c>
       <c r="AC5" s="8"/>
     </row>
-    <row r="6" spans="1:29" ht="16.2" thickBot="1">
+    <row r="6" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -37888,7 +38124,7 @@
       </c>
       <c r="J6">
         <f t="shared" si="3"/>
-        <v>11.333952900868201</v>
+        <v>11.331179583736253</v>
       </c>
       <c r="M6">
         <f t="shared" si="4"/>
@@ -37900,11 +38136,11 @@
       </c>
       <c r="AB6" s="5">
         <f t="shared" si="5"/>
-        <v>2.3627390158137929</v>
+        <v>-4.5450162631683444</v>
       </c>
       <c r="AC6" s="6"/>
     </row>
-    <row r="7" spans="1:29" ht="16.2" thickBot="1">
+    <row r="7" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -37930,7 +38166,7 @@
       </c>
       <c r="J7">
         <f t="shared" si="3"/>
-        <v>9.9517639860222395</v>
+        <v>9.949328878183259</v>
       </c>
       <c r="M7">
         <f t="shared" si="4"/>
@@ -37942,11 +38178,11 @@
       </c>
       <c r="AB7" s="5">
         <f t="shared" si="5"/>
-        <v>2.2417729535972883</v>
+        <v>-4.6659823253848485</v>
       </c>
       <c r="AC7" s="8"/>
     </row>
-    <row r="8" spans="1:29" ht="16.2" thickBot="1">
+    <row r="8" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -37972,7 +38208,7 @@
       </c>
       <c r="J8">
         <f t="shared" si="3"/>
-        <v>9.2047345016089288</v>
+        <v>9.2024821852183809</v>
       </c>
       <c r="M8">
         <f t="shared" si="4"/>
@@ -37984,11 +38220,11 @@
       </c>
       <c r="AB8" s="5">
         <f t="shared" si="5"/>
-        <v>2.1690537003695232</v>
+        <v>-4.7387015786126137</v>
       </c>
       <c r="AC8" s="6"/>
     </row>
-    <row r="9" spans="1:29" ht="16.2" thickBot="1">
+    <row r="9" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -38014,7 +38250,7 @@
       </c>
       <c r="J9">
         <f t="shared" si="3"/>
-        <v>8.2951873223610075</v>
+        <v>8.293157564048526</v>
       </c>
       <c r="M9">
         <f t="shared" si="4"/>
@@ -38026,11 +38262,11 @@
       </c>
       <c r="AB9" s="5">
         <f t="shared" si="5"/>
-        <v>2.0819384218784229</v>
+        <v>-4.8258168571037139</v>
       </c>
       <c r="AC9" s="8"/>
     </row>
-    <row r="10" spans="1:29" ht="16.2" thickBot="1">
+    <row r="10" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -38056,7 +38292,7 @@
       </c>
       <c r="J10">
         <f t="shared" si="3"/>
-        <v>7.4755152031770145</v>
+        <v>7.4736860113174357</v>
       </c>
       <c r="M10">
         <f t="shared" si="4"/>
@@ -38068,11 +38304,11 @@
       </c>
       <c r="AB10" s="5">
         <f t="shared" si="5"/>
-        <v>1.9906103279732201</v>
+        <v>-4.9171449510089165</v>
       </c>
       <c r="AC10" s="6"/>
     </row>
-    <row r="11" spans="1:29" ht="16.2" thickBot="1">
+    <row r="11" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -38098,7 +38334,7 @@
       </c>
       <c r="J11">
         <f t="shared" si="3"/>
-        <v>6.071150398181091</v>
+        <v>6.0696648418569064</v>
       </c>
       <c r="M11">
         <f t="shared" si="4"/>
@@ -38110,11 +38346,11 @@
       </c>
       <c r="AB11" s="5">
         <f t="shared" si="5"/>
-        <v>1.7884205679625405</v>
+        <v>-5.1193347110195964</v>
       </c>
       <c r="AC11" s="8"/>
     </row>
-    <row r="12" spans="1:29" ht="16.2" thickBot="1">
+    <row r="12" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -38140,7 +38376,7 @@
       </c>
       <c r="J12">
         <f t="shared" si="3"/>
-        <v>5.0605430202537258</v>
+        <v>5.0593047505363753</v>
       </c>
       <c r="M12">
         <f t="shared" si="4"/>
@@ -38152,11 +38388,11 @@
       </c>
       <c r="AB12" s="5">
         <f t="shared" si="5"/>
-        <v>1.6094379124341003</v>
+        <v>-5.2983173665480363</v>
       </c>
       <c r="AC12" s="6"/>
     </row>
-    <row r="13" spans="1:29" ht="16.2" thickBot="1">
+    <row r="13" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -38182,7 +38418,7 @@
       </c>
       <c r="J13">
         <f t="shared" si="3"/>
-        <v>4.560495718308788</v>
+        <v>4.5593798057038573</v>
       </c>
       <c r="M13">
         <f t="shared" si="4"/>
@@ -38194,11 +38430,11 @@
       </c>
       <c r="AB13" s="5">
         <f t="shared" si="5"/>
-        <v>1.5129270120532565</v>
+        <v>-5.3948282669288803</v>
       </c>
       <c r="AC13" s="8"/>
     </row>
-    <row r="14" spans="1:29" ht="16.2" thickBot="1">
+    <row r="14" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -38224,7 +38460,7 @@
       </c>
       <c r="J14">
         <f t="shared" si="3"/>
-        <v>4.2181619579076193</v>
+        <v>4.2171298113189124</v>
       </c>
       <c r="M14">
         <f t="shared" si="4"/>
@@ -38236,11 +38472,11 @@
       </c>
       <c r="AB14" s="5">
         <f t="shared" si="5"/>
-        <v>1.4398351280479205</v>
+        <v>-5.4679201509342166</v>
       </c>
       <c r="AC14" s="6"/>
     </row>
-    <row r="15" spans="1:29" ht="16.2" thickBot="1">
+    <row r="15" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -38266,7 +38502,7 @@
       </c>
       <c r="J15">
         <f t="shared" si="3"/>
-        <v>4.0043378861908208</v>
+        <v>4.003358060444322</v>
       </c>
       <c r="M15">
         <f t="shared" si="4"/>
@@ -38278,11 +38514,11 @@
       </c>
       <c r="AB15" s="5">
         <f t="shared" si="5"/>
-        <v>1.3912819026309295</v>
+        <v>-5.5164733763512075</v>
       </c>
       <c r="AC15" s="8"/>
     </row>
-    <row r="16" spans="1:29" ht="16.2" thickBot="1">
+    <row r="16" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -38308,7 +38544,7 @@
       </c>
       <c r="J16">
         <f t="shared" si="3"/>
-        <v>3.4257298553709021</v>
+        <v>3.4248916098461128</v>
       </c>
       <c r="M16">
         <f t="shared" si="4"/>
@@ -38320,11 +38556,11 @@
       </c>
       <c r="AB16" s="5">
         <f t="shared" si="5"/>
-        <v>1.2527629684953681</v>
+        <v>-5.6549923104867688</v>
       </c>
       <c r="AC16" s="6"/>
     </row>
-    <row r="17" spans="1:29" ht="16.2" thickBot="1">
+    <row r="17" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -38350,7 +38586,7 @@
       </c>
       <c r="J17">
         <f t="shared" si="3"/>
-        <v>3.0872233011073522</v>
+        <v>3.0864678851155976</v>
       </c>
       <c r="M17">
         <f t="shared" si="4"/>
@@ -38362,11 +38598,11 @@
       </c>
       <c r="AB17" s="5">
         <f t="shared" si="5"/>
-        <v>1.1474024528375417</v>
+        <v>-5.7603528261445955</v>
       </c>
       <c r="AC17" s="8"/>
     </row>
-    <row r="18" spans="1:29" ht="16.2" thickBot="1">
+    <row r="18" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -38392,7 +38628,7 @@
       </c>
       <c r="J18">
         <f t="shared" si="3"/>
-        <v>2.6411340216299042</v>
+        <v>2.6404877597039884</v>
       </c>
       <c r="M18">
         <f t="shared" si="4"/>
@@ -38404,11 +38640,11 @@
       </c>
       <c r="AB18" s="5">
         <f t="shared" si="5"/>
-        <v>0.9895411936137477</v>
+        <v>-5.9182140853683896</v>
       </c>
       <c r="AC18" s="6"/>
     </row>
-    <row r="19" spans="1:29" ht="16.2" thickBot="1">
+    <row r="19" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -38434,7 +38670,7 @@
       </c>
       <c r="J19">
         <f t="shared" si="3"/>
-        <v>2.2595025484779701</v>
+        <v>2.2589496683678991</v>
       </c>
       <c r="M19">
         <f t="shared" si="4"/>
@@ -38446,11 +38682,11 @@
       </c>
       <c r="AB19" s="5">
         <f t="shared" si="5"/>
-        <v>0.8586616190375187</v>
+        <v>-6.0490936599446181</v>
       </c>
       <c r="AC19" s="8"/>
     </row>
-    <row r="20" spans="1:29" ht="16.2" thickBot="1">
+    <row r="20" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -38476,7 +38712,7 @@
       </c>
       <c r="J20">
         <f t="shared" si="3"/>
-        <v>1.9839535440527403</v>
+        <v>1.9834680883250841</v>
       </c>
       <c r="M20">
         <f t="shared" si="4"/>
@@ -38488,11 +38724,11 @@
       </c>
       <c r="AB20" s="5">
         <f t="shared" si="5"/>
-        <v>0.74668794748797507</v>
+        <v>-6.161067331494162</v>
       </c>
       <c r="AC20" s="6"/>
     </row>
-    <row r="21" spans="1:29" ht="16.2" thickBot="1">
+    <row r="21" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -38518,7 +38754,7 @@
       </c>
       <c r="J21">
         <f t="shared" si="3"/>
-        <v>1.6972815641981989</v>
+        <v>1.6968662545457855</v>
       </c>
       <c r="M21">
         <f t="shared" si="4"/>
@@ -38530,11 +38766,11 @@
       </c>
       <c r="AB21" s="5">
         <f t="shared" si="5"/>
-        <v>0.59883650108870401</v>
+        <v>-6.3089187778934335</v>
       </c>
       <c r="AC21" s="8"/>
     </row>
-    <row r="22" spans="1:29" ht="16.2" thickBot="1">
+    <row r="22" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -38560,7 +38796,7 @@
       </c>
       <c r="J22">
         <f t="shared" si="3"/>
-        <v>1.4147510387134425</v>
+        <v>1.4144048617593452</v>
       </c>
       <c r="M22">
         <f t="shared" si="4"/>
@@ -38572,11 +38808,11 @@
       </c>
       <c r="AB22" s="5">
         <f t="shared" si="5"/>
-        <v>0.42526773540434409</v>
+        <v>-6.4824875435777924</v>
       </c>
       <c r="AC22" s="6"/>
     </row>
-    <row r="23" spans="1:29" ht="16.2" thickBot="1">
+    <row r="23" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -38602,7 +38838,7 @@
       </c>
       <c r="J23">
         <f t="shared" si="3"/>
-        <v>1.0354396946206759</v>
+        <v>1.0351863317675472</v>
       </c>
       <c r="M23">
         <f t="shared" si="4"/>
@@ -38614,11 +38850,11 @@
       </c>
       <c r="AB23" s="5">
         <f t="shared" si="5"/>
-        <v>0.13976194237515863</v>
+        <v>-6.7679933366069784</v>
       </c>
       <c r="AC23" s="8"/>
     </row>
-    <row r="24" spans="1:29" ht="16.2" thickBot="1">
+    <row r="24" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -38644,7 +38880,7 @@
       </c>
       <c r="J24">
         <f t="shared" si="3"/>
-        <v>0.75782616595978436</v>
+        <v>0.75764073265972764</v>
       </c>
       <c r="M24">
         <f t="shared" si="4"/>
@@ -38656,11 +38892,11 @@
       </c>
       <c r="AB24" s="5">
         <f t="shared" si="5"/>
-        <v>-0.1743533871447778</v>
+        <v>-7.0821086661269153</v>
       </c>
       <c r="AC24" s="6"/>
     </row>
-    <row r="25" spans="1:29" ht="16.2" thickBot="1">
+    <row r="25" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -38686,7 +38922,7 @@
       </c>
       <c r="J25">
         <f t="shared" si="3"/>
-        <v>0.43888219673725937</v>
+        <v>0.43877480618025211</v>
       </c>
       <c r="M25">
         <f t="shared" si="4"/>
@@ -38698,11 +38934,11 @@
       </c>
       <c r="AB25" s="5">
         <f t="shared" si="5"/>
-        <v>-0.69314718055994529</v>
+        <v>-7.6009024595420822</v>
       </c>
       <c r="AC25" s="8"/>
     </row>
-    <row r="26" spans="1:29" ht="16.2" thickBot="1">
+    <row r="26" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -38728,7 +38964,7 @@
       </c>
       <c r="J26">
         <f t="shared" si="3"/>
-        <v>0.23509181317633834</v>
+        <v>0.23503428830758644</v>
       </c>
       <c r="M26">
         <f t="shared" si="4"/>
@@ -38740,11 +38976,11 @@
       </c>
       <c r="AB26" s="5">
         <f t="shared" si="5"/>
-        <v>-1.3093333199837622</v>
+        <v>-8.2170885989658995</v>
       </c>
       <c r="AC26" s="6"/>
     </row>
-    <row r="27" spans="1:29" ht="16.2" thickBot="1">
+    <row r="27" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>25</v>
       </c>
@@ -38770,7 +39006,7 @@
       </c>
       <c r="J27">
         <f t="shared" si="3"/>
-        <v>0.13265375534992949</v>
+        <v>0.13262129615978224</v>
       </c>
       <c r="M27">
         <f t="shared" si="4"/>
@@ -38782,11 +39018,11 @@
       </c>
       <c r="AB27" s="5">
         <f t="shared" si="5"/>
-        <v>-1.8971199848858813</v>
+        <v>-8.8048752638680181</v>
       </c>
       <c r="AC27" s="8"/>
     </row>
-    <row r="28" spans="1:29" ht="16.2" thickBot="1">
+    <row r="28" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -38812,7 +39048,7 @@
       </c>
       <c r="J28">
         <f t="shared" si="3"/>
-        <v>7.4465643654885061E-2</v>
+        <v>7.4447422576405561E-2</v>
       </c>
       <c r="M28">
         <f t="shared" si="4"/>
@@ -38824,11 +39060,11 @@
       </c>
       <c r="AB28" s="5">
         <f t="shared" si="5"/>
-        <v>-2.5257286443082556</v>
+        <v>-9.4334839232903924</v>
       </c>
       <c r="AC28" s="6"/>
     </row>
-    <row r="29" spans="1:29" ht="16.2" thickBot="1">
+    <row r="29" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>27</v>
       </c>
@@ -38854,7 +39090,7 @@
       </c>
       <c r="J29">
         <f t="shared" si="3"/>
-        <v>3.3258273274764182E-2</v>
+        <v>3.325013527208686E-2</v>
       </c>
       <c r="M29">
         <f t="shared" si="4"/>
@@ -38866,11 +39102,11 @@
       </c>
       <c r="AB29" s="5">
         <f t="shared" si="5"/>
-        <v>-3.5065578973199818</v>
+        <v>-10.41431317630212</v>
       </c>
       <c r="AC29" s="8"/>
     </row>
-    <row r="30" spans="1:29" ht="16.2" thickBot="1">
+    <row r="30" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -38896,7 +39132,7 @@
       </c>
       <c r="J30">
         <f t="shared" si="3"/>
-        <v>1.410128226239939E-2</v>
+        <v>1.4097831804468006E-2</v>
       </c>
       <c r="M30">
         <f t="shared" si="4"/>
@@ -38908,11 +39144,11 @@
       </c>
       <c r="AB30" s="5">
         <f t="shared" si="5"/>
-        <v>-4.6051701859880909</v>
+        <v>-11.512925464970229</v>
       </c>
       <c r="AC30" s="6"/>
     </row>
-    <row r="31" spans="1:29">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>29</v>
       </c>
@@ -38938,22 +39174,16 @@
       </c>
       <c r="J31">
         <f t="shared" si="3"/>
-        <v>6.6341464541896144E-3</v>
-      </c>
-      <c r="AB31" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC31" s="6"/>
+        <v>6.6325231377546354E-3</v>
+      </c>
+      <c r="AB31" s="20"/>
+      <c r="AC31" s="20"/>
     </row>
-    <row r="32" spans="1:29" ht="16.2" thickBot="1">
-      <c r="AB32" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC32" s="8"/>
+    <row r="32" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB32" s="20"/>
+      <c r="AC32" s="20"/>
     </row>
-    <row r="33" spans="2:29">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B33" s="18" t="s">
         <v>16</v>
       </c>
@@ -38962,230 +39192,159 @@
       <c r="E33" s="18"/>
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
-      <c r="AB33" s="5" t="e">
-        <f>LN(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AC33" s="6"/>
+      <c r="AB33" s="20"/>
+      <c r="AC33" s="20"/>
     </row>
-    <row r="34" spans="2:29">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
-      <c r="AB34" s="5" t="e">
-        <f>LN(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AC34" s="6"/>
+      <c r="AB34" s="20"/>
+      <c r="AC34" s="20"/>
     </row>
-    <row r="35" spans="2:29">
-      <c r="AB35" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC35" s="8"/>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AB35" s="20"/>
+      <c r="AC35" s="20"/>
     </row>
-    <row r="36" spans="2:29">
-      <c r="AB36" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC36" s="6"/>
+    <row r="36" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AB36" s="20"/>
+      <c r="AC36" s="20"/>
     </row>
-    <row r="37" spans="2:29">
-      <c r="AB37" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC37" s="6"/>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AB37" s="20"/>
+      <c r="AC37" s="20"/>
     </row>
-    <row r="38" spans="2:29">
-      <c r="AB38" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC38" s="8"/>
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AB38" s="20"/>
+      <c r="AC38" s="20"/>
     </row>
-    <row r="39" spans="2:29">
-      <c r="AB39" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC39" s="6"/>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AB39" s="20"/>
+      <c r="AC39" s="20"/>
     </row>
-    <row r="40" spans="2:29">
-      <c r="AB40" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC40" s="6"/>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AB40" s="20"/>
+      <c r="AC40" s="20"/>
     </row>
-    <row r="41" spans="2:29">
-      <c r="AB41" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC41" s="8"/>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AB41" s="20"/>
+      <c r="AC41" s="20"/>
     </row>
-    <row r="42" spans="2:29">
-      <c r="AB42" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC42" s="6"/>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AB42" s="20"/>
+      <c r="AC42" s="20"/>
     </row>
-    <row r="43" spans="2:29">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="H43" t="s">
         <v>12</v>
       </c>
-      <c r="AB43" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC43" s="6"/>
+      <c r="AB43" s="20"/>
+      <c r="AC43" s="20"/>
     </row>
-    <row r="44" spans="2:29" ht="17.399999999999999">
+    <row r="44" spans="2:29" ht="18" x14ac:dyDescent="0.2">
       <c r="H44" s="9">
         <f>1.602176634*10^(-19)</f>
         <v>1.6021766340000001E-19</v>
       </c>
-      <c r="AB44" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC44" s="8"/>
+      <c r="AB44" s="20"/>
+      <c r="AC44" s="20"/>
     </row>
-    <row r="45" spans="2:29">
-      <c r="AB45" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC45" s="6"/>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AB45" s="20"/>
+      <c r="AC45" s="20"/>
     </row>
-    <row r="46" spans="2:29">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="H46" t="s">
         <v>13</v>
       </c>
-      <c r="AB46" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC46" s="6"/>
+      <c r="AB46" s="20"/>
+      <c r="AC46" s="20"/>
     </row>
-    <row r="47" spans="2:29" ht="16.8">
+    <row r="47" spans="2:29" ht="17" x14ac:dyDescent="0.2">
       <c r="H47" s="11">
         <f>1.3806503*10^(-23)</f>
         <v>1.3806503000000004E-23</v>
       </c>
-      <c r="AB47" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC47" s="8"/>
+      <c r="AB47" s="20"/>
+      <c r="AC47" s="20"/>
     </row>
-    <row r="48" spans="2:29" ht="17.399999999999999">
+    <row r="48" spans="2:29" ht="18" x14ac:dyDescent="0.2">
       <c r="H48" s="10"/>
-      <c r="AB48" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC48" s="6"/>
+      <c r="AB48" s="20"/>
+      <c r="AC48" s="20"/>
     </row>
-    <row r="49" spans="8:29" ht="20.399999999999999">
+    <row r="49" spans="8:29" ht="20" x14ac:dyDescent="0.2">
       <c r="H49" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="AB49" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC49" s="6"/>
+      <c r="AB49" s="20"/>
+      <c r="AC49" s="20"/>
     </row>
-    <row r="50" spans="8:29">
+    <row r="50" spans="8:29" x14ac:dyDescent="0.2">
       <c r="H50" t="s">
         <v>15</v>
       </c>
-      <c r="AB50" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC50" s="8"/>
+      <c r="AB50" s="20"/>
+      <c r="AC50" s="20"/>
     </row>
-    <row r="51" spans="8:29">
-      <c r="AB51" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC51" s="6"/>
+    <row r="51" spans="8:29" x14ac:dyDescent="0.2">
+      <c r="AB51" s="20"/>
+      <c r="AC51" s="20"/>
     </row>
-    <row r="52" spans="8:29">
-      <c r="AB52" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC52" s="6"/>
+    <row r="52" spans="8:29" x14ac:dyDescent="0.2">
+      <c r="AB52" s="20"/>
+      <c r="AC52" s="20"/>
     </row>
-    <row r="53" spans="8:29">
-      <c r="AB53" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC53" s="8"/>
+    <row r="53" spans="8:29" x14ac:dyDescent="0.2">
+      <c r="AB53" s="20"/>
+      <c r="AC53" s="20"/>
     </row>
-    <row r="54" spans="8:29">
-      <c r="AB54" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC54" s="6"/>
+    <row r="54" spans="8:29" x14ac:dyDescent="0.2">
+      <c r="AB54" s="20"/>
+      <c r="AC54" s="20"/>
     </row>
-    <row r="55" spans="8:29">
-      <c r="AB55" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC55" s="6"/>
+    <row r="55" spans="8:29" x14ac:dyDescent="0.2">
+      <c r="AB55" s="20"/>
+      <c r="AC55" s="20"/>
     </row>
-    <row r="56" spans="8:29">
-      <c r="AB56" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC56" s="8"/>
+    <row r="56" spans="8:29" x14ac:dyDescent="0.2">
+      <c r="AB56" s="20"/>
+      <c r="AC56" s="20"/>
     </row>
-    <row r="57" spans="8:29">
-      <c r="AB57" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC57" s="6"/>
+    <row r="57" spans="8:29" x14ac:dyDescent="0.2">
+      <c r="AB57" s="20"/>
+      <c r="AC57" s="20"/>
     </row>
-    <row r="58" spans="8:29">
-      <c r="AB58" s="5"/>
-      <c r="AC58" s="6"/>
+    <row r="58" spans="8:29" x14ac:dyDescent="0.2">
+      <c r="AB58" s="20"/>
+      <c r="AC58" s="20"/>
     </row>
-    <row r="59" spans="8:29">
-      <c r="AB59" s="5"/>
-      <c r="AC59" s="8"/>
+    <row r="59" spans="8:29" x14ac:dyDescent="0.2">
+      <c r="AB59" s="20"/>
+      <c r="AC59" s="20"/>
     </row>
-    <row r="60" spans="8:29">
-      <c r="AB60" s="5"/>
-      <c r="AC60" s="6"/>
+    <row r="60" spans="8:29" x14ac:dyDescent="0.2">
+      <c r="AB60" s="20"/>
+      <c r="AC60" s="20"/>
     </row>
-    <row r="61" spans="8:29">
-      <c r="AB61" s="5"/>
-      <c r="AC61" s="6"/>
+    <row r="61" spans="8:29" x14ac:dyDescent="0.2">
+      <c r="AB61" s="20"/>
+      <c r="AC61" s="20"/>
     </row>
-    <row r="62" spans="8:29">
-      <c r="AB62" s="5"/>
-      <c r="AC62" s="8"/>
+    <row r="62" spans="8:29" x14ac:dyDescent="0.2">
+      <c r="AB62" s="20"/>
+      <c r="AC62" s="20"/>
     </row>
-    <row r="63" spans="8:29">
-      <c r="AB63" s="5"/>
-      <c r="AC63" s="6"/>
+    <row r="63" spans="8:29" x14ac:dyDescent="0.2">
+      <c r="AB63" s="20"/>
+      <c r="AC63" s="20"/>
+    </row>
+    <row r="64" spans="8:29" x14ac:dyDescent="0.2">
+      <c r="AB64" s="20"/>
+      <c r="AC64" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -39201,21 +39360,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964810A6-0329-CE44-9434-FAE1DDC1CC77}">
-  <dimension ref="A1:AC58"/>
+  <dimension ref="A1:AD58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="Q31" zoomScale="125" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="11.19921875" customWidth="1"/>
+    <col min="1" max="4" width="11.1640625" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.19921875" customWidth="1"/>
-    <col min="28" max="29" width="11.19921875" customWidth="1"/>
+    <col min="13" max="13" width="11.1640625" customWidth="1"/>
+    <col min="28" max="29" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16.2" thickBot="1">
+    <row r="1" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -39247,13 +39406,13 @@
         <v>9</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AC1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="16.2" thickBot="1">
+    <row r="2" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -39276,8 +39435,8 @@
         <v>0.01</v>
       </c>
       <c r="H2" s="6">
-        <f>$J$17*D2/($J$20*B2)/1000</f>
-        <v>159.78745010603299</v>
+        <f>$J$17*D2/($J$20*(273.15+B2))/1000</f>
+        <v>35.209336800872698</v>
       </c>
       <c r="M2">
         <f>(D3-D2)/(F3-F2)</f>
@@ -39288,12 +39447,12 @@
         <v>-0.84374999999999978</v>
       </c>
       <c r="AB2" s="5">
-        <f>LN(F2)</f>
-        <v>2.6844403354630764</v>
+        <f>LN(F2/1000)</f>
+        <v>-4.2233149435190604</v>
       </c>
       <c r="AC2" s="6"/>
     </row>
-    <row r="3" spans="1:29" ht="16.2" thickBot="1">
+    <row r="3" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -39316,8 +39475,8 @@
         <v>0.01</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" ref="H3:H24" si="1">$J$17*D3/($J$20*B3)/1000</f>
-        <v>159.33649775389932</v>
+        <f t="shared" ref="H3:H20" si="1">$J$17*D3/($J$20*(273.15+B3))/1000</f>
+        <v>35.109968964181618</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M23" si="2">(D4-D3)/(F4-F3)</f>
@@ -39328,12 +39487,12 @@
         <v>-0.97067374831162301</v>
       </c>
       <c r="AB3" s="5">
-        <f t="shared" ref="AB3:AB23" si="3">LN(F3)</f>
-        <v>2.5055259369907361</v>
+        <f t="shared" ref="AB3:AB20" si="3">LN(F3/1000)</f>
+        <v>-4.4022293419914007</v>
       </c>
       <c r="AC3" s="8"/>
     </row>
-    <row r="4" spans="1:29" ht="16.2" thickBot="1">
+    <row r="4" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -39357,7 +39516,7 @@
       </c>
       <c r="H4" s="6">
         <f t="shared" si="1"/>
-        <v>158.88554540176563</v>
+        <v>35.010601127490531</v>
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
@@ -39369,11 +39528,11 @@
       </c>
       <c r="AB4" s="5">
         <f t="shared" si="3"/>
-        <v>2.318458442150336</v>
+        <v>-4.5892968368318012</v>
       </c>
       <c r="AC4" s="6"/>
     </row>
-    <row r="5" spans="1:29" ht="16.2" thickBot="1">
+    <row r="5" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -39397,7 +39556,7 @@
       </c>
       <c r="H5" s="6">
         <f t="shared" si="1"/>
-        <v>158.58491050034317</v>
+        <v>34.944355903029816</v>
       </c>
       <c r="M5">
         <f t="shared" si="2"/>
@@ -39409,11 +39568,11 @@
       </c>
       <c r="AB5" s="5">
         <f t="shared" si="3"/>
-        <v>2.1644717908644115</v>
+        <v>-4.7432834881177257</v>
       </c>
       <c r="AC5" s="8"/>
     </row>
-    <row r="6" spans="1:29" ht="16.2" thickBot="1">
+    <row r="6" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -39437,7 +39596,7 @@
       </c>
       <c r="H6" s="6">
         <f t="shared" si="1"/>
-        <v>158.28427559892074</v>
+        <v>34.878110678569094</v>
       </c>
       <c r="M6">
         <f t="shared" si="2"/>
@@ -39449,11 +39608,11 @@
       </c>
       <c r="AB6" s="5">
         <f t="shared" si="3"/>
-        <v>1.9960599327407849</v>
+        <v>-4.911695346241352</v>
       </c>
       <c r="AC6" s="6"/>
     </row>
-    <row r="7" spans="1:29" ht="16.2" thickBot="1">
+    <row r="7" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -39477,7 +39636,7 @@
       </c>
       <c r="H7" s="6">
         <f t="shared" si="1"/>
-        <v>158.1339581482095</v>
+        <v>34.844988066338729</v>
       </c>
       <c r="M7">
         <f t="shared" si="2"/>
@@ -39489,11 +39648,11 @@
       </c>
       <c r="AB7" s="5">
         <f t="shared" si="3"/>
-        <v>1.8991179875485542</v>
+        <v>-5.0086372914335824</v>
       </c>
       <c r="AC7" s="8"/>
     </row>
-    <row r="8" spans="1:29" ht="16.2" thickBot="1">
+    <row r="8" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -39517,7 +39676,7 @@
       </c>
       <c r="H8" s="6">
         <f t="shared" si="1"/>
-        <v>157.68300579607583</v>
+        <v>34.745620229647656</v>
       </c>
       <c r="M8">
         <f t="shared" si="2"/>
@@ -39529,11 +39688,11 @@
       </c>
       <c r="AB8" s="5">
         <f t="shared" si="3"/>
-        <v>1.7047480922384253</v>
+        <v>-5.2030071867437115</v>
       </c>
       <c r="AC8" s="6"/>
     </row>
-    <row r="9" spans="1:29" ht="16.2" thickBot="1">
+    <row r="9" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -39557,7 +39716,7 @@
       </c>
       <c r="H9" s="6">
         <f t="shared" si="1"/>
-        <v>157.38237089465335</v>
+        <v>34.679375005186934</v>
       </c>
       <c r="M9">
         <f t="shared" si="2"/>
@@ -39569,11 +39728,11 @@
       </c>
       <c r="AB9" s="5">
         <f t="shared" si="3"/>
-        <v>1.5238800240724537</v>
+        <v>-5.3838752549096833</v>
       </c>
       <c r="AC9" s="8"/>
     </row>
-    <row r="10" spans="1:29" ht="16.2" thickBot="1">
+    <row r="10" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -39597,7 +39756,7 @@
       </c>
       <c r="H10" s="6">
         <f t="shared" si="1"/>
-        <v>156.78110109180847</v>
+        <v>34.546884556265496</v>
       </c>
       <c r="M10">
         <f t="shared" si="2"/>
@@ -39609,11 +39768,11 @@
       </c>
       <c r="AB10" s="5">
         <f t="shared" si="3"/>
-        <v>1.2584609896100056</v>
+        <v>-5.649294289372131</v>
       </c>
       <c r="AC10" s="6"/>
     </row>
-    <row r="11" spans="1:29" ht="16.2" thickBot="1">
+    <row r="11" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -39637,7 +39796,7 @@
       </c>
       <c r="H11" s="6">
         <f t="shared" si="1"/>
-        <v>156.48046619038601</v>
+        <v>34.480639331804781</v>
       </c>
       <c r="M11">
         <f t="shared" si="2"/>
@@ -39649,11 +39808,11 @@
       </c>
       <c r="AB11" s="5">
         <f t="shared" si="3"/>
-        <v>1.0612565021243408</v>
+        <v>-5.8464987768577963</v>
       </c>
       <c r="AC11" s="8"/>
     </row>
-    <row r="12" spans="1:29" ht="16.2" thickBot="1">
+    <row r="12" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -39677,7 +39836,7 @@
       </c>
       <c r="H12" s="6">
         <f t="shared" si="1"/>
-        <v>156.17983128896356</v>
+        <v>34.414394107344059</v>
       </c>
       <c r="M12">
         <f t="shared" si="2"/>
@@ -39689,11 +39848,11 @@
       </c>
       <c r="AB12" s="5">
         <f t="shared" si="3"/>
-        <v>0.89199803930511046</v>
+        <v>-6.0157572396770265</v>
       </c>
       <c r="AC12" s="6"/>
     </row>
-    <row r="13" spans="1:29" ht="16.2" thickBot="1">
+    <row r="13" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -39717,7 +39876,7 @@
       </c>
       <c r="H13" s="6">
         <f t="shared" si="1"/>
-        <v>155.72887893682989</v>
+        <v>34.315026270652979</v>
       </c>
       <c r="M13">
         <f t="shared" si="2"/>
@@ -39729,11 +39888,11 @@
       </c>
       <c r="AB13" s="5">
         <f t="shared" si="3"/>
-        <v>0.69813472207098426</v>
+        <v>-6.2096205569111529</v>
       </c>
       <c r="AC13" s="8"/>
     </row>
-    <row r="14" spans="1:29" ht="16.2" thickBot="1">
+    <row r="14" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -39757,7 +39916,7 @@
       </c>
       <c r="H14" s="6">
         <f t="shared" si="1"/>
-        <v>155.27792658469619</v>
+        <v>34.215658433961892</v>
       </c>
       <c r="M14">
         <f t="shared" si="2"/>
@@ -39769,11 +39928,11 @@
       </c>
       <c r="AB14" s="5">
         <f t="shared" si="3"/>
-        <v>0.43178241642553783</v>
+        <v>-6.4759728625565991</v>
       </c>
       <c r="AC14" s="6"/>
     </row>
-    <row r="15" spans="1:29" ht="16.2" thickBot="1">
+    <row r="15" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -39797,7 +39956,7 @@
       </c>
       <c r="H15" s="6">
         <f t="shared" si="1"/>
-        <v>153.92506952829515</v>
+        <v>33.917554923888652</v>
       </c>
       <c r="M15">
         <f t="shared" si="2"/>
@@ -39809,11 +39968,11 @@
       </c>
       <c r="AB15" s="5">
         <f t="shared" si="3"/>
-        <v>-0.2876820724517809</v>
+        <v>-7.1954373514339176</v>
       </c>
       <c r="AC15" s="8"/>
     </row>
-    <row r="16" spans="1:29" ht="16.2" thickBot="1">
+    <row r="16" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -39837,7 +39996,7 @@
       </c>
       <c r="H16" s="6">
         <f t="shared" si="1"/>
-        <v>153.02316482402782</v>
+        <v>33.718819250506492</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -39852,11 +40011,11 @@
       </c>
       <c r="AB16" s="5">
         <f t="shared" si="3"/>
-        <v>-0.82098055206983023</v>
+        <v>-7.7287358310519672</v>
       </c>
       <c r="AC16" s="6"/>
     </row>
-    <row r="17" spans="1:29" ht="18" thickBot="1">
+    <row r="17" spans="1:30" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -39880,7 +40039,7 @@
       </c>
       <c r="H17" s="6">
         <f t="shared" si="1"/>
-        <v>152.27157757047172</v>
+        <v>33.553206189354697</v>
       </c>
       <c r="J17" s="9">
         <f>1.602176634*10^(-19)</f>
@@ -39896,11 +40055,11 @@
       </c>
       <c r="AB17" s="5">
         <f t="shared" si="3"/>
-        <v>-1.3093333199837622</v>
+        <v>-8.2170885989658995</v>
       </c>
       <c r="AC17" s="8"/>
     </row>
-    <row r="18" spans="1:29" ht="16.2" thickBot="1">
+    <row r="18" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -39924,7 +40083,7 @@
       </c>
       <c r="H18" s="6">
         <f t="shared" si="1"/>
-        <v>149.41554600695841</v>
+        <v>32.923876556977852</v>
       </c>
       <c r="M18">
         <f t="shared" si="2"/>
@@ -39936,11 +40095,11 @@
       </c>
       <c r="AB18" s="5">
         <f t="shared" si="3"/>
-        <v>-2.9957322735539909</v>
+        <v>-9.9034875525361272</v>
       </c>
       <c r="AC18" s="6"/>
     </row>
-    <row r="19" spans="1:29" ht="16.2" thickBot="1">
+    <row r="19" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -39964,7 +40123,7 @@
       </c>
       <c r="H19" s="6">
         <f t="shared" si="1"/>
-        <v>146.70983189415634</v>
+        <v>32.327669536831372</v>
       </c>
       <c r="J19" t="s">
         <v>13</v>
@@ -39979,194 +40138,156 @@
       </c>
       <c r="AB19" s="5">
         <f t="shared" si="3"/>
-        <v>-4.6051701859880909</v>
+        <v>-11.512925464970229</v>
       </c>
       <c r="AC19" s="8"/>
     </row>
-    <row r="20" spans="1:29" ht="17.399999999999999" thickBot="1">
+    <row r="20" spans="1:30" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>18</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="15">
         <v>77.2</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="15">
         <v>0.1</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="15">
         <v>962</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="15">
         <v>1</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="15">
         <v>0</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="15">
         <v>0.01</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" si="1"/>
-        <v>144.60538758419918</v>
+        <v>31.863952965606334</v>
       </c>
       <c r="J20" s="11">
         <f>1.3806503*10^(-23)</f>
         <v>1.3806503000000004E-23</v>
       </c>
-      <c r="M20" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N20" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB20" s="5" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC20" s="6"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="20"/>
+      <c r="AD20" s="20"/>
     </row>
-    <row r="21" spans="1:29" ht="18" thickBot="1">
-      <c r="A21" s="7">
-        <v>19</v>
-      </c>
-      <c r="B21" s="12">
-        <v>77.2</v>
-      </c>
-      <c r="C21" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="12">
-        <v>1</v>
-      </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="H21" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+    <row r="21" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
       <c r="J21" s="10"/>
-      <c r="M21" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB21" s="5" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC21" s="8"/>
+      <c r="AB21" s="20"/>
+      <c r="AC21" s="20"/>
+      <c r="AD21" s="20"/>
     </row>
-    <row r="22" spans="1:29" ht="21" thickBot="1">
-      <c r="A22" s="5">
-        <v>20</v>
-      </c>
-      <c r="B22" s="12">
-        <v>77.2</v>
-      </c>
-      <c r="C22" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12">
-        <v>1</v>
-      </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="H22" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+    <row r="22" spans="1:30" ht="20" x14ac:dyDescent="0.2">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
       <c r="J22" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="M22" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N22" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB22" s="5" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC22" s="6"/>
+      <c r="AB22" s="20"/>
+      <c r="AC22" s="20"/>
+      <c r="AD22" s="20"/>
     </row>
-    <row r="23" spans="1:29" ht="16.2" thickBot="1">
-      <c r="A23" s="7">
-        <v>21</v>
-      </c>
-      <c r="B23" s="12">
-        <v>77.2</v>
-      </c>
-      <c r="C23" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="12">
-        <v>1</v>
-      </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="H23" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
       <c r="J23" t="s">
         <v>15</v>
       </c>
-      <c r="M23" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N23" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB23" s="5" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="AC23" s="8"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="20"/>
     </row>
-    <row r="24" spans="1:29" ht="16.2" thickBot="1">
-      <c r="A24" s="5">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="20"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="20"/>
+      <c r="AD25" s="20"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+    </row>
+    <row r="44" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA44" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="12">
-        <v>77.2</v>
-      </c>
-      <c r="C24" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="12">
-        <v>1</v>
-      </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="H24" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="56" spans="9:14" ht="16.2" thickBot="1"/>
-    <row r="57" spans="9:14">
+    <row r="45" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA45">
+        <f>SLOPE(AB2:AB19,H2:H19)</f>
+        <v>2.5343862206687207</v>
+      </c>
+    </row>
+    <row r="47" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA48">
+        <f>INTERCEPT(AB2:AB19,H2:H19)</f>
+        <v>-93.28085672413178</v>
+      </c>
+    </row>
+    <row r="56" spans="9:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I57" s="18" t="s">
         <v>16</v>
       </c>
@@ -40176,7 +40297,7 @@
       <c r="M57" s="18"/>
       <c r="N57" s="18"/>
     </row>
-    <row r="58" spans="9:14">
+    <row r="58" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I58" s="19"/>
       <c r="J58" s="19"/>
       <c r="K58" s="19"/>
@@ -40200,19 +40321,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C9F8CB-8527-E840-9CEF-74962860B9C8}">
   <dimension ref="A1:AC82"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView zoomScale="59" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="11.19921875" customWidth="1"/>
+    <col min="1" max="4" width="11.1640625" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.19921875" customWidth="1"/>
-    <col min="28" max="29" width="11.19921875" customWidth="1"/>
+    <col min="13" max="13" width="11.1640625" customWidth="1"/>
+    <col min="28" max="29" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16.2" thickBot="1">
+    <row r="1" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -40244,13 +40365,13 @@
         <v>9</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AC1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="16.2" thickBot="1">
+    <row r="2" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -40284,13 +40405,13 @@
         <f t="shared" ref="N2:N37" si="0">M2*(2*E3/(D3-D2)+2*G3/(F3-F2))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB2" s="5" t="e">
-        <f>LN(F2)</f>
-        <v>#NUM!</v>
+      <c r="AB2" s="5">
+        <f>LN(-F2/10^6)</f>
+        <v>-15.424948470398375</v>
       </c>
       <c r="AC2" s="6"/>
     </row>
-    <row r="3" spans="1:29" ht="16.2" thickBot="1">
+    <row r="3" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -40324,13 +40445,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB3" s="5" t="e">
-        <f t="shared" ref="AB3:AB57" si="3">LN(F3)</f>
-        <v>#NUM!</v>
+      <c r="AB3" s="5">
+        <f t="shared" ref="AB3:AB15" si="3">LN(-F3/10^6)</f>
+        <v>-15.424948470398375</v>
       </c>
       <c r="AC3" s="8"/>
     </row>
-    <row r="4" spans="1:29" ht="16.2" thickBot="1">
+    <row r="4" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -40364,13 +40485,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB4" s="5" t="e">
+      <c r="AB4" s="5">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>-15.424948470398375</v>
       </c>
       <c r="AC4" s="6"/>
     </row>
-    <row r="5" spans="1:29" ht="16.2" thickBot="1">
+    <row r="5" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -40404,13 +40525,13 @@
         <f t="shared" si="0"/>
         <v>-13760.000000000007</v>
       </c>
-      <c r="AB5" s="5" t="e">
+      <c r="AB5" s="5">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>-15.424948470398375</v>
       </c>
       <c r="AC5" s="8"/>
     </row>
-    <row r="6" spans="1:29" ht="16.2" thickBot="1">
+    <row r="6" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -40444,13 +40565,13 @@
         <f t="shared" si="0"/>
         <v>-6639.9999999999973</v>
       </c>
-      <c r="AB6" s="5" t="e">
+      <c r="AB6" s="5">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>-15.01948336229021</v>
       </c>
       <c r="AC6" s="6"/>
     </row>
-    <row r="7" spans="1:29" ht="16.2" thickBot="1">
+    <row r="7" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -40484,13 +40605,13 @@
         <f t="shared" si="0"/>
         <v>-843.75000000000011</v>
       </c>
-      <c r="AB7" s="5" t="e">
+      <c r="AB7" s="5">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>-14.73180128983843</v>
       </c>
       <c r="AC7" s="8"/>
     </row>
-    <row r="8" spans="1:29" ht="16.2" thickBot="1">
+    <row r="8" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -40524,13 +40645,13 @@
         <f t="shared" si="0"/>
         <v>-1465.0000000000005</v>
       </c>
-      <c r="AB8" s="5" t="e">
+      <c r="AB8" s="5">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>-14.038654109278484</v>
       </c>
       <c r="AC8" s="6"/>
     </row>
-    <row r="9" spans="1:29" ht="16.2" thickBot="1">
+    <row r="9" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -40564,13 +40685,13 @@
         <f t="shared" si="0"/>
         <v>-3059.999999999995</v>
       </c>
-      <c r="AB9" s="5" t="e">
+      <c r="AB9" s="5">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>-13.815510557964274</v>
       </c>
       <c r="AC9" s="8"/>
     </row>
-    <row r="10" spans="1:29" ht="16.2" thickBot="1">
+    <row r="10" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -40604,13 +40725,13 @@
         <f t="shared" si="0"/>
         <v>-5760.0000000000146</v>
       </c>
-      <c r="AB10" s="5" t="e">
+      <c r="AB10" s="5">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>-13.72020037815995</v>
       </c>
       <c r="AC10" s="6"/>
     </row>
-    <row r="11" spans="1:29" ht="16.2" thickBot="1">
+    <row r="11" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -40644,13 +40765,13 @@
         <f t="shared" si="0"/>
         <v>-740.00000000000034</v>
       </c>
-      <c r="AB11" s="5" t="e">
+      <c r="AB11" s="5">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>-13.633189001170319</v>
       </c>
       <c r="AC11" s="8"/>
     </row>
-    <row r="12" spans="1:29" ht="16.2" thickBot="1">
+    <row r="12" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -40684,13 +40805,13 @@
         <f t="shared" si="0"/>
         <v>-1639.9999999999973</v>
       </c>
-      <c r="AB12" s="5" t="e">
+      <c r="AB12" s="5">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>-13.479038321343062</v>
       </c>
       <c r="AC12" s="6"/>
     </row>
-    <row r="13" spans="1:29" ht="16.2" thickBot="1">
+    <row r="13" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -40724,13 +40845,13 @@
         <f t="shared" si="0"/>
         <v>-1920.0000000000007</v>
       </c>
-      <c r="AB13" s="5" t="e">
+      <c r="AB13" s="5">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>-13.41004544985611</v>
       </c>
       <c r="AC13" s="8"/>
     </row>
-    <row r="14" spans="1:29" ht="16.2" thickBot="1">
+    <row r="14" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -40764,13 +40885,13 @@
         <f t="shared" si="0"/>
         <v>-763.74999999999966</v>
       </c>
-      <c r="AB14" s="5" t="e">
+      <c r="AB14" s="5">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>-13.284882306902103</v>
       </c>
       <c r="AC14" s="6"/>
     </row>
-    <row r="15" spans="1:29" ht="16.2" thickBot="1">
+    <row r="15" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -40804,13 +40925,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB15" s="5" t="e">
+      <c r="AB15" s="5">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>-13.073573213234896</v>
       </c>
       <c r="AC15" s="8"/>
     </row>
-    <row r="16" spans="1:29" ht="16.2" thickBot="1">
+    <row r="16" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -40835,13 +40956,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB16" s="5" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
+      <c r="AB16" s="5"/>
       <c r="AC16" s="6"/>
     </row>
-    <row r="17" spans="1:29" ht="18" thickBot="1">
+    <row r="17" spans="1:29" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -40867,13 +40985,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB17" s="5" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
+      <c r="AB17" s="5"/>
       <c r="AC17" s="8"/>
     </row>
-    <row r="18" spans="1:29" ht="16.2" thickBot="1">
+    <row r="18" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -40895,13 +41010,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB18" s="5" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
+      <c r="AB18" s="5"/>
       <c r="AC18" s="6"/>
     </row>
-    <row r="19" spans="1:29" ht="16.2" thickBot="1">
+    <row r="19" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -40926,13 +41038,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB19" s="5" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
+      <c r="AB19" s="5"/>
       <c r="AC19" s="8"/>
     </row>
-    <row r="20" spans="1:29" ht="17.399999999999999" thickBot="1">
+    <row r="20" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -40958,13 +41067,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB20" s="5" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
+      <c r="AB20" s="5"/>
       <c r="AC20" s="6"/>
     </row>
-    <row r="21" spans="1:29" ht="18" thickBot="1">
+    <row r="21" spans="1:29" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -40987,13 +41093,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB21" s="5" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
+      <c r="AB21" s="5"/>
       <c r="AC21" s="8"/>
     </row>
-    <row r="22" spans="1:29" ht="21" thickBot="1">
+    <row r="22" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -41018,13 +41121,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB22" s="5" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
+      <c r="AB22" s="5"/>
       <c r="AC22" s="6"/>
     </row>
-    <row r="23" spans="1:29" ht="16.2" thickBot="1">
+    <row r="23" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -41049,13 +41149,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB23" s="5" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
+      <c r="AB23" s="5"/>
       <c r="AC23" s="8"/>
     </row>
-    <row r="24" spans="1:29" ht="16.2" thickBot="1">
+    <row r="24" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -41077,13 +41174,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB24" s="5" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
+      <c r="AB24" s="5"/>
       <c r="AC24" s="6"/>
     </row>
-    <row r="25" spans="1:29" ht="16.2" thickBot="1">
+    <row r="25" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -41106,12 +41200,12 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB25" s="5" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="AB3:AB57" si="4">LN(F25)</f>
         <v>#NUM!</v>
       </c>
       <c r="AC25" s="8"/>
     </row>
-    <row r="26" spans="1:29" ht="16.2" thickBot="1">
+    <row r="26" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -41134,12 +41228,12 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB26" s="5" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
       <c r="AC26" s="6"/>
     </row>
-    <row r="27" spans="1:29" ht="16.2" thickBot="1">
+    <row r="27" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>25</v>
       </c>
@@ -41162,12 +41256,12 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB27" s="5" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
       <c r="AC27" s="8"/>
     </row>
-    <row r="28" spans="1:29" ht="16.2" thickBot="1">
+    <row r="28" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -41190,12 +41284,12 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB28" s="5" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
       <c r="AC28" s="6"/>
     </row>
-    <row r="29" spans="1:29" ht="16.2" thickBot="1">
+    <row r="29" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>27</v>
       </c>
@@ -41218,12 +41312,12 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB29" s="5" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
       <c r="AC29" s="8"/>
     </row>
-    <row r="30" spans="1:29" ht="16.2" thickBot="1">
+    <row r="30" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -41246,12 +41340,12 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB30" s="5" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
       <c r="AC30" s="6"/>
     </row>
-    <row r="31" spans="1:29" ht="16.2" thickBot="1">
+    <row r="31" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>29</v>
       </c>
@@ -41274,12 +41368,12 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB31" s="5" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
       <c r="AC31" s="6"/>
     </row>
-    <row r="32" spans="1:29" ht="16.2" thickBot="1">
+    <row r="32" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>30</v>
       </c>
@@ -41302,12 +41396,12 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB32" s="5" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
       <c r="AC32" s="8"/>
     </row>
-    <row r="33" spans="1:29" ht="16.2" thickBot="1">
+    <row r="33" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>31</v>
       </c>
@@ -41318,7 +41412,7 @@
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
       <c r="H33" s="6" t="e">
-        <f t="shared" ref="H33:H82" si="4">$J$17*D33/($J$20*B33)/1000</f>
+        <f t="shared" ref="H33:H82" si="5">$J$17*D33/($J$20*B33)/1000</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M33" t="e">
@@ -41330,12 +41424,12 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB33" s="5" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
       <c r="AC33" s="6"/>
     </row>
-    <row r="34" spans="1:29" ht="16.2" thickBot="1">
+    <row r="34" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>32</v>
       </c>
@@ -41346,7 +41440,7 @@
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M34" t="e">
@@ -41358,12 +41452,12 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB34" s="5" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
       <c r="AC34" s="6"/>
     </row>
-    <row r="35" spans="1:29" ht="16.2" thickBot="1">
+    <row r="35" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>33</v>
       </c>
@@ -41374,7 +41468,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
       <c r="H35" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M35" t="e">
@@ -41386,12 +41480,12 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB35" s="5" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
       <c r="AC35" s="8"/>
     </row>
-    <row r="36" spans="1:29" ht="16.2" thickBot="1">
+    <row r="36" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>34</v>
       </c>
@@ -41402,7 +41496,7 @@
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M36" t="e">
@@ -41414,12 +41508,12 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB36" s="5" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
       <c r="AC36" s="6"/>
     </row>
-    <row r="37" spans="1:29" ht="16.2" thickBot="1">
+    <row r="37" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>35</v>
       </c>
@@ -41430,7 +41524,7 @@
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
       <c r="H37" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M37" t="e">
@@ -41442,12 +41536,12 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB37" s="5" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
       <c r="AC37" s="6"/>
     </row>
-    <row r="38" spans="1:29" ht="16.2" thickBot="1">
+    <row r="38" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>36</v>
       </c>
@@ -41458,7 +41552,7 @@
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M38" t="e">
@@ -41470,12 +41564,12 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB38" s="5" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
       <c r="AC38" s="8"/>
     </row>
-    <row r="39" spans="1:29" ht="16.2" thickBot="1">
+    <row r="39" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>37</v>
       </c>
@@ -41486,16 +41580,16 @@
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
       <c r="H39" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB39" s="5" t="e">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB39" s="5" t="e">
-        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
       <c r="AC39" s="6"/>
     </row>
-    <row r="40" spans="1:29" ht="16.2" thickBot="1">
+    <row r="40" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>38</v>
       </c>
@@ -41506,16 +41600,16 @@
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB40" s="5" t="e">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB40" s="5" t="e">
-        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
       <c r="AC40" s="6"/>
     </row>
-    <row r="41" spans="1:29" ht="16.2" thickBot="1">
+    <row r="41" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>39</v>
       </c>
@@ -41526,16 +41620,16 @@
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
       <c r="H41" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB41" s="5" t="e">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB41" s="5" t="e">
-        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
       <c r="AC41" s="8"/>
     </row>
-    <row r="42" spans="1:29" ht="16.2" thickBot="1">
+    <row r="42" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>40</v>
       </c>
@@ -41546,16 +41640,16 @@
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
       <c r="H42" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB42" s="5" t="e">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB42" s="5" t="e">
-        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
       <c r="AC42" s="6"/>
     </row>
-    <row r="43" spans="1:29" ht="16.2" thickBot="1">
+    <row r="43" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>41</v>
       </c>
@@ -41566,16 +41660,16 @@
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
       <c r="H43" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB43" s="5" t="e">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB43" s="5" t="e">
-        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
       <c r="AC43" s="6"/>
     </row>
-    <row r="44" spans="1:29" ht="16.2" thickBot="1">
+    <row r="44" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>42</v>
       </c>
@@ -41586,16 +41680,16 @@
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
       <c r="H44" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB44" s="5" t="e">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB44" s="5" t="e">
-        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
       <c r="AC44" s="8"/>
     </row>
-    <row r="45" spans="1:29" ht="16.2" thickBot="1">
+    <row r="45" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>43</v>
       </c>
@@ -41606,16 +41700,16 @@
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
       <c r="H45" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB45" s="5" t="e">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB45" s="5" t="e">
-        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
       <c r="AC45" s="6"/>
     </row>
-    <row r="46" spans="1:29" ht="16.2" thickBot="1">
+    <row r="46" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>44</v>
       </c>
@@ -41626,16 +41720,16 @@
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
       <c r="H46" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB46" s="5" t="e">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB46" s="5" t="e">
-        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
       <c r="AC46" s="6"/>
     </row>
-    <row r="47" spans="1:29" ht="16.2" thickBot="1">
+    <row r="47" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>45</v>
       </c>
@@ -41646,16 +41740,16 @@
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
       <c r="H47" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB47" s="5" t="e">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB47" s="5" t="e">
-        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
       <c r="AC47" s="8"/>
     </row>
-    <row r="48" spans="1:29" ht="16.2" thickBot="1">
+    <row r="48" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>46</v>
       </c>
@@ -41666,16 +41760,16 @@
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
       <c r="H48" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB48" s="5" t="e">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB48" s="5" t="e">
-        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
       <c r="AC48" s="6"/>
     </row>
-    <row r="49" spans="1:29" ht="16.2" thickBot="1">
+    <row r="49" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>47</v>
       </c>
@@ -41686,16 +41780,16 @@
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
       <c r="H49" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB49" s="5" t="e">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB49" s="5" t="e">
-        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
       <c r="AC49" s="6"/>
     </row>
-    <row r="50" spans="1:29" ht="16.2" thickBot="1">
+    <row r="50" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>48</v>
       </c>
@@ -41706,16 +41800,16 @@
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
       <c r="H50" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB50" s="5" t="e">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB50" s="5" t="e">
-        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
       <c r="AC50" s="8"/>
     </row>
-    <row r="51" spans="1:29" ht="16.2" thickBot="1">
+    <row r="51" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>49</v>
       </c>
@@ -41726,16 +41820,16 @@
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
       <c r="H51" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB51" s="5" t="e">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB51" s="5" t="e">
-        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
       <c r="AC51" s="6"/>
     </row>
-    <row r="52" spans="1:29" ht="16.2" thickBot="1">
+    <row r="52" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>50</v>
       </c>
@@ -41746,16 +41840,16 @@
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
       <c r="H52" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB52" s="5" t="e">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB52" s="5" t="e">
-        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
       <c r="AC52" s="6"/>
     </row>
-    <row r="53" spans="1:29" ht="16.2" thickBot="1">
+    <row r="53" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>51</v>
       </c>
@@ -41766,16 +41860,16 @@
       <c r="F53" s="13"/>
       <c r="G53" s="13"/>
       <c r="H53" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB53" s="5" t="e">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB53" s="5" t="e">
-        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
       <c r="AC53" s="8"/>
     </row>
-    <row r="54" spans="1:29" ht="16.2" thickBot="1">
+    <row r="54" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>52</v>
       </c>
@@ -41786,16 +41880,16 @@
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
       <c r="H54" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB54" s="5" t="e">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB54" s="5" t="e">
-        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
       <c r="AC54" s="6"/>
     </row>
-    <row r="55" spans="1:29" ht="16.2" thickBot="1">
+    <row r="55" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>53</v>
       </c>
@@ -41806,16 +41900,16 @@
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
       <c r="H55" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB55" s="5" t="e">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB55" s="5" t="e">
-        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
       <c r="AC55" s="6"/>
     </row>
-    <row r="56" spans="1:29" ht="16.2" thickBot="1">
+    <row r="56" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>54</v>
       </c>
@@ -41826,16 +41920,16 @@
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
       <c r="H56" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB56" s="5" t="e">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB56" s="5" t="e">
-        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
       <c r="AC56" s="8"/>
     </row>
-    <row r="57" spans="1:29" ht="16.2" thickBot="1">
+    <row r="57" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>55</v>
       </c>
@@ -41846,7 +41940,7 @@
       <c r="F57" s="13"/>
       <c r="G57" s="13"/>
       <c r="H57" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I57" s="18" t="s">
@@ -41858,12 +41952,12 @@
       <c r="M57" s="18"/>
       <c r="N57" s="18"/>
       <c r="AB57" s="5" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
       <c r="AC57" s="6"/>
     </row>
-    <row r="58" spans="1:29" ht="16.2" thickBot="1">
+    <row r="58" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>56</v>
       </c>
@@ -41874,7 +41968,7 @@
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
       <c r="H58" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I58" s="19"/>
@@ -41886,7 +41980,7 @@
       <c r="AB58" s="5"/>
       <c r="AC58" s="6"/>
     </row>
-    <row r="59" spans="1:29" ht="16.2" thickBot="1">
+    <row r="59" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>57</v>
       </c>
@@ -41897,13 +41991,13 @@
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
       <c r="H59" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB59" s="5"/>
       <c r="AC59" s="8"/>
     </row>
-    <row r="60" spans="1:29" ht="16.2" thickBot="1">
+    <row r="60" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>58</v>
       </c>
@@ -41914,13 +42008,13 @@
       <c r="F60" s="12"/>
       <c r="G60" s="12"/>
       <c r="H60" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB60" s="5"/>
       <c r="AC60" s="6"/>
     </row>
-    <row r="61" spans="1:29" ht="16.2" thickBot="1">
+    <row r="61" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>59</v>
       </c>
@@ -41931,13 +42025,13 @@
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
       <c r="H61" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB61" s="5"/>
       <c r="AC61" s="6"/>
     </row>
-    <row r="62" spans="1:29" ht="16.2" thickBot="1">
+    <row r="62" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>60</v>
       </c>
@@ -41948,13 +42042,13 @@
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
       <c r="H62" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB62" s="5"/>
       <c r="AC62" s="8"/>
     </row>
-    <row r="63" spans="1:29" ht="16.2" thickBot="1">
+    <row r="63" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>61</v>
       </c>
@@ -41965,13 +42059,13 @@
       <c r="F63" s="13"/>
       <c r="G63" s="13"/>
       <c r="H63" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB63" s="5"/>
       <c r="AC63" s="6"/>
     </row>
-    <row r="64" spans="1:29" ht="16.2" thickBot="1">
+    <row r="64" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>62</v>
       </c>
@@ -41982,11 +42076,11 @@
       <c r="F64" s="12"/>
       <c r="G64" s="12"/>
       <c r="H64" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="16.2" thickBot="1">
+    <row r="65" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>63</v>
       </c>
@@ -41997,11 +42091,11 @@
       <c r="F65" s="13"/>
       <c r="G65" s="13"/>
       <c r="H65" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="16.2" thickBot="1">
+    <row r="66" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>64</v>
       </c>
@@ -42012,11 +42106,11 @@
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
       <c r="H66" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="16.2" thickBot="1">
+    <row r="67" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>65</v>
       </c>
@@ -42027,11 +42121,11 @@
       <c r="F67" s="13"/>
       <c r="G67" s="13"/>
       <c r="H67" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="16.2" thickBot="1">
+    <row r="68" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>66</v>
       </c>
@@ -42042,11 +42136,11 @@
       <c r="F68" s="12"/>
       <c r="G68" s="12"/>
       <c r="H68" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="16.2" thickBot="1">
+    <row r="69" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <v>67</v>
       </c>
@@ -42057,11 +42151,11 @@
       <c r="F69" s="13"/>
       <c r="G69" s="13"/>
       <c r="H69" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="16.2" thickBot="1">
+    <row r="70" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>68</v>
       </c>
@@ -42072,11 +42166,11 @@
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
       <c r="H70" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="16.2" thickBot="1">
+    <row r="71" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>69</v>
       </c>
@@ -42087,11 +42181,11 @@
       <c r="F71" s="13"/>
       <c r="G71" s="13"/>
       <c r="H71" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="16.2" thickBot="1">
+    <row r="72" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>70</v>
       </c>
@@ -42102,11 +42196,11 @@
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
       <c r="H72" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="16.2" thickBot="1">
+    <row r="73" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>71</v>
       </c>
@@ -42117,11 +42211,11 @@
       <c r="F73" s="13"/>
       <c r="G73" s="13"/>
       <c r="H73" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="16.2" thickBot="1">
+    <row r="74" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>72</v>
       </c>
@@ -42132,11 +42226,11 @@
       <c r="F74" s="12"/>
       <c r="G74" s="12"/>
       <c r="H74" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="16.2" thickBot="1">
+    <row r="75" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <v>73</v>
       </c>
@@ -42147,11 +42241,11 @@
       <c r="F75" s="13"/>
       <c r="G75" s="13"/>
       <c r="H75" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="16.2" thickBot="1">
+    <row r="76" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>74</v>
       </c>
@@ -42162,11 +42256,11 @@
       <c r="F76" s="12"/>
       <c r="G76" s="12"/>
       <c r="H76" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="16.2" thickBot="1">
+    <row r="77" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>75</v>
       </c>
@@ -42177,11 +42271,11 @@
       <c r="F77" s="13"/>
       <c r="G77" s="13"/>
       <c r="H77" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="16.2" thickBot="1">
+    <row r="78" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>76</v>
       </c>
@@ -42192,11 +42286,11 @@
       <c r="F78" s="12"/>
       <c r="G78" s="12"/>
       <c r="H78" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="16.2" thickBot="1">
+    <row r="79" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
         <v>77</v>
       </c>
@@ -42207,11 +42301,11 @@
       <c r="F79" s="13"/>
       <c r="G79" s="13"/>
       <c r="H79" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="16.2" thickBot="1">
+    <row r="80" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>78</v>
       </c>
@@ -42222,11 +42316,11 @@
       <c r="F80" s="12"/>
       <c r="G80" s="12"/>
       <c r="H80" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="16.2" thickBot="1">
+    <row r="81" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <v>79</v>
       </c>
@@ -42237,11 +42331,11 @@
       <c r="F81" s="13"/>
       <c r="G81" s="13"/>
       <c r="H81" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="16.2" thickBot="1">
+    <row r="82" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>80</v>
       </c>
@@ -42252,7 +42346,7 @@
       <c r="F82" s="12"/>
       <c r="G82" s="12"/>
       <c r="H82" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -42269,23 +42363,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="21343963-c43f-42a4-b0bc-b203e64410f4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100150C6E3A01A79A4BB6F66956A6120D17" ma:contentTypeVersion="10" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="675b3873b2b3a50285c27b6e2251c5ac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="21343963-c43f-42a4-b0bc-b203e64410f4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2be159a6f8ccf448de399b2de905d627" ns3:_="">
     <xsd:import namespace="21343963-c43f-42a4-b0bc-b203e64410f4"/>
@@ -42467,31 +42544,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0E5A08E-764A-49CD-B663-0CFE39F0EF50}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="21343963-c43f-42a4-b0bc-b203e64410f4"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB974918-D618-4A8E-9BED-86443E84A1C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="21343963-c43f-42a4-b0bc-b203e64410f4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D79C0675-5D5E-478C-BB62-C10AAF972813}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -42507,4 +42577,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB974918-D618-4A8E-9BED-86443E84A1C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0E5A08E-764A-49CD-B663-0CFE39F0EF50}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="21343963-c43f-42a4-b0bc-b203e64410f4"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/relazioni/esperienza_2/codici/Esperienza_2.xlsx
+++ b/relazioni/esperienza_2/codici/Esperienza_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\UNIVERSITA'\II ANNO\LABORATORIO-DI-ELETTROMAGNETISMO\relazioni\esperienza_2\codici\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2467A9C4-FFE4-4680-ABA7-5A2DDA13EA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC72FA67-0A48-4B6B-AFA0-242D691DD4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{9832D23C-5E2D-EB46-85A1-EE46353BB05C}"/>
   </bookViews>
@@ -1413,70 +1413,70 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>-4.2097554137334283</c:v>
+                  <c:v>2.6979998652487085</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.3260244445585965</c:v>
+                  <c:v>2.5817308344235403</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4.4750195015230458</c:v>
+                  <c:v>2.432735777459091</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.6788167261563895</c:v>
+                  <c:v>2.2289385528257473</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.7284684023325845</c:v>
+                  <c:v>2.1792868766495519</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-4.8995412465906689</c:v>
+                  <c:v>2.0082140323914683</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-4.9820478372443429</c:v>
+                  <c:v>1.925707441737794</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-5.0783789461827755</c:v>
+                  <c:v>1.8293763327993617</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-5.249527202378605</c:v>
+                  <c:v>1.6582280766035324</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-5.3454089740818871</c:v>
+                  <c:v>1.5623463049002497</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-5.5340397000691066</c:v>
+                  <c:v>1.3737155789130306</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-5.7260280836035209</c:v>
+                  <c:v>1.1817271953786161</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-5.8961543673036569</c:v>
+                  <c:v>1.0116009116784799</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-6.1469494499483766</c:v>
+                  <c:v>0.76080582903376015</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-6.2871787912570269</c:v>
+                  <c:v>0.62057648772510998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-6.5224928781914926</c:v>
+                  <c:v>0.38526240079064489</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-6.6301235423838571</c:v>
+                  <c:v>0.27763173659827955</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-6.9485772735023925</c:v>
+                  <c:v>-4.0821994520255166E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-7.5810998322459024</c:v>
+                  <c:v>-0.67334455326376563</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-8.3348716346222833</c:v>
+                  <c:v>-1.4271163556401458</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-10.41431317630212</c:v>
+                  <c:v>-3.5065578973199818</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-11.512925464970229</c:v>
+                  <c:v>-4.6051701859880909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6224,61 +6224,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>159.78745010603299</c:v>
+                  <c:v>159.89100645736556</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>159.33649775389932</c:v>
+                  <c:v>159.43976184836075</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>158.88554540176563</c:v>
+                  <c:v>158.98851723935596</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>158.58491050034317</c:v>
+                  <c:v>158.68768750001942</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>158.28427559892074</c:v>
+                  <c:v>158.38685776068289</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>158.1339581482095</c:v>
+                  <c:v>158.23644289101463</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>157.68300579607583</c:v>
+                  <c:v>157.78519828200984</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>157.38237089465335</c:v>
+                  <c:v>157.48436854267331</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>156.78110109180847</c:v>
+                  <c:v>156.88270906400024</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>156.48046619038601</c:v>
+                  <c:v>156.58187932466373</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>156.17983128896356</c:v>
+                  <c:v>156.2810495853272</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>155.72887893682989</c:v>
+                  <c:v>155.82980497632238</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>155.27792658469619</c:v>
+                  <c:v>155.37856036731759</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>153.92506952829515</c:v>
+                  <c:v>154.02482654030322</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>153.02316482402782</c:v>
+                  <c:v>153.12233732229365</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>152.27157757047172</c:v>
+                  <c:v>152.37026297395232</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>149.41554600695841</c:v>
+                  <c:v>149.51238045025528</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>146.70983189415634</c:v>
+                  <c:v>146.80491279622649</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>144.60538758419918</c:v>
+                  <c:v>144.6991046208708</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
@@ -31601,10 +31601,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F91291F7-6839-984A-8494-FF9B698FFA17}" name="Tabella2248" displayName="Tabella2248" ref="M1:N23" totalsRowShown="0">
   <autoFilter ref="M1:N23" xr:uid="{1D24399E-9836-7741-BBCC-767E9D9754F5}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B862E566-0423-3648-A8AF-EEA94094A685}" name="R_din(Ω)" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{B862E566-0423-3648-A8AF-EEA94094A685}" name="R_din(Ω)" dataDxfId="3">
       <calculatedColumnFormula>(D3-D2)/(F3-F2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{58D212AC-226A-3446-8DA0-C95B192DBAE3}" name="ΔR_din(Ω)" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{58D212AC-226A-3446-8DA0-C95B192DBAE3}" name="ΔR_din(Ω)" dataDxfId="2">
       <calculatedColumnFormula>M2*(2*E3/(D3-D2)+2*G3/(F3-F2))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -31616,10 +31616,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{03517C75-9DF7-D746-90C6-9C656B52FF3B}" name="Tabella224567" displayName="Tabella224567" ref="M1:N38" totalsRowShown="0">
   <autoFilter ref="M1:N38" xr:uid="{1D24399E-9836-7741-BBCC-767E9D9754F5}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{55B969CD-0C09-F64C-8FA1-7C0FEB3EB204}" name="R_din(Ω)" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{55B969CD-0C09-F64C-8FA1-7C0FEB3EB204}" name="R_din(Ω)" dataDxfId="1">
       <calculatedColumnFormula>(D3-D2)/(F3-F2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{FBAE4F12-D677-6644-BF15-CE3303813CC7}" name="ΔR_din(Ω)" dataDxfId="2">
+    <tableColumn id="2" xr3:uid="{FBAE4F12-D677-6644-BF15-CE3303813CC7}" name="ΔR_din(Ω)" dataDxfId="0">
       <calculatedColumnFormula>M2*(2*E3/(D3-D2)+2*G3/(F3-F2))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -34337,8 +34337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64FDFDC-13B1-AB4C-B1C3-7FF9E2CAD166}">
   <dimension ref="A1:AC35"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+    <sheetView topLeftCell="S1" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AB4" sqref="AB4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -35670,8 +35670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B8D5F5-4DDF-2344-BE93-713864C91CD6}">
   <dimension ref="A1:AC58"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14"/>
+    <sheetView zoomScale="70" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -35756,8 +35756,8 @@
         <v>-1.2646317136512484</v>
       </c>
       <c r="AB2" s="5">
-        <f>LN(F2/1000)</f>
-        <v>-4.2097554137334283</v>
+        <f>LN(F2)</f>
+        <v>2.6979998652487085</v>
       </c>
       <c r="AC2" s="6"/>
     </row>
@@ -35796,8 +35796,8 @@
         <v>-1.1347009465794737</v>
       </c>
       <c r="AB3" s="5">
-        <f t="shared" ref="AB3:AB23" si="3">LN(F3/1000)</f>
-        <v>-4.3260244445585965</v>
+        <f t="shared" ref="AB3:AB23" si="3">LN(F3)</f>
+        <v>2.5817308344235403</v>
       </c>
       <c r="AC3" s="8"/>
     </row>
@@ -35837,7 +35837,7 @@
       </c>
       <c r="AB4" s="5">
         <f t="shared" si="3"/>
-        <v>-4.4750195015230458</v>
+        <v>2.432735777459091</v>
       </c>
       <c r="AC4" s="6"/>
     </row>
@@ -35877,7 +35877,7 @@
       </c>
       <c r="AB5" s="5">
         <f t="shared" si="3"/>
-        <v>-4.6788167261563895</v>
+        <v>2.2289385528257473</v>
       </c>
       <c r="AC5" s="8"/>
     </row>
@@ -35917,7 +35917,7 @@
       </c>
       <c r="AB6" s="5">
         <f t="shared" si="3"/>
-        <v>-4.7284684023325845</v>
+        <v>2.1792868766495519</v>
       </c>
       <c r="AC6" s="6"/>
     </row>
@@ -35957,7 +35957,7 @@
       </c>
       <c r="AB7" s="5">
         <f t="shared" si="3"/>
-        <v>-4.8995412465906689</v>
+        <v>2.0082140323914683</v>
       </c>
       <c r="AC7" s="8"/>
     </row>
@@ -35997,7 +35997,7 @@
       </c>
       <c r="AB8" s="5">
         <f t="shared" si="3"/>
-        <v>-4.9820478372443429</v>
+        <v>1.925707441737794</v>
       </c>
       <c r="AC8" s="6"/>
     </row>
@@ -36037,7 +36037,7 @@
       </c>
       <c r="AB9" s="5">
         <f t="shared" si="3"/>
-        <v>-5.0783789461827755</v>
+        <v>1.8293763327993617</v>
       </c>
       <c r="AC9" s="8"/>
     </row>
@@ -36077,7 +36077,7 @@
       </c>
       <c r="AB10" s="5">
         <f t="shared" si="3"/>
-        <v>-5.249527202378605</v>
+        <v>1.6582280766035324</v>
       </c>
       <c r="AC10" s="6"/>
     </row>
@@ -36117,7 +36117,7 @@
       </c>
       <c r="AB11" s="5">
         <f t="shared" si="3"/>
-        <v>-5.3454089740818871</v>
+        <v>1.5623463049002497</v>
       </c>
       <c r="AC11" s="8"/>
     </row>
@@ -36157,7 +36157,7 @@
       </c>
       <c r="AB12" s="5">
         <f t="shared" si="3"/>
-        <v>-5.5340397000691066</v>
+        <v>1.3737155789130306</v>
       </c>
       <c r="AC12" s="6"/>
     </row>
@@ -36197,7 +36197,7 @@
       </c>
       <c r="AB13" s="5">
         <f t="shared" si="3"/>
-        <v>-5.7260280836035209</v>
+        <v>1.1817271953786161</v>
       </c>
       <c r="AC13" s="8"/>
     </row>
@@ -36237,7 +36237,7 @@
       </c>
       <c r="AB14" s="5">
         <f t="shared" si="3"/>
-        <v>-5.8961543673036569</v>
+        <v>1.0116009116784799</v>
       </c>
       <c r="AC14" s="6"/>
     </row>
@@ -36277,7 +36277,7 @@
       </c>
       <c r="AB15" s="5">
         <f t="shared" si="3"/>
-        <v>-6.1469494499483766</v>
+        <v>0.76080582903376015</v>
       </c>
       <c r="AC15" s="8"/>
     </row>
@@ -36320,7 +36320,7 @@
       </c>
       <c r="AB16" s="5">
         <f t="shared" si="3"/>
-        <v>-6.2871787912570269</v>
+        <v>0.62057648772510998</v>
       </c>
       <c r="AC16" s="6"/>
     </row>
@@ -36364,7 +36364,7 @@
       </c>
       <c r="AB17" s="5">
         <f t="shared" si="3"/>
-        <v>-6.5224928781914926</v>
+        <v>0.38526240079064489</v>
       </c>
       <c r="AC17" s="8"/>
     </row>
@@ -36404,7 +36404,7 @@
       </c>
       <c r="AB18" s="5">
         <f t="shared" si="3"/>
-        <v>-6.6301235423838571</v>
+        <v>0.27763173659827955</v>
       </c>
       <c r="AC18" s="6"/>
     </row>
@@ -36447,7 +36447,7 @@
       </c>
       <c r="AB19" s="5">
         <f t="shared" si="3"/>
-        <v>-6.9485772735023925</v>
+        <v>-4.0821994520255166E-2</v>
       </c>
       <c r="AC19" s="8"/>
     </row>
@@ -36491,7 +36491,7 @@
       </c>
       <c r="AB20" s="5">
         <f t="shared" si="3"/>
-        <v>-7.5810998322459024</v>
+        <v>-0.67334455326376563</v>
       </c>
       <c r="AC20" s="6"/>
     </row>
@@ -36532,7 +36532,7 @@
       </c>
       <c r="AB21" s="5">
         <f t="shared" si="3"/>
-        <v>-8.3348716346222833</v>
+        <v>-1.4271163556401458</v>
       </c>
       <c r="AC21" s="8"/>
     </row>
@@ -36575,7 +36575,7 @@
       </c>
       <c r="AB22" s="5">
         <f t="shared" si="3"/>
-        <v>-10.41431317630212</v>
+        <v>-3.5065578973199818</v>
       </c>
       <c r="AC22" s="6"/>
     </row>
@@ -36618,7 +36618,7 @@
       </c>
       <c r="AB23" s="5">
         <f t="shared" si="3"/>
-        <v>-11.512925464970229</v>
+        <v>-4.6051701859880909</v>
       </c>
       <c r="AC23" s="8"/>
     </row>
@@ -36685,7 +36685,7 @@
   <dimension ref="A1:AC44"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -37635,8 +37635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29EA75CD-2EAA-AD46-B54B-F32D80398925}">
   <dimension ref="A1:AC63"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="A23" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -38845,7 +38845,7 @@
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="6">
-        <f t="shared" si="0"/>
+        <f>$H$44*D29/($H$47*(B29+273.15))/1000</f>
         <v>21.749140570685086</v>
       </c>
       <c r="I29">
@@ -39204,7 +39204,7 @@
   <dimension ref="A1:AC58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -39258,7 +39258,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="12">
-        <v>77.2</v>
+        <v>-196</v>
       </c>
       <c r="C2" s="12">
         <v>0.1</v>
@@ -39276,8 +39276,8 @@
         <v>0.01</v>
       </c>
       <c r="H2" s="6">
-        <f>$J$17*D2/($J$20*B2)/1000</f>
-        <v>159.78745010603299</v>
+        <f>$J$17*D2/($J$20*(B2+273.15))/1000</f>
+        <v>159.89100645736556</v>
       </c>
       <c r="M2">
         <f>(D3-D2)/(F3-F2)</f>
@@ -39298,7 +39298,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="12">
-        <v>77.2</v>
+        <v>-196</v>
       </c>
       <c r="C3" s="12">
         <v>0.1</v>
@@ -39316,8 +39316,8 @@
         <v>0.01</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" ref="H3:H24" si="1">$J$17*D3/($J$20*B3)/1000</f>
-        <v>159.33649775389932</v>
+        <f t="shared" ref="H3:H24" si="1">$J$17*D3/($J$20*(B3+273.15))/1000</f>
+        <v>159.43976184836075</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M23" si="2">(D4-D3)/(F4-F3)</f>
@@ -39338,7 +39338,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="12">
-        <v>77.2</v>
+        <v>-196</v>
       </c>
       <c r="C4" s="12">
         <v>0.1</v>
@@ -39357,7 +39357,7 @@
       </c>
       <c r="H4" s="6">
         <f t="shared" si="1"/>
-        <v>158.88554540176563</v>
+        <v>158.98851723935596</v>
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
@@ -39378,7 +39378,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="12">
-        <v>77.2</v>
+        <v>-196</v>
       </c>
       <c r="C5" s="12">
         <v>0.1</v>
@@ -39397,7 +39397,7 @@
       </c>
       <c r="H5" s="6">
         <f t="shared" si="1"/>
-        <v>158.58491050034317</v>
+        <v>158.68768750001942</v>
       </c>
       <c r="M5">
         <f t="shared" si="2"/>
@@ -39418,7 +39418,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="12">
-        <v>77.2</v>
+        <v>-196</v>
       </c>
       <c r="C6" s="12">
         <v>0.1</v>
@@ -39437,7 +39437,7 @@
       </c>
       <c r="H6" s="6">
         <f t="shared" si="1"/>
-        <v>158.28427559892074</v>
+        <v>158.38685776068289</v>
       </c>
       <c r="M6">
         <f t="shared" si="2"/>
@@ -39458,7 +39458,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="12">
-        <v>77.2</v>
+        <v>-196</v>
       </c>
       <c r="C7" s="12">
         <v>0.1</v>
@@ -39477,7 +39477,7 @@
       </c>
       <c r="H7" s="6">
         <f t="shared" si="1"/>
-        <v>158.1339581482095</v>
+        <v>158.23644289101463</v>
       </c>
       <c r="M7">
         <f t="shared" si="2"/>
@@ -39498,7 +39498,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="12">
-        <v>77.2</v>
+        <v>-196</v>
       </c>
       <c r="C8" s="12">
         <v>0.1</v>
@@ -39517,7 +39517,7 @@
       </c>
       <c r="H8" s="6">
         <f t="shared" si="1"/>
-        <v>157.68300579607583</v>
+        <v>157.78519828200984</v>
       </c>
       <c r="M8">
         <f t="shared" si="2"/>
@@ -39538,7 +39538,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="12">
-        <v>77.2</v>
+        <v>-196</v>
       </c>
       <c r="C9" s="12">
         <v>0.1</v>
@@ -39557,7 +39557,7 @@
       </c>
       <c r="H9" s="6">
         <f t="shared" si="1"/>
-        <v>157.38237089465335</v>
+        <v>157.48436854267331</v>
       </c>
       <c r="M9">
         <f t="shared" si="2"/>
@@ -39578,7 +39578,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="12">
-        <v>77.2</v>
+        <v>-196</v>
       </c>
       <c r="C10" s="12">
         <v>0.1</v>
@@ -39597,7 +39597,7 @@
       </c>
       <c r="H10" s="6">
         <f t="shared" si="1"/>
-        <v>156.78110109180847</v>
+        <v>156.88270906400024</v>
       </c>
       <c r="M10">
         <f t="shared" si="2"/>
@@ -39618,7 +39618,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="12">
-        <v>77.2</v>
+        <v>-196</v>
       </c>
       <c r="C11" s="12">
         <v>0.1</v>
@@ -39637,7 +39637,7 @@
       </c>
       <c r="H11" s="6">
         <f t="shared" si="1"/>
-        <v>156.48046619038601</v>
+        <v>156.58187932466373</v>
       </c>
       <c r="M11">
         <f t="shared" si="2"/>
@@ -39658,7 +39658,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="12">
-        <v>77.2</v>
+        <v>-196</v>
       </c>
       <c r="C12" s="12">
         <v>0.1</v>
@@ -39677,7 +39677,7 @@
       </c>
       <c r="H12" s="6">
         <f t="shared" si="1"/>
-        <v>156.17983128896356</v>
+        <v>156.2810495853272</v>
       </c>
       <c r="M12">
         <f t="shared" si="2"/>
@@ -39698,7 +39698,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="12">
-        <v>77.2</v>
+        <v>-196</v>
       </c>
       <c r="C13" s="12">
         <v>0.1</v>
@@ -39717,7 +39717,7 @@
       </c>
       <c r="H13" s="6">
         <f t="shared" si="1"/>
-        <v>155.72887893682989</v>
+        <v>155.82980497632238</v>
       </c>
       <c r="M13">
         <f t="shared" si="2"/>
@@ -39738,7 +39738,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="12">
-        <v>77.2</v>
+        <v>-196</v>
       </c>
       <c r="C14" s="12">
         <v>0.1</v>
@@ -39757,7 +39757,7 @@
       </c>
       <c r="H14" s="6">
         <f t="shared" si="1"/>
-        <v>155.27792658469619</v>
+        <v>155.37856036731759</v>
       </c>
       <c r="M14">
         <f t="shared" si="2"/>
@@ -39778,7 +39778,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="12">
-        <v>77.2</v>
+        <v>-196</v>
       </c>
       <c r="C15" s="12">
         <v>0.1</v>
@@ -39797,7 +39797,7 @@
       </c>
       <c r="H15" s="6">
         <f t="shared" si="1"/>
-        <v>153.92506952829515</v>
+        <v>154.02482654030322</v>
       </c>
       <c r="M15">
         <f t="shared" si="2"/>
@@ -39818,7 +39818,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="12">
-        <v>77.2</v>
+        <v>-196</v>
       </c>
       <c r="C16" s="12">
         <v>0.1</v>
@@ -39837,7 +39837,7 @@
       </c>
       <c r="H16" s="6">
         <f t="shared" si="1"/>
-        <v>153.02316482402782</v>
+        <v>153.12233732229365</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -39861,7 +39861,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="12">
-        <v>77.2</v>
+        <v>-196</v>
       </c>
       <c r="C17" s="12">
         <v>0.1</v>
@@ -39880,7 +39880,7 @@
       </c>
       <c r="H17" s="6">
         <f t="shared" si="1"/>
-        <v>152.27157757047172</v>
+        <v>152.37026297395232</v>
       </c>
       <c r="J17" s="9">
         <f>1.602176634*10^(-19)</f>
@@ -39905,7 +39905,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="12">
-        <v>77.2</v>
+        <v>-196</v>
       </c>
       <c r="C18" s="12">
         <v>0.1</v>
@@ -39924,7 +39924,7 @@
       </c>
       <c r="H18" s="6">
         <f t="shared" si="1"/>
-        <v>149.41554600695841</v>
+        <v>149.51238045025528</v>
       </c>
       <c r="M18">
         <f t="shared" si="2"/>
@@ -39945,7 +39945,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="12">
-        <v>77.2</v>
+        <v>-196</v>
       </c>
       <c r="C19" s="12">
         <v>0.1</v>
@@ -39964,7 +39964,7 @@
       </c>
       <c r="H19" s="6">
         <f t="shared" si="1"/>
-        <v>146.70983189415634</v>
+        <v>146.80491279622649</v>
       </c>
       <c r="J19" t="s">
         <v>13</v>
@@ -39988,7 +39988,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="12">
-        <v>77.2</v>
+        <v>-196</v>
       </c>
       <c r="C20" s="12">
         <v>0.1</v>
@@ -40007,7 +40007,7 @@
       </c>
       <c r="H20" s="6">
         <f t="shared" si="1"/>
-        <v>144.60538758419918</v>
+        <v>144.6991046208708</v>
       </c>
       <c r="J20" s="11">
         <f>1.3806503*10^(-23)</f>
@@ -40032,7 +40032,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="12">
-        <v>77.2</v>
+        <v>-196</v>
       </c>
       <c r="C21" s="12">
         <v>0.1</v>
@@ -40069,7 +40069,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="12">
-        <v>77.2</v>
+        <v>-196</v>
       </c>
       <c r="C22" s="12">
         <v>0.1</v>
@@ -40108,7 +40108,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="12">
-        <v>77.2</v>
+        <v>-196</v>
       </c>
       <c r="C23" s="12">
         <v>0.1</v>
@@ -40147,7 +40147,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="12">
-        <v>77.2</v>
+        <v>-196</v>
       </c>
       <c r="C24" s="12">
         <v>0.1</v>

--- a/relazioni/esperienza_2/codici/Esperienza_2.xlsx
+++ b/relazioni/esperienza_2/codici/Esperienza_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\UNIVERSITA'\II ANNO\LABORATORIO-DI-ELETTROMAGNETISMO\relazioni\esperienza_2\codici\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0798D6-F597-4C96-AA7F-EBDAF4F8D5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE160097-2653-4CBC-B78E-F50E264383D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{9832D23C-5E2D-EB46-85A1-EE46353BB05C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9832D23C-5E2D-EB46-85A1-EE46353BB05C}"/>
   </bookViews>
   <sheets>
     <sheet name="Temp_1" sheetId="1" r:id="rId1"/>
@@ -31946,7 +31946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B86F6C1-2CF0-4541-BBC4-14B6AD42230F}">
   <dimension ref="A1:AC63"/>
   <sheetViews>
-    <sheetView zoomScale="64" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="64" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -37635,8 +37635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29EA75CD-2EAA-AD46-B54B-F32D80398925}">
   <dimension ref="A1:AC63"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView topLeftCell="R1" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AB15" sqref="AB15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -39203,8 +39203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964810A6-0329-CE44-9434-FAE1DDC1CC77}">
   <dimension ref="A1:AC58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="M1" zoomScale="79" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>

--- a/relazioni/esperienza_2/codici/Esperienza_2.xlsx
+++ b/relazioni/esperienza_2/codici/Esperienza_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessiobrusini/Desktop/LABORATORIO-DI-ELETTROMAGNETISMO/relazioni/esperienza_2/codici/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73688E18-612B-8A49-ABAF-B2FA67B07B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1CEFA6-7174-B641-BFF8-20D50D56E44E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="27100" windowHeight="15920" activeTab="4" xr2:uid="{9832D23C-5E2D-EB46-85A1-EE46353BB05C}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="27100" windowHeight="15920" activeTab="5" xr2:uid="{9832D23C-5E2D-EB46-85A1-EE46353BB05C}"/>
   </bookViews>
   <sheets>
     <sheet name="Temp_1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="23">
   <si>
     <t>n.</t>
   </si>
@@ -85,9 +85,6 @@
       </rPr>
       <t>R_din(Ω)</t>
     </r>
-  </si>
-  <si>
-    <t>lnCorr(mA)</t>
   </si>
   <si>
     <t>Colonna2</t>
@@ -317,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -342,7 +339,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1245,7 +1241,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>lnCorr(mA)</c:v>
+                  <c:v>lnCorr(A)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4684,7 +4680,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>lnCorr(mA)</c:v>
+                  <c:v>lnCorr(A)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11294,7 +11290,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>lnCorr(mA)</c:v>
+                  <c:v>lnCorr(A)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -32226,10 +32222,10 @@
         <v>9</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC1" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -32819,7 +32815,7 @@
         <v>21.874922762723592</v>
       </c>
       <c r="J16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M16">
         <f t="shared" si="2"/>
@@ -32946,7 +32942,7 @@
         <v>21.776961407646436</v>
       </c>
       <c r="J19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M19">
         <f t="shared" si="2"/>
@@ -33074,7 +33070,7 @@
         <v>21.713794811313498</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M22">
         <f t="shared" si="2"/>
@@ -33117,7 +33113,7 @@
         <v>21.720318408973505</v>
       </c>
       <c r="J23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M23">
         <f t="shared" si="2"/>
@@ -34528,7 +34524,7 @@
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B60" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C60" s="18"/>
       <c r="D60" s="18"/>
@@ -34573,8 +34569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64FDFDC-13B1-AB4C-B1C3-7FF9E2CAD166}">
   <dimension ref="A1:AC35"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="X65" sqref="X65"/>
+    <sheetView topLeftCell="H1" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34617,10 +34613,10 @@
         <v>9</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC1" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -35210,7 +35206,7 @@
         <v>22.415946180830719</v>
       </c>
       <c r="J16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M16">
         <f t="shared" si="1"/>
@@ -35337,7 +35333,7 @@
         <v>21.691682976280454</v>
       </c>
       <c r="J19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M19">
         <f t="shared" si="1"/>
@@ -35465,7 +35461,7 @@
         <v>20.304714979371081</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M22">
         <f t="shared" si="1"/>
@@ -35508,7 +35504,7 @@
         <v>19.839554416671128</v>
       </c>
       <c r="J23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M23">
         <f t="shared" si="1"/>
@@ -35874,7 +35870,7 @@
     <row r="33" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
@@ -35906,8 +35902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B8D5F5-4DDF-2344-BE93-713864C91CD6}">
   <dimension ref="A1:AC58"/>
   <sheetViews>
-    <sheetView topLeftCell="J13" zoomScale="70" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AB9" sqref="AB9"/>
+    <sheetView topLeftCell="J1" zoomScale="70" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35950,10 +35946,10 @@
         <v>9</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC1" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -36544,7 +36540,7 @@
         <v>23.781163495180113</v>
       </c>
       <c r="J16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M16">
         <f t="shared" si="2"/>
@@ -36671,7 +36667,7 @@
         <v>22.613512259737554</v>
       </c>
       <c r="J19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M19">
         <f t="shared" si="2"/>
@@ -36799,7 +36795,7 @@
         <v>17.359081700246044</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M22">
         <f t="shared" si="2"/>
@@ -36842,7 +36838,7 @@
         <v>14.868092397968583</v>
       </c>
       <c r="J23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M23">
         <f t="shared" si="2"/>
@@ -36888,7 +36884,7 @@
     <row r="56" spans="9:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="57" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I57" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J57" s="18"/>
       <c r="K57" s="18"/>
@@ -36968,10 +36964,10 @@
         <v>9</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC1" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -37804,7 +37800,7 @@
     <row r="22" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B23" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
@@ -37822,7 +37818,7 @@
     </row>
     <row r="37" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="7:7" ht="18" x14ac:dyDescent="0.2">
@@ -37833,7 +37829,7 @@
     </row>
     <row r="40" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="7:7" ht="17" x14ac:dyDescent="0.2">
@@ -37847,12 +37843,12 @@
     </row>
     <row r="43" spans="7:7" ht="20" x14ac:dyDescent="0.2">
       <c r="G43" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -37869,10 +37865,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29EA75CD-2EAA-AD46-B54B-F32D80398925}">
-  <dimension ref="A1:AC64"/>
+  <dimension ref="A1:AC50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="G1" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -37912,10 +37908,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="17" t="s">
         <v>19</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>20</v>
       </c>
       <c r="M1" t="s">
         <v>8</v>
@@ -37924,10 +37920,10 @@
         <v>9</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC1" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -39176,175 +39172,60 @@
         <f t="shared" si="3"/>
         <v>6.6325231377546354E-3</v>
       </c>
-      <c r="AB31" s="20"/>
-      <c r="AC31" s="20"/>
     </row>
-    <row r="32" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AB32" s="20"/>
-      <c r="AC32" s="20"/>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
-      <c r="AB33" s="20"/>
-      <c r="AC33" s="20"/>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
-      <c r="AB34" s="20"/>
-      <c r="AC34" s="20"/>
     </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="AB35" s="20"/>
-      <c r="AC35" s="20"/>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H43" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="36" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="AB36" s="20"/>
-      <c r="AC36" s="20"/>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="AB37" s="20"/>
-      <c r="AC37" s="20"/>
-    </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="AB38" s="20"/>
-      <c r="AC38" s="20"/>
-    </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="AB39" s="20"/>
-      <c r="AC39" s="20"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="AB40" s="20"/>
-      <c r="AC40" s="20"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="AB41" s="20"/>
-      <c r="AC41" s="20"/>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="AB42" s="20"/>
-      <c r="AC42" s="20"/>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="H43" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB43" s="20"/>
-      <c r="AC43" s="20"/>
-    </row>
-    <row r="44" spans="2:29" ht="18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="H44" s="9">
         <f>1.602176634*10^(-19)</f>
         <v>1.6021766340000001E-19</v>
       </c>
-      <c r="AB44" s="20"/>
-      <c r="AC44" s="20"/>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="AB45" s="20"/>
-      <c r="AC45" s="20"/>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H46" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="H46" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB46" s="20"/>
-      <c r="AC46" s="20"/>
-    </row>
-    <row r="47" spans="2:29" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="H47" s="11">
         <f>1.3806503*10^(-23)</f>
         <v>1.3806503000000004E-23</v>
       </c>
-      <c r="AB47" s="20"/>
-      <c r="AC47" s="20"/>
     </row>
-    <row r="48" spans="2:29" ht="18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="H48" s="10"/>
-      <c r="AB48" s="20"/>
-      <c r="AC48" s="20"/>
     </row>
-    <row r="49" spans="8:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="49" spans="8:8" ht="20" x14ac:dyDescent="0.2">
       <c r="H49" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H50" t="s">
         <v>14</v>
       </c>
-      <c r="AB49" s="20"/>
-      <c r="AC49" s="20"/>
-    </row>
-    <row r="50" spans="8:29" x14ac:dyDescent="0.2">
-      <c r="H50" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB50" s="20"/>
-      <c r="AC50" s="20"/>
-    </row>
-    <row r="51" spans="8:29" x14ac:dyDescent="0.2">
-      <c r="AB51" s="20"/>
-      <c r="AC51" s="20"/>
-    </row>
-    <row r="52" spans="8:29" x14ac:dyDescent="0.2">
-      <c r="AB52" s="20"/>
-      <c r="AC52" s="20"/>
-    </row>
-    <row r="53" spans="8:29" x14ac:dyDescent="0.2">
-      <c r="AB53" s="20"/>
-      <c r="AC53" s="20"/>
-    </row>
-    <row r="54" spans="8:29" x14ac:dyDescent="0.2">
-      <c r="AB54" s="20"/>
-      <c r="AC54" s="20"/>
-    </row>
-    <row r="55" spans="8:29" x14ac:dyDescent="0.2">
-      <c r="AB55" s="20"/>
-      <c r="AC55" s="20"/>
-    </row>
-    <row r="56" spans="8:29" x14ac:dyDescent="0.2">
-      <c r="AB56" s="20"/>
-      <c r="AC56" s="20"/>
-    </row>
-    <row r="57" spans="8:29" x14ac:dyDescent="0.2">
-      <c r="AB57" s="20"/>
-      <c r="AC57" s="20"/>
-    </row>
-    <row r="58" spans="8:29" x14ac:dyDescent="0.2">
-      <c r="AB58" s="20"/>
-      <c r="AC58" s="20"/>
-    </row>
-    <row r="59" spans="8:29" x14ac:dyDescent="0.2">
-      <c r="AB59" s="20"/>
-      <c r="AC59" s="20"/>
-    </row>
-    <row r="60" spans="8:29" x14ac:dyDescent="0.2">
-      <c r="AB60" s="20"/>
-      <c r="AC60" s="20"/>
-    </row>
-    <row r="61" spans="8:29" x14ac:dyDescent="0.2">
-      <c r="AB61" s="20"/>
-      <c r="AC61" s="20"/>
-    </row>
-    <row r="62" spans="8:29" x14ac:dyDescent="0.2">
-      <c r="AB62" s="20"/>
-      <c r="AC62" s="20"/>
-    </row>
-    <row r="63" spans="8:29" x14ac:dyDescent="0.2">
-      <c r="AB63" s="20"/>
-      <c r="AC63" s="20"/>
-    </row>
-    <row r="64" spans="8:29" x14ac:dyDescent="0.2">
-      <c r="AB64" s="20"/>
-      <c r="AC64" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -39360,9 +39241,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964810A6-0329-CE44-9434-FAE1DDC1CC77}">
-  <dimension ref="A1:AD58"/>
+  <dimension ref="A1:AC58"/>
   <sheetViews>
-    <sheetView topLeftCell="Q31" zoomScale="125" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="61" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -39406,10 +39287,10 @@
         <v>9</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC1" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -39443,7 +39324,7 @@
         <v>1.2499999999999998</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2:N23" si="0">M2*(2*E3/(D3-D2)+2*G3/(F3-F2))</f>
+        <f t="shared" ref="N2:N19" si="0">M2*(2*E3/(D3-D2)+2*G3/(F3-F2))</f>
         <v>-0.84374999999999978</v>
       </c>
       <c r="AB2" s="5">
@@ -39479,7 +39360,7 @@
         <v>35.109968964181618</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M23" si="2">(D4-D3)/(F4-F3)</f>
+        <f t="shared" ref="M3:M19" si="2">(D4-D3)/(F4-F3)</f>
         <v>1.4354066985645935</v>
       </c>
       <c r="N3">
@@ -39487,7 +39368,7 @@
         <v>-0.97067374831162301</v>
       </c>
       <c r="AB3" s="5">
-        <f t="shared" ref="AB3:AB20" si="3">LN(F3/1000)</f>
+        <f t="shared" ref="AB3:AB19" si="3">LN(F3/1000)</f>
         <v>-4.4022293419914007</v>
       </c>
       <c r="AC3" s="8"/>
@@ -39999,7 +39880,7 @@
         <v>33.718819250506492</v>
       </c>
       <c r="J16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M16">
         <f t="shared" si="2"/>
@@ -40015,7 +39896,7 @@
       </c>
       <c r="AC16" s="6"/>
     </row>
-    <row r="17" spans="1:30" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -40059,7 +39940,7 @@
       </c>
       <c r="AC17" s="8"/>
     </row>
-    <row r="18" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -40099,7 +39980,7 @@
       </c>
       <c r="AC18" s="6"/>
     </row>
-    <row r="19" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -40126,7 +40007,7 @@
         <v>32.327669536831372</v>
       </c>
       <c r="J19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M19">
         <f t="shared" si="2"/>
@@ -40142,7 +40023,7 @@
       </c>
       <c r="AC19" s="8"/>
     </row>
-    <row r="20" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -40173,100 +40054,23 @@
         <v>1.3806503000000004E-23</v>
       </c>
       <c r="AB20" s="5"/>
-      <c r="AC20" s="20"/>
-      <c r="AD20" s="20"/>
     </row>
-    <row r="21" spans="1:30" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
+    <row r="21" spans="1:29" ht="18" x14ac:dyDescent="0.2">
       <c r="J21" s="10"/>
-      <c r="AB21" s="20"/>
-      <c r="AC21" s="20"/>
-      <c r="AD21" s="20"/>
     </row>
-    <row r="22" spans="1:30" ht="20" x14ac:dyDescent="0.2">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
+    <row r="22" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="J22" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="J23" t="s">
         <v>14</v>
       </c>
-      <c r="AB22" s="20"/>
-      <c r="AC22" s="20"/>
-      <c r="AD22" s="20"/>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB23" s="20"/>
-      <c r="AC23" s="20"/>
-      <c r="AD23" s="20"/>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="AB24" s="20"/>
-      <c r="AC24" s="20"/>
-      <c r="AD24" s="20"/>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="AB25" s="20"/>
-      <c r="AC25" s="20"/>
-      <c r="AD25" s="20"/>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
     </row>
     <row r="44" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="27:27" x14ac:dyDescent="0.2">
@@ -40277,7 +40081,7 @@
     </row>
     <row r="47" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="27:27" x14ac:dyDescent="0.2">
@@ -40289,7 +40093,7 @@
     <row r="56" spans="9:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="57" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I57" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J57" s="18"/>
       <c r="K57" s="18"/>
@@ -40350,10 +40154,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>7</v>
@@ -40365,10 +40169,10 @@
         <v>9</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC1" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -40946,7 +40750,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M16" t="e">
         <f t="shared" si="2"/>
@@ -41028,7 +40832,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M19" t="e">
         <f t="shared" si="2"/>
@@ -41111,7 +40915,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M22" t="e">
         <f t="shared" si="2"/>
@@ -41139,7 +40943,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M23" t="e">
         <f t="shared" si="2"/>
@@ -41200,7 +41004,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB25" s="5" t="e">
-        <f t="shared" ref="AB3:AB57" si="4">LN(F25)</f>
+        <f t="shared" ref="AB25:AB57" si="4">LN(F25)</f>
         <v>#NUM!</v>
       </c>
       <c r="AC25" s="8"/>
@@ -41944,7 +41748,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I57" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J57" s="18"/>
       <c r="K57" s="18"/>
@@ -42363,6 +42167,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="21343963-c43f-42a4-b0bc-b203e64410f4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100150C6E3A01A79A4BB6F66956A6120D17" ma:contentTypeVersion="10" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="675b3873b2b3a50285c27b6e2251c5ac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="21343963-c43f-42a4-b0bc-b203e64410f4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2be159a6f8ccf448de399b2de905d627" ns3:_="">
     <xsd:import namespace="21343963-c43f-42a4-b0bc-b203e64410f4"/>
@@ -42544,24 +42365,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0E5A08E-764A-49CD-B663-0CFE39F0EF50}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="21343963-c43f-42a4-b0bc-b203e64410f4"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="21343963-c43f-42a4-b0bc-b203e64410f4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB974918-D618-4A8E-9BED-86443E84A1C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D79C0675-5D5E-478C-BB62-C10AAF972813}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -42577,28 +42405,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB974918-D618-4A8E-9BED-86443E84A1C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0E5A08E-764A-49CD-B663-0CFE39F0EF50}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="21343963-c43f-42a4-b0bc-b203e64410f4"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/relazioni/esperienza_2/codici/Esperienza_2.xlsx
+++ b/relazioni/esperienza_2/codici/Esperienza_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessiobrusini/Desktop/LABORATORIO-DI-ELETTROMAGNETISMO/relazioni/esperienza_2/codici/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1CEFA6-7174-B641-BFF8-20D50D56E44E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C20C452-B955-994B-AC5F-F8207827DB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="27100" windowHeight="15920" activeTab="5" xr2:uid="{9832D23C-5E2D-EB46-85A1-EE46353BB05C}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="27100" windowHeight="15920" activeTab="3" xr2:uid="{9832D23C-5E2D-EB46-85A1-EE46353BB05C}"/>
   </bookViews>
   <sheets>
     <sheet name="Temp_1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="24">
   <si>
     <t>n.</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>intercetta</t>
+  </si>
+  <si>
+    <t>l</t>
   </si>
 </sst>
 </file>
@@ -36916,8 +36919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF5D825E-8ABD-AB46-9243-4AAB60C8E7B6}">
   <dimension ref="A1:AC44"/>
   <sheetViews>
-    <sheetView zoomScale="58" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -37815,6 +37818,11 @@
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="K27" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="37" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G37" t="s">
@@ -39243,7 +39251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964810A6-0329-CE44-9434-FAE1DDC1CC77}">
   <dimension ref="A1:AC58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="61" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScale="61" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -42175,15 +42183,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100150C6E3A01A79A4BB6F66956A6120D17" ma:contentTypeVersion="10" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="675b3873b2b3a50285c27b6e2251c5ac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="21343963-c43f-42a4-b0bc-b203e64410f4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2be159a6f8ccf448de399b2de905d627" ns3:_="">
     <xsd:import namespace="21343963-c43f-42a4-b0bc-b203e64410f4"/>
@@ -42365,6 +42364,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0E5A08E-764A-49CD-B663-0CFE39F0EF50}">
   <ds:schemaRefs>
@@ -42382,14 +42390,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB974918-D618-4A8E-9BED-86443E84A1C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D79C0675-5D5E-478C-BB62-C10AAF972813}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -42405,4 +42405,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB974918-D618-4A8E-9BED-86443E84A1C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/relazioni/esperienza_2/codici/Esperienza_2.xlsx
+++ b/relazioni/esperienza_2/codici/Esperienza_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessiobrusini/Desktop/LABORATORIO-DI-ELETTROMAGNETISMO/relazioni/esperienza_2/codici/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\UNIVERSITA'\II ANNO\LABORATORIO-DI-ELETTROMAGNETISMO\relazioni\esperienza_2\codici\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C20C452-B955-994B-AC5F-F8207827DB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348DA382-7920-40FC-82D6-DDDE02160B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="27100" windowHeight="15920" activeTab="3" xr2:uid="{9832D23C-5E2D-EB46-85A1-EE46353BB05C}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="5" activeTab="7" xr2:uid="{9832D23C-5E2D-EB46-85A1-EE46353BB05C}"/>
   </bookViews>
   <sheets>
     <sheet name="Temp_1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Temp_5" sheetId="5" r:id="rId5"/>
     <sheet name="Temp_6" sheetId="7" r:id="rId6"/>
     <sheet name="Pol_inv" sheetId="6" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="39">
   <si>
     <t>n.</t>
   </si>
@@ -128,12 +129,57 @@
   <si>
     <t>l</t>
   </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>x=qV/kTn</t>
+  </si>
+  <si>
+    <t>I scelta</t>
+  </si>
+  <si>
+    <t>ln (I scelta)</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>y=mx+q</t>
+  </si>
+  <si>
+    <t>x=y-q/m</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>V5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -344,7 +390,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -405,7 +451,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1188,7 +1234,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1687,7 +1733,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2418,7 +2464,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2832,7 +2878,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3341,7 +3387,7 @@
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4153,7 +4199,7 @@
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4627,7 +4673,7 @@
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5168,7 +5214,7 @@
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5723,7 +5769,7 @@
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6131,7 +6177,7 @@
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6257,61 +6303,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>35.209336800872698</c:v>
+                  <c:v>159.78745010603305</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.109968964181618</c:v>
+                  <c:v>159.33649775389938</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.010601127490531</c:v>
+                  <c:v>158.88554540176568</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.944355903029816</c:v>
+                  <c:v>158.58491050034323</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.878110678569094</c:v>
+                  <c:v>158.28427559892077</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.844988066338729</c:v>
+                  <c:v>158.13395814820956</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.745620229647656</c:v>
+                  <c:v>157.68300579607589</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34.679375005186934</c:v>
+                  <c:v>157.38237089465341</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34.546884556265496</c:v>
+                  <c:v>156.78110109180852</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34.480639331804781</c:v>
+                  <c:v>156.48046619038607</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34.414394107344059</c:v>
+                  <c:v>156.17983128896361</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34.315026270652979</c:v>
+                  <c:v>155.72887893682994</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>34.215658433961892</c:v>
+                  <c:v>155.27792658469625</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>33.917554923888652</c:v>
+                  <c:v>153.92506952829521</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>33.718819250506492</c:v>
+                  <c:v>153.0231648240279</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>33.553206189354697</c:v>
+                  <c:v>152.27157757047175</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>32.923876556977852</c:v>
+                  <c:v>149.41554600695846</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>32.327669536831372</c:v>
+                  <c:v>146.70983189415637</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>31.863952965606334</c:v>
+                  <c:v>144.60538758419924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6695,7 +6741,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7384,7 +7430,7 @@
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7909,7 +7955,7 @@
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8401,7 +8447,7 @@
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8785,7 +8831,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9476,7 +9522,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10130,7 +10176,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10757,7 +10803,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11237,7 +11283,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11767,7 +11813,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12346,7 +12392,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -32181,19 +32227,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B86F6C1-2CF0-4541-BBC4-14B6AD42230F}">
   <dimension ref="A1:AC63"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="64" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="64" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="4" width="11.1640625" customWidth="1"/>
+    <col min="1" max="4" width="11.19921875" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.1640625" customWidth="1"/>
-    <col min="28" max="29" width="11.1640625" customWidth="1"/>
+    <col min="13" max="13" width="11.19921875" customWidth="1"/>
+    <col min="28" max="29" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="16.2" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -32231,7 +32277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="16.2" thickBot="1">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -32271,7 +32317,7 @@
       </c>
       <c r="AC2" s="6"/>
     </row>
-    <row r="3" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="16.2" thickBot="1">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -32311,7 +32357,7 @@
       </c>
       <c r="AC3" s="8"/>
     </row>
-    <row r="4" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="16.2" thickBot="1">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -32351,7 +32397,7 @@
       </c>
       <c r="AC4" s="6"/>
     </row>
-    <row r="5" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="16.2" thickBot="1">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -32391,7 +32437,7 @@
       </c>
       <c r="AC5" s="8"/>
     </row>
-    <row r="6" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="16.2" thickBot="1">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -32431,7 +32477,7 @@
       </c>
       <c r="AC6" s="6"/>
     </row>
-    <row r="7" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="16.2" thickBot="1">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -32471,7 +32517,7 @@
       </c>
       <c r="AC7" s="8"/>
     </row>
-    <row r="8" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="16.2" thickBot="1">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -32511,7 +32557,7 @@
       </c>
       <c r="AC8" s="6"/>
     </row>
-    <row r="9" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="16.2" thickBot="1">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -32551,7 +32597,7 @@
       </c>
       <c r="AC9" s="8"/>
     </row>
-    <row r="10" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="16.2" thickBot="1">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -32591,7 +32637,7 @@
       </c>
       <c r="AC10" s="6"/>
     </row>
-    <row r="11" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="16.2" thickBot="1">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -32631,7 +32677,7 @@
       </c>
       <c r="AC11" s="8"/>
     </row>
-    <row r="12" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="16.2" thickBot="1">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -32671,7 +32717,7 @@
       </c>
       <c r="AC12" s="6"/>
     </row>
-    <row r="13" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="16.2" thickBot="1">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -32711,7 +32757,7 @@
       </c>
       <c r="AC13" s="8"/>
     </row>
-    <row r="14" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="16.2" thickBot="1">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -32751,7 +32797,7 @@
       </c>
       <c r="AC14" s="6"/>
     </row>
-    <row r="15" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" ht="16.2" thickBot="1">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -32791,7 +32837,7 @@
       </c>
       <c r="AC15" s="8"/>
     </row>
-    <row r="16" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="16.2" thickBot="1">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -32834,7 +32880,7 @@
       </c>
       <c r="AC16" s="6"/>
     </row>
-    <row r="17" spans="1:29" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" ht="18" thickBot="1">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -32878,7 +32924,7 @@
       </c>
       <c r="AC17" s="8"/>
     </row>
-    <row r="18" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" ht="16.2" thickBot="1">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -32918,7 +32964,7 @@
       </c>
       <c r="AC18" s="6"/>
     </row>
-    <row r="19" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" ht="16.2" thickBot="1">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -32961,7 +33007,7 @@
       </c>
       <c r="AC19" s="8"/>
     </row>
-    <row r="20" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="17.399999999999999" thickBot="1">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -33005,7 +33051,7 @@
       </c>
       <c r="AC20" s="6"/>
     </row>
-    <row r="21" spans="1:29" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" ht="18" thickBot="1">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -33046,7 +33092,7 @@
       </c>
       <c r="AC21" s="8"/>
     </row>
-    <row r="22" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" ht="21" thickBot="1">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -33089,7 +33135,7 @@
       </c>
       <c r="AC22" s="6"/>
     </row>
-    <row r="23" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" ht="16.2" thickBot="1">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -33132,7 +33178,7 @@
       </c>
       <c r="AC23" s="8"/>
     </row>
-    <row r="24" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" ht="16.2" thickBot="1">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -33172,7 +33218,7 @@
       </c>
       <c r="AC24" s="6"/>
     </row>
-    <row r="25" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" ht="16.2" thickBot="1">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -33212,7 +33258,7 @@
       </c>
       <c r="AC25" s="8"/>
     </row>
-    <row r="26" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" ht="16.2" thickBot="1">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -33252,7 +33298,7 @@
       </c>
       <c r="AC26" s="6"/>
     </row>
-    <row r="27" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" ht="16.2" thickBot="1">
       <c r="A27" s="7">
         <v>25</v>
       </c>
@@ -33292,7 +33338,7 @@
       </c>
       <c r="AC27" s="8"/>
     </row>
-    <row r="28" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" ht="16.2" thickBot="1">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -33332,7 +33378,7 @@
       </c>
       <c r="AC28" s="6"/>
     </row>
-    <row r="29" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" ht="16.2" thickBot="1">
       <c r="A29" s="7">
         <v>27</v>
       </c>
@@ -33372,7 +33418,7 @@
       </c>
       <c r="AC29" s="8"/>
     </row>
-    <row r="30" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" ht="16.2" thickBot="1">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -33412,7 +33458,7 @@
       </c>
       <c r="AC30" s="6"/>
     </row>
-    <row r="31" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" ht="16.2" thickBot="1">
       <c r="A31" s="7">
         <v>29</v>
       </c>
@@ -33452,7 +33498,7 @@
       </c>
       <c r="AC31" s="6"/>
     </row>
-    <row r="32" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" ht="16.2" thickBot="1">
       <c r="A32" s="5">
         <v>30</v>
       </c>
@@ -33492,7 +33538,7 @@
       </c>
       <c r="AC32" s="8"/>
     </row>
-    <row r="33" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" ht="16.2" thickBot="1">
       <c r="A33" s="7">
         <v>31</v>
       </c>
@@ -33532,7 +33578,7 @@
       </c>
       <c r="AC33" s="6"/>
     </row>
-    <row r="34" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" ht="16.2" thickBot="1">
       <c r="A34" s="5">
         <v>32</v>
       </c>
@@ -33572,7 +33618,7 @@
       </c>
       <c r="AC34" s="6"/>
     </row>
-    <row r="35" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" ht="16.2" thickBot="1">
       <c r="A35" s="7">
         <v>33</v>
       </c>
@@ -33612,7 +33658,7 @@
       </c>
       <c r="AC35" s="8"/>
     </row>
-    <row r="36" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" ht="16.2" thickBot="1">
       <c r="A36" s="5">
         <v>34</v>
       </c>
@@ -33652,7 +33698,7 @@
       </c>
       <c r="AC36" s="6"/>
     </row>
-    <row r="37" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" ht="16.2" thickBot="1">
       <c r="A37" s="7">
         <v>35</v>
       </c>
@@ -33692,7 +33738,7 @@
       </c>
       <c r="AC37" s="6"/>
     </row>
-    <row r="38" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" ht="16.2" thickBot="1">
       <c r="A38" s="5">
         <v>36</v>
       </c>
@@ -33732,7 +33778,7 @@
       </c>
       <c r="AC38" s="8"/>
     </row>
-    <row r="39" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" ht="16.2" thickBot="1">
       <c r="A39" s="7">
         <v>37</v>
       </c>
@@ -33772,7 +33818,7 @@
       </c>
       <c r="AC39" s="6"/>
     </row>
-    <row r="40" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" ht="16.2" thickBot="1">
       <c r="A40" s="5">
         <v>38</v>
       </c>
@@ -33812,7 +33858,7 @@
       </c>
       <c r="AC40" s="6"/>
     </row>
-    <row r="41" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" ht="16.2" thickBot="1">
       <c r="A41" s="7">
         <v>39</v>
       </c>
@@ -33852,7 +33898,7 @@
       </c>
       <c r="AC41" s="8"/>
     </row>
-    <row r="42" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" ht="16.2" thickBot="1">
       <c r="A42" s="5">
         <v>40</v>
       </c>
@@ -33892,7 +33938,7 @@
       </c>
       <c r="AC42" s="6"/>
     </row>
-    <row r="43" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" ht="16.2" thickBot="1">
       <c r="A43" s="7">
         <v>41</v>
       </c>
@@ -33932,7 +33978,7 @@
       </c>
       <c r="AC43" s="6"/>
     </row>
-    <row r="44" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" ht="16.2" thickBot="1">
       <c r="A44" s="5">
         <v>42</v>
       </c>
@@ -33972,7 +34018,7 @@
       </c>
       <c r="AC44" s="8"/>
     </row>
-    <row r="45" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" ht="16.2" thickBot="1">
       <c r="A45" s="7">
         <v>43</v>
       </c>
@@ -34012,7 +34058,7 @@
       </c>
       <c r="AC45" s="6"/>
     </row>
-    <row r="46" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" ht="16.2" thickBot="1">
       <c r="A46" s="5">
         <v>44</v>
       </c>
@@ -34052,7 +34098,7 @@
       </c>
       <c r="AC46" s="6"/>
     </row>
-    <row r="47" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" ht="16.2" thickBot="1">
       <c r="A47" s="7">
         <v>45</v>
       </c>
@@ -34092,7 +34138,7 @@
       </c>
       <c r="AC47" s="8"/>
     </row>
-    <row r="48" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" ht="16.2" thickBot="1">
       <c r="A48" s="5">
         <v>46</v>
       </c>
@@ -34132,7 +34178,7 @@
       </c>
       <c r="AC48" s="6"/>
     </row>
-    <row r="49" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" ht="16.2" thickBot="1">
       <c r="A49" s="7">
         <v>47</v>
       </c>
@@ -34172,7 +34218,7 @@
       </c>
       <c r="AC49" s="6"/>
     </row>
-    <row r="50" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" ht="16.2" thickBot="1">
       <c r="A50" s="5">
         <v>48</v>
       </c>
@@ -34212,7 +34258,7 @@
       </c>
       <c r="AC50" s="8"/>
     </row>
-    <row r="51" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" ht="16.2" thickBot="1">
       <c r="A51" s="7">
         <v>49</v>
       </c>
@@ -34252,7 +34298,7 @@
       </c>
       <c r="AC51" s="6"/>
     </row>
-    <row r="52" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" ht="16.2" thickBot="1">
       <c r="A52" s="5">
         <v>50</v>
       </c>
@@ -34292,7 +34338,7 @@
       </c>
       <c r="AC52" s="6"/>
     </row>
-    <row r="53" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" ht="16.2" thickBot="1">
       <c r="A53" s="7">
         <v>51</v>
       </c>
@@ -34332,7 +34378,7 @@
       </c>
       <c r="AC53" s="8"/>
     </row>
-    <row r="54" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" ht="16.2" thickBot="1">
       <c r="A54" s="5">
         <v>52</v>
       </c>
@@ -34372,7 +34418,7 @@
       </c>
       <c r="AC54" s="6"/>
     </row>
-    <row r="55" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" ht="16.2" thickBot="1">
       <c r="A55" s="7">
         <v>53</v>
       </c>
@@ -34412,7 +34458,7 @@
       </c>
       <c r="AC55" s="6"/>
     </row>
-    <row r="56" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" ht="16.2" thickBot="1">
       <c r="A56" s="5">
         <v>54</v>
       </c>
@@ -34452,7 +34498,7 @@
       </c>
       <c r="AC56" s="8"/>
     </row>
-    <row r="57" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" ht="16.2" thickBot="1">
       <c r="A57" s="7">
         <v>55</v>
       </c>
@@ -34492,7 +34538,7 @@
       </c>
       <c r="AC57" s="6"/>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:29">
       <c r="A58" s="5">
         <v>56</v>
       </c>
@@ -34521,11 +34567,11 @@
       <c r="AB58" s="5"/>
       <c r="AC58" s="6"/>
     </row>
-    <row r="59" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" ht="16.2" thickBot="1">
       <c r="AB59" s="5"/>
       <c r="AC59" s="8"/>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:29">
       <c r="B60" s="18" t="s">
         <v>15</v>
       </c>
@@ -34537,7 +34583,7 @@
       <c r="AB60" s="5"/>
       <c r="AC60" s="6"/>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:29">
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
       <c r="D61" s="19"/>
@@ -34547,11 +34593,11 @@
       <c r="AB61" s="5"/>
       <c r="AC61" s="6"/>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:29">
       <c r="AB62" s="5"/>
       <c r="AC62" s="8"/>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:29">
       <c r="AB63" s="5"/>
       <c r="AC63" s="6"/>
     </row>
@@ -34572,19 +34618,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64FDFDC-13B1-AB4C-B1C3-7FF9E2CAD166}">
   <dimension ref="A1:AC35"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="AA1" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="4" width="11.1640625" customWidth="1"/>
+    <col min="1" max="4" width="11.19921875" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.1640625" customWidth="1"/>
-    <col min="28" max="29" width="11.1640625" customWidth="1"/>
+    <col min="13" max="13" width="11.19921875" customWidth="1"/>
+    <col min="28" max="29" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="16.2" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -34622,7 +34668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="16.2" thickBot="1">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -34662,7 +34708,7 @@
       </c>
       <c r="AC2" s="6"/>
     </row>
-    <row r="3" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="16.2" thickBot="1">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -34702,7 +34748,7 @@
       </c>
       <c r="AC3" s="8"/>
     </row>
-    <row r="4" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="16.2" thickBot="1">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -34742,7 +34788,7 @@
       </c>
       <c r="AC4" s="6"/>
     </row>
-    <row r="5" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="16.2" thickBot="1">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -34782,7 +34828,7 @@
       </c>
       <c r="AC5" s="8"/>
     </row>
-    <row r="6" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="16.2" thickBot="1">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -34822,7 +34868,7 @@
       </c>
       <c r="AC6" s="6"/>
     </row>
-    <row r="7" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="16.2" thickBot="1">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -34862,7 +34908,7 @@
       </c>
       <c r="AC7" s="8"/>
     </row>
-    <row r="8" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="16.2" thickBot="1">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -34902,7 +34948,7 @@
       </c>
       <c r="AC8" s="6"/>
     </row>
-    <row r="9" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="16.2" thickBot="1">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -34942,7 +34988,7 @@
       </c>
       <c r="AC9" s="8"/>
     </row>
-    <row r="10" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="16.2" thickBot="1">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -34982,7 +35028,7 @@
       </c>
       <c r="AC10" s="6"/>
     </row>
-    <row r="11" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="16.2" thickBot="1">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -35022,7 +35068,7 @@
       </c>
       <c r="AC11" s="8"/>
     </row>
-    <row r="12" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="16.2" thickBot="1">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -35062,7 +35108,7 @@
       </c>
       <c r="AC12" s="6"/>
     </row>
-    <row r="13" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="16.2" thickBot="1">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -35102,7 +35148,7 @@
       </c>
       <c r="AC13" s="8"/>
     </row>
-    <row r="14" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="16.2" thickBot="1">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -35142,7 +35188,7 @@
       </c>
       <c r="AC14" s="6"/>
     </row>
-    <row r="15" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" ht="16.2" thickBot="1">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -35182,7 +35228,7 @@
       </c>
       <c r="AC15" s="8"/>
     </row>
-    <row r="16" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="16.2" thickBot="1">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -35225,7 +35271,7 @@
       </c>
       <c r="AC16" s="6"/>
     </row>
-    <row r="17" spans="1:29" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" ht="18" thickBot="1">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -35269,7 +35315,7 @@
       </c>
       <c r="AC17" s="8"/>
     </row>
-    <row r="18" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" ht="16.2" thickBot="1">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -35309,7 +35355,7 @@
       </c>
       <c r="AC18" s="6"/>
     </row>
-    <row r="19" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" ht="16.2" thickBot="1">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -35352,7 +35398,7 @@
       </c>
       <c r="AC19" s="8"/>
     </row>
-    <row r="20" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="17.399999999999999" thickBot="1">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -35396,7 +35442,7 @@
       </c>
       <c r="AC20" s="6"/>
     </row>
-    <row r="21" spans="1:29" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" ht="18" thickBot="1">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -35437,7 +35483,7 @@
       </c>
       <c r="AC21" s="8"/>
     </row>
-    <row r="22" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" ht="21" thickBot="1">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -35480,7 +35526,7 @@
       </c>
       <c r="AC22" s="6"/>
     </row>
-    <row r="23" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" ht="16.2" thickBot="1">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -35523,7 +35569,7 @@
       </c>
       <c r="AC23" s="8"/>
     </row>
-    <row r="24" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" ht="16.2" thickBot="1">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -35563,7 +35609,7 @@
       </c>
       <c r="AC24" s="6"/>
     </row>
-    <row r="25" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" ht="16.2" thickBot="1">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -35603,7 +35649,7 @@
       </c>
       <c r="AC25" s="8"/>
     </row>
-    <row r="26" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" ht="16.2" thickBot="1">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -35643,7 +35689,7 @@
       </c>
       <c r="AC26" s="6"/>
     </row>
-    <row r="27" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" ht="16.2" thickBot="1">
       <c r="A27" s="7">
         <v>25</v>
       </c>
@@ -35683,7 +35729,7 @@
       </c>
       <c r="AC27" s="8"/>
     </row>
-    <row r="28" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" ht="16.2" thickBot="1">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -35723,7 +35769,7 @@
       </c>
       <c r="AC28" s="6"/>
     </row>
-    <row r="29" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" ht="16.2" thickBot="1">
       <c r="A29" s="7">
         <v>27</v>
       </c>
@@ -35763,7 +35809,7 @@
       </c>
       <c r="AC29" s="8"/>
     </row>
-    <row r="30" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" ht="16.2" thickBot="1">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -35803,7 +35849,7 @@
       </c>
       <c r="AC30" s="6"/>
     </row>
-    <row r="31" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" ht="16.2" thickBot="1">
       <c r="A31" s="7">
         <v>29</v>
       </c>
@@ -35843,7 +35889,7 @@
       </c>
       <c r="AC31" s="6"/>
     </row>
-    <row r="32" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" ht="16.2" thickBot="1">
       <c r="A32" s="5">
         <v>30</v>
       </c>
@@ -35870,8 +35916,8 @@
         <v>11.240110077866133</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7" ht="16.2" thickBot="1"/>
+    <row r="34" spans="2:7">
       <c r="B34" s="18" t="s">
         <v>15</v>
       </c>
@@ -35881,7 +35927,7 @@
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:7">
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
@@ -35905,19 +35951,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B8D5F5-4DDF-2344-BE93-713864C91CD6}">
   <dimension ref="A1:AC58"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="70" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="4" width="11.1640625" customWidth="1"/>
+    <col min="1" max="4" width="11.19921875" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.1640625" customWidth="1"/>
-    <col min="28" max="29" width="11.1640625" customWidth="1"/>
+    <col min="13" max="13" width="11.19921875" customWidth="1"/>
+    <col min="28" max="29" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="16.2" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -35955,7 +36001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="16.2" thickBot="1">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -35996,7 +36042,7 @@
       </c>
       <c r="AC2" s="6"/>
     </row>
-    <row r="3" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="16.2" thickBot="1">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -36036,7 +36082,7 @@
       </c>
       <c r="AC3" s="8"/>
     </row>
-    <row r="4" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="16.2" thickBot="1">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -36076,7 +36122,7 @@
       </c>
       <c r="AC4" s="6"/>
     </row>
-    <row r="5" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="16.2" thickBot="1">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -36116,7 +36162,7 @@
       </c>
       <c r="AC5" s="8"/>
     </row>
-    <row r="6" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="16.2" thickBot="1">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -36156,7 +36202,7 @@
       </c>
       <c r="AC6" s="6"/>
     </row>
-    <row r="7" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="16.2" thickBot="1">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -36196,7 +36242,7 @@
       </c>
       <c r="AC7" s="8"/>
     </row>
-    <row r="8" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="16.2" thickBot="1">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -36236,7 +36282,7 @@
       </c>
       <c r="AC8" s="6"/>
     </row>
-    <row r="9" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="16.2" thickBot="1">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -36276,7 +36322,7 @@
       </c>
       <c r="AC9" s="8"/>
     </row>
-    <row r="10" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="16.2" thickBot="1">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -36316,7 +36362,7 @@
       </c>
       <c r="AC10" s="6"/>
     </row>
-    <row r="11" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="16.2" thickBot="1">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -36356,7 +36402,7 @@
       </c>
       <c r="AC11" s="8"/>
     </row>
-    <row r="12" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="16.2" thickBot="1">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -36396,7 +36442,7 @@
       </c>
       <c r="AC12" s="6"/>
     </row>
-    <row r="13" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="16.2" thickBot="1">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -36436,7 +36482,7 @@
       </c>
       <c r="AC13" s="8"/>
     </row>
-    <row r="14" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="16.2" thickBot="1">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -36476,7 +36522,7 @@
       </c>
       <c r="AC14" s="6"/>
     </row>
-    <row r="15" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" ht="16.2" thickBot="1">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -36516,7 +36562,7 @@
       </c>
       <c r="AC15" s="8"/>
     </row>
-    <row r="16" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="16.2" thickBot="1">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -36559,7 +36605,7 @@
       </c>
       <c r="AC16" s="6"/>
     </row>
-    <row r="17" spans="1:29" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" ht="18" thickBot="1">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -36603,7 +36649,7 @@
       </c>
       <c r="AC17" s="8"/>
     </row>
-    <row r="18" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" ht="16.2" thickBot="1">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -36643,7 +36689,7 @@
       </c>
       <c r="AC18" s="6"/>
     </row>
-    <row r="19" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" ht="16.2" thickBot="1">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -36686,7 +36732,7 @@
       </c>
       <c r="AC19" s="8"/>
     </row>
-    <row r="20" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="17.399999999999999" thickBot="1">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -36730,7 +36776,7 @@
       </c>
       <c r="AC20" s="6"/>
     </row>
-    <row r="21" spans="1:29" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" ht="18" thickBot="1">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -36771,7 +36817,7 @@
       </c>
       <c r="AC21" s="8"/>
     </row>
-    <row r="22" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" ht="21" thickBot="1">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -36814,7 +36860,7 @@
       </c>
       <c r="AC22" s="6"/>
     </row>
-    <row r="23" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" ht="16.2" thickBot="1">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -36857,7 +36903,7 @@
       </c>
       <c r="AC23" s="8"/>
     </row>
-    <row r="24" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" ht="16.2" thickBot="1">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -36884,8 +36930,8 @@
         <v>13.466910915437513</v>
       </c>
     </row>
-    <row r="56" spans="9:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="9:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="9:14" ht="16.2" thickBot="1"/>
+    <row r="57" spans="9:14">
       <c r="I57" s="18" t="s">
         <v>15</v>
       </c>
@@ -36895,7 +36941,7 @@
       <c r="M57" s="18"/>
       <c r="N57" s="18"/>
     </row>
-    <row r="58" spans="9:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="9:14">
       <c r="I58" s="19"/>
       <c r="J58" s="19"/>
       <c r="K58" s="19"/>
@@ -36919,23 +36965,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF5D825E-8ABD-AB46-9243-4AAB60C8E7B6}">
   <dimension ref="A1:AC44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="58" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="4" width="11.1640625" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="11.19921875" customWidth="1"/>
+    <col min="6" max="6" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.1640625" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="11.1640625" customWidth="1"/>
+    <col min="13" max="13" width="11.19921875" customWidth="1"/>
+    <col min="14" max="14" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="16.2" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -36973,7 +37019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="16.2" thickBot="1">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -37015,7 +37061,7 @@
       </c>
       <c r="AC2" s="6"/>
     </row>
-    <row r="3" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="16.2" thickBot="1">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -37057,7 +37103,7 @@
       </c>
       <c r="AC3" s="8"/>
     </row>
-    <row r="4" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="16.2" thickBot="1">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -37099,7 +37145,7 @@
       </c>
       <c r="AC4" s="6"/>
     </row>
-    <row r="5" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="16.2" thickBot="1">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -37141,7 +37187,7 @@
       </c>
       <c r="AC5" s="8"/>
     </row>
-    <row r="6" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="16.2" thickBot="1">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -37183,7 +37229,7 @@
       </c>
       <c r="AC6" s="6"/>
     </row>
-    <row r="7" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="16.2" thickBot="1">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -37225,7 +37271,7 @@
       </c>
       <c r="AC7" s="8"/>
     </row>
-    <row r="8" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="16.2" thickBot="1">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -37267,7 +37313,7 @@
       </c>
       <c r="AC8" s="6"/>
     </row>
-    <row r="9" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="16.2" thickBot="1">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -37309,7 +37355,7 @@
       </c>
       <c r="AC9" s="8"/>
     </row>
-    <row r="10" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="16.2" thickBot="1">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -37351,7 +37397,7 @@
       </c>
       <c r="AC10" s="6"/>
     </row>
-    <row r="11" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="16.2" thickBot="1">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -37393,7 +37439,7 @@
       </c>
       <c r="AC11" s="8"/>
     </row>
-    <row r="12" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="16.2" thickBot="1">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -37435,7 +37481,7 @@
       </c>
       <c r="AC12" s="6"/>
     </row>
-    <row r="13" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="16.2" thickBot="1">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -37477,7 +37523,7 @@
       </c>
       <c r="AC13" s="8"/>
     </row>
-    <row r="14" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="16.2" thickBot="1">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -37519,7 +37565,7 @@
       </c>
       <c r="AC14" s="6"/>
     </row>
-    <row r="15" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" ht="16.2" thickBot="1">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -37561,7 +37607,7 @@
       </c>
       <c r="AC15" s="8"/>
     </row>
-    <row r="16" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="16.2" thickBot="1">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -37603,7 +37649,7 @@
       </c>
       <c r="AC16" s="6"/>
     </row>
-    <row r="17" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" ht="16.2" thickBot="1">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -37645,7 +37691,7 @@
       </c>
       <c r="AC17" s="8"/>
     </row>
-    <row r="18" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" ht="16.2" thickBot="1">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -37687,7 +37733,7 @@
       </c>
       <c r="AC18" s="6"/>
     </row>
-    <row r="19" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" ht="16.2" thickBot="1">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -37729,7 +37775,7 @@
       </c>
       <c r="AC19" s="8"/>
     </row>
-    <row r="20" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="16.2" thickBot="1">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -37771,7 +37817,7 @@
       </c>
       <c r="AC20" s="6"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -37800,8 +37846,8 @@
         <v>1.9813326740246377E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" ht="16.2" thickBot="1"/>
+    <row r="23" spans="1:29">
       <c r="B23" s="18" t="s">
         <v>15</v>
       </c>
@@ -37811,7 +37857,7 @@
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29">
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
@@ -37819,42 +37865,42 @@
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29">
       <c r="K27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="7:7">
       <c r="G37" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="7:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="38" spans="7:7" ht="17.399999999999999">
       <c r="G38" s="9">
         <f>1.602176634*10^(-19)</f>
         <v>1.6021766340000001E-19</v>
       </c>
     </row>
-    <row r="40" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="7:7">
       <c r="G40" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="7:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="7:7" ht="16.8">
       <c r="G41" s="11">
         <f>1.3806503*10^(-23)</f>
         <v>1.3806503000000004E-23</v>
       </c>
     </row>
-    <row r="42" spans="7:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="42" spans="7:7" ht="17.399999999999999">
       <c r="G42" s="10"/>
     </row>
-    <row r="43" spans="7:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="43" spans="7:7" ht="20.399999999999999">
       <c r="G43" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="7:7">
       <c r="G44" t="s">
         <v>14</v>
       </c>
@@ -37875,22 +37921,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29EA75CD-2EAA-AD46-B54B-F32D80398925}">
   <dimension ref="A1:AC50"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="M1" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="4" width="11.1640625" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="11.19921875" customWidth="1"/>
+    <col min="6" max="6" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.69921875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.1640625" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="11.1640625" customWidth="1"/>
+    <col min="13" max="13" width="11.19921875" customWidth="1"/>
+    <col min="14" max="14" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="16.2" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -37934,7 +37980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="16.2" thickBot="1">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -37976,7 +38022,7 @@
       </c>
       <c r="AC2" s="6"/>
     </row>
-    <row r="3" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="16.2" thickBot="1">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -38018,7 +38064,7 @@
       </c>
       <c r="AC3" s="8"/>
     </row>
-    <row r="4" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="16.2" thickBot="1">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -38060,7 +38106,7 @@
       </c>
       <c r="AC4" s="6"/>
     </row>
-    <row r="5" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="16.2" thickBot="1">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -38102,7 +38148,7 @@
       </c>
       <c r="AC5" s="8"/>
     </row>
-    <row r="6" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="16.2" thickBot="1">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -38144,7 +38190,7 @@
       </c>
       <c r="AC6" s="6"/>
     </row>
-    <row r="7" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="16.2" thickBot="1">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -38186,7 +38232,7 @@
       </c>
       <c r="AC7" s="8"/>
     </row>
-    <row r="8" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="16.2" thickBot="1">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -38228,7 +38274,7 @@
       </c>
       <c r="AC8" s="6"/>
     </row>
-    <row r="9" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="16.2" thickBot="1">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -38270,7 +38316,7 @@
       </c>
       <c r="AC9" s="8"/>
     </row>
-    <row r="10" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="16.2" thickBot="1">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -38312,7 +38358,7 @@
       </c>
       <c r="AC10" s="6"/>
     </row>
-    <row r="11" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="16.2" thickBot="1">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -38354,7 +38400,7 @@
       </c>
       <c r="AC11" s="8"/>
     </row>
-    <row r="12" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="16.2" thickBot="1">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -38396,7 +38442,7 @@
       </c>
       <c r="AC12" s="6"/>
     </row>
-    <row r="13" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="16.2" thickBot="1">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -38438,7 +38484,7 @@
       </c>
       <c r="AC13" s="8"/>
     </row>
-    <row r="14" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="16.2" thickBot="1">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -38480,7 +38526,7 @@
       </c>
       <c r="AC14" s="6"/>
     </row>
-    <row r="15" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" ht="16.2" thickBot="1">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -38522,7 +38568,7 @@
       </c>
       <c r="AC15" s="8"/>
     </row>
-    <row r="16" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="16.2" thickBot="1">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -38564,7 +38610,7 @@
       </c>
       <c r="AC16" s="6"/>
     </row>
-    <row r="17" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" ht="16.2" thickBot="1">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -38606,7 +38652,7 @@
       </c>
       <c r="AC17" s="8"/>
     </row>
-    <row r="18" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" ht="16.2" thickBot="1">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -38648,7 +38694,7 @@
       </c>
       <c r="AC18" s="6"/>
     </row>
-    <row r="19" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" ht="16.2" thickBot="1">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -38690,7 +38736,7 @@
       </c>
       <c r="AC19" s="8"/>
     </row>
-    <row r="20" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="16.2" thickBot="1">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -38732,7 +38778,7 @@
       </c>
       <c r="AC20" s="6"/>
     </row>
-    <row r="21" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" ht="16.2" thickBot="1">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -38774,7 +38820,7 @@
       </c>
       <c r="AC21" s="8"/>
     </row>
-    <row r="22" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" ht="16.2" thickBot="1">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -38816,7 +38862,7 @@
       </c>
       <c r="AC22" s="6"/>
     </row>
-    <row r="23" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" ht="16.2" thickBot="1">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -38858,7 +38904,7 @@
       </c>
       <c r="AC23" s="8"/>
     </row>
-    <row r="24" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" ht="16.2" thickBot="1">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -38900,7 +38946,7 @@
       </c>
       <c r="AC24" s="6"/>
     </row>
-    <row r="25" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" ht="16.2" thickBot="1">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -38942,7 +38988,7 @@
       </c>
       <c r="AC25" s="8"/>
     </row>
-    <row r="26" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" ht="16.2" thickBot="1">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -38984,7 +39030,7 @@
       </c>
       <c r="AC26" s="6"/>
     </row>
-    <row r="27" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" ht="16.2" thickBot="1">
       <c r="A27" s="7">
         <v>25</v>
       </c>
@@ -39026,7 +39072,7 @@
       </c>
       <c r="AC27" s="8"/>
     </row>
-    <row r="28" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" ht="16.2" thickBot="1">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -39068,7 +39114,7 @@
       </c>
       <c r="AC28" s="6"/>
     </row>
-    <row r="29" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" ht="16.2" thickBot="1">
       <c r="A29" s="7">
         <v>27</v>
       </c>
@@ -39110,7 +39156,7 @@
       </c>
       <c r="AC29" s="8"/>
     </row>
-    <row r="30" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" ht="16.2" thickBot="1">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -39152,7 +39198,7 @@
       </c>
       <c r="AC30" s="6"/>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29">
       <c r="A31" s="7">
         <v>29</v>
       </c>
@@ -39181,8 +39227,8 @@
         <v>6.6325231377546354E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" ht="16.2" thickBot="1"/>
+    <row r="33" spans="2:8">
       <c r="B33" s="18" t="s">
         <v>15</v>
       </c>
@@ -39192,7 +39238,7 @@
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8">
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
@@ -39200,37 +39246,37 @@
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8">
       <c r="H43" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8" ht="17.399999999999999">
       <c r="H44" s="9">
         <f>1.602176634*10^(-19)</f>
         <v>1.6021766340000001E-19</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8">
       <c r="H46" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8" ht="16.8">
       <c r="H47" s="11">
         <f>1.3806503*10^(-23)</f>
         <v>1.3806503000000004E-23</v>
       </c>
     </row>
-    <row r="48" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8" ht="17.399999999999999">
       <c r="H48" s="10"/>
     </row>
-    <row r="49" spans="8:8" ht="20" x14ac:dyDescent="0.2">
+    <row r="49" spans="8:8" ht="20.399999999999999">
       <c r="H49" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="8:8">
       <c r="H50" t="s">
         <v>14</v>
       </c>
@@ -39251,19 +39297,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964810A6-0329-CE44-9434-FAE1DDC1CC77}">
   <dimension ref="A1:AC58"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="61" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView zoomScale="61" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="4" width="11.1640625" customWidth="1"/>
+    <col min="1" max="4" width="11.19921875" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.1640625" customWidth="1"/>
-    <col min="28" max="29" width="11.1640625" customWidth="1"/>
+    <col min="13" max="13" width="11.19921875" customWidth="1"/>
+    <col min="28" max="29" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="16.2" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -39301,12 +39347,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="16.2" thickBot="1">
       <c r="A2" s="5">
         <v>0</v>
       </c>
       <c r="B2" s="12">
-        <v>77.2</v>
+        <f>77.2-273.15</f>
+        <v>-195.95</v>
       </c>
       <c r="C2" s="12">
         <v>0.1</v>
@@ -39325,7 +39372,7 @@
       </c>
       <c r="H2" s="6">
         <f>$J$17*D2/($J$20*(273.15+B2))/1000</f>
-        <v>35.209336800872698</v>
+        <v>159.78745010603305</v>
       </c>
       <c r="M2">
         <f>(D3-D2)/(F3-F2)</f>
@@ -39341,12 +39388,13 @@
       </c>
       <c r="AC2" s="6"/>
     </row>
-    <row r="3" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="16.2" thickBot="1">
       <c r="A3" s="7">
         <v>1</v>
       </c>
       <c r="B3" s="12">
-        <v>77.2</v>
+        <f t="shared" ref="B3:B20" si="1">77.2-273.15</f>
+        <v>-195.95</v>
       </c>
       <c r="C3" s="12">
         <v>0.1</v>
@@ -39364,11 +39412,11 @@
         <v>0.01</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" ref="H3:H20" si="1">$J$17*D3/($J$20*(273.15+B3))/1000</f>
-        <v>35.109968964181618</v>
+        <f t="shared" ref="H3:H20" si="2">$J$17*D3/($J$20*(273.15+B3))/1000</f>
+        <v>159.33649775389938</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M19" si="2">(D4-D3)/(F4-F3)</f>
+        <f t="shared" ref="M3:M19" si="3">(D4-D3)/(F4-F3)</f>
         <v>1.4354066985645935</v>
       </c>
       <c r="N3">
@@ -39376,17 +39424,18 @@
         <v>-0.97067374831162301</v>
       </c>
       <c r="AB3" s="5">
-        <f t="shared" ref="AB3:AB19" si="3">LN(F3/1000)</f>
+        <f t="shared" ref="AB3:AB19" si="4">LN(F3/1000)</f>
         <v>-4.4022293419914007</v>
       </c>
       <c r="AC3" s="8"/>
     </row>
-    <row r="4" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="16.2" thickBot="1">
       <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="12">
-        <v>77.2</v>
+        <f t="shared" si="1"/>
+        <v>-195.95</v>
       </c>
       <c r="C4" s="12">
         <v>0.1</v>
@@ -39404,11 +39453,11 @@
         <v>0.01</v>
       </c>
       <c r="H4" s="6">
-        <f t="shared" si="1"/>
-        <v>35.010601127490531</v>
+        <f t="shared" si="2"/>
+        <v>158.88554540176568</v>
       </c>
       <c r="M4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.379310344827587</v>
       </c>
       <c r="N4">
@@ -39416,17 +39465,18 @@
         <v>-1.3983353151010709</v>
       </c>
       <c r="AB4" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-4.5892968368318012</v>
       </c>
       <c r="AC4" s="6"/>
     </row>
-    <row r="5" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="16.2" thickBot="1">
       <c r="A5" s="7">
         <v>3</v>
       </c>
       <c r="B5" s="12">
-        <v>77.2</v>
+        <f t="shared" si="1"/>
+        <v>-195.95</v>
       </c>
       <c r="C5" s="12">
         <v>0.1</v>
@@ -39444,11 +39494,11 @@
         <v>0.01</v>
       </c>
       <c r="H5" s="6">
-        <f t="shared" si="1"/>
-        <v>34.944355903029816</v>
+        <f t="shared" si="2"/>
+        <v>158.58491050034323</v>
       </c>
       <c r="M5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.481481481481481</v>
       </c>
       <c r="N5">
@@ -39456,17 +39506,18 @@
         <v>-1.5034293552812066</v>
       </c>
       <c r="AB5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-4.7432834881177257</v>
       </c>
       <c r="AC5" s="8"/>
     </row>
-    <row r="6" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="16.2" thickBot="1">
       <c r="A6" s="5">
         <v>4</v>
       </c>
       <c r="B6" s="12">
-        <v>77.2</v>
+        <f t="shared" si="1"/>
+        <v>-195.95</v>
       </c>
       <c r="C6" s="12">
         <v>0.1</v>
@@ -39484,11 +39535,11 @@
         <v>0.01</v>
       </c>
       <c r="H6" s="6">
-        <f t="shared" si="1"/>
-        <v>34.878110678569094</v>
+        <f t="shared" si="2"/>
+        <v>158.28427559892077</v>
       </c>
       <c r="M6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4705882352941164</v>
       </c>
       <c r="N6">
@@ -39496,17 +39547,18 @@
         <v>-2.9844290657439418</v>
       </c>
       <c r="AB6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-4.911695346241352</v>
       </c>
       <c r="AC6" s="6"/>
     </row>
-    <row r="7" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="16.2" thickBot="1">
       <c r="A7" s="7">
         <v>5</v>
       </c>
       <c r="B7" s="12">
-        <v>77.2</v>
+        <f t="shared" si="1"/>
+        <v>-195.95</v>
       </c>
       <c r="C7" s="12">
         <v>0.1</v>
@@ -39524,11 +39576,11 @@
         <v>0.01</v>
       </c>
       <c r="H7" s="6">
-        <f t="shared" si="1"/>
-        <v>34.844988066338729</v>
+        <f t="shared" si="2"/>
+        <v>158.13395814820956</v>
       </c>
       <c r="M7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.542372881355933</v>
       </c>
       <c r="N7">
@@ -39536,17 +39588,18 @@
         <v>-1.7380063200229823</v>
       </c>
       <c r="AB7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5.0086372914335824</v>
       </c>
       <c r="AC7" s="8"/>
     </row>
-    <row r="8" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="16.2" thickBot="1">
       <c r="A8" s="5">
         <v>6</v>
       </c>
       <c r="B8" s="12">
-        <v>77.2</v>
+        <f t="shared" si="1"/>
+        <v>-195.95</v>
       </c>
       <c r="C8" s="12">
         <v>0.1</v>
@@ -39564,11 +39617,11 @@
         <v>0.01</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" si="1"/>
-        <v>34.745620229647656</v>
+        <f t="shared" si="2"/>
+        <v>157.68300579607589</v>
       </c>
       <c r="M8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.1978021978021975</v>
       </c>
       <c r="N8">
@@ -39576,17 +39629,18 @@
         <v>-2.2461055428088392</v>
       </c>
       <c r="AB8" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5.2030071867437115</v>
       </c>
       <c r="AC8" s="6"/>
     </row>
-    <row r="9" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="16.2" thickBot="1">
       <c r="A9" s="7">
         <v>7</v>
       </c>
       <c r="B9" s="12">
-        <v>77.2</v>
+        <f t="shared" si="1"/>
+        <v>-195.95</v>
       </c>
       <c r="C9" s="12">
         <v>0.1</v>
@@ -39604,11 +39658,11 @@
         <v>0.01</v>
       </c>
       <c r="H9" s="6">
-        <f t="shared" si="1"/>
-        <v>34.679375005186934</v>
+        <f t="shared" si="2"/>
+        <v>157.38237089465341</v>
       </c>
       <c r="M9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.7383177570093462</v>
       </c>
       <c r="N9">
@@ -39616,17 +39670,18 @@
         <v>-1.9390339767665301</v>
       </c>
       <c r="AB9" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5.3838752549096833</v>
       </c>
       <c r="AC9" s="8"/>
     </row>
-    <row r="10" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="16.2" thickBot="1">
       <c r="A10" s="5">
         <v>8</v>
       </c>
       <c r="B10" s="12">
-        <v>77.2</v>
+        <f t="shared" si="1"/>
+        <v>-195.95</v>
       </c>
       <c r="C10" s="12">
         <v>0.1</v>
@@ -39644,11 +39699,11 @@
         <v>0.01</v>
       </c>
       <c r="H10" s="6">
-        <f t="shared" si="1"/>
-        <v>34.546884556265496</v>
+        <f t="shared" si="2"/>
+        <v>156.78110109180852</v>
       </c>
       <c r="M10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.1746031746031753</v>
       </c>
       <c r="N10">
@@ -39656,17 +39711,18 @@
         <v>-3.2753842277651812</v>
       </c>
       <c r="AB10" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5.649294289372131</v>
       </c>
       <c r="AC10" s="6"/>
     </row>
-    <row r="11" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="16.2" thickBot="1">
       <c r="A11" s="7">
         <v>9</v>
       </c>
       <c r="B11" s="12">
-        <v>77.2</v>
+        <f t="shared" si="1"/>
+        <v>-195.95</v>
       </c>
       <c r="C11" s="12">
         <v>0.1</v>
@@ -39684,11 +39740,11 @@
         <v>0.01</v>
       </c>
       <c r="H11" s="6">
-        <f t="shared" si="1"/>
-        <v>34.480639331804781</v>
+        <f t="shared" si="2"/>
+        <v>156.48046619038607</v>
       </c>
       <c r="M11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.4444444444444429</v>
       </c>
       <c r="N11">
@@ -39696,17 +39752,18 @@
         <v>-4.6419753086419737</v>
       </c>
       <c r="AB11" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5.8464987768577963</v>
       </c>
       <c r="AC11" s="8"/>
     </row>
-    <row r="12" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="16.2" thickBot="1">
       <c r="A12" s="5">
         <v>10</v>
       </c>
       <c r="B12" s="12">
-        <v>77.2</v>
+        <f t="shared" si="1"/>
+        <v>-195.95</v>
       </c>
       <c r="C12" s="12">
         <v>0.1</v>
@@ -39724,11 +39781,11 @@
         <v>0.01</v>
       </c>
       <c r="H12" s="6">
-        <f t="shared" si="1"/>
-        <v>34.414394107344059</v>
+        <f t="shared" si="2"/>
+        <v>156.17983128896361</v>
       </c>
       <c r="M12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9767441860465089</v>
       </c>
       <c r="N12">
@@ -39736,17 +39793,18 @@
         <v>-4.9756625202812303</v>
       </c>
       <c r="AB12" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-6.0157572396770265</v>
       </c>
       <c r="AC12" s="6"/>
     </row>
-    <row r="13" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="16.2" thickBot="1">
       <c r="A13" s="7">
         <v>11</v>
       </c>
       <c r="B13" s="12">
-        <v>77.2</v>
+        <f t="shared" si="1"/>
+        <v>-195.95</v>
       </c>
       <c r="C13" s="12">
         <v>0.1</v>
@@ -39764,11 +39822,11 @@
         <v>0.01</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" si="1"/>
-        <v>34.315026270652979</v>
+        <f t="shared" si="2"/>
+        <v>155.72887893682994</v>
       </c>
       <c r="M13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.3829787234042588</v>
       </c>
       <c r="N13">
@@ -39776,17 +39834,18 @@
         <v>-4.526935264825716</v>
       </c>
       <c r="AB13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-6.2096205569111529</v>
       </c>
       <c r="AC13" s="8"/>
     </row>
-    <row r="14" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="16.2" thickBot="1">
       <c r="A14" s="5">
         <v>12</v>
       </c>
       <c r="B14" s="12">
-        <v>77.2</v>
+        <f t="shared" si="1"/>
+        <v>-195.95</v>
       </c>
       <c r="C14" s="12">
         <v>0.1</v>
@@ -39804,11 +39863,11 @@
         <v>0.01</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" si="1"/>
-        <v>34.215658433961892</v>
+        <f t="shared" si="2"/>
+        <v>155.27792658469625</v>
       </c>
       <c r="M14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11.39240506329114</v>
       </c>
       <c r="N14">
@@ -39816,17 +39875,18 @@
         <v>-2.8200608876782565</v>
       </c>
       <c r="AB14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-6.4759728625565991</v>
       </c>
       <c r="AC14" s="6"/>
     </row>
-    <row r="15" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" ht="16.2" thickBot="1">
       <c r="A15" s="7">
         <v>13</v>
       </c>
       <c r="B15" s="12">
-        <v>77.2</v>
+        <f t="shared" si="1"/>
+        <v>-195.95</v>
       </c>
       <c r="C15" s="12">
         <v>0.1</v>
@@ -39844,11 +39904,11 @@
         <v>0.01</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" si="1"/>
-        <v>33.917554923888652</v>
+        <f t="shared" si="2"/>
+        <v>153.92506952829521</v>
       </c>
       <c r="M15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19.35483870967742</v>
       </c>
       <c r="N15">
@@ -39856,17 +39916,18 @@
         <v>-7.7003121748178982</v>
       </c>
       <c r="AB15" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-7.1954373514339176</v>
       </c>
       <c r="AC15" s="8"/>
     </row>
-    <row r="16" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="16.2" thickBot="1">
       <c r="A16" s="5">
         <v>14</v>
       </c>
       <c r="B16" s="12">
-        <v>77.2</v>
+        <f t="shared" si="1"/>
+        <v>-195.95</v>
       </c>
       <c r="C16" s="12">
         <v>0.1</v>
@@ -39884,14 +39945,14 @@
         <v>0.01</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" si="1"/>
-        <v>33.718819250506492</v>
+        <f t="shared" si="2"/>
+        <v>153.0231648240279</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
       </c>
       <c r="M16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29.411764705882355</v>
       </c>
       <c r="N16">
@@ -39899,17 +39960,18 @@
         <v>-15.224913494809691</v>
       </c>
       <c r="AB16" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-7.7287358310519672</v>
       </c>
       <c r="AC16" s="6"/>
     </row>
-    <row r="17" spans="1:29" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" ht="18" thickBot="1">
       <c r="A17" s="7">
         <v>15</v>
       </c>
       <c r="B17" s="12">
-        <v>77.2</v>
+        <f t="shared" si="1"/>
+        <v>-195.95</v>
       </c>
       <c r="C17" s="12">
         <v>0.1</v>
@@ -39927,15 +39989,15 @@
         <v>0.01</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" si="1"/>
-        <v>33.553206189354697</v>
+        <f t="shared" si="2"/>
+        <v>152.27157757047175</v>
       </c>
       <c r="J17" s="9">
         <f>1.602176634*10^(-19)</f>
         <v>1.6021766340000001E-19</v>
       </c>
       <c r="M17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>86.363636363636346</v>
       </c>
       <c r="N17">
@@ -39943,17 +40005,18 @@
         <v>-16.942148760330571</v>
       </c>
       <c r="AB17" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-8.2170885989658995</v>
       </c>
       <c r="AC17" s="8"/>
     </row>
-    <row r="18" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" ht="16.2" thickBot="1">
       <c r="A18" s="5">
         <v>16</v>
       </c>
       <c r="B18" s="12">
-        <v>77.2</v>
+        <f t="shared" si="1"/>
+        <v>-195.95</v>
       </c>
       <c r="C18" s="12">
         <v>0.1</v>
@@ -39971,11 +40034,11 @@
         <v>0.01</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" si="1"/>
-        <v>32.923876556977852</v>
+        <f t="shared" si="2"/>
+        <v>149.41554600695846</v>
       </c>
       <c r="M18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>450</v>
       </c>
       <c r="N18">
@@ -39983,17 +40046,18 @@
         <v>-275</v>
       </c>
       <c r="AB18" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-9.9034875525361272</v>
       </c>
       <c r="AC18" s="6"/>
     </row>
-    <row r="19" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" ht="16.2" thickBot="1">
       <c r="A19" s="7">
         <v>17</v>
       </c>
       <c r="B19" s="12">
-        <v>77.2</v>
+        <f t="shared" si="1"/>
+        <v>-195.95</v>
       </c>
       <c r="C19" s="12">
         <v>0.1</v>
@@ -40011,14 +40075,14 @@
         <v>0.01</v>
       </c>
       <c r="H19" s="6">
-        <f t="shared" si="1"/>
-        <v>32.327669536831372</v>
+        <f t="shared" si="2"/>
+        <v>146.70983189415637</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
       </c>
       <c r="M19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1400</v>
       </c>
       <c r="N19">
@@ -40026,17 +40090,18 @@
         <v>-3000</v>
       </c>
       <c r="AB19" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-11.512925464970229</v>
       </c>
       <c r="AC19" s="8"/>
     </row>
-    <row r="20" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" ht="17.399999999999999" thickBot="1">
       <c r="A20" s="5">
         <v>18</v>
       </c>
-      <c r="B20" s="15">
-        <v>77.2</v>
+      <c r="B20" s="12">
+        <f t="shared" si="1"/>
+        <v>-195.95</v>
       </c>
       <c r="C20" s="15">
         <v>0.1</v>
@@ -40054,8 +40119,8 @@
         <v>0.01</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" si="1"/>
-        <v>31.863952965606334</v>
+        <f t="shared" si="2"/>
+        <v>144.60538758419924</v>
       </c>
       <c r="J20" s="11">
         <f>1.3806503*10^(-23)</f>
@@ -40063,43 +40128,43 @@
       </c>
       <c r="AB20" s="5"/>
     </row>
-    <row r="21" spans="1:29" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" ht="17.399999999999999">
       <c r="J21" s="10"/>
     </row>
-    <row r="22" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" ht="20.399999999999999">
       <c r="J22" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29">
       <c r="J23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="27:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="27:27">
       <c r="AA44" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="27:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="27:27">
       <c r="AA45">
         <f>SLOPE(AB2:AB19,H2:H19)</f>
-        <v>2.5343862206687207</v>
+        <v>0.55845473451013328</v>
       </c>
     </row>
-    <row r="47" spans="27:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="27:27">
       <c r="AA47" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="27:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="27:27">
       <c r="AA48">
         <f>INTERCEPT(AB2:AB19,H2:H19)</f>
-        <v>-93.28085672413178</v>
+        <v>-93.280856724131766</v>
       </c>
     </row>
-    <row r="56" spans="9:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="9:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="9:14" ht="16.2" thickBot="1"/>
+    <row r="57" spans="9:14">
       <c r="I57" s="18" t="s">
         <v>15</v>
       </c>
@@ -40109,7 +40174,7 @@
       <c r="M57" s="18"/>
       <c r="N57" s="18"/>
     </row>
-    <row r="58" spans="9:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="9:14">
       <c r="I58" s="19"/>
       <c r="J58" s="19"/>
       <c r="K58" s="19"/>
@@ -40137,15 +40202,15 @@
       <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="4" width="11.1640625" customWidth="1"/>
+    <col min="1" max="4" width="11.19921875" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.1640625" customWidth="1"/>
-    <col min="28" max="29" width="11.1640625" customWidth="1"/>
+    <col min="13" max="13" width="11.19921875" customWidth="1"/>
+    <col min="28" max="29" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="16.2" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -40183,7 +40248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="16.2" thickBot="1">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -40223,7 +40288,7 @@
       </c>
       <c r="AC2" s="6"/>
     </row>
-    <row r="3" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="16.2" thickBot="1">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -40263,7 +40328,7 @@
       </c>
       <c r="AC3" s="8"/>
     </row>
-    <row r="4" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="16.2" thickBot="1">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -40303,7 +40368,7 @@
       </c>
       <c r="AC4" s="6"/>
     </row>
-    <row r="5" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="16.2" thickBot="1">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -40343,7 +40408,7 @@
       </c>
       <c r="AC5" s="8"/>
     </row>
-    <row r="6" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="16.2" thickBot="1">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -40383,7 +40448,7 @@
       </c>
       <c r="AC6" s="6"/>
     </row>
-    <row r="7" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="16.2" thickBot="1">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -40423,7 +40488,7 @@
       </c>
       <c r="AC7" s="8"/>
     </row>
-    <row r="8" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="16.2" thickBot="1">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -40463,7 +40528,7 @@
       </c>
       <c r="AC8" s="6"/>
     </row>
-    <row r="9" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="16.2" thickBot="1">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -40503,7 +40568,7 @@
       </c>
       <c r="AC9" s="8"/>
     </row>
-    <row r="10" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="16.2" thickBot="1">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -40543,7 +40608,7 @@
       </c>
       <c r="AC10" s="6"/>
     </row>
-    <row r="11" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="16.2" thickBot="1">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -40583,7 +40648,7 @@
       </c>
       <c r="AC11" s="8"/>
     </row>
-    <row r="12" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="16.2" thickBot="1">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -40623,7 +40688,7 @@
       </c>
       <c r="AC12" s="6"/>
     </row>
-    <row r="13" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="16.2" thickBot="1">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -40663,7 +40728,7 @@
       </c>
       <c r="AC13" s="8"/>
     </row>
-    <row r="14" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="16.2" thickBot="1">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -40703,7 +40768,7 @@
       </c>
       <c r="AC14" s="6"/>
     </row>
-    <row r="15" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" ht="16.2" thickBot="1">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -40743,7 +40808,7 @@
       </c>
       <c r="AC15" s="8"/>
     </row>
-    <row r="16" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="16.2" thickBot="1">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -40771,7 +40836,7 @@
       <c r="AB16" s="5"/>
       <c r="AC16" s="6"/>
     </row>
-    <row r="17" spans="1:29" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" ht="18" thickBot="1">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -40800,7 +40865,7 @@
       <c r="AB17" s="5"/>
       <c r="AC17" s="8"/>
     </row>
-    <row r="18" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" ht="16.2" thickBot="1">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -40825,7 +40890,7 @@
       <c r="AB18" s="5"/>
       <c r="AC18" s="6"/>
     </row>
-    <row r="19" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" ht="16.2" thickBot="1">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -40853,7 +40918,7 @@
       <c r="AB19" s="5"/>
       <c r="AC19" s="8"/>
     </row>
-    <row r="20" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="17.399999999999999" thickBot="1">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -40882,7 +40947,7 @@
       <c r="AB20" s="5"/>
       <c r="AC20" s="6"/>
     </row>
-    <row r="21" spans="1:29" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" ht="18" thickBot="1">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -40908,7 +40973,7 @@
       <c r="AB21" s="5"/>
       <c r="AC21" s="8"/>
     </row>
-    <row r="22" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" ht="21" thickBot="1">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -40936,7 +41001,7 @@
       <c r="AB22" s="5"/>
       <c r="AC22" s="6"/>
     </row>
-    <row r="23" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" ht="16.2" thickBot="1">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -40964,7 +41029,7 @@
       <c r="AB23" s="5"/>
       <c r="AC23" s="8"/>
     </row>
-    <row r="24" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" ht="16.2" thickBot="1">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -40989,7 +41054,7 @@
       <c r="AB24" s="5"/>
       <c r="AC24" s="6"/>
     </row>
-    <row r="25" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" ht="16.2" thickBot="1">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -41017,7 +41082,7 @@
       </c>
       <c r="AC25" s="8"/>
     </row>
-    <row r="26" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" ht="16.2" thickBot="1">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -41045,7 +41110,7 @@
       </c>
       <c r="AC26" s="6"/>
     </row>
-    <row r="27" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" ht="16.2" thickBot="1">
       <c r="A27" s="7">
         <v>25</v>
       </c>
@@ -41073,7 +41138,7 @@
       </c>
       <c r="AC27" s="8"/>
     </row>
-    <row r="28" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" ht="16.2" thickBot="1">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -41101,7 +41166,7 @@
       </c>
       <c r="AC28" s="6"/>
     </row>
-    <row r="29" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" ht="16.2" thickBot="1">
       <c r="A29" s="7">
         <v>27</v>
       </c>
@@ -41129,7 +41194,7 @@
       </c>
       <c r="AC29" s="8"/>
     </row>
-    <row r="30" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" ht="16.2" thickBot="1">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -41157,7 +41222,7 @@
       </c>
       <c r="AC30" s="6"/>
     </row>
-    <row r="31" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" ht="16.2" thickBot="1">
       <c r="A31" s="7">
         <v>29</v>
       </c>
@@ -41185,7 +41250,7 @@
       </c>
       <c r="AC31" s="6"/>
     </row>
-    <row r="32" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" ht="16.2" thickBot="1">
       <c r="A32" s="5">
         <v>30</v>
       </c>
@@ -41213,7 +41278,7 @@
       </c>
       <c r="AC32" s="8"/>
     </row>
-    <row r="33" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" ht="16.2" thickBot="1">
       <c r="A33" s="7">
         <v>31</v>
       </c>
@@ -41241,7 +41306,7 @@
       </c>
       <c r="AC33" s="6"/>
     </row>
-    <row r="34" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" ht="16.2" thickBot="1">
       <c r="A34" s="5">
         <v>32</v>
       </c>
@@ -41269,7 +41334,7 @@
       </c>
       <c r="AC34" s="6"/>
     </row>
-    <row r="35" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" ht="16.2" thickBot="1">
       <c r="A35" s="7">
         <v>33</v>
       </c>
@@ -41297,7 +41362,7 @@
       </c>
       <c r="AC35" s="8"/>
     </row>
-    <row r="36" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" ht="16.2" thickBot="1">
       <c r="A36" s="5">
         <v>34</v>
       </c>
@@ -41325,7 +41390,7 @@
       </c>
       <c r="AC36" s="6"/>
     </row>
-    <row r="37" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" ht="16.2" thickBot="1">
       <c r="A37" s="7">
         <v>35</v>
       </c>
@@ -41353,7 +41418,7 @@
       </c>
       <c r="AC37" s="6"/>
     </row>
-    <row r="38" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" ht="16.2" thickBot="1">
       <c r="A38" s="5">
         <v>36</v>
       </c>
@@ -41381,7 +41446,7 @@
       </c>
       <c r="AC38" s="8"/>
     </row>
-    <row r="39" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" ht="16.2" thickBot="1">
       <c r="A39" s="7">
         <v>37</v>
       </c>
@@ -41401,7 +41466,7 @@
       </c>
       <c r="AC39" s="6"/>
     </row>
-    <row r="40" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" ht="16.2" thickBot="1">
       <c r="A40" s="5">
         <v>38</v>
       </c>
@@ -41421,7 +41486,7 @@
       </c>
       <c r="AC40" s="6"/>
     </row>
-    <row r="41" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" ht="16.2" thickBot="1">
       <c r="A41" s="7">
         <v>39</v>
       </c>
@@ -41441,7 +41506,7 @@
       </c>
       <c r="AC41" s="8"/>
     </row>
-    <row r="42" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" ht="16.2" thickBot="1">
       <c r="A42" s="5">
         <v>40</v>
       </c>
@@ -41461,7 +41526,7 @@
       </c>
       <c r="AC42" s="6"/>
     </row>
-    <row r="43" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" ht="16.2" thickBot="1">
       <c r="A43" s="7">
         <v>41</v>
       </c>
@@ -41481,7 +41546,7 @@
       </c>
       <c r="AC43" s="6"/>
     </row>
-    <row r="44" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" ht="16.2" thickBot="1">
       <c r="A44" s="5">
         <v>42</v>
       </c>
@@ -41501,7 +41566,7 @@
       </c>
       <c r="AC44" s="8"/>
     </row>
-    <row r="45" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" ht="16.2" thickBot="1">
       <c r="A45" s="7">
         <v>43</v>
       </c>
@@ -41521,7 +41586,7 @@
       </c>
       <c r="AC45" s="6"/>
     </row>
-    <row r="46" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" ht="16.2" thickBot="1">
       <c r="A46" s="5">
         <v>44</v>
       </c>
@@ -41541,7 +41606,7 @@
       </c>
       <c r="AC46" s="6"/>
     </row>
-    <row r="47" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" ht="16.2" thickBot="1">
       <c r="A47" s="7">
         <v>45</v>
       </c>
@@ -41561,7 +41626,7 @@
       </c>
       <c r="AC47" s="8"/>
     </row>
-    <row r="48" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" ht="16.2" thickBot="1">
       <c r="A48" s="5">
         <v>46</v>
       </c>
@@ -41581,7 +41646,7 @@
       </c>
       <c r="AC48" s="6"/>
     </row>
-    <row r="49" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" ht="16.2" thickBot="1">
       <c r="A49" s="7">
         <v>47</v>
       </c>
@@ -41601,7 +41666,7 @@
       </c>
       <c r="AC49" s="6"/>
     </row>
-    <row r="50" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" ht="16.2" thickBot="1">
       <c r="A50" s="5">
         <v>48</v>
       </c>
@@ -41621,7 +41686,7 @@
       </c>
       <c r="AC50" s="8"/>
     </row>
-    <row r="51" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" ht="16.2" thickBot="1">
       <c r="A51" s="7">
         <v>49</v>
       </c>
@@ -41641,7 +41706,7 @@
       </c>
       <c r="AC51" s="6"/>
     </row>
-    <row r="52" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" ht="16.2" thickBot="1">
       <c r="A52" s="5">
         <v>50</v>
       </c>
@@ -41661,7 +41726,7 @@
       </c>
       <c r="AC52" s="6"/>
     </row>
-    <row r="53" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" ht="16.2" thickBot="1">
       <c r="A53" s="7">
         <v>51</v>
       </c>
@@ -41681,7 +41746,7 @@
       </c>
       <c r="AC53" s="8"/>
     </row>
-    <row r="54" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" ht="16.2" thickBot="1">
       <c r="A54" s="5">
         <v>52</v>
       </c>
@@ -41701,7 +41766,7 @@
       </c>
       <c r="AC54" s="6"/>
     </row>
-    <row r="55" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" ht="16.2" thickBot="1">
       <c r="A55" s="7">
         <v>53</v>
       </c>
@@ -41721,7 +41786,7 @@
       </c>
       <c r="AC55" s="6"/>
     </row>
-    <row r="56" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" ht="16.2" thickBot="1">
       <c r="A56" s="5">
         <v>54</v>
       </c>
@@ -41741,7 +41806,7 @@
       </c>
       <c r="AC56" s="8"/>
     </row>
-    <row r="57" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" ht="16.2" thickBot="1">
       <c r="A57" s="7">
         <v>55</v>
       </c>
@@ -41769,7 +41834,7 @@
       </c>
       <c r="AC57" s="6"/>
     </row>
-    <row r="58" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" ht="16.2" thickBot="1">
       <c r="A58" s="5">
         <v>56</v>
       </c>
@@ -41792,7 +41857,7 @@
       <c r="AB58" s="5"/>
       <c r="AC58" s="6"/>
     </row>
-    <row r="59" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" ht="16.2" thickBot="1">
       <c r="A59" s="7">
         <v>57</v>
       </c>
@@ -41809,7 +41874,7 @@
       <c r="AB59" s="5"/>
       <c r="AC59" s="8"/>
     </row>
-    <row r="60" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" ht="16.2" thickBot="1">
       <c r="A60" s="5">
         <v>58</v>
       </c>
@@ -41826,7 +41891,7 @@
       <c r="AB60" s="5"/>
       <c r="AC60" s="6"/>
     </row>
-    <row r="61" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29" ht="16.2" thickBot="1">
       <c r="A61" s="7">
         <v>59</v>
       </c>
@@ -41843,7 +41908,7 @@
       <c r="AB61" s="5"/>
       <c r="AC61" s="6"/>
     </row>
-    <row r="62" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29" ht="16.2" thickBot="1">
       <c r="A62" s="5">
         <v>60</v>
       </c>
@@ -41860,7 +41925,7 @@
       <c r="AB62" s="5"/>
       <c r="AC62" s="8"/>
     </row>
-    <row r="63" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29" ht="16.2" thickBot="1">
       <c r="A63" s="7">
         <v>61</v>
       </c>
@@ -41877,7 +41942,7 @@
       <c r="AB63" s="5"/>
       <c r="AC63" s="6"/>
     </row>
-    <row r="64" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:29" ht="16.2" thickBot="1">
       <c r="A64" s="5">
         <v>62</v>
       </c>
@@ -41892,7 +41957,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="16.2" thickBot="1">
       <c r="A65" s="7">
         <v>63</v>
       </c>
@@ -41907,7 +41972,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="16.2" thickBot="1">
       <c r="A66" s="5">
         <v>64</v>
       </c>
@@ -41922,7 +41987,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="16.2" thickBot="1">
       <c r="A67" s="7">
         <v>65</v>
       </c>
@@ -41937,7 +42002,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="16.2" thickBot="1">
       <c r="A68" s="5">
         <v>66</v>
       </c>
@@ -41952,7 +42017,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="16.2" thickBot="1">
       <c r="A69" s="7">
         <v>67</v>
       </c>
@@ -41967,7 +42032,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="16.2" thickBot="1">
       <c r="A70" s="5">
         <v>68</v>
       </c>
@@ -41982,7 +42047,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="16.2" thickBot="1">
       <c r="A71" s="7">
         <v>69</v>
       </c>
@@ -41997,7 +42062,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="16.2" thickBot="1">
       <c r="A72" s="5">
         <v>70</v>
       </c>
@@ -42012,7 +42077,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="16.2" thickBot="1">
       <c r="A73" s="7">
         <v>71</v>
       </c>
@@ -42027,7 +42092,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="16.2" thickBot="1">
       <c r="A74" s="5">
         <v>72</v>
       </c>
@@ -42042,7 +42107,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="16.2" thickBot="1">
       <c r="A75" s="7">
         <v>73</v>
       </c>
@@ -42057,7 +42122,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="16.2" thickBot="1">
       <c r="A76" s="5">
         <v>74</v>
       </c>
@@ -42072,7 +42137,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="16.2" thickBot="1">
       <c r="A77" s="7">
         <v>75</v>
       </c>
@@ -42087,7 +42152,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="16.2" thickBot="1">
       <c r="A78" s="5">
         <v>76</v>
       </c>
@@ -42102,7 +42167,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="16.2" thickBot="1">
       <c r="A79" s="7">
         <v>77</v>
       </c>
@@ -42117,7 +42182,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="16.2" thickBot="1">
       <c r="A80" s="5">
         <v>78</v>
       </c>
@@ -42132,7 +42197,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="16.2" thickBot="1">
       <c r="A81" s="7">
         <v>79</v>
       </c>
@@ -42147,7 +42212,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="16.2" thickBot="1">
       <c r="A82" s="5">
         <v>80</v>
       </c>
@@ -42174,12 +42239,335 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86401310-AE3F-46D9-BA7D-9008211E0E75}">
+  <dimension ref="A1:V8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="67" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="3" max="3" width="11.8984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2">
+        <f>($P$4-$J$2)/$I$2</f>
+        <v>0.92049676874447606</v>
+      </c>
+      <c r="B2">
+        <f>($P$5-$J$2)/$I$2</f>
+        <v>0.93156594634823664</v>
+      </c>
+      <c r="C2">
+        <f>($P$5-$J$2)/$I$2</f>
+        <v>0.93156594634823664</v>
+      </c>
+      <c r="D2">
+        <f>($P$6-$J$2)/$I$2</f>
+        <v>0.94061012298368263</v>
+      </c>
+      <c r="E2">
+        <f>($P$7-$J$2)/$I$2</f>
+        <v>0.94825686537304998</v>
+      </c>
+      <c r="G2">
+        <f>60.5+273.15</f>
+        <v>333.65</v>
+      </c>
+      <c r="I2">
+        <v>20.158999999999999</v>
+      </c>
+      <c r="J2">
+        <v>-17.170000000000002</v>
+      </c>
+      <c r="M2">
+        <v>1.702</v>
+      </c>
+      <c r="R2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3">
+        <f>($P$4-$J$3)/$I$3</f>
+        <v>0.91066617820949514</v>
+      </c>
+      <c r="B3">
+        <f>($P$6-$J$3)/$I$3</f>
+        <v>0.92871653248577901</v>
+      </c>
+      <c r="C3">
+        <f>($P$7-$J$3)/$I$3</f>
+        <v>0.93557895869008201</v>
+      </c>
+      <c r="D3">
+        <f>($P$8-$J$3)/$I$3</f>
+        <v>0.94152346265769638</v>
+      </c>
+      <c r="E3">
+        <f>($C$18-$J$3)/$I$3</f>
+        <v>0.84895160931309266</v>
+      </c>
+      <c r="G3">
+        <f>47.7+273.15</f>
+        <v>320.84999999999997</v>
+      </c>
+      <c r="I3">
+        <v>22.463000000000001</v>
+      </c>
+      <c r="J3">
+        <v>-19.07</v>
+      </c>
+      <c r="M3">
+        <v>1.6040000000000001</v>
+      </c>
+      <c r="O3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="17.399999999999999">
+      <c r="A4">
+        <f>($P$4-$J$4)/$I$4</f>
+        <v>0.92337789097613043</v>
+      </c>
+      <c r="B4">
+        <f>($P$5-$J$4)/$I$4</f>
+        <v>0.93299034687835358</v>
+      </c>
+      <c r="C4">
+        <f>($P$6-$J$4)/$I$4</f>
+        <v>0.94084429521961122</v>
+      </c>
+      <c r="D4">
+        <f>($P$7-$J$4)/$I$4</f>
+        <v>0.94748471392501565</v>
+      </c>
+      <c r="E4">
+        <f>($P$8-$J$4)/$I$4</f>
+        <v>0.95323690624966984</v>
+      </c>
+      <c r="G4">
+        <f>25.1+273.15</f>
+        <v>298.25</v>
+      </c>
+      <c r="I4">
+        <v>23.213999999999999</v>
+      </c>
+      <c r="J4">
+        <v>-20.048999999999999</v>
+      </c>
+      <c r="M4">
+        <v>1.6759999999999999</v>
+      </c>
+      <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4">
+        <f>LN(O4)</f>
+        <v>1.3862943611198906</v>
+      </c>
+      <c r="T4" s="9">
+        <f>1.602176634*10^(-19)</f>
+        <v>1.6021766340000001E-19</v>
+      </c>
+      <c r="V4" s="11">
+        <f>1.3806503*10^(-23)</f>
+        <v>1.3806503000000004E-23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5">
+        <f>($P$4-$J$5)/$I$5</f>
+        <v>0.94016288974212958</v>
+      </c>
+      <c r="B5">
+        <f>($P$5-$J$5)/$I$5</f>
+        <v>0.9490839928210969</v>
+      </c>
+      <c r="C5">
+        <f>($P$7-$J$5)/$I$5</f>
+        <v>0.96253588730081596</v>
+      </c>
+      <c r="D5">
+        <f>($P$4-$J$5)/$I$5</f>
+        <v>0.94016288974212958</v>
+      </c>
+      <c r="E5">
+        <f>($P$8-$J$5)/$I$5</f>
+        <v>0.96787436699635521</v>
+      </c>
+      <c r="G5">
+        <f>15.9+273.15</f>
+        <v>289.04999999999995</v>
+      </c>
+      <c r="I5">
+        <v>25.013000000000002</v>
+      </c>
+      <c r="J5">
+        <v>-22.13</v>
+      </c>
+      <c r="M5">
+        <v>1.6040000000000001</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <f>LN(O5)</f>
+        <v>1.6094379124341003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6">
+        <f>(P4-$J$6)/$I$6</f>
+        <v>0.96054622299964998</v>
+      </c>
+      <c r="B6">
+        <f>(P5-$J$6)/$I$6</f>
+        <v>0.96912108182892442</v>
+      </c>
+      <c r="C6">
+        <f>(P6-$J$6)/$I$6</f>
+        <v>0.97612725163232739</v>
+      </c>
+      <c r="D6">
+        <f>(P7-$J$6)/$I$6</f>
+        <v>0.98205088379722982</v>
+      </c>
+      <c r="E6">
+        <f>(P8-$J$6)/$I$6</f>
+        <v>0.98718216737808229</v>
+      </c>
+      <c r="G6">
+        <f>-0.6+273.15</f>
+        <v>272.54999999999995</v>
+      </c>
+      <c r="I6">
+        <v>26.023</v>
+      </c>
+      <c r="J6">
+        <v>-23.61</v>
+      </c>
+      <c r="M6">
+        <v>1.637</v>
+      </c>
+      <c r="O6">
+        <v>6</v>
+      </c>
+      <c r="P6">
+        <f>LN(O6)</f>
+        <v>1.791759469228055</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7">
+        <f>($P$4-$J$7)/$I$7</f>
+        <v>1.1277180816143892</v>
+      </c>
+      <c r="B7">
+        <f>($P5-$J$7)/$I$7</f>
+        <v>1.1303762929588912</v>
+      </c>
+      <c r="C7">
+        <f>($P$6-$J$7)/$I$7</f>
+        <v>1.1325482097710176</v>
+      </c>
+      <c r="D7">
+        <f>($P$7-$J$7)/$I$7</f>
+        <v>1.1343845392704188</v>
+      </c>
+      <c r="E7">
+        <f>($P$8-$J$7)/$I$7</f>
+        <v>1.1359752402368199</v>
+      </c>
+      <c r="G7">
+        <v>77.2</v>
+      </c>
+      <c r="I7">
+        <v>83.944999999999993</v>
+      </c>
+      <c r="J7">
+        <v>-93.28</v>
+      </c>
+      <c r="M7">
+        <v>1.7909999999999999</v>
+      </c>
+      <c r="O7">
+        <v>7</v>
+      </c>
+      <c r="P7">
+        <f>LN(O7)</f>
+        <v>1.9459101490553132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="O8">
+        <v>8</v>
+      </c>
+      <c r="P8">
+        <f>LN(O8)</f>
+        <v>2.0794415416798357</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="21343963-c43f-42a4-b0bc-b203e64410f4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -42365,26 +42753,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="21343963-c43f-42a4-b0bc-b203e64410f4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0E5A08E-764A-49CD-B663-0CFE39F0EF50}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB974918-D618-4A8E-9BED-86443E84A1C9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="21343963-c43f-42a4-b0bc-b203e64410f4"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -42408,9 +42787,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB974918-D618-4A8E-9BED-86443E84A1C9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0E5A08E-764A-49CD-B663-0CFE39F0EF50}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="21343963-c43f-42a4-b0bc-b203e64410f4"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/relazioni/esperienza_2/codici/Esperienza_2.xlsx
+++ b/relazioni/esperienza_2/codici/Esperienza_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\UNIVERSITA'\II ANNO\LABORATORIO-DI-ELETTROMAGNETISMO\relazioni\esperienza_2\codici\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessiobrusini/Desktop/LABORATORIO-DI-ELETTROMAGNETISMO/relazioni/esperienza_2/codici/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348DA382-7920-40FC-82D6-DDDE02160B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8307B01A-45D6-024D-8F05-099003716C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="5" activeTab="7" xr2:uid="{9832D23C-5E2D-EB46-85A1-EE46353BB05C}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" activeTab="8" xr2:uid="{9832D23C-5E2D-EB46-85A1-EE46353BB05C}"/>
   </bookViews>
   <sheets>
     <sheet name="Temp_1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Temp_6" sheetId="7" r:id="rId6"/>
     <sheet name="Pol_inv" sheetId="6" r:id="rId7"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="39">
   <si>
     <t>n.</t>
   </si>
@@ -142,12 +143,6 @@
     <t>x=qV/kTn</t>
   </si>
   <si>
-    <t>I scelta</t>
-  </si>
-  <si>
-    <t>ln (I scelta)</t>
-  </si>
-  <si>
     <t>q</t>
   </si>
   <si>
@@ -174,12 +169,22 @@
   <si>
     <t>V5</t>
   </si>
+  <si>
+    <t>I_scelta(A)</t>
+  </si>
+  <si>
+    <t>I_0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -241,8 +246,15 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,6 +282,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -382,6 +400,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -390,7 +419,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -451,7 +480,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1234,7 +1263,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1733,7 +1762,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2464,7 +2493,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2878,7 +2907,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3387,7 +3416,7 @@
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4199,7 +4228,7 @@
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4673,7 +4702,7 @@
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5214,7 +5243,7 @@
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5769,7 +5798,7 @@
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6177,7 +6206,7 @@
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6741,7 +6770,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7430,7 +7459,7 @@
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7955,7 +7984,7 @@
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8447,7 +8476,7 @@
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8831,7 +8860,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9522,7 +9551,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10176,7 +10205,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10803,7 +10832,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11283,7 +11312,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11813,7 +11842,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12392,7 +12421,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -32231,15 +32260,15 @@
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="11.19921875" customWidth="1"/>
+    <col min="1" max="4" width="11.1640625" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.19921875" customWidth="1"/>
-    <col min="28" max="29" width="11.19921875" customWidth="1"/>
+    <col min="13" max="13" width="11.1640625" customWidth="1"/>
+    <col min="28" max="29" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16.2" thickBot="1">
+    <row r="1" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -32277,7 +32306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="16.2" thickBot="1">
+    <row r="2" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -32317,7 +32346,7 @@
       </c>
       <c r="AC2" s="6"/>
     </row>
-    <row r="3" spans="1:29" ht="16.2" thickBot="1">
+    <row r="3" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -32357,7 +32386,7 @@
       </c>
       <c r="AC3" s="8"/>
     </row>
-    <row r="4" spans="1:29" ht="16.2" thickBot="1">
+    <row r="4" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -32397,7 +32426,7 @@
       </c>
       <c r="AC4" s="6"/>
     </row>
-    <row r="5" spans="1:29" ht="16.2" thickBot="1">
+    <row r="5" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -32437,7 +32466,7 @@
       </c>
       <c r="AC5" s="8"/>
     </row>
-    <row r="6" spans="1:29" ht="16.2" thickBot="1">
+    <row r="6" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -32477,7 +32506,7 @@
       </c>
       <c r="AC6" s="6"/>
     </row>
-    <row r="7" spans="1:29" ht="16.2" thickBot="1">
+    <row r="7" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -32517,7 +32546,7 @@
       </c>
       <c r="AC7" s="8"/>
     </row>
-    <row r="8" spans="1:29" ht="16.2" thickBot="1">
+    <row r="8" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -32557,7 +32586,7 @@
       </c>
       <c r="AC8" s="6"/>
     </row>
-    <row r="9" spans="1:29" ht="16.2" thickBot="1">
+    <row r="9" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -32597,7 +32626,7 @@
       </c>
       <c r="AC9" s="8"/>
     </row>
-    <row r="10" spans="1:29" ht="16.2" thickBot="1">
+    <row r="10" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -32637,7 +32666,7 @@
       </c>
       <c r="AC10" s="6"/>
     </row>
-    <row r="11" spans="1:29" ht="16.2" thickBot="1">
+    <row r="11" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -32677,7 +32706,7 @@
       </c>
       <c r="AC11" s="8"/>
     </row>
-    <row r="12" spans="1:29" ht="16.2" thickBot="1">
+    <row r="12" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -32717,7 +32746,7 @@
       </c>
       <c r="AC12" s="6"/>
     </row>
-    <row r="13" spans="1:29" ht="16.2" thickBot="1">
+    <row r="13" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -32757,7 +32786,7 @@
       </c>
       <c r="AC13" s="8"/>
     </row>
-    <row r="14" spans="1:29" ht="16.2" thickBot="1">
+    <row r="14" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -32797,7 +32826,7 @@
       </c>
       <c r="AC14" s="6"/>
     </row>
-    <row r="15" spans="1:29" ht="16.2" thickBot="1">
+    <row r="15" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -32837,7 +32866,7 @@
       </c>
       <c r="AC15" s="8"/>
     </row>
-    <row r="16" spans="1:29" ht="16.2" thickBot="1">
+    <row r="16" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -32880,7 +32909,7 @@
       </c>
       <c r="AC16" s="6"/>
     </row>
-    <row r="17" spans="1:29" ht="18" thickBot="1">
+    <row r="17" spans="1:29" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -32924,7 +32953,7 @@
       </c>
       <c r="AC17" s="8"/>
     </row>
-    <row r="18" spans="1:29" ht="16.2" thickBot="1">
+    <row r="18" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -32964,7 +32993,7 @@
       </c>
       <c r="AC18" s="6"/>
     </row>
-    <row r="19" spans="1:29" ht="16.2" thickBot="1">
+    <row r="19" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -33007,7 +33036,7 @@
       </c>
       <c r="AC19" s="8"/>
     </row>
-    <row r="20" spans="1:29" ht="17.399999999999999" thickBot="1">
+    <row r="20" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -33051,7 +33080,7 @@
       </c>
       <c r="AC20" s="6"/>
     </row>
-    <row r="21" spans="1:29" ht="18" thickBot="1">
+    <row r="21" spans="1:29" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -33092,7 +33121,7 @@
       </c>
       <c r="AC21" s="8"/>
     </row>
-    <row r="22" spans="1:29" ht="21" thickBot="1">
+    <row r="22" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -33135,7 +33164,7 @@
       </c>
       <c r="AC22" s="6"/>
     </row>
-    <row r="23" spans="1:29" ht="16.2" thickBot="1">
+    <row r="23" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -33178,7 +33207,7 @@
       </c>
       <c r="AC23" s="8"/>
     </row>
-    <row r="24" spans="1:29" ht="16.2" thickBot="1">
+    <row r="24" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -33218,7 +33247,7 @@
       </c>
       <c r="AC24" s="6"/>
     </row>
-    <row r="25" spans="1:29" ht="16.2" thickBot="1">
+    <row r="25" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -33258,7 +33287,7 @@
       </c>
       <c r="AC25" s="8"/>
     </row>
-    <row r="26" spans="1:29" ht="16.2" thickBot="1">
+    <row r="26" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -33298,7 +33327,7 @@
       </c>
       <c r="AC26" s="6"/>
     </row>
-    <row r="27" spans="1:29" ht="16.2" thickBot="1">
+    <row r="27" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>25</v>
       </c>
@@ -33338,7 +33367,7 @@
       </c>
       <c r="AC27" s="8"/>
     </row>
-    <row r="28" spans="1:29" ht="16.2" thickBot="1">
+    <row r="28" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -33378,7 +33407,7 @@
       </c>
       <c r="AC28" s="6"/>
     </row>
-    <row r="29" spans="1:29" ht="16.2" thickBot="1">
+    <row r="29" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>27</v>
       </c>
@@ -33418,7 +33447,7 @@
       </c>
       <c r="AC29" s="8"/>
     </row>
-    <row r="30" spans="1:29" ht="16.2" thickBot="1">
+    <row r="30" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -33458,7 +33487,7 @@
       </c>
       <c r="AC30" s="6"/>
     </row>
-    <row r="31" spans="1:29" ht="16.2" thickBot="1">
+    <row r="31" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>29</v>
       </c>
@@ -33498,7 +33527,7 @@
       </c>
       <c r="AC31" s="6"/>
     </row>
-    <row r="32" spans="1:29" ht="16.2" thickBot="1">
+    <row r="32" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>30</v>
       </c>
@@ -33538,7 +33567,7 @@
       </c>
       <c r="AC32" s="8"/>
     </row>
-    <row r="33" spans="1:29" ht="16.2" thickBot="1">
+    <row r="33" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>31</v>
       </c>
@@ -33578,7 +33607,7 @@
       </c>
       <c r="AC33" s="6"/>
     </row>
-    <row r="34" spans="1:29" ht="16.2" thickBot="1">
+    <row r="34" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>32</v>
       </c>
@@ -33618,7 +33647,7 @@
       </c>
       <c r="AC34" s="6"/>
     </row>
-    <row r="35" spans="1:29" ht="16.2" thickBot="1">
+    <row r="35" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>33</v>
       </c>
@@ -33658,7 +33687,7 @@
       </c>
       <c r="AC35" s="8"/>
     </row>
-    <row r="36" spans="1:29" ht="16.2" thickBot="1">
+    <row r="36" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>34</v>
       </c>
@@ -33698,7 +33727,7 @@
       </c>
       <c r="AC36" s="6"/>
     </row>
-    <row r="37" spans="1:29" ht="16.2" thickBot="1">
+    <row r="37" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>35</v>
       </c>
@@ -33738,7 +33767,7 @@
       </c>
       <c r="AC37" s="6"/>
     </row>
-    <row r="38" spans="1:29" ht="16.2" thickBot="1">
+    <row r="38" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>36</v>
       </c>
@@ -33778,7 +33807,7 @@
       </c>
       <c r="AC38" s="8"/>
     </row>
-    <row r="39" spans="1:29" ht="16.2" thickBot="1">
+    <row r="39" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>37</v>
       </c>
@@ -33818,7 +33847,7 @@
       </c>
       <c r="AC39" s="6"/>
     </row>
-    <row r="40" spans="1:29" ht="16.2" thickBot="1">
+    <row r="40" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>38</v>
       </c>
@@ -33858,7 +33887,7 @@
       </c>
       <c r="AC40" s="6"/>
     </row>
-    <row r="41" spans="1:29" ht="16.2" thickBot="1">
+    <row r="41" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>39</v>
       </c>
@@ -33898,7 +33927,7 @@
       </c>
       <c r="AC41" s="8"/>
     </row>
-    <row r="42" spans="1:29" ht="16.2" thickBot="1">
+    <row r="42" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>40</v>
       </c>
@@ -33938,7 +33967,7 @@
       </c>
       <c r="AC42" s="6"/>
     </row>
-    <row r="43" spans="1:29" ht="16.2" thickBot="1">
+    <row r="43" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>41</v>
       </c>
@@ -33978,7 +34007,7 @@
       </c>
       <c r="AC43" s="6"/>
     </row>
-    <row r="44" spans="1:29" ht="16.2" thickBot="1">
+    <row r="44" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>42</v>
       </c>
@@ -34018,7 +34047,7 @@
       </c>
       <c r="AC44" s="8"/>
     </row>
-    <row r="45" spans="1:29" ht="16.2" thickBot="1">
+    <row r="45" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>43</v>
       </c>
@@ -34058,7 +34087,7 @@
       </c>
       <c r="AC45" s="6"/>
     </row>
-    <row r="46" spans="1:29" ht="16.2" thickBot="1">
+    <row r="46" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>44</v>
       </c>
@@ -34098,7 +34127,7 @@
       </c>
       <c r="AC46" s="6"/>
     </row>
-    <row r="47" spans="1:29" ht="16.2" thickBot="1">
+    <row r="47" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>45</v>
       </c>
@@ -34138,7 +34167,7 @@
       </c>
       <c r="AC47" s="8"/>
     </row>
-    <row r="48" spans="1:29" ht="16.2" thickBot="1">
+    <row r="48" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>46</v>
       </c>
@@ -34178,7 +34207,7 @@
       </c>
       <c r="AC48" s="6"/>
     </row>
-    <row r="49" spans="1:29" ht="16.2" thickBot="1">
+    <row r="49" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>47</v>
       </c>
@@ -34218,7 +34247,7 @@
       </c>
       <c r="AC49" s="6"/>
     </row>
-    <row r="50" spans="1:29" ht="16.2" thickBot="1">
+    <row r="50" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>48</v>
       </c>
@@ -34258,7 +34287,7 @@
       </c>
       <c r="AC50" s="8"/>
     </row>
-    <row r="51" spans="1:29" ht="16.2" thickBot="1">
+    <row r="51" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>49</v>
       </c>
@@ -34298,7 +34327,7 @@
       </c>
       <c r="AC51" s="6"/>
     </row>
-    <row r="52" spans="1:29" ht="16.2" thickBot="1">
+    <row r="52" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>50</v>
       </c>
@@ -34338,7 +34367,7 @@
       </c>
       <c r="AC52" s="6"/>
     </row>
-    <row r="53" spans="1:29" ht="16.2" thickBot="1">
+    <row r="53" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>51</v>
       </c>
@@ -34378,7 +34407,7 @@
       </c>
       <c r="AC53" s="8"/>
     </row>
-    <row r="54" spans="1:29" ht="16.2" thickBot="1">
+    <row r="54" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>52</v>
       </c>
@@ -34418,7 +34447,7 @@
       </c>
       <c r="AC54" s="6"/>
     </row>
-    <row r="55" spans="1:29" ht="16.2" thickBot="1">
+    <row r="55" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>53</v>
       </c>
@@ -34458,7 +34487,7 @@
       </c>
       <c r="AC55" s="6"/>
     </row>
-    <row r="56" spans="1:29" ht="16.2" thickBot="1">
+    <row r="56" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>54</v>
       </c>
@@ -34498,7 +34527,7 @@
       </c>
       <c r="AC56" s="8"/>
     </row>
-    <row r="57" spans="1:29" ht="16.2" thickBot="1">
+    <row r="57" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>55</v>
       </c>
@@ -34538,7 +34567,7 @@
       </c>
       <c r="AC57" s="6"/>
     </row>
-    <row r="58" spans="1:29">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>56</v>
       </c>
@@ -34567,37 +34596,37 @@
       <c r="AB58" s="5"/>
       <c r="AC58" s="6"/>
     </row>
-    <row r="59" spans="1:29" ht="16.2" thickBot="1">
+    <row r="59" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AB59" s="5"/>
       <c r="AC59" s="8"/>
     </row>
-    <row r="60" spans="1:29">
-      <c r="B60" s="18" t="s">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B60" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
       <c r="AB60" s="5"/>
       <c r="AC60" s="6"/>
     </row>
-    <row r="61" spans="1:29">
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
       <c r="AB61" s="5"/>
       <c r="AC61" s="6"/>
     </row>
-    <row r="62" spans="1:29">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
       <c r="AB62" s="5"/>
       <c r="AC62" s="8"/>
     </row>
-    <row r="63" spans="1:29">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
       <c r="AB63" s="5"/>
       <c r="AC63" s="6"/>
     </row>
@@ -34618,19 +34647,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64FDFDC-13B1-AB4C-B1C3-7FF9E2CAD166}">
   <dimension ref="A1:AC35"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="11.19921875" customWidth="1"/>
+    <col min="1" max="4" width="11.1640625" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.19921875" customWidth="1"/>
-    <col min="28" max="29" width="11.19921875" customWidth="1"/>
+    <col min="13" max="13" width="11.1640625" customWidth="1"/>
+    <col min="28" max="29" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16.2" thickBot="1">
+    <row r="1" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -34668,7 +34697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="16.2" thickBot="1">
+    <row r="2" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -34708,7 +34737,7 @@
       </c>
       <c r="AC2" s="6"/>
     </row>
-    <row r="3" spans="1:29" ht="16.2" thickBot="1">
+    <row r="3" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -34748,7 +34777,7 @@
       </c>
       <c r="AC3" s="8"/>
     </row>
-    <row r="4" spans="1:29" ht="16.2" thickBot="1">
+    <row r="4" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -34788,7 +34817,7 @@
       </c>
       <c r="AC4" s="6"/>
     </row>
-    <row r="5" spans="1:29" ht="16.2" thickBot="1">
+    <row r="5" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -34828,7 +34857,7 @@
       </c>
       <c r="AC5" s="8"/>
     </row>
-    <row r="6" spans="1:29" ht="16.2" thickBot="1">
+    <row r="6" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -34868,7 +34897,7 @@
       </c>
       <c r="AC6" s="6"/>
     </row>
-    <row r="7" spans="1:29" ht="16.2" thickBot="1">
+    <row r="7" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -34908,7 +34937,7 @@
       </c>
       <c r="AC7" s="8"/>
     </row>
-    <row r="8" spans="1:29" ht="16.2" thickBot="1">
+    <row r="8" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -34948,7 +34977,7 @@
       </c>
       <c r="AC8" s="6"/>
     </row>
-    <row r="9" spans="1:29" ht="16.2" thickBot="1">
+    <row r="9" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -34988,7 +35017,7 @@
       </c>
       <c r="AC9" s="8"/>
     </row>
-    <row r="10" spans="1:29" ht="16.2" thickBot="1">
+    <row r="10" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -35028,7 +35057,7 @@
       </c>
       <c r="AC10" s="6"/>
     </row>
-    <row r="11" spans="1:29" ht="16.2" thickBot="1">
+    <row r="11" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -35068,7 +35097,7 @@
       </c>
       <c r="AC11" s="8"/>
     </row>
-    <row r="12" spans="1:29" ht="16.2" thickBot="1">
+    <row r="12" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -35108,7 +35137,7 @@
       </c>
       <c r="AC12" s="6"/>
     </row>
-    <row r="13" spans="1:29" ht="16.2" thickBot="1">
+    <row r="13" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -35148,7 +35177,7 @@
       </c>
       <c r="AC13" s="8"/>
     </row>
-    <row r="14" spans="1:29" ht="16.2" thickBot="1">
+    <row r="14" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -35188,7 +35217,7 @@
       </c>
       <c r="AC14" s="6"/>
     </row>
-    <row r="15" spans="1:29" ht="16.2" thickBot="1">
+    <row r="15" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -35228,7 +35257,7 @@
       </c>
       <c r="AC15" s="8"/>
     </row>
-    <row r="16" spans="1:29" ht="16.2" thickBot="1">
+    <row r="16" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -35271,7 +35300,7 @@
       </c>
       <c r="AC16" s="6"/>
     </row>
-    <row r="17" spans="1:29" ht="18" thickBot="1">
+    <row r="17" spans="1:29" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -35315,7 +35344,7 @@
       </c>
       <c r="AC17" s="8"/>
     </row>
-    <row r="18" spans="1:29" ht="16.2" thickBot="1">
+    <row r="18" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -35355,7 +35384,7 @@
       </c>
       <c r="AC18" s="6"/>
     </row>
-    <row r="19" spans="1:29" ht="16.2" thickBot="1">
+    <row r="19" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -35398,7 +35427,7 @@
       </c>
       <c r="AC19" s="8"/>
     </row>
-    <row r="20" spans="1:29" ht="17.399999999999999" thickBot="1">
+    <row r="20" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -35442,7 +35471,7 @@
       </c>
       <c r="AC20" s="6"/>
     </row>
-    <row r="21" spans="1:29" ht="18" thickBot="1">
+    <row r="21" spans="1:29" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -35483,7 +35512,7 @@
       </c>
       <c r="AC21" s="8"/>
     </row>
-    <row r="22" spans="1:29" ht="21" thickBot="1">
+    <row r="22" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -35526,7 +35555,7 @@
       </c>
       <c r="AC22" s="6"/>
     </row>
-    <row r="23" spans="1:29" ht="16.2" thickBot="1">
+    <row r="23" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -35569,7 +35598,7 @@
       </c>
       <c r="AC23" s="8"/>
     </row>
-    <row r="24" spans="1:29" ht="16.2" thickBot="1">
+    <row r="24" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -35609,7 +35638,7 @@
       </c>
       <c r="AC24" s="6"/>
     </row>
-    <row r="25" spans="1:29" ht="16.2" thickBot="1">
+    <row r="25" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -35649,7 +35678,7 @@
       </c>
       <c r="AC25" s="8"/>
     </row>
-    <row r="26" spans="1:29" ht="16.2" thickBot="1">
+    <row r="26" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -35689,7 +35718,7 @@
       </c>
       <c r="AC26" s="6"/>
     </row>
-    <row r="27" spans="1:29" ht="16.2" thickBot="1">
+    <row r="27" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>25</v>
       </c>
@@ -35729,7 +35758,7 @@
       </c>
       <c r="AC27" s="8"/>
     </row>
-    <row r="28" spans="1:29" ht="16.2" thickBot="1">
+    <row r="28" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -35769,7 +35798,7 @@
       </c>
       <c r="AC28" s="6"/>
     </row>
-    <row r="29" spans="1:29" ht="16.2" thickBot="1">
+    <row r="29" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>27</v>
       </c>
@@ -35809,7 +35838,7 @@
       </c>
       <c r="AC29" s="8"/>
     </row>
-    <row r="30" spans="1:29" ht="16.2" thickBot="1">
+    <row r="30" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -35849,7 +35878,7 @@
       </c>
       <c r="AC30" s="6"/>
     </row>
-    <row r="31" spans="1:29" ht="16.2" thickBot="1">
+    <row r="31" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>29</v>
       </c>
@@ -35889,7 +35918,7 @@
       </c>
       <c r="AC31" s="6"/>
     </row>
-    <row r="32" spans="1:29" ht="16.2" thickBot="1">
+    <row r="32" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>30</v>
       </c>
@@ -35916,24 +35945,24 @@
         <v>11.240110077866133</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="16.2" thickBot="1"/>
-    <row r="34" spans="2:7">
-      <c r="B34" s="18" t="s">
+    <row r="33" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B34" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
     </row>
-    <row r="35" spans="2:7">
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -35952,18 +35981,18 @@
   <dimension ref="A1:AC58"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="11.19921875" customWidth="1"/>
+    <col min="1" max="4" width="11.1640625" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.19921875" customWidth="1"/>
-    <col min="28" max="29" width="11.19921875" customWidth="1"/>
+    <col min="13" max="13" width="11.1640625" customWidth="1"/>
+    <col min="28" max="29" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16.2" thickBot="1">
+    <row r="1" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -36001,7 +36030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="16.2" thickBot="1">
+    <row r="2" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -36042,7 +36071,7 @@
       </c>
       <c r="AC2" s="6"/>
     </row>
-    <row r="3" spans="1:29" ht="16.2" thickBot="1">
+    <row r="3" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -36082,7 +36111,7 @@
       </c>
       <c r="AC3" s="8"/>
     </row>
-    <row r="4" spans="1:29" ht="16.2" thickBot="1">
+    <row r="4" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -36122,7 +36151,7 @@
       </c>
       <c r="AC4" s="6"/>
     </row>
-    <row r="5" spans="1:29" ht="16.2" thickBot="1">
+    <row r="5" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -36162,7 +36191,7 @@
       </c>
       <c r="AC5" s="8"/>
     </row>
-    <row r="6" spans="1:29" ht="16.2" thickBot="1">
+    <row r="6" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -36202,7 +36231,7 @@
       </c>
       <c r="AC6" s="6"/>
     </row>
-    <row r="7" spans="1:29" ht="16.2" thickBot="1">
+    <row r="7" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -36242,7 +36271,7 @@
       </c>
       <c r="AC7" s="8"/>
     </row>
-    <row r="8" spans="1:29" ht="16.2" thickBot="1">
+    <row r="8" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -36282,7 +36311,7 @@
       </c>
       <c r="AC8" s="6"/>
     </row>
-    <row r="9" spans="1:29" ht="16.2" thickBot="1">
+    <row r="9" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -36322,7 +36351,7 @@
       </c>
       <c r="AC9" s="8"/>
     </row>
-    <row r="10" spans="1:29" ht="16.2" thickBot="1">
+    <row r="10" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -36362,7 +36391,7 @@
       </c>
       <c r="AC10" s="6"/>
     </row>
-    <row r="11" spans="1:29" ht="16.2" thickBot="1">
+    <row r="11" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -36402,7 +36431,7 @@
       </c>
       <c r="AC11" s="8"/>
     </row>
-    <row r="12" spans="1:29" ht="16.2" thickBot="1">
+    <row r="12" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -36442,7 +36471,7 @@
       </c>
       <c r="AC12" s="6"/>
     </row>
-    <row r="13" spans="1:29" ht="16.2" thickBot="1">
+    <row r="13" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -36482,7 +36511,7 @@
       </c>
       <c r="AC13" s="8"/>
     </row>
-    <row r="14" spans="1:29" ht="16.2" thickBot="1">
+    <row r="14" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -36522,7 +36551,7 @@
       </c>
       <c r="AC14" s="6"/>
     </row>
-    <row r="15" spans="1:29" ht="16.2" thickBot="1">
+    <row r="15" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -36562,7 +36591,7 @@
       </c>
       <c r="AC15" s="8"/>
     </row>
-    <row r="16" spans="1:29" ht="16.2" thickBot="1">
+    <row r="16" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -36605,7 +36634,7 @@
       </c>
       <c r="AC16" s="6"/>
     </row>
-    <row r="17" spans="1:29" ht="18" thickBot="1">
+    <row r="17" spans="1:29" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -36649,7 +36678,7 @@
       </c>
       <c r="AC17" s="8"/>
     </row>
-    <row r="18" spans="1:29" ht="16.2" thickBot="1">
+    <row r="18" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -36689,7 +36718,7 @@
       </c>
       <c r="AC18" s="6"/>
     </row>
-    <row r="19" spans="1:29" ht="16.2" thickBot="1">
+    <row r="19" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -36732,7 +36761,7 @@
       </c>
       <c r="AC19" s="8"/>
     </row>
-    <row r="20" spans="1:29" ht="17.399999999999999" thickBot="1">
+    <row r="20" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -36776,7 +36805,7 @@
       </c>
       <c r="AC20" s="6"/>
     </row>
-    <row r="21" spans="1:29" ht="18" thickBot="1">
+    <row r="21" spans="1:29" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -36817,7 +36846,7 @@
       </c>
       <c r="AC21" s="8"/>
     </row>
-    <row r="22" spans="1:29" ht="21" thickBot="1">
+    <row r="22" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -36860,7 +36889,7 @@
       </c>
       <c r="AC22" s="6"/>
     </row>
-    <row r="23" spans="1:29" ht="16.2" thickBot="1">
+    <row r="23" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -36903,7 +36932,7 @@
       </c>
       <c r="AC23" s="8"/>
     </row>
-    <row r="24" spans="1:29" ht="16.2" thickBot="1">
+    <row r="24" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -36930,24 +36959,24 @@
         <v>13.466910915437513</v>
       </c>
     </row>
-    <row r="56" spans="9:14" ht="16.2" thickBot="1"/>
-    <row r="57" spans="9:14">
-      <c r="I57" s="18" t="s">
+    <row r="56" spans="9:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I57" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="J57" s="18"/>
-      <c r="K57" s="18"/>
-      <c r="L57" s="18"/>
-      <c r="M57" s="18"/>
-      <c r="N57" s="18"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="23"/>
+      <c r="N57" s="23"/>
     </row>
-    <row r="58" spans="9:14">
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="19"/>
-      <c r="N58" s="19"/>
+    <row r="58" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -36969,19 +36998,19 @@
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="11.19921875" customWidth="1"/>
-    <col min="6" max="6" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="11.1640625" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.19921875" customWidth="1"/>
-    <col min="14" max="14" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="11.19921875" customWidth="1"/>
+    <col min="13" max="13" width="11.1640625" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16.2" thickBot="1">
+    <row r="1" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -37019,7 +37048,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="16.2" thickBot="1">
+    <row r="2" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -37061,7 +37090,7 @@
       </c>
       <c r="AC2" s="6"/>
     </row>
-    <row r="3" spans="1:29" ht="16.2" thickBot="1">
+    <row r="3" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -37103,7 +37132,7 @@
       </c>
       <c r="AC3" s="8"/>
     </row>
-    <row r="4" spans="1:29" ht="16.2" thickBot="1">
+    <row r="4" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -37145,7 +37174,7 @@
       </c>
       <c r="AC4" s="6"/>
     </row>
-    <row r="5" spans="1:29" ht="16.2" thickBot="1">
+    <row r="5" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -37187,7 +37216,7 @@
       </c>
       <c r="AC5" s="8"/>
     </row>
-    <row r="6" spans="1:29" ht="16.2" thickBot="1">
+    <row r="6" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -37229,7 +37258,7 @@
       </c>
       <c r="AC6" s="6"/>
     </row>
-    <row r="7" spans="1:29" ht="16.2" thickBot="1">
+    <row r="7" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -37271,7 +37300,7 @@
       </c>
       <c r="AC7" s="8"/>
     </row>
-    <row r="8" spans="1:29" ht="16.2" thickBot="1">
+    <row r="8" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -37313,7 +37342,7 @@
       </c>
       <c r="AC8" s="6"/>
     </row>
-    <row r="9" spans="1:29" ht="16.2" thickBot="1">
+    <row r="9" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -37355,7 +37384,7 @@
       </c>
       <c r="AC9" s="8"/>
     </row>
-    <row r="10" spans="1:29" ht="16.2" thickBot="1">
+    <row r="10" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -37397,7 +37426,7 @@
       </c>
       <c r="AC10" s="6"/>
     </row>
-    <row r="11" spans="1:29" ht="16.2" thickBot="1">
+    <row r="11" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -37439,7 +37468,7 @@
       </c>
       <c r="AC11" s="8"/>
     </row>
-    <row r="12" spans="1:29" ht="16.2" thickBot="1">
+    <row r="12" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -37481,7 +37510,7 @@
       </c>
       <c r="AC12" s="6"/>
     </row>
-    <row r="13" spans="1:29" ht="16.2" thickBot="1">
+    <row r="13" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -37523,7 +37552,7 @@
       </c>
       <c r="AC13" s="8"/>
     </row>
-    <row r="14" spans="1:29" ht="16.2" thickBot="1">
+    <row r="14" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -37565,7 +37594,7 @@
       </c>
       <c r="AC14" s="6"/>
     </row>
-    <row r="15" spans="1:29" ht="16.2" thickBot="1">
+    <row r="15" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -37607,7 +37636,7 @@
       </c>
       <c r="AC15" s="8"/>
     </row>
-    <row r="16" spans="1:29" ht="16.2" thickBot="1">
+    <row r="16" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -37649,7 +37678,7 @@
       </c>
       <c r="AC16" s="6"/>
     </row>
-    <row r="17" spans="1:29" ht="16.2" thickBot="1">
+    <row r="17" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -37691,7 +37720,7 @@
       </c>
       <c r="AC17" s="8"/>
     </row>
-    <row r="18" spans="1:29" ht="16.2" thickBot="1">
+    <row r="18" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -37733,7 +37762,7 @@
       </c>
       <c r="AC18" s="6"/>
     </row>
-    <row r="19" spans="1:29" ht="16.2" thickBot="1">
+    <row r="19" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -37775,7 +37804,7 @@
       </c>
       <c r="AC19" s="8"/>
     </row>
-    <row r="20" spans="1:29" ht="16.2" thickBot="1">
+    <row r="20" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -37817,7 +37846,7 @@
       </c>
       <c r="AC20" s="6"/>
     </row>
-    <row r="21" spans="1:29">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -37846,61 +37875,61 @@
         <v>1.9813326740246377E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="16.2" thickBot="1"/>
-    <row r="23" spans="1:29">
-      <c r="B23" s="18" t="s">
+    <row r="22" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B23" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
     </row>
-    <row r="24" spans="1:29">
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
     </row>
-    <row r="27" spans="1:29">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="K27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="7:7">
+    <row r="37" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G37" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="7:7" ht="17.399999999999999">
+    <row r="38" spans="7:7" ht="18" x14ac:dyDescent="0.2">
       <c r="G38" s="9">
         <f>1.602176634*10^(-19)</f>
         <v>1.6021766340000001E-19</v>
       </c>
     </row>
-    <row r="40" spans="7:7">
+    <row r="40" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G40" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="7:7" ht="16.8">
+    <row r="41" spans="7:7" ht="17" x14ac:dyDescent="0.2">
       <c r="G41" s="11">
         <f>1.3806503*10^(-23)</f>
         <v>1.3806503000000004E-23</v>
       </c>
     </row>
-    <row r="42" spans="7:7" ht="17.399999999999999">
+    <row r="42" spans="7:7" ht="18" x14ac:dyDescent="0.2">
       <c r="G42" s="10"/>
     </row>
-    <row r="43" spans="7:7" ht="20.399999999999999">
+    <row r="43" spans="7:7" ht="20" x14ac:dyDescent="0.2">
       <c r="G43" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="7:7">
+    <row r="44" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G44" t="s">
         <v>14</v>
       </c>
@@ -37921,22 +37950,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29EA75CD-2EAA-AD46-B54B-F32D80398925}">
   <dimension ref="A1:AC50"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="11.19921875" customWidth="1"/>
-    <col min="6" max="6" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="11.1640625" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.19921875" customWidth="1"/>
-    <col min="14" max="14" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="11.19921875" customWidth="1"/>
+    <col min="13" max="13" width="11.1640625" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16.2" thickBot="1">
+    <row r="1" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -37980,7 +38009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="16.2" thickBot="1">
+    <row r="2" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -38022,7 +38051,7 @@
       </c>
       <c r="AC2" s="6"/>
     </row>
-    <row r="3" spans="1:29" ht="16.2" thickBot="1">
+    <row r="3" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -38064,7 +38093,7 @@
       </c>
       <c r="AC3" s="8"/>
     </row>
-    <row r="4" spans="1:29" ht="16.2" thickBot="1">
+    <row r="4" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -38106,7 +38135,7 @@
       </c>
       <c r="AC4" s="6"/>
     </row>
-    <row r="5" spans="1:29" ht="16.2" thickBot="1">
+    <row r="5" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -38148,7 +38177,7 @@
       </c>
       <c r="AC5" s="8"/>
     </row>
-    <row r="6" spans="1:29" ht="16.2" thickBot="1">
+    <row r="6" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -38190,7 +38219,7 @@
       </c>
       <c r="AC6" s="6"/>
     </row>
-    <row r="7" spans="1:29" ht="16.2" thickBot="1">
+    <row r="7" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -38232,7 +38261,7 @@
       </c>
       <c r="AC7" s="8"/>
     </row>
-    <row r="8" spans="1:29" ht="16.2" thickBot="1">
+    <row r="8" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -38274,7 +38303,7 @@
       </c>
       <c r="AC8" s="6"/>
     </row>
-    <row r="9" spans="1:29" ht="16.2" thickBot="1">
+    <row r="9" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -38316,7 +38345,7 @@
       </c>
       <c r="AC9" s="8"/>
     </row>
-    <row r="10" spans="1:29" ht="16.2" thickBot="1">
+    <row r="10" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -38358,7 +38387,7 @@
       </c>
       <c r="AC10" s="6"/>
     </row>
-    <row r="11" spans="1:29" ht="16.2" thickBot="1">
+    <row r="11" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -38400,7 +38429,7 @@
       </c>
       <c r="AC11" s="8"/>
     </row>
-    <row r="12" spans="1:29" ht="16.2" thickBot="1">
+    <row r="12" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -38442,7 +38471,7 @@
       </c>
       <c r="AC12" s="6"/>
     </row>
-    <row r="13" spans="1:29" ht="16.2" thickBot="1">
+    <row r="13" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -38484,7 +38513,7 @@
       </c>
       <c r="AC13" s="8"/>
     </row>
-    <row r="14" spans="1:29" ht="16.2" thickBot="1">
+    <row r="14" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -38526,7 +38555,7 @@
       </c>
       <c r="AC14" s="6"/>
     </row>
-    <row r="15" spans="1:29" ht="16.2" thickBot="1">
+    <row r="15" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -38568,7 +38597,7 @@
       </c>
       <c r="AC15" s="8"/>
     </row>
-    <row r="16" spans="1:29" ht="16.2" thickBot="1">
+    <row r="16" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -38610,7 +38639,7 @@
       </c>
       <c r="AC16" s="6"/>
     </row>
-    <row r="17" spans="1:29" ht="16.2" thickBot="1">
+    <row r="17" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -38652,7 +38681,7 @@
       </c>
       <c r="AC17" s="8"/>
     </row>
-    <row r="18" spans="1:29" ht="16.2" thickBot="1">
+    <row r="18" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -38694,7 +38723,7 @@
       </c>
       <c r="AC18" s="6"/>
     </row>
-    <row r="19" spans="1:29" ht="16.2" thickBot="1">
+    <row r="19" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -38736,7 +38765,7 @@
       </c>
       <c r="AC19" s="8"/>
     </row>
-    <row r="20" spans="1:29" ht="16.2" thickBot="1">
+    <row r="20" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -38778,7 +38807,7 @@
       </c>
       <c r="AC20" s="6"/>
     </row>
-    <row r="21" spans="1:29" ht="16.2" thickBot="1">
+    <row r="21" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -38820,7 +38849,7 @@
       </c>
       <c r="AC21" s="8"/>
     </row>
-    <row r="22" spans="1:29" ht="16.2" thickBot="1">
+    <row r="22" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -38862,7 +38891,7 @@
       </c>
       <c r="AC22" s="6"/>
     </row>
-    <row r="23" spans="1:29" ht="16.2" thickBot="1">
+    <row r="23" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -38904,7 +38933,7 @@
       </c>
       <c r="AC23" s="8"/>
     </row>
-    <row r="24" spans="1:29" ht="16.2" thickBot="1">
+    <row r="24" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -38946,7 +38975,7 @@
       </c>
       <c r="AC24" s="6"/>
     </row>
-    <row r="25" spans="1:29" ht="16.2" thickBot="1">
+    <row r="25" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -38988,7 +39017,7 @@
       </c>
       <c r="AC25" s="8"/>
     </row>
-    <row r="26" spans="1:29" ht="16.2" thickBot="1">
+    <row r="26" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -39030,7 +39059,7 @@
       </c>
       <c r="AC26" s="6"/>
     </row>
-    <row r="27" spans="1:29" ht="16.2" thickBot="1">
+    <row r="27" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>25</v>
       </c>
@@ -39072,7 +39101,7 @@
       </c>
       <c r="AC27" s="8"/>
     </row>
-    <row r="28" spans="1:29" ht="16.2" thickBot="1">
+    <row r="28" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -39114,7 +39143,7 @@
       </c>
       <c r="AC28" s="6"/>
     </row>
-    <row r="29" spans="1:29" ht="16.2" thickBot="1">
+    <row r="29" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>27</v>
       </c>
@@ -39156,7 +39185,7 @@
       </c>
       <c r="AC29" s="8"/>
     </row>
-    <row r="30" spans="1:29" ht="16.2" thickBot="1">
+    <row r="30" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -39198,7 +39227,7 @@
       </c>
       <c r="AC30" s="6"/>
     </row>
-    <row r="31" spans="1:29">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>29</v>
       </c>
@@ -39227,56 +39256,56 @@
         <v>6.6325231377546354E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="16.2" thickBot="1"/>
-    <row r="33" spans="2:8">
-      <c r="B33" s="18" t="s">
+    <row r="32" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
     </row>
-    <row r="34" spans="2:8">
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H43" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="2:8" ht="17.399999999999999">
+    <row r="44" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="H44" s="9">
         <f>1.602176634*10^(-19)</f>
         <v>1.6021766340000001E-19</v>
       </c>
     </row>
-    <row r="46" spans="2:8">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H46" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="16.8">
+    <row r="47" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="H47" s="11">
         <f>1.3806503*10^(-23)</f>
         <v>1.3806503000000004E-23</v>
       </c>
     </row>
-    <row r="48" spans="2:8" ht="17.399999999999999">
+    <row r="48" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="H48" s="10"/>
     </row>
-    <row r="49" spans="8:8" ht="20.399999999999999">
+    <row r="49" spans="8:8" ht="20" x14ac:dyDescent="0.2">
       <c r="H49" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="8:8">
+    <row r="50" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H50" t="s">
         <v>14</v>
       </c>
@@ -39298,18 +39327,18 @@
   <dimension ref="A1:AC58"/>
   <sheetViews>
     <sheetView zoomScale="61" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="11.19921875" customWidth="1"/>
+    <col min="1" max="4" width="11.1640625" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.19921875" customWidth="1"/>
-    <col min="28" max="29" width="11.19921875" customWidth="1"/>
+    <col min="13" max="13" width="11.1640625" customWidth="1"/>
+    <col min="28" max="29" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16.2" thickBot="1">
+    <row r="1" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -39347,7 +39376,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="16.2" thickBot="1">
+    <row r="2" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -39388,7 +39417,7 @@
       </c>
       <c r="AC2" s="6"/>
     </row>
-    <row r="3" spans="1:29" ht="16.2" thickBot="1">
+    <row r="3" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -39429,7 +39458,7 @@
       </c>
       <c r="AC3" s="8"/>
     </row>
-    <row r="4" spans="1:29" ht="16.2" thickBot="1">
+    <row r="4" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -39470,7 +39499,7 @@
       </c>
       <c r="AC4" s="6"/>
     </row>
-    <row r="5" spans="1:29" ht="16.2" thickBot="1">
+    <row r="5" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -39511,7 +39540,7 @@
       </c>
       <c r="AC5" s="8"/>
     </row>
-    <row r="6" spans="1:29" ht="16.2" thickBot="1">
+    <row r="6" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -39552,7 +39581,7 @@
       </c>
       <c r="AC6" s="6"/>
     </row>
-    <row r="7" spans="1:29" ht="16.2" thickBot="1">
+    <row r="7" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -39593,7 +39622,7 @@
       </c>
       <c r="AC7" s="8"/>
     </row>
-    <row r="8" spans="1:29" ht="16.2" thickBot="1">
+    <row r="8" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -39634,7 +39663,7 @@
       </c>
       <c r="AC8" s="6"/>
     </row>
-    <row r="9" spans="1:29" ht="16.2" thickBot="1">
+    <row r="9" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -39675,7 +39704,7 @@
       </c>
       <c r="AC9" s="8"/>
     </row>
-    <row r="10" spans="1:29" ht="16.2" thickBot="1">
+    <row r="10" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -39716,7 +39745,7 @@
       </c>
       <c r="AC10" s="6"/>
     </row>
-    <row r="11" spans="1:29" ht="16.2" thickBot="1">
+    <row r="11" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -39757,7 +39786,7 @@
       </c>
       <c r="AC11" s="8"/>
     </row>
-    <row r="12" spans="1:29" ht="16.2" thickBot="1">
+    <row r="12" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -39798,7 +39827,7 @@
       </c>
       <c r="AC12" s="6"/>
     </row>
-    <row r="13" spans="1:29" ht="16.2" thickBot="1">
+    <row r="13" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -39839,7 +39868,7 @@
       </c>
       <c r="AC13" s="8"/>
     </row>
-    <row r="14" spans="1:29" ht="16.2" thickBot="1">
+    <row r="14" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -39880,7 +39909,7 @@
       </c>
       <c r="AC14" s="6"/>
     </row>
-    <row r="15" spans="1:29" ht="16.2" thickBot="1">
+    <row r="15" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -39921,7 +39950,7 @@
       </c>
       <c r="AC15" s="8"/>
     </row>
-    <row r="16" spans="1:29" ht="16.2" thickBot="1">
+    <row r="16" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -39965,7 +39994,7 @@
       </c>
       <c r="AC16" s="6"/>
     </row>
-    <row r="17" spans="1:29" ht="18" thickBot="1">
+    <row r="17" spans="1:29" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -40010,7 +40039,7 @@
       </c>
       <c r="AC17" s="8"/>
     </row>
-    <row r="18" spans="1:29" ht="16.2" thickBot="1">
+    <row r="18" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -40051,7 +40080,7 @@
       </c>
       <c r="AC18" s="6"/>
     </row>
-    <row r="19" spans="1:29" ht="16.2" thickBot="1">
+    <row r="19" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -40095,7 +40124,7 @@
       </c>
       <c r="AC19" s="8"/>
     </row>
-    <row r="20" spans="1:29" ht="17.399999999999999" thickBot="1">
+    <row r="20" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -40128,59 +40157,59 @@
       </c>
       <c r="AB20" s="5"/>
     </row>
-    <row r="21" spans="1:29" ht="17.399999999999999">
+    <row r="21" spans="1:29" ht="18" x14ac:dyDescent="0.2">
       <c r="J21" s="10"/>
     </row>
-    <row r="22" spans="1:29" ht="20.399999999999999">
+    <row r="22" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="J22" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:29">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="J23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="27:27">
+    <row r="44" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA44" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="27:27">
+    <row r="45" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA45">
         <f>SLOPE(AB2:AB19,H2:H19)</f>
         <v>0.55845473451013328</v>
       </c>
     </row>
-    <row r="47" spans="27:27">
+    <row r="47" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA47" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="27:27">
+    <row r="48" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA48">
         <f>INTERCEPT(AB2:AB19,H2:H19)</f>
         <v>-93.280856724131766</v>
       </c>
     </row>
-    <row r="56" spans="9:14" ht="16.2" thickBot="1"/>
-    <row r="57" spans="9:14">
-      <c r="I57" s="18" t="s">
+    <row r="56" spans="9:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I57" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="J57" s="18"/>
-      <c r="K57" s="18"/>
-      <c r="L57" s="18"/>
-      <c r="M57" s="18"/>
-      <c r="N57" s="18"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="23"/>
+      <c r="N57" s="23"/>
     </row>
-    <row r="58" spans="9:14">
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="19"/>
-      <c r="N58" s="19"/>
+    <row r="58" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -40202,15 +40231,15 @@
       <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="11.19921875" customWidth="1"/>
+    <col min="1" max="4" width="11.1640625" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.19921875" customWidth="1"/>
-    <col min="28" max="29" width="11.19921875" customWidth="1"/>
+    <col min="13" max="13" width="11.1640625" customWidth="1"/>
+    <col min="28" max="29" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16.2" thickBot="1">
+    <row r="1" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -40248,7 +40277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="16.2" thickBot="1">
+    <row r="2" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -40288,7 +40317,7 @@
       </c>
       <c r="AC2" s="6"/>
     </row>
-    <row r="3" spans="1:29" ht="16.2" thickBot="1">
+    <row r="3" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -40328,7 +40357,7 @@
       </c>
       <c r="AC3" s="8"/>
     </row>
-    <row r="4" spans="1:29" ht="16.2" thickBot="1">
+    <row r="4" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -40368,7 +40397,7 @@
       </c>
       <c r="AC4" s="6"/>
     </row>
-    <row r="5" spans="1:29" ht="16.2" thickBot="1">
+    <row r="5" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -40408,7 +40437,7 @@
       </c>
       <c r="AC5" s="8"/>
     </row>
-    <row r="6" spans="1:29" ht="16.2" thickBot="1">
+    <row r="6" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -40448,7 +40477,7 @@
       </c>
       <c r="AC6" s="6"/>
     </row>
-    <row r="7" spans="1:29" ht="16.2" thickBot="1">
+    <row r="7" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -40488,7 +40517,7 @@
       </c>
       <c r="AC7" s="8"/>
     </row>
-    <row r="8" spans="1:29" ht="16.2" thickBot="1">
+    <row r="8" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -40528,7 +40557,7 @@
       </c>
       <c r="AC8" s="6"/>
     </row>
-    <row r="9" spans="1:29" ht="16.2" thickBot="1">
+    <row r="9" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -40568,7 +40597,7 @@
       </c>
       <c r="AC9" s="8"/>
     </row>
-    <row r="10" spans="1:29" ht="16.2" thickBot="1">
+    <row r="10" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -40608,7 +40637,7 @@
       </c>
       <c r="AC10" s="6"/>
     </row>
-    <row r="11" spans="1:29" ht="16.2" thickBot="1">
+    <row r="11" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -40648,7 +40677,7 @@
       </c>
       <c r="AC11" s="8"/>
     </row>
-    <row r="12" spans="1:29" ht="16.2" thickBot="1">
+    <row r="12" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -40688,7 +40717,7 @@
       </c>
       <c r="AC12" s="6"/>
     </row>
-    <row r="13" spans="1:29" ht="16.2" thickBot="1">
+    <row r="13" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -40728,7 +40757,7 @@
       </c>
       <c r="AC13" s="8"/>
     </row>
-    <row r="14" spans="1:29" ht="16.2" thickBot="1">
+    <row r="14" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -40768,7 +40797,7 @@
       </c>
       <c r="AC14" s="6"/>
     </row>
-    <row r="15" spans="1:29" ht="16.2" thickBot="1">
+    <row r="15" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -40808,7 +40837,7 @@
       </c>
       <c r="AC15" s="8"/>
     </row>
-    <row r="16" spans="1:29" ht="16.2" thickBot="1">
+    <row r="16" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -40836,7 +40865,7 @@
       <c r="AB16" s="5"/>
       <c r="AC16" s="6"/>
     </row>
-    <row r="17" spans="1:29" ht="18" thickBot="1">
+    <row r="17" spans="1:29" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -40865,7 +40894,7 @@
       <c r="AB17" s="5"/>
       <c r="AC17" s="8"/>
     </row>
-    <row r="18" spans="1:29" ht="16.2" thickBot="1">
+    <row r="18" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -40890,7 +40919,7 @@
       <c r="AB18" s="5"/>
       <c r="AC18" s="6"/>
     </row>
-    <row r="19" spans="1:29" ht="16.2" thickBot="1">
+    <row r="19" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -40918,7 +40947,7 @@
       <c r="AB19" s="5"/>
       <c r="AC19" s="8"/>
     </row>
-    <row r="20" spans="1:29" ht="17.399999999999999" thickBot="1">
+    <row r="20" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -40947,7 +40976,7 @@
       <c r="AB20" s="5"/>
       <c r="AC20" s="6"/>
     </row>
-    <row r="21" spans="1:29" ht="18" thickBot="1">
+    <row r="21" spans="1:29" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -40973,7 +41002,7 @@
       <c r="AB21" s="5"/>
       <c r="AC21" s="8"/>
     </row>
-    <row r="22" spans="1:29" ht="21" thickBot="1">
+    <row r="22" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -41001,7 +41030,7 @@
       <c r="AB22" s="5"/>
       <c r="AC22" s="6"/>
     </row>
-    <row r="23" spans="1:29" ht="16.2" thickBot="1">
+    <row r="23" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -41029,7 +41058,7 @@
       <c r="AB23" s="5"/>
       <c r="AC23" s="8"/>
     </row>
-    <row r="24" spans="1:29" ht="16.2" thickBot="1">
+    <row r="24" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -41054,7 +41083,7 @@
       <c r="AB24" s="5"/>
       <c r="AC24" s="6"/>
     </row>
-    <row r="25" spans="1:29" ht="16.2" thickBot="1">
+    <row r="25" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -41082,7 +41111,7 @@
       </c>
       <c r="AC25" s="8"/>
     </row>
-    <row r="26" spans="1:29" ht="16.2" thickBot="1">
+    <row r="26" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -41110,7 +41139,7 @@
       </c>
       <c r="AC26" s="6"/>
     </row>
-    <row r="27" spans="1:29" ht="16.2" thickBot="1">
+    <row r="27" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>25</v>
       </c>
@@ -41138,7 +41167,7 @@
       </c>
       <c r="AC27" s="8"/>
     </row>
-    <row r="28" spans="1:29" ht="16.2" thickBot="1">
+    <row r="28" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -41166,7 +41195,7 @@
       </c>
       <c r="AC28" s="6"/>
     </row>
-    <row r="29" spans="1:29" ht="16.2" thickBot="1">
+    <row r="29" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>27</v>
       </c>
@@ -41194,7 +41223,7 @@
       </c>
       <c r="AC29" s="8"/>
     </row>
-    <row r="30" spans="1:29" ht="16.2" thickBot="1">
+    <row r="30" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -41222,7 +41251,7 @@
       </c>
       <c r="AC30" s="6"/>
     </row>
-    <row r="31" spans="1:29" ht="16.2" thickBot="1">
+    <row r="31" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>29</v>
       </c>
@@ -41250,7 +41279,7 @@
       </c>
       <c r="AC31" s="6"/>
     </row>
-    <row r="32" spans="1:29" ht="16.2" thickBot="1">
+    <row r="32" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>30</v>
       </c>
@@ -41278,7 +41307,7 @@
       </c>
       <c r="AC32" s="8"/>
     </row>
-    <row r="33" spans="1:29" ht="16.2" thickBot="1">
+    <row r="33" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>31</v>
       </c>
@@ -41306,7 +41335,7 @@
       </c>
       <c r="AC33" s="6"/>
     </row>
-    <row r="34" spans="1:29" ht="16.2" thickBot="1">
+    <row r="34" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>32</v>
       </c>
@@ -41334,7 +41363,7 @@
       </c>
       <c r="AC34" s="6"/>
     </row>
-    <row r="35" spans="1:29" ht="16.2" thickBot="1">
+    <row r="35" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>33</v>
       </c>
@@ -41362,7 +41391,7 @@
       </c>
       <c r="AC35" s="8"/>
     </row>
-    <row r="36" spans="1:29" ht="16.2" thickBot="1">
+    <row r="36" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>34</v>
       </c>
@@ -41390,7 +41419,7 @@
       </c>
       <c r="AC36" s="6"/>
     </row>
-    <row r="37" spans="1:29" ht="16.2" thickBot="1">
+    <row r="37" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>35</v>
       </c>
@@ -41418,7 +41447,7 @@
       </c>
       <c r="AC37" s="6"/>
     </row>
-    <row r="38" spans="1:29" ht="16.2" thickBot="1">
+    <row r="38" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>36</v>
       </c>
@@ -41446,7 +41475,7 @@
       </c>
       <c r="AC38" s="8"/>
     </row>
-    <row r="39" spans="1:29" ht="16.2" thickBot="1">
+    <row r="39" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>37</v>
       </c>
@@ -41466,7 +41495,7 @@
       </c>
       <c r="AC39" s="6"/>
     </row>
-    <row r="40" spans="1:29" ht="16.2" thickBot="1">
+    <row r="40" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>38</v>
       </c>
@@ -41486,7 +41515,7 @@
       </c>
       <c r="AC40" s="6"/>
     </row>
-    <row r="41" spans="1:29" ht="16.2" thickBot="1">
+    <row r="41" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>39</v>
       </c>
@@ -41506,7 +41535,7 @@
       </c>
       <c r="AC41" s="8"/>
     </row>
-    <row r="42" spans="1:29" ht="16.2" thickBot="1">
+    <row r="42" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>40</v>
       </c>
@@ -41526,7 +41555,7 @@
       </c>
       <c r="AC42" s="6"/>
     </row>
-    <row r="43" spans="1:29" ht="16.2" thickBot="1">
+    <row r="43" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>41</v>
       </c>
@@ -41546,7 +41575,7 @@
       </c>
       <c r="AC43" s="6"/>
     </row>
-    <row r="44" spans="1:29" ht="16.2" thickBot="1">
+    <row r="44" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>42</v>
       </c>
@@ -41566,7 +41595,7 @@
       </c>
       <c r="AC44" s="8"/>
     </row>
-    <row r="45" spans="1:29" ht="16.2" thickBot="1">
+    <row r="45" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>43</v>
       </c>
@@ -41586,7 +41615,7 @@
       </c>
       <c r="AC45" s="6"/>
     </row>
-    <row r="46" spans="1:29" ht="16.2" thickBot="1">
+    <row r="46" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>44</v>
       </c>
@@ -41606,7 +41635,7 @@
       </c>
       <c r="AC46" s="6"/>
     </row>
-    <row r="47" spans="1:29" ht="16.2" thickBot="1">
+    <row r="47" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>45</v>
       </c>
@@ -41626,7 +41655,7 @@
       </c>
       <c r="AC47" s="8"/>
     </row>
-    <row r="48" spans="1:29" ht="16.2" thickBot="1">
+    <row r="48" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>46</v>
       </c>
@@ -41646,7 +41675,7 @@
       </c>
       <c r="AC48" s="6"/>
     </row>
-    <row r="49" spans="1:29" ht="16.2" thickBot="1">
+    <row r="49" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>47</v>
       </c>
@@ -41666,7 +41695,7 @@
       </c>
       <c r="AC49" s="6"/>
     </row>
-    <row r="50" spans="1:29" ht="16.2" thickBot="1">
+    <row r="50" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>48</v>
       </c>
@@ -41686,7 +41715,7 @@
       </c>
       <c r="AC50" s="8"/>
     </row>
-    <row r="51" spans="1:29" ht="16.2" thickBot="1">
+    <row r="51" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>49</v>
       </c>
@@ -41706,7 +41735,7 @@
       </c>
       <c r="AC51" s="6"/>
     </row>
-    <row r="52" spans="1:29" ht="16.2" thickBot="1">
+    <row r="52" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>50</v>
       </c>
@@ -41726,7 +41755,7 @@
       </c>
       <c r="AC52" s="6"/>
     </row>
-    <row r="53" spans="1:29" ht="16.2" thickBot="1">
+    <row r="53" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>51</v>
       </c>
@@ -41746,7 +41775,7 @@
       </c>
       <c r="AC53" s="8"/>
     </row>
-    <row r="54" spans="1:29" ht="16.2" thickBot="1">
+    <row r="54" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>52</v>
       </c>
@@ -41766,7 +41795,7 @@
       </c>
       <c r="AC54" s="6"/>
     </row>
-    <row r="55" spans="1:29" ht="16.2" thickBot="1">
+    <row r="55" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>53</v>
       </c>
@@ -41786,7 +41815,7 @@
       </c>
       <c r="AC55" s="6"/>
     </row>
-    <row r="56" spans="1:29" ht="16.2" thickBot="1">
+    <row r="56" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>54</v>
       </c>
@@ -41806,7 +41835,7 @@
       </c>
       <c r="AC56" s="8"/>
     </row>
-    <row r="57" spans="1:29" ht="16.2" thickBot="1">
+    <row r="57" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>55</v>
       </c>
@@ -41820,21 +41849,21 @@
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I57" s="18" t="s">
+      <c r="I57" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="J57" s="18"/>
-      <c r="K57" s="18"/>
-      <c r="L57" s="18"/>
-      <c r="M57" s="18"/>
-      <c r="N57" s="18"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="23"/>
+      <c r="N57" s="23"/>
       <c r="AB57" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
       <c r="AC57" s="6"/>
     </row>
-    <row r="58" spans="1:29" ht="16.2" thickBot="1">
+    <row r="58" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>56</v>
       </c>
@@ -41848,16 +41877,16 @@
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="19"/>
-      <c r="N58" s="19"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="24"/>
       <c r="AB58" s="5"/>
       <c r="AC58" s="6"/>
     </row>
-    <row r="59" spans="1:29" ht="16.2" thickBot="1">
+    <row r="59" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>57</v>
       </c>
@@ -41874,7 +41903,7 @@
       <c r="AB59" s="5"/>
       <c r="AC59" s="8"/>
     </row>
-    <row r="60" spans="1:29" ht="16.2" thickBot="1">
+    <row r="60" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>58</v>
       </c>
@@ -41891,7 +41920,7 @@
       <c r="AB60" s="5"/>
       <c r="AC60" s="6"/>
     </row>
-    <row r="61" spans="1:29" ht="16.2" thickBot="1">
+    <row r="61" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>59</v>
       </c>
@@ -41908,7 +41937,7 @@
       <c r="AB61" s="5"/>
       <c r="AC61" s="6"/>
     </row>
-    <row r="62" spans="1:29" ht="16.2" thickBot="1">
+    <row r="62" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>60</v>
       </c>
@@ -41925,7 +41954,7 @@
       <c r="AB62" s="5"/>
       <c r="AC62" s="8"/>
     </row>
-    <row r="63" spans="1:29" ht="16.2" thickBot="1">
+    <row r="63" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>61</v>
       </c>
@@ -41942,7 +41971,7 @@
       <c r="AB63" s="5"/>
       <c r="AC63" s="6"/>
     </row>
-    <row r="64" spans="1:29" ht="16.2" thickBot="1">
+    <row r="64" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>62</v>
       </c>
@@ -41957,7 +41986,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="16.2" thickBot="1">
+    <row r="65" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>63</v>
       </c>
@@ -41972,7 +42001,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="16.2" thickBot="1">
+    <row r="66" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>64</v>
       </c>
@@ -41987,7 +42016,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="16.2" thickBot="1">
+    <row r="67" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>65</v>
       </c>
@@ -42002,7 +42031,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="16.2" thickBot="1">
+    <row r="68" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>66</v>
       </c>
@@ -42017,7 +42046,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="16.2" thickBot="1">
+    <row r="69" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <v>67</v>
       </c>
@@ -42032,7 +42061,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="16.2" thickBot="1">
+    <row r="70" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>68</v>
       </c>
@@ -42047,7 +42076,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="16.2" thickBot="1">
+    <row r="71" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>69</v>
       </c>
@@ -42062,7 +42091,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="16.2" thickBot="1">
+    <row r="72" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>70</v>
       </c>
@@ -42077,7 +42106,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="16.2" thickBot="1">
+    <row r="73" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>71</v>
       </c>
@@ -42092,7 +42121,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="16.2" thickBot="1">
+    <row r="74" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>72</v>
       </c>
@@ -42107,7 +42136,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="16.2" thickBot="1">
+    <row r="75" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <v>73</v>
       </c>
@@ -42122,7 +42151,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="16.2" thickBot="1">
+    <row r="76" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>74</v>
       </c>
@@ -42137,7 +42166,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="16.2" thickBot="1">
+    <row r="77" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>75</v>
       </c>
@@ -42152,7 +42181,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="16.2" thickBot="1">
+    <row r="78" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>76</v>
       </c>
@@ -42167,7 +42196,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="16.2" thickBot="1">
+    <row r="79" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
         <v>77</v>
       </c>
@@ -42182,7 +42211,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="16.2" thickBot="1">
+    <row r="80" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>78</v>
       </c>
@@ -42197,7 +42226,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="16.2" thickBot="1">
+    <row r="81" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <v>79</v>
       </c>
@@ -42212,7 +42241,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="16.2" thickBot="1">
+    <row r="82" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>80</v>
       </c>
@@ -42243,30 +42272,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86401310-AE3F-46D9-BA7D-9008211E0E75}">
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="67" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P9" sqref="P7:P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>36</v>
-      </c>
-      <c r="D1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
       </c>
       <c r="G1" t="s">
         <v>26</v>
@@ -42275,7 +42305,10 @@
         <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>38</v>
       </c>
       <c r="M1" t="s">
         <v>24</v>
@@ -42284,28 +42317,28 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
-      <c r="A2">
-        <f>($P$4-$J$2)/$I$2</f>
-        <v>0.92049676874447606</v>
-      </c>
-      <c r="B2">
-        <f>($P$5-$J$2)/$I$2</f>
-        <v>0.93156594634823664</v>
-      </c>
-      <c r="C2">
-        <f>($P$5-$J$2)/$I$2</f>
-        <v>0.93156594634823664</v>
-      </c>
-      <c r="D2">
-        <f>($P$6-$J$2)/$I$2</f>
-        <v>0.94061012298368263</v>
-      </c>
-      <c r="E2">
-        <f>($P$7-$J$2)/$I$2</f>
-        <v>0.94825686537304998</v>
-      </c>
-      <c r="G2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="21">
+        <f>LN($P$4/K2+1)/I2</f>
+        <v>0.57783361346788653</v>
+      </c>
+      <c r="B2" s="21">
+        <f>LN($P$5/K2+1)/I2</f>
+        <v>0.58890270444303594</v>
+      </c>
+      <c r="C2" s="21">
+        <f>LN($P$6/K2+1)/I2</f>
+        <v>0.59794682332599025</v>
+      </c>
+      <c r="D2" s="20">
+        <f>LN($P$7/K2+1)/I2</f>
+        <v>0.60559352446353687</v>
+      </c>
+      <c r="E2" s="20">
+        <f>LN($P$8/K2+1)/I2</f>
+        <v>0.61221740307494998</v>
+      </c>
+      <c r="G2" s="22">
         <f>60.5+273.15</f>
         <v>333.65</v>
       </c>
@@ -42315,35 +42348,39 @@
       <c r="J2">
         <v>-17.170000000000002</v>
       </c>
+      <c r="K2">
+        <f>EXP(J2)</f>
+        <v>3.4927197962393328E-8</v>
+      </c>
       <c r="M2">
         <v>1.702</v>
       </c>
       <c r="R2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
-      <c r="A3">
-        <f>($P$4-$J$3)/$I$3</f>
-        <v>0.91066617820949514</v>
-      </c>
-      <c r="B3">
-        <f>($P$6-$J$3)/$I$3</f>
-        <v>0.92871653248577901</v>
-      </c>
-      <c r="C3">
-        <f>($P$7-$J$3)/$I$3</f>
-        <v>0.93557895869008201</v>
-      </c>
-      <c r="D3">
-        <f>($P$8-$J$3)/$I$3</f>
-        <v>0.94152346265769638</v>
-      </c>
-      <c r="E3">
-        <f>($C$18-$J$3)/$I$3</f>
-        <v>0.84895160931309266</v>
-      </c>
-      <c r="G3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="21">
+        <f t="shared" ref="A3:A6" si="0">LN($P$4/K3+1)/I3</f>
+        <v>0.60314919592841976</v>
+      </c>
+      <c r="B3" s="21">
+        <f t="shared" ref="B3:B7" si="1">LN($P$5/K3+1)/I3</f>
+        <v>0.61308301109620134</v>
+      </c>
+      <c r="C3" s="21">
+        <f t="shared" ref="C3:C7" si="2">LN($P$6/K3+1)/I3</f>
+        <v>0.62119953082465984</v>
+      </c>
+      <c r="D3" s="20">
+        <f t="shared" ref="D3:D7" si="3">LN($P$7/K3+1)/I3</f>
+        <v>0.62806195149180588</v>
+      </c>
+      <c r="E3" s="20">
+        <f t="shared" ref="E3:E7" si="4">LN($P$8/K3+1)/I3</f>
+        <v>0.6340064513065522</v>
+      </c>
+      <c r="G3" s="22">
         <f>47.7+273.15</f>
         <v>320.84999999999997</v>
       </c>
@@ -42353,47 +42390,48 @@
       <c r="J3">
         <v>-19.07</v>
       </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K7" si="5">EXP(J3)</f>
+        <v>5.2240127725508097E-9</v>
+      </c>
       <c r="M3">
         <v>1.6040000000000001</v>
       </c>
-      <c r="O3" t="s">
-        <v>28</v>
-      </c>
       <c r="P3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="R3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="T3" t="s">
         <v>11</v>
       </c>
       <c r="V3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="17.399999999999999">
-      <c r="A4">
-        <f>($P$4-$J$4)/$I$4</f>
-        <v>0.92337789097613043</v>
-      </c>
-      <c r="B4">
-        <f>($P$5-$J$4)/$I$4</f>
-        <v>0.93299034687835358</v>
-      </c>
-      <c r="C4">
-        <f>($P$6-$J$4)/$I$4</f>
-        <v>0.94084429521961122</v>
-      </c>
-      <c r="D4">
-        <f>($P$7-$J$4)/$I$4</f>
-        <v>0.94748471392501565</v>
-      </c>
-      <c r="E4">
-        <f>($P$8-$J$4)/$I$4</f>
-        <v>0.95323690624966984</v>
-      </c>
-      <c r="G4">
+    <row r="4" spans="1:22" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="21">
+        <f>LN($P$4/K4+1)/I4</f>
+        <v>0.64480655629434747</v>
+      </c>
+      <c r="B4" s="21">
+        <f t="shared" si="1"/>
+        <v>0.65441900947683951</v>
+      </c>
+      <c r="C4" s="21">
+        <f t="shared" si="2"/>
+        <v>0.66227295600494307</v>
+      </c>
+      <c r="D4" s="20">
+        <f t="shared" si="3"/>
+        <v>0.66891337341523727</v>
+      </c>
+      <c r="E4" s="20">
+        <f>LN($P$8/K4+1)/I4</f>
+        <v>0.67466556476855888</v>
+      </c>
+      <c r="G4" s="22">
         <f>25.1+273.15</f>
         <v>298.25</v>
       </c>
@@ -42401,17 +42439,17 @@
         <v>23.213999999999999</v>
       </c>
       <c r="J4">
-        <v>-20.048999999999999</v>
+        <v>-20.49</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="5"/>
+        <v>1.262717111574683E-9</v>
       </c>
       <c r="M4">
         <v>1.6759999999999999</v>
       </c>
-      <c r="O4">
-        <v>4</v>
-      </c>
-      <c r="P4">
-        <f>LN(O4)</f>
-        <v>1.3862943611198906</v>
+      <c r="P4" s="18">
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="T4" s="9">
         <f>1.602176634*10^(-19)</f>
@@ -42422,28 +42460,28 @@
         <v>1.3806503000000004E-23</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
-      <c r="A5">
-        <f>($P$4-$J$5)/$I$5</f>
-        <v>0.94016288974212958</v>
-      </c>
-      <c r="B5">
-        <f>($P$5-$J$5)/$I$5</f>
-        <v>0.9490839928210969</v>
-      </c>
-      <c r="C5">
-        <f>($P$7-$J$5)/$I$5</f>
-        <v>0.96253588730081596</v>
-      </c>
-      <c r="D5">
-        <f>($P$4-$J$5)/$I$5</f>
-        <v>0.94016288974212958</v>
-      </c>
-      <c r="E5">
-        <f>($P$8-$J$5)/$I$5</f>
-        <v>0.96787436699635521</v>
-      </c>
-      <c r="G5">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="21">
+        <f t="shared" si="0"/>
+        <v>0.66399628766534324</v>
+      </c>
+      <c r="B5" s="21">
+        <f t="shared" si="1"/>
+        <v>0.67291739025468134</v>
+      </c>
+      <c r="C5" s="21">
+        <f t="shared" si="2"/>
+        <v>0.68020646188260381</v>
+      </c>
+      <c r="D5" s="20">
+        <f t="shared" si="3"/>
+        <v>0.68636928417482412</v>
+      </c>
+      <c r="E5" s="20">
+        <f>LN($P$8/K5+1)/I5</f>
+        <v>0.6917077636954958</v>
+      </c>
+      <c r="G5" s="22">
         <f>15.9+273.15</f>
         <v>289.04999999999995</v>
       </c>
@@ -42453,39 +42491,39 @@
       <c r="J5">
         <v>-22.13</v>
       </c>
+      <c r="K5">
+        <f t="shared" si="5"/>
+        <v>2.4494191870468971E-10</v>
+      </c>
       <c r="M5">
         <v>1.6040000000000001</v>
       </c>
-      <c r="O5">
-        <v>5</v>
-      </c>
-      <c r="P5">
-        <f>LN(O5)</f>
-        <v>1.6094379124341003</v>
+      <c r="P5" s="18">
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
-      <c r="A6">
-        <f>(P4-$J$6)/$I$6</f>
-        <v>0.96054622299964998</v>
-      </c>
-      <c r="B6">
-        <f>(P5-$J$6)/$I$6</f>
-        <v>0.96912108182892442</v>
-      </c>
-      <c r="C6">
-        <f>(P6-$J$6)/$I$6</f>
-        <v>0.97612725163232739</v>
-      </c>
-      <c r="D6">
-        <f>(P7-$J$6)/$I$6</f>
-        <v>0.98205088379722982</v>
-      </c>
-      <c r="E6">
-        <f>(P8-$J$6)/$I$6</f>
-        <v>0.98718216737808229</v>
-      </c>
-      <c r="G6">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="21">
+        <f t="shared" si="0"/>
+        <v>0.69509814764159616</v>
+      </c>
+      <c r="B6" s="21">
+        <f t="shared" si="1"/>
+        <v>0.70367300636373842</v>
+      </c>
+      <c r="C6" s="21">
+        <f t="shared" si="2"/>
+        <v>0.71067917609571996</v>
+      </c>
+      <c r="D6" s="20">
+        <f t="shared" si="3"/>
+        <v>0.7166028082096072</v>
+      </c>
+      <c r="E6" s="20">
+        <f t="shared" si="4"/>
+        <v>0.72173409175219805</v>
+      </c>
+      <c r="G6" s="22">
         <f>-0.6+273.15</f>
         <v>272.54999999999995</v>
       </c>
@@ -42495,39 +42533,39 @@
       <c r="J6">
         <v>-23.61</v>
       </c>
+      <c r="K6">
+        <f t="shared" si="5"/>
+        <v>5.5758012162231333E-11</v>
+      </c>
       <c r="M6">
         <v>1.637</v>
       </c>
-      <c r="O6">
-        <v>6</v>
-      </c>
-      <c r="P6">
-        <f>LN(O6)</f>
-        <v>1.791759469228055</v>
+      <c r="P6" s="18">
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
-      <c r="A7">
-        <f>($P$4-$J$7)/$I$7</f>
-        <v>1.1277180816143892</v>
-      </c>
-      <c r="B7">
-        <f>($P5-$J$7)/$I$7</f>
-        <v>1.1303762929588912</v>
-      </c>
-      <c r="C7">
-        <f>($P$6-$J$7)/$I$7</f>
-        <v>1.1325482097710176</v>
-      </c>
-      <c r="D7">
-        <f>($P$7-$J$7)/$I$7</f>
-        <v>1.1343845392704188</v>
-      </c>
-      <c r="E7">
-        <f>($P$8-$J$7)/$I$7</f>
-        <v>1.1359752402368199</v>
-      </c>
-      <c r="G7">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="21">
+        <f>LN($P$4/K7+1)/I7</f>
+        <v>1.0454290199790073</v>
+      </c>
+      <c r="B7" s="21">
+        <f t="shared" si="1"/>
+        <v>1.0480872313235092</v>
+      </c>
+      <c r="C7" s="21">
+        <f t="shared" si="2"/>
+        <v>1.0502591481356356</v>
+      </c>
+      <c r="D7" s="20">
+        <f t="shared" si="3"/>
+        <v>1.0520954776350371</v>
+      </c>
+      <c r="E7" s="20">
+        <f t="shared" si="4"/>
+        <v>1.053686178601438</v>
+      </c>
+      <c r="G7" s="22">
         <v>77.2</v>
       </c>
       <c r="I7">
@@ -42536,25 +42574,313 @@
       <c r="J7">
         <v>-93.28</v>
       </c>
+      <c r="K7">
+        <f t="shared" si="5"/>
+        <v>3.0832641129675857E-41</v>
+      </c>
       <c r="M7">
         <v>1.7909999999999999</v>
       </c>
-      <c r="O7">
-        <v>7</v>
-      </c>
-      <c r="P7">
-        <f>LN(O7)</f>
-        <v>1.9459101490553132</v>
+      <c r="P7" s="18">
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
-      <c r="O8">
-        <v>8</v>
-      </c>
-      <c r="P8">
-        <f>LN(O8)</f>
-        <v>2.0794415416798357</v>
-      </c>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="P8" s="18">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56093DD2-37EC-2948-87AD-2776D461F2EA}">
+  <dimension ref="A1:V9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="21">
+        <f>LN($P$4/K2+1)/I2</f>
+        <v>0.57783361346788653</v>
+      </c>
+      <c r="B2" s="21">
+        <f>LN($P$5/K2+1)/I2</f>
+        <v>0.58890270444303594</v>
+      </c>
+      <c r="C2" s="21">
+        <f>LN($P$6/K2+1)/I2</f>
+        <v>0.59794682332599025</v>
+      </c>
+      <c r="D2" s="20">
+        <f>LN($P$7/K2+1)/I2</f>
+        <v>0.60559352446353687</v>
+      </c>
+      <c r="E2" s="20">
+        <f>LN($P$8/K2+1)/I2</f>
+        <v>0.61221740307494998</v>
+      </c>
+      <c r="G2" s="22">
+        <f>60.5+273.15</f>
+        <v>333.65</v>
+      </c>
+      <c r="I2">
+        <v>20.158999999999999</v>
+      </c>
+      <c r="J2">
+        <v>-17.170000000000002</v>
+      </c>
+      <c r="K2">
+        <f>EXP(J2)</f>
+        <v>3.4927197962393328E-8</v>
+      </c>
+      <c r="M2">
+        <v>1.702</v>
+      </c>
+      <c r="R2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="21">
+        <f t="shared" ref="A3:A6" si="0">LN($P$4/K3+1)/I3</f>
+        <v>0.60314919592841976</v>
+      </c>
+      <c r="B3" s="21">
+        <f t="shared" ref="B3:B6" si="1">LN($P$5/K3+1)/I3</f>
+        <v>0.61308301109620134</v>
+      </c>
+      <c r="C3" s="21">
+        <f t="shared" ref="C3:C6" si="2">LN($P$6/K3+1)/I3</f>
+        <v>0.62119953082465984</v>
+      </c>
+      <c r="D3" s="20">
+        <f t="shared" ref="D3:D6" si="3">LN($P$7/K3+1)/I3</f>
+        <v>0.62806195149180588</v>
+      </c>
+      <c r="E3" s="20">
+        <f t="shared" ref="E3:E6" si="4">LN($P$8/K3+1)/I3</f>
+        <v>0.6340064513065522</v>
+      </c>
+      <c r="G3" s="22">
+        <f>47.7+273.15</f>
+        <v>320.84999999999997</v>
+      </c>
+      <c r="I3">
+        <v>22.463000000000001</v>
+      </c>
+      <c r="J3">
+        <v>-19.07</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K6" si="5">EXP(J3)</f>
+        <v>5.2240127725508097E-9</v>
+      </c>
+      <c r="M3">
+        <v>1.6040000000000001</v>
+      </c>
+      <c r="P3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="21">
+        <f>LN($P$4/K4+1)/I4</f>
+        <v>0.64480655629434747</v>
+      </c>
+      <c r="B4" s="21">
+        <f t="shared" si="1"/>
+        <v>0.65441900947683951</v>
+      </c>
+      <c r="C4" s="21">
+        <f t="shared" si="2"/>
+        <v>0.66227295600494307</v>
+      </c>
+      <c r="D4" s="20">
+        <f t="shared" si="3"/>
+        <v>0.66891337341523727</v>
+      </c>
+      <c r="E4" s="20">
+        <f>LN($P$8/K4+1)/I4</f>
+        <v>0.67466556476855888</v>
+      </c>
+      <c r="G4" s="22">
+        <f>25.1+273.15</f>
+        <v>298.25</v>
+      </c>
+      <c r="I4">
+        <v>23.213999999999999</v>
+      </c>
+      <c r="J4">
+        <v>-20.49</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="5"/>
+        <v>1.262717111574683E-9</v>
+      </c>
+      <c r="M4">
+        <v>1.6759999999999999</v>
+      </c>
+      <c r="P4" s="18">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="T4" s="9">
+        <f>1.602176634*10^(-19)</f>
+        <v>1.6021766340000001E-19</v>
+      </c>
+      <c r="V4" s="11">
+        <f>1.3806503*10^(-23)</f>
+        <v>1.3806503000000004E-23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="21">
+        <f t="shared" si="0"/>
+        <v>0.66399628766534324</v>
+      </c>
+      <c r="B5" s="21">
+        <f t="shared" si="1"/>
+        <v>0.67291739025468134</v>
+      </c>
+      <c r="C5" s="21">
+        <f t="shared" si="2"/>
+        <v>0.68020646188260381</v>
+      </c>
+      <c r="D5" s="20">
+        <f t="shared" si="3"/>
+        <v>0.68636928417482412</v>
+      </c>
+      <c r="E5" s="20">
+        <f>LN($P$8/K5+1)/I5</f>
+        <v>0.6917077636954958</v>
+      </c>
+      <c r="G5" s="22">
+        <f>15.9+273.15</f>
+        <v>289.04999999999995</v>
+      </c>
+      <c r="I5">
+        <v>25.013000000000002</v>
+      </c>
+      <c r="J5">
+        <v>-22.13</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="5"/>
+        <v>2.4494191870468971E-10</v>
+      </c>
+      <c r="M5">
+        <v>1.6040000000000001</v>
+      </c>
+      <c r="P5" s="18">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="21">
+        <f t="shared" si="0"/>
+        <v>0.69509814764159616</v>
+      </c>
+      <c r="B6" s="21">
+        <f t="shared" si="1"/>
+        <v>0.70367300636373842</v>
+      </c>
+      <c r="C6" s="21">
+        <f t="shared" si="2"/>
+        <v>0.71067917609571996</v>
+      </c>
+      <c r="D6" s="20">
+        <f t="shared" si="3"/>
+        <v>0.7166028082096072</v>
+      </c>
+      <c r="E6" s="20">
+        <f t="shared" si="4"/>
+        <v>0.72173409175219805</v>
+      </c>
+      <c r="G6" s="22">
+        <f>-0.6+273.15</f>
+        <v>272.54999999999995</v>
+      </c>
+      <c r="I6">
+        <v>26.023</v>
+      </c>
+      <c r="J6">
+        <v>-23.61</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="5"/>
+        <v>5.5758012162231333E-11</v>
+      </c>
+      <c r="M6">
+        <v>1.637</v>
+      </c>
+      <c r="P6" s="18">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="P7" s="18">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="P8" s="18">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="P9" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/relazioni/esperienza_2/codici/Esperienza_2.xlsx
+++ b/relazioni/esperienza_2/codici/Esperienza_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\UNIVERSITA'\II ANNO\LABORATORIO-DI-ELETTROMAGNETISMO\relazioni\esperienza_2\codici\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348DA382-7920-40FC-82D6-DDDE02160B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3E655D-04B3-44F1-813E-BFCAAE8D66DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="5" activeTab="7" xr2:uid="{9832D23C-5E2D-EB46-85A1-EE46353BB05C}"/>
   </bookViews>
@@ -42243,8 +42243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86401310-AE3F-46D9-BA7D-9008211E0E75}">
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="67" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="67" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -42558,6 +42558,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/relazioni/esperienza_2/codici/Esperienza_2.xlsx
+++ b/relazioni/esperienza_2/codici/Esperienza_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\UNIVERSITA'\II ANNO\LABORATORIO-DI-ELETTROMAGNETISMO\relazioni\esperienza_2\codici\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessiobrusini/Desktop/LABORATORIO-DI-ELETTROMAGNETISMO/relazioni/esperienza_2/codici/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3E655D-04B3-44F1-813E-BFCAAE8D66DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8307B01A-45D6-024D-8F05-099003716C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="5" activeTab="7" xr2:uid="{9832D23C-5E2D-EB46-85A1-EE46353BB05C}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" activeTab="8" xr2:uid="{9832D23C-5E2D-EB46-85A1-EE46353BB05C}"/>
   </bookViews>
   <sheets>
     <sheet name="Temp_1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Temp_6" sheetId="7" r:id="rId6"/>
     <sheet name="Pol_inv" sheetId="6" r:id="rId7"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="39">
   <si>
     <t>n.</t>
   </si>
@@ -142,12 +143,6 @@
     <t>x=qV/kTn</t>
   </si>
   <si>
-    <t>I scelta</t>
-  </si>
-  <si>
-    <t>ln (I scelta)</t>
-  </si>
-  <si>
     <t>q</t>
   </si>
   <si>
@@ -174,12 +169,22 @@
   <si>
     <t>V5</t>
   </si>
+  <si>
+    <t>I_scelta(A)</t>
+  </si>
+  <si>
+    <t>I_0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -241,8 +246,15 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,6 +282,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -382,6 +400,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -390,7 +419,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -451,7 +480,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1234,7 +1263,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1733,7 +1762,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2464,7 +2493,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2878,7 +2907,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3387,7 +3416,7 @@
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4199,7 +4228,7 @@
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4673,7 +4702,7 @@
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5214,7 +5243,7 @@
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5769,7 +5798,7 @@
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6177,7 +6206,7 @@
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6741,7 +6770,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7430,7 +7459,7 @@
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7955,7 +7984,7 @@
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8447,7 +8476,7 @@
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8831,7 +8860,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9522,7 +9551,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10176,7 +10205,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10803,7 +10832,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11283,7 +11312,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11813,7 +11842,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12392,7 +12421,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -32231,15 +32260,15 @@
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="11.19921875" customWidth="1"/>
+    <col min="1" max="4" width="11.1640625" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.19921875" customWidth="1"/>
-    <col min="28" max="29" width="11.19921875" customWidth="1"/>
+    <col min="13" max="13" width="11.1640625" customWidth="1"/>
+    <col min="28" max="29" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16.2" thickBot="1">
+    <row r="1" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -32277,7 +32306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="16.2" thickBot="1">
+    <row r="2" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -32317,7 +32346,7 @@
       </c>
       <c r="AC2" s="6"/>
     </row>
-    <row r="3" spans="1:29" ht="16.2" thickBot="1">
+    <row r="3" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -32357,7 +32386,7 @@
       </c>
       <c r="AC3" s="8"/>
     </row>
-    <row r="4" spans="1:29" ht="16.2" thickBot="1">
+    <row r="4" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -32397,7 +32426,7 @@
       </c>
       <c r="AC4" s="6"/>
     </row>
-    <row r="5" spans="1:29" ht="16.2" thickBot="1">
+    <row r="5" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -32437,7 +32466,7 @@
       </c>
       <c r="AC5" s="8"/>
     </row>
-    <row r="6" spans="1:29" ht="16.2" thickBot="1">
+    <row r="6" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -32477,7 +32506,7 @@
       </c>
       <c r="AC6" s="6"/>
     </row>
-    <row r="7" spans="1:29" ht="16.2" thickBot="1">
+    <row r="7" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -32517,7 +32546,7 @@
       </c>
       <c r="AC7" s="8"/>
     </row>
-    <row r="8" spans="1:29" ht="16.2" thickBot="1">
+    <row r="8" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -32557,7 +32586,7 @@
       </c>
       <c r="AC8" s="6"/>
     </row>
-    <row r="9" spans="1:29" ht="16.2" thickBot="1">
+    <row r="9" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -32597,7 +32626,7 @@
       </c>
       <c r="AC9" s="8"/>
     </row>
-    <row r="10" spans="1:29" ht="16.2" thickBot="1">
+    <row r="10" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -32637,7 +32666,7 @@
       </c>
       <c r="AC10" s="6"/>
     </row>
-    <row r="11" spans="1:29" ht="16.2" thickBot="1">
+    <row r="11" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -32677,7 +32706,7 @@
       </c>
       <c r="AC11" s="8"/>
     </row>
-    <row r="12" spans="1:29" ht="16.2" thickBot="1">
+    <row r="12" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -32717,7 +32746,7 @@
       </c>
       <c r="AC12" s="6"/>
     </row>
-    <row r="13" spans="1:29" ht="16.2" thickBot="1">
+    <row r="13" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -32757,7 +32786,7 @@
       </c>
       <c r="AC13" s="8"/>
     </row>
-    <row r="14" spans="1:29" ht="16.2" thickBot="1">
+    <row r="14" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -32797,7 +32826,7 @@
       </c>
       <c r="AC14" s="6"/>
     </row>
-    <row r="15" spans="1:29" ht="16.2" thickBot="1">
+    <row r="15" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -32837,7 +32866,7 @@
       </c>
       <c r="AC15" s="8"/>
     </row>
-    <row r="16" spans="1:29" ht="16.2" thickBot="1">
+    <row r="16" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -32880,7 +32909,7 @@
       </c>
       <c r="AC16" s="6"/>
     </row>
-    <row r="17" spans="1:29" ht="18" thickBot="1">
+    <row r="17" spans="1:29" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -32924,7 +32953,7 @@
       </c>
       <c r="AC17" s="8"/>
     </row>
-    <row r="18" spans="1:29" ht="16.2" thickBot="1">
+    <row r="18" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -32964,7 +32993,7 @@
       </c>
       <c r="AC18" s="6"/>
     </row>
-    <row r="19" spans="1:29" ht="16.2" thickBot="1">
+    <row r="19" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -33007,7 +33036,7 @@
       </c>
       <c r="AC19" s="8"/>
     </row>
-    <row r="20" spans="1:29" ht="17.399999999999999" thickBot="1">
+    <row r="20" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -33051,7 +33080,7 @@
       </c>
       <c r="AC20" s="6"/>
     </row>
-    <row r="21" spans="1:29" ht="18" thickBot="1">
+    <row r="21" spans="1:29" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -33092,7 +33121,7 @@
       </c>
       <c r="AC21" s="8"/>
     </row>
-    <row r="22" spans="1:29" ht="21" thickBot="1">
+    <row r="22" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -33135,7 +33164,7 @@
       </c>
       <c r="AC22" s="6"/>
     </row>
-    <row r="23" spans="1:29" ht="16.2" thickBot="1">
+    <row r="23" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -33178,7 +33207,7 @@
       </c>
       <c r="AC23" s="8"/>
     </row>
-    <row r="24" spans="1:29" ht="16.2" thickBot="1">
+    <row r="24" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -33218,7 +33247,7 @@
       </c>
       <c r="AC24" s="6"/>
     </row>
-    <row r="25" spans="1:29" ht="16.2" thickBot="1">
+    <row r="25" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -33258,7 +33287,7 @@
       </c>
       <c r="AC25" s="8"/>
     </row>
-    <row r="26" spans="1:29" ht="16.2" thickBot="1">
+    <row r="26" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -33298,7 +33327,7 @@
       </c>
       <c r="AC26" s="6"/>
     </row>
-    <row r="27" spans="1:29" ht="16.2" thickBot="1">
+    <row r="27" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>25</v>
       </c>
@@ -33338,7 +33367,7 @@
       </c>
       <c r="AC27" s="8"/>
     </row>
-    <row r="28" spans="1:29" ht="16.2" thickBot="1">
+    <row r="28" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -33378,7 +33407,7 @@
       </c>
       <c r="AC28" s="6"/>
     </row>
-    <row r="29" spans="1:29" ht="16.2" thickBot="1">
+    <row r="29" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>27</v>
       </c>
@@ -33418,7 +33447,7 @@
       </c>
       <c r="AC29" s="8"/>
     </row>
-    <row r="30" spans="1:29" ht="16.2" thickBot="1">
+    <row r="30" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -33458,7 +33487,7 @@
       </c>
       <c r="AC30" s="6"/>
     </row>
-    <row r="31" spans="1:29" ht="16.2" thickBot="1">
+    <row r="31" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>29</v>
       </c>
@@ -33498,7 +33527,7 @@
       </c>
       <c r="AC31" s="6"/>
     </row>
-    <row r="32" spans="1:29" ht="16.2" thickBot="1">
+    <row r="32" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>30</v>
       </c>
@@ -33538,7 +33567,7 @@
       </c>
       <c r="AC32" s="8"/>
     </row>
-    <row r="33" spans="1:29" ht="16.2" thickBot="1">
+    <row r="33" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>31</v>
       </c>
@@ -33578,7 +33607,7 @@
       </c>
       <c r="AC33" s="6"/>
     </row>
-    <row r="34" spans="1:29" ht="16.2" thickBot="1">
+    <row r="34" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>32</v>
       </c>
@@ -33618,7 +33647,7 @@
       </c>
       <c r="AC34" s="6"/>
     </row>
-    <row r="35" spans="1:29" ht="16.2" thickBot="1">
+    <row r="35" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>33</v>
       </c>
@@ -33658,7 +33687,7 @@
       </c>
       <c r="AC35" s="8"/>
     </row>
-    <row r="36" spans="1:29" ht="16.2" thickBot="1">
+    <row r="36" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>34</v>
       </c>
@@ -33698,7 +33727,7 @@
       </c>
       <c r="AC36" s="6"/>
     </row>
-    <row r="37" spans="1:29" ht="16.2" thickBot="1">
+    <row r="37" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>35</v>
       </c>
@@ -33738,7 +33767,7 @@
       </c>
       <c r="AC37" s="6"/>
     </row>
-    <row r="38" spans="1:29" ht="16.2" thickBot="1">
+    <row r="38" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>36</v>
       </c>
@@ -33778,7 +33807,7 @@
       </c>
       <c r="AC38" s="8"/>
     </row>
-    <row r="39" spans="1:29" ht="16.2" thickBot="1">
+    <row r="39" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>37</v>
       </c>
@@ -33818,7 +33847,7 @@
       </c>
       <c r="AC39" s="6"/>
     </row>
-    <row r="40" spans="1:29" ht="16.2" thickBot="1">
+    <row r="40" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>38</v>
       </c>
@@ -33858,7 +33887,7 @@
       </c>
       <c r="AC40" s="6"/>
     </row>
-    <row r="41" spans="1:29" ht="16.2" thickBot="1">
+    <row r="41" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>39</v>
       </c>
@@ -33898,7 +33927,7 @@
       </c>
       <c r="AC41" s="8"/>
     </row>
-    <row r="42" spans="1:29" ht="16.2" thickBot="1">
+    <row r="42" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>40</v>
       </c>
@@ -33938,7 +33967,7 @@
       </c>
       <c r="AC42" s="6"/>
     </row>
-    <row r="43" spans="1:29" ht="16.2" thickBot="1">
+    <row r="43" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>41</v>
       </c>
@@ -33978,7 +34007,7 @@
       </c>
       <c r="AC43" s="6"/>
     </row>
-    <row r="44" spans="1:29" ht="16.2" thickBot="1">
+    <row r="44" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>42</v>
       </c>
@@ -34018,7 +34047,7 @@
       </c>
       <c r="AC44" s="8"/>
     </row>
-    <row r="45" spans="1:29" ht="16.2" thickBot="1">
+    <row r="45" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>43</v>
       </c>
@@ -34058,7 +34087,7 @@
       </c>
       <c r="AC45" s="6"/>
     </row>
-    <row r="46" spans="1:29" ht="16.2" thickBot="1">
+    <row r="46" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>44</v>
       </c>
@@ -34098,7 +34127,7 @@
       </c>
       <c r="AC46" s="6"/>
     </row>
-    <row r="47" spans="1:29" ht="16.2" thickBot="1">
+    <row r="47" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>45</v>
       </c>
@@ -34138,7 +34167,7 @@
       </c>
       <c r="AC47" s="8"/>
     </row>
-    <row r="48" spans="1:29" ht="16.2" thickBot="1">
+    <row r="48" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>46</v>
       </c>
@@ -34178,7 +34207,7 @@
       </c>
       <c r="AC48" s="6"/>
     </row>
-    <row r="49" spans="1:29" ht="16.2" thickBot="1">
+    <row r="49" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>47</v>
       </c>
@@ -34218,7 +34247,7 @@
       </c>
       <c r="AC49" s="6"/>
     </row>
-    <row r="50" spans="1:29" ht="16.2" thickBot="1">
+    <row r="50" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>48</v>
       </c>
@@ -34258,7 +34287,7 @@
       </c>
       <c r="AC50" s="8"/>
     </row>
-    <row r="51" spans="1:29" ht="16.2" thickBot="1">
+    <row r="51" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>49</v>
       </c>
@@ -34298,7 +34327,7 @@
       </c>
       <c r="AC51" s="6"/>
     </row>
-    <row r="52" spans="1:29" ht="16.2" thickBot="1">
+    <row r="52" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>50</v>
       </c>
@@ -34338,7 +34367,7 @@
       </c>
       <c r="AC52" s="6"/>
     </row>
-    <row r="53" spans="1:29" ht="16.2" thickBot="1">
+    <row r="53" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>51</v>
       </c>
@@ -34378,7 +34407,7 @@
       </c>
       <c r="AC53" s="8"/>
     </row>
-    <row r="54" spans="1:29" ht="16.2" thickBot="1">
+    <row r="54" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>52</v>
       </c>
@@ -34418,7 +34447,7 @@
       </c>
       <c r="AC54" s="6"/>
     </row>
-    <row r="55" spans="1:29" ht="16.2" thickBot="1">
+    <row r="55" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>53</v>
       </c>
@@ -34458,7 +34487,7 @@
       </c>
       <c r="AC55" s="6"/>
     </row>
-    <row r="56" spans="1:29" ht="16.2" thickBot="1">
+    <row r="56" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>54</v>
       </c>
@@ -34498,7 +34527,7 @@
       </c>
       <c r="AC56" s="8"/>
     </row>
-    <row r="57" spans="1:29" ht="16.2" thickBot="1">
+    <row r="57" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>55</v>
       </c>
@@ -34538,7 +34567,7 @@
       </c>
       <c r="AC57" s="6"/>
     </row>
-    <row r="58" spans="1:29">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>56</v>
       </c>
@@ -34567,37 +34596,37 @@
       <c r="AB58" s="5"/>
       <c r="AC58" s="6"/>
     </row>
-    <row r="59" spans="1:29" ht="16.2" thickBot="1">
+    <row r="59" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AB59" s="5"/>
       <c r="AC59" s="8"/>
     </row>
-    <row r="60" spans="1:29">
-      <c r="B60" s="18" t="s">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B60" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
       <c r="AB60" s="5"/>
       <c r="AC60" s="6"/>
     </row>
-    <row r="61" spans="1:29">
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
       <c r="AB61" s="5"/>
       <c r="AC61" s="6"/>
     </row>
-    <row r="62" spans="1:29">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
       <c r="AB62" s="5"/>
       <c r="AC62" s="8"/>
     </row>
-    <row r="63" spans="1:29">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
       <c r="AB63" s="5"/>
       <c r="AC63" s="6"/>
     </row>
@@ -34618,19 +34647,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64FDFDC-13B1-AB4C-B1C3-7FF9E2CAD166}">
   <dimension ref="A1:AC35"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="11.19921875" customWidth="1"/>
+    <col min="1" max="4" width="11.1640625" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.19921875" customWidth="1"/>
-    <col min="28" max="29" width="11.19921875" customWidth="1"/>
+    <col min="13" max="13" width="11.1640625" customWidth="1"/>
+    <col min="28" max="29" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16.2" thickBot="1">
+    <row r="1" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -34668,7 +34697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="16.2" thickBot="1">
+    <row r="2" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -34708,7 +34737,7 @@
       </c>
       <c r="AC2" s="6"/>
     </row>
-    <row r="3" spans="1:29" ht="16.2" thickBot="1">
+    <row r="3" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -34748,7 +34777,7 @@
       </c>
       <c r="AC3" s="8"/>
     </row>
-    <row r="4" spans="1:29" ht="16.2" thickBot="1">
+    <row r="4" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -34788,7 +34817,7 @@
       </c>
       <c r="AC4" s="6"/>
     </row>
-    <row r="5" spans="1:29" ht="16.2" thickBot="1">
+    <row r="5" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -34828,7 +34857,7 @@
       </c>
       <c r="AC5" s="8"/>
     </row>
-    <row r="6" spans="1:29" ht="16.2" thickBot="1">
+    <row r="6" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -34868,7 +34897,7 @@
       </c>
       <c r="AC6" s="6"/>
     </row>
-    <row r="7" spans="1:29" ht="16.2" thickBot="1">
+    <row r="7" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -34908,7 +34937,7 @@
       </c>
       <c r="AC7" s="8"/>
     </row>
-    <row r="8" spans="1:29" ht="16.2" thickBot="1">
+    <row r="8" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -34948,7 +34977,7 @@
       </c>
       <c r="AC8" s="6"/>
     </row>
-    <row r="9" spans="1:29" ht="16.2" thickBot="1">
+    <row r="9" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -34988,7 +35017,7 @@
       </c>
       <c r="AC9" s="8"/>
     </row>
-    <row r="10" spans="1:29" ht="16.2" thickBot="1">
+    <row r="10" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -35028,7 +35057,7 @@
       </c>
       <c r="AC10" s="6"/>
     </row>
-    <row r="11" spans="1:29" ht="16.2" thickBot="1">
+    <row r="11" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -35068,7 +35097,7 @@
       </c>
       <c r="AC11" s="8"/>
     </row>
-    <row r="12" spans="1:29" ht="16.2" thickBot="1">
+    <row r="12" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -35108,7 +35137,7 @@
       </c>
       <c r="AC12" s="6"/>
     </row>
-    <row r="13" spans="1:29" ht="16.2" thickBot="1">
+    <row r="13" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -35148,7 +35177,7 @@
       </c>
       <c r="AC13" s="8"/>
     </row>
-    <row r="14" spans="1:29" ht="16.2" thickBot="1">
+    <row r="14" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -35188,7 +35217,7 @@
       </c>
       <c r="AC14" s="6"/>
     </row>
-    <row r="15" spans="1:29" ht="16.2" thickBot="1">
+    <row r="15" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -35228,7 +35257,7 @@
       </c>
       <c r="AC15" s="8"/>
     </row>
-    <row r="16" spans="1:29" ht="16.2" thickBot="1">
+    <row r="16" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -35271,7 +35300,7 @@
       </c>
       <c r="AC16" s="6"/>
     </row>
-    <row r="17" spans="1:29" ht="18" thickBot="1">
+    <row r="17" spans="1:29" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -35315,7 +35344,7 @@
       </c>
       <c r="AC17" s="8"/>
     </row>
-    <row r="18" spans="1:29" ht="16.2" thickBot="1">
+    <row r="18" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -35355,7 +35384,7 @@
       </c>
       <c r="AC18" s="6"/>
     </row>
-    <row r="19" spans="1:29" ht="16.2" thickBot="1">
+    <row r="19" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -35398,7 +35427,7 @@
       </c>
       <c r="AC19" s="8"/>
     </row>
-    <row r="20" spans="1:29" ht="17.399999999999999" thickBot="1">
+    <row r="20" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -35442,7 +35471,7 @@
       </c>
       <c r="AC20" s="6"/>
     </row>
-    <row r="21" spans="1:29" ht="18" thickBot="1">
+    <row r="21" spans="1:29" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -35483,7 +35512,7 @@
       </c>
       <c r="AC21" s="8"/>
     </row>
-    <row r="22" spans="1:29" ht="21" thickBot="1">
+    <row r="22" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -35526,7 +35555,7 @@
       </c>
       <c r="AC22" s="6"/>
     </row>
-    <row r="23" spans="1:29" ht="16.2" thickBot="1">
+    <row r="23" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -35569,7 +35598,7 @@
       </c>
       <c r="AC23" s="8"/>
     </row>
-    <row r="24" spans="1:29" ht="16.2" thickBot="1">
+    <row r="24" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -35609,7 +35638,7 @@
       </c>
       <c r="AC24" s="6"/>
     </row>
-    <row r="25" spans="1:29" ht="16.2" thickBot="1">
+    <row r="25" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -35649,7 +35678,7 @@
       </c>
       <c r="AC25" s="8"/>
     </row>
-    <row r="26" spans="1:29" ht="16.2" thickBot="1">
+    <row r="26" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -35689,7 +35718,7 @@
       </c>
       <c r="AC26" s="6"/>
     </row>
-    <row r="27" spans="1:29" ht="16.2" thickBot="1">
+    <row r="27" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>25</v>
       </c>
@@ -35729,7 +35758,7 @@
       </c>
       <c r="AC27" s="8"/>
     </row>
-    <row r="28" spans="1:29" ht="16.2" thickBot="1">
+    <row r="28" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -35769,7 +35798,7 @@
       </c>
       <c r="AC28" s="6"/>
     </row>
-    <row r="29" spans="1:29" ht="16.2" thickBot="1">
+    <row r="29" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>27</v>
       </c>
@@ -35809,7 +35838,7 @@
       </c>
       <c r="AC29" s="8"/>
     </row>
-    <row r="30" spans="1:29" ht="16.2" thickBot="1">
+    <row r="30" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -35849,7 +35878,7 @@
       </c>
       <c r="AC30" s="6"/>
     </row>
-    <row r="31" spans="1:29" ht="16.2" thickBot="1">
+    <row r="31" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>29</v>
       </c>
@@ -35889,7 +35918,7 @@
       </c>
       <c r="AC31" s="6"/>
     </row>
-    <row r="32" spans="1:29" ht="16.2" thickBot="1">
+    <row r="32" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>30</v>
       </c>
@@ -35916,24 +35945,24 @@
         <v>11.240110077866133</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="16.2" thickBot="1"/>
-    <row r="34" spans="2:7">
-      <c r="B34" s="18" t="s">
+    <row r="33" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B34" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
     </row>
-    <row r="35" spans="2:7">
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -35952,18 +35981,18 @@
   <dimension ref="A1:AC58"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="11.19921875" customWidth="1"/>
+    <col min="1" max="4" width="11.1640625" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.19921875" customWidth="1"/>
-    <col min="28" max="29" width="11.19921875" customWidth="1"/>
+    <col min="13" max="13" width="11.1640625" customWidth="1"/>
+    <col min="28" max="29" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16.2" thickBot="1">
+    <row r="1" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -36001,7 +36030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="16.2" thickBot="1">
+    <row r="2" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -36042,7 +36071,7 @@
       </c>
       <c r="AC2" s="6"/>
     </row>
-    <row r="3" spans="1:29" ht="16.2" thickBot="1">
+    <row r="3" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -36082,7 +36111,7 @@
       </c>
       <c r="AC3" s="8"/>
     </row>
-    <row r="4" spans="1:29" ht="16.2" thickBot="1">
+    <row r="4" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -36122,7 +36151,7 @@
       </c>
       <c r="AC4" s="6"/>
     </row>
-    <row r="5" spans="1:29" ht="16.2" thickBot="1">
+    <row r="5" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -36162,7 +36191,7 @@
       </c>
       <c r="AC5" s="8"/>
     </row>
-    <row r="6" spans="1:29" ht="16.2" thickBot="1">
+    <row r="6" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -36202,7 +36231,7 @@
       </c>
       <c r="AC6" s="6"/>
     </row>
-    <row r="7" spans="1:29" ht="16.2" thickBot="1">
+    <row r="7" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -36242,7 +36271,7 @@
       </c>
       <c r="AC7" s="8"/>
     </row>
-    <row r="8" spans="1:29" ht="16.2" thickBot="1">
+    <row r="8" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -36282,7 +36311,7 @@
       </c>
       <c r="AC8" s="6"/>
     </row>
-    <row r="9" spans="1:29" ht="16.2" thickBot="1">
+    <row r="9" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -36322,7 +36351,7 @@
       </c>
       <c r="AC9" s="8"/>
     </row>
-    <row r="10" spans="1:29" ht="16.2" thickBot="1">
+    <row r="10" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -36362,7 +36391,7 @@
       </c>
       <c r="AC10" s="6"/>
     </row>
-    <row r="11" spans="1:29" ht="16.2" thickBot="1">
+    <row r="11" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -36402,7 +36431,7 @@
       </c>
       <c r="AC11" s="8"/>
     </row>
-    <row r="12" spans="1:29" ht="16.2" thickBot="1">
+    <row r="12" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -36442,7 +36471,7 @@
       </c>
       <c r="AC12" s="6"/>
     </row>
-    <row r="13" spans="1:29" ht="16.2" thickBot="1">
+    <row r="13" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -36482,7 +36511,7 @@
       </c>
       <c r="AC13" s="8"/>
     </row>
-    <row r="14" spans="1:29" ht="16.2" thickBot="1">
+    <row r="14" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -36522,7 +36551,7 @@
       </c>
       <c r="AC14" s="6"/>
     </row>
-    <row r="15" spans="1:29" ht="16.2" thickBot="1">
+    <row r="15" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -36562,7 +36591,7 @@
       </c>
       <c r="AC15" s="8"/>
     </row>
-    <row r="16" spans="1:29" ht="16.2" thickBot="1">
+    <row r="16" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -36605,7 +36634,7 @@
       </c>
       <c r="AC16" s="6"/>
     </row>
-    <row r="17" spans="1:29" ht="18" thickBot="1">
+    <row r="17" spans="1:29" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -36649,7 +36678,7 @@
       </c>
       <c r="AC17" s="8"/>
     </row>
-    <row r="18" spans="1:29" ht="16.2" thickBot="1">
+    <row r="18" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -36689,7 +36718,7 @@
       </c>
       <c r="AC18" s="6"/>
     </row>
-    <row r="19" spans="1:29" ht="16.2" thickBot="1">
+    <row r="19" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -36732,7 +36761,7 @@
       </c>
       <c r="AC19" s="8"/>
     </row>
-    <row r="20" spans="1:29" ht="17.399999999999999" thickBot="1">
+    <row r="20" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -36776,7 +36805,7 @@
       </c>
       <c r="AC20" s="6"/>
     </row>
-    <row r="21" spans="1:29" ht="18" thickBot="1">
+    <row r="21" spans="1:29" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -36817,7 +36846,7 @@
       </c>
       <c r="AC21" s="8"/>
     </row>
-    <row r="22" spans="1:29" ht="21" thickBot="1">
+    <row r="22" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -36860,7 +36889,7 @@
       </c>
       <c r="AC22" s="6"/>
     </row>
-    <row r="23" spans="1:29" ht="16.2" thickBot="1">
+    <row r="23" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -36903,7 +36932,7 @@
       </c>
       <c r="AC23" s="8"/>
     </row>
-    <row r="24" spans="1:29" ht="16.2" thickBot="1">
+    <row r="24" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -36930,24 +36959,24 @@
         <v>13.466910915437513</v>
       </c>
     </row>
-    <row r="56" spans="9:14" ht="16.2" thickBot="1"/>
-    <row r="57" spans="9:14">
-      <c r="I57" s="18" t="s">
+    <row r="56" spans="9:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I57" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="J57" s="18"/>
-      <c r="K57" s="18"/>
-      <c r="L57" s="18"/>
-      <c r="M57" s="18"/>
-      <c r="N57" s="18"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="23"/>
+      <c r="N57" s="23"/>
     </row>
-    <row r="58" spans="9:14">
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="19"/>
-      <c r="N58" s="19"/>
+    <row r="58" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -36969,19 +36998,19 @@
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="11.19921875" customWidth="1"/>
-    <col min="6" max="6" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="11.1640625" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.19921875" customWidth="1"/>
-    <col min="14" max="14" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="11.19921875" customWidth="1"/>
+    <col min="13" max="13" width="11.1640625" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16.2" thickBot="1">
+    <row r="1" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -37019,7 +37048,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="16.2" thickBot="1">
+    <row r="2" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -37061,7 +37090,7 @@
       </c>
       <c r="AC2" s="6"/>
     </row>
-    <row r="3" spans="1:29" ht="16.2" thickBot="1">
+    <row r="3" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -37103,7 +37132,7 @@
       </c>
       <c r="AC3" s="8"/>
     </row>
-    <row r="4" spans="1:29" ht="16.2" thickBot="1">
+    <row r="4" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -37145,7 +37174,7 @@
       </c>
       <c r="AC4" s="6"/>
     </row>
-    <row r="5" spans="1:29" ht="16.2" thickBot="1">
+    <row r="5" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -37187,7 +37216,7 @@
       </c>
       <c r="AC5" s="8"/>
     </row>
-    <row r="6" spans="1:29" ht="16.2" thickBot="1">
+    <row r="6" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -37229,7 +37258,7 @@
       </c>
       <c r="AC6" s="6"/>
     </row>
-    <row r="7" spans="1:29" ht="16.2" thickBot="1">
+    <row r="7" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -37271,7 +37300,7 @@
       </c>
       <c r="AC7" s="8"/>
     </row>
-    <row r="8" spans="1:29" ht="16.2" thickBot="1">
+    <row r="8" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -37313,7 +37342,7 @@
       </c>
       <c r="AC8" s="6"/>
     </row>
-    <row r="9" spans="1:29" ht="16.2" thickBot="1">
+    <row r="9" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -37355,7 +37384,7 @@
       </c>
       <c r="AC9" s="8"/>
     </row>
-    <row r="10" spans="1:29" ht="16.2" thickBot="1">
+    <row r="10" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -37397,7 +37426,7 @@
       </c>
       <c r="AC10" s="6"/>
     </row>
-    <row r="11" spans="1:29" ht="16.2" thickBot="1">
+    <row r="11" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -37439,7 +37468,7 @@
       </c>
       <c r="AC11" s="8"/>
     </row>
-    <row r="12" spans="1:29" ht="16.2" thickBot="1">
+    <row r="12" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -37481,7 +37510,7 @@
       </c>
       <c r="AC12" s="6"/>
     </row>
-    <row r="13" spans="1:29" ht="16.2" thickBot="1">
+    <row r="13" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -37523,7 +37552,7 @@
       </c>
       <c r="AC13" s="8"/>
     </row>
-    <row r="14" spans="1:29" ht="16.2" thickBot="1">
+    <row r="14" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -37565,7 +37594,7 @@
       </c>
       <c r="AC14" s="6"/>
     </row>
-    <row r="15" spans="1:29" ht="16.2" thickBot="1">
+    <row r="15" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -37607,7 +37636,7 @@
       </c>
       <c r="AC15" s="8"/>
     </row>
-    <row r="16" spans="1:29" ht="16.2" thickBot="1">
+    <row r="16" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -37649,7 +37678,7 @@
       </c>
       <c r="AC16" s="6"/>
     </row>
-    <row r="17" spans="1:29" ht="16.2" thickBot="1">
+    <row r="17" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -37691,7 +37720,7 @@
       </c>
       <c r="AC17" s="8"/>
     </row>
-    <row r="18" spans="1:29" ht="16.2" thickBot="1">
+    <row r="18" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -37733,7 +37762,7 @@
       </c>
       <c r="AC18" s="6"/>
     </row>
-    <row r="19" spans="1:29" ht="16.2" thickBot="1">
+    <row r="19" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -37775,7 +37804,7 @@
       </c>
       <c r="AC19" s="8"/>
     </row>
-    <row r="20" spans="1:29" ht="16.2" thickBot="1">
+    <row r="20" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -37817,7 +37846,7 @@
       </c>
       <c r="AC20" s="6"/>
     </row>
-    <row r="21" spans="1:29">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -37846,61 +37875,61 @@
         <v>1.9813326740246377E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="16.2" thickBot="1"/>
-    <row r="23" spans="1:29">
-      <c r="B23" s="18" t="s">
+    <row r="22" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B23" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
     </row>
-    <row r="24" spans="1:29">
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
     </row>
-    <row r="27" spans="1:29">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="K27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="7:7">
+    <row r="37" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G37" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="7:7" ht="17.399999999999999">
+    <row r="38" spans="7:7" ht="18" x14ac:dyDescent="0.2">
       <c r="G38" s="9">
         <f>1.602176634*10^(-19)</f>
         <v>1.6021766340000001E-19</v>
       </c>
     </row>
-    <row r="40" spans="7:7">
+    <row r="40" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G40" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="7:7" ht="16.8">
+    <row r="41" spans="7:7" ht="17" x14ac:dyDescent="0.2">
       <c r="G41" s="11">
         <f>1.3806503*10^(-23)</f>
         <v>1.3806503000000004E-23</v>
       </c>
     </row>
-    <row r="42" spans="7:7" ht="17.399999999999999">
+    <row r="42" spans="7:7" ht="18" x14ac:dyDescent="0.2">
       <c r="G42" s="10"/>
     </row>
-    <row r="43" spans="7:7" ht="20.399999999999999">
+    <row r="43" spans="7:7" ht="20" x14ac:dyDescent="0.2">
       <c r="G43" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="7:7">
+    <row r="44" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G44" t="s">
         <v>14</v>
       </c>
@@ -37921,22 +37950,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29EA75CD-2EAA-AD46-B54B-F32D80398925}">
   <dimension ref="A1:AC50"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="11.19921875" customWidth="1"/>
-    <col min="6" max="6" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="11.1640625" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.19921875" customWidth="1"/>
-    <col min="14" max="14" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="11.19921875" customWidth="1"/>
+    <col min="13" max="13" width="11.1640625" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16.2" thickBot="1">
+    <row r="1" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -37980,7 +38009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="16.2" thickBot="1">
+    <row r="2" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -38022,7 +38051,7 @@
       </c>
       <c r="AC2" s="6"/>
     </row>
-    <row r="3" spans="1:29" ht="16.2" thickBot="1">
+    <row r="3" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -38064,7 +38093,7 @@
       </c>
       <c r="AC3" s="8"/>
     </row>
-    <row r="4" spans="1:29" ht="16.2" thickBot="1">
+    <row r="4" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -38106,7 +38135,7 @@
       </c>
       <c r="AC4" s="6"/>
     </row>
-    <row r="5" spans="1:29" ht="16.2" thickBot="1">
+    <row r="5" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -38148,7 +38177,7 @@
       </c>
       <c r="AC5" s="8"/>
     </row>
-    <row r="6" spans="1:29" ht="16.2" thickBot="1">
+    <row r="6" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -38190,7 +38219,7 @@
       </c>
       <c r="AC6" s="6"/>
     </row>
-    <row r="7" spans="1:29" ht="16.2" thickBot="1">
+    <row r="7" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -38232,7 +38261,7 @@
       </c>
       <c r="AC7" s="8"/>
     </row>
-    <row r="8" spans="1:29" ht="16.2" thickBot="1">
+    <row r="8" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -38274,7 +38303,7 @@
       </c>
       <c r="AC8" s="6"/>
     </row>
-    <row r="9" spans="1:29" ht="16.2" thickBot="1">
+    <row r="9" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -38316,7 +38345,7 @@
       </c>
       <c r="AC9" s="8"/>
     </row>
-    <row r="10" spans="1:29" ht="16.2" thickBot="1">
+    <row r="10" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -38358,7 +38387,7 @@
       </c>
       <c r="AC10" s="6"/>
     </row>
-    <row r="11" spans="1:29" ht="16.2" thickBot="1">
+    <row r="11" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -38400,7 +38429,7 @@
       </c>
       <c r="AC11" s="8"/>
     </row>
-    <row r="12" spans="1:29" ht="16.2" thickBot="1">
+    <row r="12" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -38442,7 +38471,7 @@
       </c>
       <c r="AC12" s="6"/>
     </row>
-    <row r="13" spans="1:29" ht="16.2" thickBot="1">
+    <row r="13" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -38484,7 +38513,7 @@
       </c>
       <c r="AC13" s="8"/>
     </row>
-    <row r="14" spans="1:29" ht="16.2" thickBot="1">
+    <row r="14" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -38526,7 +38555,7 @@
       </c>
       <c r="AC14" s="6"/>
     </row>
-    <row r="15" spans="1:29" ht="16.2" thickBot="1">
+    <row r="15" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -38568,7 +38597,7 @@
       </c>
       <c r="AC15" s="8"/>
     </row>
-    <row r="16" spans="1:29" ht="16.2" thickBot="1">
+    <row r="16" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -38610,7 +38639,7 @@
       </c>
       <c r="AC16" s="6"/>
     </row>
-    <row r="17" spans="1:29" ht="16.2" thickBot="1">
+    <row r="17" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -38652,7 +38681,7 @@
       </c>
       <c r="AC17" s="8"/>
     </row>
-    <row r="18" spans="1:29" ht="16.2" thickBot="1">
+    <row r="18" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -38694,7 +38723,7 @@
       </c>
       <c r="AC18" s="6"/>
     </row>
-    <row r="19" spans="1:29" ht="16.2" thickBot="1">
+    <row r="19" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -38736,7 +38765,7 @@
       </c>
       <c r="AC19" s="8"/>
     </row>
-    <row r="20" spans="1:29" ht="16.2" thickBot="1">
+    <row r="20" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -38778,7 +38807,7 @@
       </c>
       <c r="AC20" s="6"/>
     </row>
-    <row r="21" spans="1:29" ht="16.2" thickBot="1">
+    <row r="21" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -38820,7 +38849,7 @@
       </c>
       <c r="AC21" s="8"/>
     </row>
-    <row r="22" spans="1:29" ht="16.2" thickBot="1">
+    <row r="22" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -38862,7 +38891,7 @@
       </c>
       <c r="AC22" s="6"/>
     </row>
-    <row r="23" spans="1:29" ht="16.2" thickBot="1">
+    <row r="23" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -38904,7 +38933,7 @@
       </c>
       <c r="AC23" s="8"/>
     </row>
-    <row r="24" spans="1:29" ht="16.2" thickBot="1">
+    <row r="24" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -38946,7 +38975,7 @@
       </c>
       <c r="AC24" s="6"/>
     </row>
-    <row r="25" spans="1:29" ht="16.2" thickBot="1">
+    <row r="25" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -38988,7 +39017,7 @@
       </c>
       <c r="AC25" s="8"/>
     </row>
-    <row r="26" spans="1:29" ht="16.2" thickBot="1">
+    <row r="26" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -39030,7 +39059,7 @@
       </c>
       <c r="AC26" s="6"/>
     </row>
-    <row r="27" spans="1:29" ht="16.2" thickBot="1">
+    <row r="27" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>25</v>
       </c>
@@ -39072,7 +39101,7 @@
       </c>
       <c r="AC27" s="8"/>
     </row>
-    <row r="28" spans="1:29" ht="16.2" thickBot="1">
+    <row r="28" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -39114,7 +39143,7 @@
       </c>
       <c r="AC28" s="6"/>
     </row>
-    <row r="29" spans="1:29" ht="16.2" thickBot="1">
+    <row r="29" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>27</v>
       </c>
@@ -39156,7 +39185,7 @@
       </c>
       <c r="AC29" s="8"/>
     </row>
-    <row r="30" spans="1:29" ht="16.2" thickBot="1">
+    <row r="30" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -39198,7 +39227,7 @@
       </c>
       <c r="AC30" s="6"/>
     </row>
-    <row r="31" spans="1:29">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>29</v>
       </c>
@@ -39227,56 +39256,56 @@
         <v>6.6325231377546354E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="16.2" thickBot="1"/>
-    <row r="33" spans="2:8">
-      <c r="B33" s="18" t="s">
+    <row r="32" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
     </row>
-    <row r="34" spans="2:8">
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H43" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="2:8" ht="17.399999999999999">
+    <row r="44" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="H44" s="9">
         <f>1.602176634*10^(-19)</f>
         <v>1.6021766340000001E-19</v>
       </c>
     </row>
-    <row r="46" spans="2:8">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H46" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="16.8">
+    <row r="47" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="H47" s="11">
         <f>1.3806503*10^(-23)</f>
         <v>1.3806503000000004E-23</v>
       </c>
     </row>
-    <row r="48" spans="2:8" ht="17.399999999999999">
+    <row r="48" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="H48" s="10"/>
     </row>
-    <row r="49" spans="8:8" ht="20.399999999999999">
+    <row r="49" spans="8:8" ht="20" x14ac:dyDescent="0.2">
       <c r="H49" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="8:8">
+    <row r="50" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H50" t="s">
         <v>14</v>
       </c>
@@ -39298,18 +39327,18 @@
   <dimension ref="A1:AC58"/>
   <sheetViews>
     <sheetView zoomScale="61" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="11.19921875" customWidth="1"/>
+    <col min="1" max="4" width="11.1640625" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.19921875" customWidth="1"/>
-    <col min="28" max="29" width="11.19921875" customWidth="1"/>
+    <col min="13" max="13" width="11.1640625" customWidth="1"/>
+    <col min="28" max="29" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16.2" thickBot="1">
+    <row r="1" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -39347,7 +39376,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="16.2" thickBot="1">
+    <row r="2" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -39388,7 +39417,7 @@
       </c>
       <c r="AC2" s="6"/>
     </row>
-    <row r="3" spans="1:29" ht="16.2" thickBot="1">
+    <row r="3" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -39429,7 +39458,7 @@
       </c>
       <c r="AC3" s="8"/>
     </row>
-    <row r="4" spans="1:29" ht="16.2" thickBot="1">
+    <row r="4" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -39470,7 +39499,7 @@
       </c>
       <c r="AC4" s="6"/>
     </row>
-    <row r="5" spans="1:29" ht="16.2" thickBot="1">
+    <row r="5" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -39511,7 +39540,7 @@
       </c>
       <c r="AC5" s="8"/>
     </row>
-    <row r="6" spans="1:29" ht="16.2" thickBot="1">
+    <row r="6" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -39552,7 +39581,7 @@
       </c>
       <c r="AC6" s="6"/>
     </row>
-    <row r="7" spans="1:29" ht="16.2" thickBot="1">
+    <row r="7" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -39593,7 +39622,7 @@
       </c>
       <c r="AC7" s="8"/>
     </row>
-    <row r="8" spans="1:29" ht="16.2" thickBot="1">
+    <row r="8" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -39634,7 +39663,7 @@
       </c>
       <c r="AC8" s="6"/>
     </row>
-    <row r="9" spans="1:29" ht="16.2" thickBot="1">
+    <row r="9" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -39675,7 +39704,7 @@
       </c>
       <c r="AC9" s="8"/>
     </row>
-    <row r="10" spans="1:29" ht="16.2" thickBot="1">
+    <row r="10" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -39716,7 +39745,7 @@
       </c>
       <c r="AC10" s="6"/>
     </row>
-    <row r="11" spans="1:29" ht="16.2" thickBot="1">
+    <row r="11" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -39757,7 +39786,7 @@
       </c>
       <c r="AC11" s="8"/>
     </row>
-    <row r="12" spans="1:29" ht="16.2" thickBot="1">
+    <row r="12" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -39798,7 +39827,7 @@
       </c>
       <c r="AC12" s="6"/>
     </row>
-    <row r="13" spans="1:29" ht="16.2" thickBot="1">
+    <row r="13" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -39839,7 +39868,7 @@
       </c>
       <c r="AC13" s="8"/>
     </row>
-    <row r="14" spans="1:29" ht="16.2" thickBot="1">
+    <row r="14" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -39880,7 +39909,7 @@
       </c>
       <c r="AC14" s="6"/>
     </row>
-    <row r="15" spans="1:29" ht="16.2" thickBot="1">
+    <row r="15" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -39921,7 +39950,7 @@
       </c>
       <c r="AC15" s="8"/>
     </row>
-    <row r="16" spans="1:29" ht="16.2" thickBot="1">
+    <row r="16" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -39965,7 +39994,7 @@
       </c>
       <c r="AC16" s="6"/>
     </row>
-    <row r="17" spans="1:29" ht="18" thickBot="1">
+    <row r="17" spans="1:29" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -40010,7 +40039,7 @@
       </c>
       <c r="AC17" s="8"/>
     </row>
-    <row r="18" spans="1:29" ht="16.2" thickBot="1">
+    <row r="18" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -40051,7 +40080,7 @@
       </c>
       <c r="AC18" s="6"/>
     </row>
-    <row r="19" spans="1:29" ht="16.2" thickBot="1">
+    <row r="19" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -40095,7 +40124,7 @@
       </c>
       <c r="AC19" s="8"/>
     </row>
-    <row r="20" spans="1:29" ht="17.399999999999999" thickBot="1">
+    <row r="20" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -40128,59 +40157,59 @@
       </c>
       <c r="AB20" s="5"/>
     </row>
-    <row r="21" spans="1:29" ht="17.399999999999999">
+    <row r="21" spans="1:29" ht="18" x14ac:dyDescent="0.2">
       <c r="J21" s="10"/>
     </row>
-    <row r="22" spans="1:29" ht="20.399999999999999">
+    <row r="22" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="J22" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:29">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="J23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="27:27">
+    <row r="44" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA44" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="27:27">
+    <row r="45" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA45">
         <f>SLOPE(AB2:AB19,H2:H19)</f>
         <v>0.55845473451013328</v>
       </c>
     </row>
-    <row r="47" spans="27:27">
+    <row r="47" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA47" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="27:27">
+    <row r="48" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA48">
         <f>INTERCEPT(AB2:AB19,H2:H19)</f>
         <v>-93.280856724131766</v>
       </c>
     </row>
-    <row r="56" spans="9:14" ht="16.2" thickBot="1"/>
-    <row r="57" spans="9:14">
-      <c r="I57" s="18" t="s">
+    <row r="56" spans="9:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I57" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="J57" s="18"/>
-      <c r="K57" s="18"/>
-      <c r="L57" s="18"/>
-      <c r="M57" s="18"/>
-      <c r="N57" s="18"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="23"/>
+      <c r="N57" s="23"/>
     </row>
-    <row r="58" spans="9:14">
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="19"/>
-      <c r="N58" s="19"/>
+    <row r="58" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -40202,15 +40231,15 @@
       <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="11.19921875" customWidth="1"/>
+    <col min="1" max="4" width="11.1640625" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.19921875" customWidth="1"/>
-    <col min="28" max="29" width="11.19921875" customWidth="1"/>
+    <col min="13" max="13" width="11.1640625" customWidth="1"/>
+    <col min="28" max="29" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16.2" thickBot="1">
+    <row r="1" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -40248,7 +40277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="16.2" thickBot="1">
+    <row r="2" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -40288,7 +40317,7 @@
       </c>
       <c r="AC2" s="6"/>
     </row>
-    <row r="3" spans="1:29" ht="16.2" thickBot="1">
+    <row r="3" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -40328,7 +40357,7 @@
       </c>
       <c r="AC3" s="8"/>
     </row>
-    <row r="4" spans="1:29" ht="16.2" thickBot="1">
+    <row r="4" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -40368,7 +40397,7 @@
       </c>
       <c r="AC4" s="6"/>
     </row>
-    <row r="5" spans="1:29" ht="16.2" thickBot="1">
+    <row r="5" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -40408,7 +40437,7 @@
       </c>
       <c r="AC5" s="8"/>
     </row>
-    <row r="6" spans="1:29" ht="16.2" thickBot="1">
+    <row r="6" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -40448,7 +40477,7 @@
       </c>
       <c r="AC6" s="6"/>
     </row>
-    <row r="7" spans="1:29" ht="16.2" thickBot="1">
+    <row r="7" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -40488,7 +40517,7 @@
       </c>
       <c r="AC7" s="8"/>
     </row>
-    <row r="8" spans="1:29" ht="16.2" thickBot="1">
+    <row r="8" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -40528,7 +40557,7 @@
       </c>
       <c r="AC8" s="6"/>
     </row>
-    <row r="9" spans="1:29" ht="16.2" thickBot="1">
+    <row r="9" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -40568,7 +40597,7 @@
       </c>
       <c r="AC9" s="8"/>
     </row>
-    <row r="10" spans="1:29" ht="16.2" thickBot="1">
+    <row r="10" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -40608,7 +40637,7 @@
       </c>
       <c r="AC10" s="6"/>
     </row>
-    <row r="11" spans="1:29" ht="16.2" thickBot="1">
+    <row r="11" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -40648,7 +40677,7 @@
       </c>
       <c r="AC11" s="8"/>
     </row>
-    <row r="12" spans="1:29" ht="16.2" thickBot="1">
+    <row r="12" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -40688,7 +40717,7 @@
       </c>
       <c r="AC12" s="6"/>
     </row>
-    <row r="13" spans="1:29" ht="16.2" thickBot="1">
+    <row r="13" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -40728,7 +40757,7 @@
       </c>
       <c r="AC13" s="8"/>
     </row>
-    <row r="14" spans="1:29" ht="16.2" thickBot="1">
+    <row r="14" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -40768,7 +40797,7 @@
       </c>
       <c r="AC14" s="6"/>
     </row>
-    <row r="15" spans="1:29" ht="16.2" thickBot="1">
+    <row r="15" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -40808,7 +40837,7 @@
       </c>
       <c r="AC15" s="8"/>
     </row>
-    <row r="16" spans="1:29" ht="16.2" thickBot="1">
+    <row r="16" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -40836,7 +40865,7 @@
       <c r="AB16" s="5"/>
       <c r="AC16" s="6"/>
     </row>
-    <row r="17" spans="1:29" ht="18" thickBot="1">
+    <row r="17" spans="1:29" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -40865,7 +40894,7 @@
       <c r="AB17" s="5"/>
       <c r="AC17" s="8"/>
     </row>
-    <row r="18" spans="1:29" ht="16.2" thickBot="1">
+    <row r="18" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -40890,7 +40919,7 @@
       <c r="AB18" s="5"/>
       <c r="AC18" s="6"/>
     </row>
-    <row r="19" spans="1:29" ht="16.2" thickBot="1">
+    <row r="19" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -40918,7 +40947,7 @@
       <c r="AB19" s="5"/>
       <c r="AC19" s="8"/>
     </row>
-    <row r="20" spans="1:29" ht="17.399999999999999" thickBot="1">
+    <row r="20" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -40947,7 +40976,7 @@
       <c r="AB20" s="5"/>
       <c r="AC20" s="6"/>
     </row>
-    <row r="21" spans="1:29" ht="18" thickBot="1">
+    <row r="21" spans="1:29" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -40973,7 +41002,7 @@
       <c r="AB21" s="5"/>
       <c r="AC21" s="8"/>
     </row>
-    <row r="22" spans="1:29" ht="21" thickBot="1">
+    <row r="22" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -41001,7 +41030,7 @@
       <c r="AB22" s="5"/>
       <c r="AC22" s="6"/>
     </row>
-    <row r="23" spans="1:29" ht="16.2" thickBot="1">
+    <row r="23" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -41029,7 +41058,7 @@
       <c r="AB23" s="5"/>
       <c r="AC23" s="8"/>
     </row>
-    <row r="24" spans="1:29" ht="16.2" thickBot="1">
+    <row r="24" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -41054,7 +41083,7 @@
       <c r="AB24" s="5"/>
       <c r="AC24" s="6"/>
     </row>
-    <row r="25" spans="1:29" ht="16.2" thickBot="1">
+    <row r="25" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -41082,7 +41111,7 @@
       </c>
       <c r="AC25" s="8"/>
     </row>
-    <row r="26" spans="1:29" ht="16.2" thickBot="1">
+    <row r="26" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -41110,7 +41139,7 @@
       </c>
       <c r="AC26" s="6"/>
     </row>
-    <row r="27" spans="1:29" ht="16.2" thickBot="1">
+    <row r="27" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>25</v>
       </c>
@@ -41138,7 +41167,7 @@
       </c>
       <c r="AC27" s="8"/>
     </row>
-    <row r="28" spans="1:29" ht="16.2" thickBot="1">
+    <row r="28" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -41166,7 +41195,7 @@
       </c>
       <c r="AC28" s="6"/>
     </row>
-    <row r="29" spans="1:29" ht="16.2" thickBot="1">
+    <row r="29" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>27</v>
       </c>
@@ -41194,7 +41223,7 @@
       </c>
       <c r="AC29" s="8"/>
     </row>
-    <row r="30" spans="1:29" ht="16.2" thickBot="1">
+    <row r="30" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -41222,7 +41251,7 @@
       </c>
       <c r="AC30" s="6"/>
     </row>
-    <row r="31" spans="1:29" ht="16.2" thickBot="1">
+    <row r="31" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>29</v>
       </c>
@@ -41250,7 +41279,7 @@
       </c>
       <c r="AC31" s="6"/>
     </row>
-    <row r="32" spans="1:29" ht="16.2" thickBot="1">
+    <row r="32" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>30</v>
       </c>
@@ -41278,7 +41307,7 @@
       </c>
       <c r="AC32" s="8"/>
     </row>
-    <row r="33" spans="1:29" ht="16.2" thickBot="1">
+    <row r="33" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>31</v>
       </c>
@@ -41306,7 +41335,7 @@
       </c>
       <c r="AC33" s="6"/>
     </row>
-    <row r="34" spans="1:29" ht="16.2" thickBot="1">
+    <row r="34" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>32</v>
       </c>
@@ -41334,7 +41363,7 @@
       </c>
       <c r="AC34" s="6"/>
     </row>
-    <row r="35" spans="1:29" ht="16.2" thickBot="1">
+    <row r="35" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>33</v>
       </c>
@@ -41362,7 +41391,7 @@
       </c>
       <c r="AC35" s="8"/>
     </row>
-    <row r="36" spans="1:29" ht="16.2" thickBot="1">
+    <row r="36" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>34</v>
       </c>
@@ -41390,7 +41419,7 @@
       </c>
       <c r="AC36" s="6"/>
     </row>
-    <row r="37" spans="1:29" ht="16.2" thickBot="1">
+    <row r="37" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>35</v>
       </c>
@@ -41418,7 +41447,7 @@
       </c>
       <c r="AC37" s="6"/>
     </row>
-    <row r="38" spans="1:29" ht="16.2" thickBot="1">
+    <row r="38" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>36</v>
       </c>
@@ -41446,7 +41475,7 @@
       </c>
       <c r="AC38" s="8"/>
     </row>
-    <row r="39" spans="1:29" ht="16.2" thickBot="1">
+    <row r="39" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>37</v>
       </c>
@@ -41466,7 +41495,7 @@
       </c>
       <c r="AC39" s="6"/>
     </row>
-    <row r="40" spans="1:29" ht="16.2" thickBot="1">
+    <row r="40" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>38</v>
       </c>
@@ -41486,7 +41515,7 @@
       </c>
       <c r="AC40" s="6"/>
     </row>
-    <row r="41" spans="1:29" ht="16.2" thickBot="1">
+    <row r="41" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>39</v>
       </c>
@@ -41506,7 +41535,7 @@
       </c>
       <c r="AC41" s="8"/>
     </row>
-    <row r="42" spans="1:29" ht="16.2" thickBot="1">
+    <row r="42" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>40</v>
       </c>
@@ -41526,7 +41555,7 @@
       </c>
       <c r="AC42" s="6"/>
     </row>
-    <row r="43" spans="1:29" ht="16.2" thickBot="1">
+    <row r="43" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>41</v>
       </c>
@@ -41546,7 +41575,7 @@
       </c>
       <c r="AC43" s="6"/>
     </row>
-    <row r="44" spans="1:29" ht="16.2" thickBot="1">
+    <row r="44" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>42</v>
       </c>
@@ -41566,7 +41595,7 @@
       </c>
       <c r="AC44" s="8"/>
     </row>
-    <row r="45" spans="1:29" ht="16.2" thickBot="1">
+    <row r="45" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>43</v>
       </c>
@@ -41586,7 +41615,7 @@
       </c>
       <c r="AC45" s="6"/>
     </row>
-    <row r="46" spans="1:29" ht="16.2" thickBot="1">
+    <row r="46" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>44</v>
       </c>
@@ -41606,7 +41635,7 @@
       </c>
       <c r="AC46" s="6"/>
     </row>
-    <row r="47" spans="1:29" ht="16.2" thickBot="1">
+    <row r="47" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>45</v>
       </c>
@@ -41626,7 +41655,7 @@
       </c>
       <c r="AC47" s="8"/>
     </row>
-    <row r="48" spans="1:29" ht="16.2" thickBot="1">
+    <row r="48" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>46</v>
       </c>
@@ -41646,7 +41675,7 @@
       </c>
       <c r="AC48" s="6"/>
     </row>
-    <row r="49" spans="1:29" ht="16.2" thickBot="1">
+    <row r="49" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>47</v>
       </c>
@@ -41666,7 +41695,7 @@
       </c>
       <c r="AC49" s="6"/>
     </row>
-    <row r="50" spans="1:29" ht="16.2" thickBot="1">
+    <row r="50" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>48</v>
       </c>
@@ -41686,7 +41715,7 @@
       </c>
       <c r="AC50" s="8"/>
     </row>
-    <row r="51" spans="1:29" ht="16.2" thickBot="1">
+    <row r="51" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>49</v>
       </c>
@@ -41706,7 +41735,7 @@
       </c>
       <c r="AC51" s="6"/>
     </row>
-    <row r="52" spans="1:29" ht="16.2" thickBot="1">
+    <row r="52" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>50</v>
       </c>
@@ -41726,7 +41755,7 @@
       </c>
       <c r="AC52" s="6"/>
     </row>
-    <row r="53" spans="1:29" ht="16.2" thickBot="1">
+    <row r="53" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>51</v>
       </c>
@@ -41746,7 +41775,7 @@
       </c>
       <c r="AC53" s="8"/>
     </row>
-    <row r="54" spans="1:29" ht="16.2" thickBot="1">
+    <row r="54" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>52</v>
       </c>
@@ -41766,7 +41795,7 @@
       </c>
       <c r="AC54" s="6"/>
     </row>
-    <row r="55" spans="1:29" ht="16.2" thickBot="1">
+    <row r="55" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>53</v>
       </c>
@@ -41786,7 +41815,7 @@
       </c>
       <c r="AC55" s="6"/>
     </row>
-    <row r="56" spans="1:29" ht="16.2" thickBot="1">
+    <row r="56" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>54</v>
       </c>
@@ -41806,7 +41835,7 @@
       </c>
       <c r="AC56" s="8"/>
     </row>
-    <row r="57" spans="1:29" ht="16.2" thickBot="1">
+    <row r="57" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>55</v>
       </c>
@@ -41820,21 +41849,21 @@
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I57" s="18" t="s">
+      <c r="I57" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="J57" s="18"/>
-      <c r="K57" s="18"/>
-      <c r="L57" s="18"/>
-      <c r="M57" s="18"/>
-      <c r="N57" s="18"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="23"/>
+      <c r="N57" s="23"/>
       <c r="AB57" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
       <c r="AC57" s="6"/>
     </row>
-    <row r="58" spans="1:29" ht="16.2" thickBot="1">
+    <row r="58" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>56</v>
       </c>
@@ -41848,16 +41877,16 @@
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="19"/>
-      <c r="N58" s="19"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="24"/>
       <c r="AB58" s="5"/>
       <c r="AC58" s="6"/>
     </row>
-    <row r="59" spans="1:29" ht="16.2" thickBot="1">
+    <row r="59" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>57</v>
       </c>
@@ -41874,7 +41903,7 @@
       <c r="AB59" s="5"/>
       <c r="AC59" s="8"/>
     </row>
-    <row r="60" spans="1:29" ht="16.2" thickBot="1">
+    <row r="60" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>58</v>
       </c>
@@ -41891,7 +41920,7 @@
       <c r="AB60" s="5"/>
       <c r="AC60" s="6"/>
     </row>
-    <row r="61" spans="1:29" ht="16.2" thickBot="1">
+    <row r="61" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>59</v>
       </c>
@@ -41908,7 +41937,7 @@
       <c r="AB61" s="5"/>
       <c r="AC61" s="6"/>
     </row>
-    <row r="62" spans="1:29" ht="16.2" thickBot="1">
+    <row r="62" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>60</v>
       </c>
@@ -41925,7 +41954,7 @@
       <c r="AB62" s="5"/>
       <c r="AC62" s="8"/>
     </row>
-    <row r="63" spans="1:29" ht="16.2" thickBot="1">
+    <row r="63" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>61</v>
       </c>
@@ -41942,7 +41971,7 @@
       <c r="AB63" s="5"/>
       <c r="AC63" s="6"/>
     </row>
-    <row r="64" spans="1:29" ht="16.2" thickBot="1">
+    <row r="64" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>62</v>
       </c>
@@ -41957,7 +41986,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="16.2" thickBot="1">
+    <row r="65" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>63</v>
       </c>
@@ -41972,7 +42001,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="16.2" thickBot="1">
+    <row r="66" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>64</v>
       </c>
@@ -41987,7 +42016,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="16.2" thickBot="1">
+    <row r="67" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>65</v>
       </c>
@@ -42002,7 +42031,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="16.2" thickBot="1">
+    <row r="68" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>66</v>
       </c>
@@ -42017,7 +42046,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="16.2" thickBot="1">
+    <row r="69" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <v>67</v>
       </c>
@@ -42032,7 +42061,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="16.2" thickBot="1">
+    <row r="70" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>68</v>
       </c>
@@ -42047,7 +42076,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="16.2" thickBot="1">
+    <row r="71" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>69</v>
       </c>
@@ -42062,7 +42091,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="16.2" thickBot="1">
+    <row r="72" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>70</v>
       </c>
@@ -42077,7 +42106,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="16.2" thickBot="1">
+    <row r="73" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>71</v>
       </c>
@@ -42092,7 +42121,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="16.2" thickBot="1">
+    <row r="74" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>72</v>
       </c>
@@ -42107,7 +42136,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="16.2" thickBot="1">
+    <row r="75" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <v>73</v>
       </c>
@@ -42122,7 +42151,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="16.2" thickBot="1">
+    <row r="76" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>74</v>
       </c>
@@ -42137,7 +42166,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="16.2" thickBot="1">
+    <row r="77" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>75</v>
       </c>
@@ -42152,7 +42181,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="16.2" thickBot="1">
+    <row r="78" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>76</v>
       </c>
@@ -42167,7 +42196,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="16.2" thickBot="1">
+    <row r="79" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
         <v>77</v>
       </c>
@@ -42182,7 +42211,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="16.2" thickBot="1">
+    <row r="80" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>78</v>
       </c>
@@ -42197,7 +42226,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="16.2" thickBot="1">
+    <row r="81" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <v>79</v>
       </c>
@@ -42212,7 +42241,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="16.2" thickBot="1">
+    <row r="82" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>80</v>
       </c>
@@ -42243,30 +42272,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86401310-AE3F-46D9-BA7D-9008211E0E75}">
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="67" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:O8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P9" sqref="P7:P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>36</v>
-      </c>
-      <c r="D1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
       </c>
       <c r="G1" t="s">
         <v>26</v>
@@ -42275,7 +42305,10 @@
         <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>38</v>
       </c>
       <c r="M1" t="s">
         <v>24</v>
@@ -42284,28 +42317,28 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
-      <c r="A2">
-        <f>($P$4-$J$2)/$I$2</f>
-        <v>0.92049676874447606</v>
-      </c>
-      <c r="B2">
-        <f>($P$5-$J$2)/$I$2</f>
-        <v>0.93156594634823664</v>
-      </c>
-      <c r="C2">
-        <f>($P$5-$J$2)/$I$2</f>
-        <v>0.93156594634823664</v>
-      </c>
-      <c r="D2">
-        <f>($P$6-$J$2)/$I$2</f>
-        <v>0.94061012298368263</v>
-      </c>
-      <c r="E2">
-        <f>($P$7-$J$2)/$I$2</f>
-        <v>0.94825686537304998</v>
-      </c>
-      <c r="G2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="21">
+        <f>LN($P$4/K2+1)/I2</f>
+        <v>0.57783361346788653</v>
+      </c>
+      <c r="B2" s="21">
+        <f>LN($P$5/K2+1)/I2</f>
+        <v>0.58890270444303594</v>
+      </c>
+      <c r="C2" s="21">
+        <f>LN($P$6/K2+1)/I2</f>
+        <v>0.59794682332599025</v>
+      </c>
+      <c r="D2" s="20">
+        <f>LN($P$7/K2+1)/I2</f>
+        <v>0.60559352446353687</v>
+      </c>
+      <c r="E2" s="20">
+        <f>LN($P$8/K2+1)/I2</f>
+        <v>0.61221740307494998</v>
+      </c>
+      <c r="G2" s="22">
         <f>60.5+273.15</f>
         <v>333.65</v>
       </c>
@@ -42315,35 +42348,39 @@
       <c r="J2">
         <v>-17.170000000000002</v>
       </c>
+      <c r="K2">
+        <f>EXP(J2)</f>
+        <v>3.4927197962393328E-8</v>
+      </c>
       <c r="M2">
         <v>1.702</v>
       </c>
       <c r="R2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
-      <c r="A3">
-        <f>($P$4-$J$3)/$I$3</f>
-        <v>0.91066617820949514</v>
-      </c>
-      <c r="B3">
-        <f>($P$6-$J$3)/$I$3</f>
-        <v>0.92871653248577901</v>
-      </c>
-      <c r="C3">
-        <f>($P$7-$J$3)/$I$3</f>
-        <v>0.93557895869008201</v>
-      </c>
-      <c r="D3">
-        <f>($P$8-$J$3)/$I$3</f>
-        <v>0.94152346265769638</v>
-      </c>
-      <c r="E3">
-        <f>($C$18-$J$3)/$I$3</f>
-        <v>0.84895160931309266</v>
-      </c>
-      <c r="G3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="21">
+        <f t="shared" ref="A3:A6" si="0">LN($P$4/K3+1)/I3</f>
+        <v>0.60314919592841976</v>
+      </c>
+      <c r="B3" s="21">
+        <f t="shared" ref="B3:B7" si="1">LN($P$5/K3+1)/I3</f>
+        <v>0.61308301109620134</v>
+      </c>
+      <c r="C3" s="21">
+        <f t="shared" ref="C3:C7" si="2">LN($P$6/K3+1)/I3</f>
+        <v>0.62119953082465984</v>
+      </c>
+      <c r="D3" s="20">
+        <f t="shared" ref="D3:D7" si="3">LN($P$7/K3+1)/I3</f>
+        <v>0.62806195149180588</v>
+      </c>
+      <c r="E3" s="20">
+        <f t="shared" ref="E3:E7" si="4">LN($P$8/K3+1)/I3</f>
+        <v>0.6340064513065522</v>
+      </c>
+      <c r="G3" s="22">
         <f>47.7+273.15</f>
         <v>320.84999999999997</v>
       </c>
@@ -42353,47 +42390,48 @@
       <c r="J3">
         <v>-19.07</v>
       </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K7" si="5">EXP(J3)</f>
+        <v>5.2240127725508097E-9</v>
+      </c>
       <c r="M3">
         <v>1.6040000000000001</v>
       </c>
-      <c r="O3" t="s">
-        <v>28</v>
-      </c>
       <c r="P3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="R3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="T3" t="s">
         <v>11</v>
       </c>
       <c r="V3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="17.399999999999999">
-      <c r="A4">
-        <f>($P$4-$J$4)/$I$4</f>
-        <v>0.92337789097613043</v>
-      </c>
-      <c r="B4">
-        <f>($P$5-$J$4)/$I$4</f>
-        <v>0.93299034687835358</v>
-      </c>
-      <c r="C4">
-        <f>($P$6-$J$4)/$I$4</f>
-        <v>0.94084429521961122</v>
-      </c>
-      <c r="D4">
-        <f>($P$7-$J$4)/$I$4</f>
-        <v>0.94748471392501565</v>
-      </c>
-      <c r="E4">
-        <f>($P$8-$J$4)/$I$4</f>
-        <v>0.95323690624966984</v>
-      </c>
-      <c r="G4">
+    <row r="4" spans="1:22" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="21">
+        <f>LN($P$4/K4+1)/I4</f>
+        <v>0.64480655629434747</v>
+      </c>
+      <c r="B4" s="21">
+        <f t="shared" si="1"/>
+        <v>0.65441900947683951</v>
+      </c>
+      <c r="C4" s="21">
+        <f t="shared" si="2"/>
+        <v>0.66227295600494307</v>
+      </c>
+      <c r="D4" s="20">
+        <f t="shared" si="3"/>
+        <v>0.66891337341523727</v>
+      </c>
+      <c r="E4" s="20">
+        <f>LN($P$8/K4+1)/I4</f>
+        <v>0.67466556476855888</v>
+      </c>
+      <c r="G4" s="22">
         <f>25.1+273.15</f>
         <v>298.25</v>
       </c>
@@ -42401,17 +42439,17 @@
         <v>23.213999999999999</v>
       </c>
       <c r="J4">
-        <v>-20.048999999999999</v>
+        <v>-20.49</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="5"/>
+        <v>1.262717111574683E-9</v>
       </c>
       <c r="M4">
         <v>1.6759999999999999</v>
       </c>
-      <c r="O4">
-        <v>4</v>
-      </c>
-      <c r="P4">
-        <f>LN(O4)</f>
-        <v>1.3862943611198906</v>
+      <c r="P4" s="18">
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="T4" s="9">
         <f>1.602176634*10^(-19)</f>
@@ -42422,28 +42460,28 @@
         <v>1.3806503000000004E-23</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
-      <c r="A5">
-        <f>($P$4-$J$5)/$I$5</f>
-        <v>0.94016288974212958</v>
-      </c>
-      <c r="B5">
-        <f>($P$5-$J$5)/$I$5</f>
-        <v>0.9490839928210969</v>
-      </c>
-      <c r="C5">
-        <f>($P$7-$J$5)/$I$5</f>
-        <v>0.96253588730081596</v>
-      </c>
-      <c r="D5">
-        <f>($P$4-$J$5)/$I$5</f>
-        <v>0.94016288974212958</v>
-      </c>
-      <c r="E5">
-        <f>($P$8-$J$5)/$I$5</f>
-        <v>0.96787436699635521</v>
-      </c>
-      <c r="G5">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="21">
+        <f t="shared" si="0"/>
+        <v>0.66399628766534324</v>
+      </c>
+      <c r="B5" s="21">
+        <f t="shared" si="1"/>
+        <v>0.67291739025468134</v>
+      </c>
+      <c r="C5" s="21">
+        <f t="shared" si="2"/>
+        <v>0.68020646188260381</v>
+      </c>
+      <c r="D5" s="20">
+        <f t="shared" si="3"/>
+        <v>0.68636928417482412</v>
+      </c>
+      <c r="E5" s="20">
+        <f>LN($P$8/K5+1)/I5</f>
+        <v>0.6917077636954958</v>
+      </c>
+      <c r="G5" s="22">
         <f>15.9+273.15</f>
         <v>289.04999999999995</v>
       </c>
@@ -42453,39 +42491,39 @@
       <c r="J5">
         <v>-22.13</v>
       </c>
+      <c r="K5">
+        <f t="shared" si="5"/>
+        <v>2.4494191870468971E-10</v>
+      </c>
       <c r="M5">
         <v>1.6040000000000001</v>
       </c>
-      <c r="O5">
-        <v>5</v>
-      </c>
-      <c r="P5">
-        <f>LN(O5)</f>
-        <v>1.6094379124341003</v>
+      <c r="P5" s="18">
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
-      <c r="A6">
-        <f>(P4-$J$6)/$I$6</f>
-        <v>0.96054622299964998</v>
-      </c>
-      <c r="B6">
-        <f>(P5-$J$6)/$I$6</f>
-        <v>0.96912108182892442</v>
-      </c>
-      <c r="C6">
-        <f>(P6-$J$6)/$I$6</f>
-        <v>0.97612725163232739</v>
-      </c>
-      <c r="D6">
-        <f>(P7-$J$6)/$I$6</f>
-        <v>0.98205088379722982</v>
-      </c>
-      <c r="E6">
-        <f>(P8-$J$6)/$I$6</f>
-        <v>0.98718216737808229</v>
-      </c>
-      <c r="G6">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="21">
+        <f t="shared" si="0"/>
+        <v>0.69509814764159616</v>
+      </c>
+      <c r="B6" s="21">
+        <f t="shared" si="1"/>
+        <v>0.70367300636373842</v>
+      </c>
+      <c r="C6" s="21">
+        <f t="shared" si="2"/>
+        <v>0.71067917609571996</v>
+      </c>
+      <c r="D6" s="20">
+        <f t="shared" si="3"/>
+        <v>0.7166028082096072</v>
+      </c>
+      <c r="E6" s="20">
+        <f t="shared" si="4"/>
+        <v>0.72173409175219805</v>
+      </c>
+      <c r="G6" s="22">
         <f>-0.6+273.15</f>
         <v>272.54999999999995</v>
       </c>
@@ -42495,39 +42533,39 @@
       <c r="J6">
         <v>-23.61</v>
       </c>
+      <c r="K6">
+        <f t="shared" si="5"/>
+        <v>5.5758012162231333E-11</v>
+      </c>
       <c r="M6">
         <v>1.637</v>
       </c>
-      <c r="O6">
-        <v>6</v>
-      </c>
-      <c r="P6">
-        <f>LN(O6)</f>
-        <v>1.791759469228055</v>
+      <c r="P6" s="18">
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
-      <c r="A7">
-        <f>($P$4-$J$7)/$I$7</f>
-        <v>1.1277180816143892</v>
-      </c>
-      <c r="B7">
-        <f>($P5-$J$7)/$I$7</f>
-        <v>1.1303762929588912</v>
-      </c>
-      <c r="C7">
-        <f>($P$6-$J$7)/$I$7</f>
-        <v>1.1325482097710176</v>
-      </c>
-      <c r="D7">
-        <f>($P$7-$J$7)/$I$7</f>
-        <v>1.1343845392704188</v>
-      </c>
-      <c r="E7">
-        <f>($P$8-$J$7)/$I$7</f>
-        <v>1.1359752402368199</v>
-      </c>
-      <c r="G7">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="21">
+        <f>LN($P$4/K7+1)/I7</f>
+        <v>1.0454290199790073</v>
+      </c>
+      <c r="B7" s="21">
+        <f t="shared" si="1"/>
+        <v>1.0480872313235092</v>
+      </c>
+      <c r="C7" s="21">
+        <f t="shared" si="2"/>
+        <v>1.0502591481356356</v>
+      </c>
+      <c r="D7" s="20">
+        <f t="shared" si="3"/>
+        <v>1.0520954776350371</v>
+      </c>
+      <c r="E7" s="20">
+        <f t="shared" si="4"/>
+        <v>1.053686178601438</v>
+      </c>
+      <c r="G7" s="22">
         <v>77.2</v>
       </c>
       <c r="I7">
@@ -42536,29 +42574,316 @@
       <c r="J7">
         <v>-93.28</v>
       </c>
+      <c r="K7">
+        <f t="shared" si="5"/>
+        <v>3.0832641129675857E-41</v>
+      </c>
       <c r="M7">
         <v>1.7909999999999999</v>
       </c>
-      <c r="O7">
-        <v>7</v>
-      </c>
-      <c r="P7">
-        <f>LN(O7)</f>
-        <v>1.9459101490553132</v>
+      <c r="P7" s="18">
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
-      <c r="O8">
-        <v>8</v>
-      </c>
-      <c r="P8">
-        <f>LN(O8)</f>
-        <v>2.0794415416798357</v>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="P8" s="18">
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56093DD2-37EC-2948-87AD-2776D461F2EA}">
+  <dimension ref="A1:V9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="21">
+        <f>LN($P$4/K2+1)/I2</f>
+        <v>0.57783361346788653</v>
+      </c>
+      <c r="B2" s="21">
+        <f>LN($P$5/K2+1)/I2</f>
+        <v>0.58890270444303594</v>
+      </c>
+      <c r="C2" s="21">
+        <f>LN($P$6/K2+1)/I2</f>
+        <v>0.59794682332599025</v>
+      </c>
+      <c r="D2" s="20">
+        <f>LN($P$7/K2+1)/I2</f>
+        <v>0.60559352446353687</v>
+      </c>
+      <c r="E2" s="20">
+        <f>LN($P$8/K2+1)/I2</f>
+        <v>0.61221740307494998</v>
+      </c>
+      <c r="G2" s="22">
+        <f>60.5+273.15</f>
+        <v>333.65</v>
+      </c>
+      <c r="I2">
+        <v>20.158999999999999</v>
+      </c>
+      <c r="J2">
+        <v>-17.170000000000002</v>
+      </c>
+      <c r="K2">
+        <f>EXP(J2)</f>
+        <v>3.4927197962393328E-8</v>
+      </c>
+      <c r="M2">
+        <v>1.702</v>
+      </c>
+      <c r="R2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="21">
+        <f t="shared" ref="A3:A6" si="0">LN($P$4/K3+1)/I3</f>
+        <v>0.60314919592841976</v>
+      </c>
+      <c r="B3" s="21">
+        <f t="shared" ref="B3:B6" si="1">LN($P$5/K3+1)/I3</f>
+        <v>0.61308301109620134</v>
+      </c>
+      <c r="C3" s="21">
+        <f t="shared" ref="C3:C6" si="2">LN($P$6/K3+1)/I3</f>
+        <v>0.62119953082465984</v>
+      </c>
+      <c r="D3" s="20">
+        <f t="shared" ref="D3:D6" si="3">LN($P$7/K3+1)/I3</f>
+        <v>0.62806195149180588</v>
+      </c>
+      <c r="E3" s="20">
+        <f t="shared" ref="E3:E6" si="4">LN($P$8/K3+1)/I3</f>
+        <v>0.6340064513065522</v>
+      </c>
+      <c r="G3" s="22">
+        <f>47.7+273.15</f>
+        <v>320.84999999999997</v>
+      </c>
+      <c r="I3">
+        <v>22.463000000000001</v>
+      </c>
+      <c r="J3">
+        <v>-19.07</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K6" si="5">EXP(J3)</f>
+        <v>5.2240127725508097E-9</v>
+      </c>
+      <c r="M3">
+        <v>1.6040000000000001</v>
+      </c>
+      <c r="P3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="21">
+        <f>LN($P$4/K4+1)/I4</f>
+        <v>0.64480655629434747</v>
+      </c>
+      <c r="B4" s="21">
+        <f t="shared" si="1"/>
+        <v>0.65441900947683951</v>
+      </c>
+      <c r="C4" s="21">
+        <f t="shared" si="2"/>
+        <v>0.66227295600494307</v>
+      </c>
+      <c r="D4" s="20">
+        <f t="shared" si="3"/>
+        <v>0.66891337341523727</v>
+      </c>
+      <c r="E4" s="20">
+        <f>LN($P$8/K4+1)/I4</f>
+        <v>0.67466556476855888</v>
+      </c>
+      <c r="G4" s="22">
+        <f>25.1+273.15</f>
+        <v>298.25</v>
+      </c>
+      <c r="I4">
+        <v>23.213999999999999</v>
+      </c>
+      <c r="J4">
+        <v>-20.49</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="5"/>
+        <v>1.262717111574683E-9</v>
+      </c>
+      <c r="M4">
+        <v>1.6759999999999999</v>
+      </c>
+      <c r="P4" s="18">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="T4" s="9">
+        <f>1.602176634*10^(-19)</f>
+        <v>1.6021766340000001E-19</v>
+      </c>
+      <c r="V4" s="11">
+        <f>1.3806503*10^(-23)</f>
+        <v>1.3806503000000004E-23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="21">
+        <f t="shared" si="0"/>
+        <v>0.66399628766534324</v>
+      </c>
+      <c r="B5" s="21">
+        <f t="shared" si="1"/>
+        <v>0.67291739025468134</v>
+      </c>
+      <c r="C5" s="21">
+        <f t="shared" si="2"/>
+        <v>0.68020646188260381</v>
+      </c>
+      <c r="D5" s="20">
+        <f t="shared" si="3"/>
+        <v>0.68636928417482412</v>
+      </c>
+      <c r="E5" s="20">
+        <f>LN($P$8/K5+1)/I5</f>
+        <v>0.6917077636954958</v>
+      </c>
+      <c r="G5" s="22">
+        <f>15.9+273.15</f>
+        <v>289.04999999999995</v>
+      </c>
+      <c r="I5">
+        <v>25.013000000000002</v>
+      </c>
+      <c r="J5">
+        <v>-22.13</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="5"/>
+        <v>2.4494191870468971E-10</v>
+      </c>
+      <c r="M5">
+        <v>1.6040000000000001</v>
+      </c>
+      <c r="P5" s="18">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="21">
+        <f t="shared" si="0"/>
+        <v>0.69509814764159616</v>
+      </c>
+      <c r="B6" s="21">
+        <f t="shared" si="1"/>
+        <v>0.70367300636373842</v>
+      </c>
+      <c r="C6" s="21">
+        <f t="shared" si="2"/>
+        <v>0.71067917609571996</v>
+      </c>
+      <c r="D6" s="20">
+        <f t="shared" si="3"/>
+        <v>0.7166028082096072</v>
+      </c>
+      <c r="E6" s="20">
+        <f t="shared" si="4"/>
+        <v>0.72173409175219805</v>
+      </c>
+      <c r="G6" s="22">
+        <f>-0.6+273.15</f>
+        <v>272.54999999999995</v>
+      </c>
+      <c r="I6">
+        <v>26.023</v>
+      </c>
+      <c r="J6">
+        <v>-23.61</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="5"/>
+        <v>5.5758012162231333E-11</v>
+      </c>
+      <c r="M6">
+        <v>1.637</v>
+      </c>
+      <c r="P6" s="18">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="P7" s="18">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="P8" s="18">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="P9" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/relazioni/esperienza_2/codici/Esperienza_2.xlsx
+++ b/relazioni/esperienza_2/codici/Esperienza_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessiobrusini/Desktop/LABORATORIO-DI-ELETTROMAGNETISMO/relazioni/esperienza_2/codici/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\UNIVERSITA'\II ANNO\LABORATORIO-DI-ELETTROMAGNETISMO\relazioni\esperienza_2\codici\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8307B01A-45D6-024D-8F05-099003716C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1C83B8-F0E0-4B38-B208-B5AD247033FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" activeTab="8" xr2:uid="{9832D23C-5E2D-EB46-85A1-EE46353BB05C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{9832D23C-5E2D-EB46-85A1-EE46353BB05C}"/>
   </bookViews>
   <sheets>
     <sheet name="Temp_1" sheetId="1" r:id="rId1"/>
@@ -184,7 +184,7 @@
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -419,7 +419,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -480,7 +480,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1263,7 +1263,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1762,7 +1762,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2493,7 +2493,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2907,7 +2907,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3416,7 +3416,7 @@
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4228,7 +4228,7 @@
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4702,7 +4702,7 @@
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5243,7 +5243,7 @@
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5798,7 +5798,7 @@
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6206,7 +6206,7 @@
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6770,7 +6770,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7459,7 +7459,7 @@
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7984,7 +7984,7 @@
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8476,7 +8476,7 @@
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8860,7 +8860,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9551,7 +9551,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10205,7 +10205,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10832,7 +10832,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11312,7 +11312,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11842,7 +11842,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12421,7 +12421,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -32260,15 +32260,15 @@
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="4" width="11.1640625" customWidth="1"/>
+    <col min="1" max="4" width="11.19921875" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.1640625" customWidth="1"/>
-    <col min="28" max="29" width="11.1640625" customWidth="1"/>
+    <col min="13" max="13" width="11.19921875" customWidth="1"/>
+    <col min="28" max="29" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="16.2" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -32306,7 +32306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="16.2" thickBot="1">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -32346,7 +32346,7 @@
       </c>
       <c r="AC2" s="6"/>
     </row>
-    <row r="3" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="16.2" thickBot="1">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -32386,7 +32386,7 @@
       </c>
       <c r="AC3" s="8"/>
     </row>
-    <row r="4" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="16.2" thickBot="1">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -32426,7 +32426,7 @@
       </c>
       <c r="AC4" s="6"/>
     </row>
-    <row r="5" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="16.2" thickBot="1">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -32466,7 +32466,7 @@
       </c>
       <c r="AC5" s="8"/>
     </row>
-    <row r="6" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="16.2" thickBot="1">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -32506,7 +32506,7 @@
       </c>
       <c r="AC6" s="6"/>
     </row>
-    <row r="7" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="16.2" thickBot="1">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -32546,7 +32546,7 @@
       </c>
       <c r="AC7" s="8"/>
     </row>
-    <row r="8" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="16.2" thickBot="1">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -32586,7 +32586,7 @@
       </c>
       <c r="AC8" s="6"/>
     </row>
-    <row r="9" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="16.2" thickBot="1">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -32626,7 +32626,7 @@
       </c>
       <c r="AC9" s="8"/>
     </row>
-    <row r="10" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="16.2" thickBot="1">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -32666,7 +32666,7 @@
       </c>
       <c r="AC10" s="6"/>
     </row>
-    <row r="11" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="16.2" thickBot="1">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -32706,7 +32706,7 @@
       </c>
       <c r="AC11" s="8"/>
     </row>
-    <row r="12" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="16.2" thickBot="1">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -32746,7 +32746,7 @@
       </c>
       <c r="AC12" s="6"/>
     </row>
-    <row r="13" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="16.2" thickBot="1">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -32786,7 +32786,7 @@
       </c>
       <c r="AC13" s="8"/>
     </row>
-    <row r="14" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="16.2" thickBot="1">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -32826,7 +32826,7 @@
       </c>
       <c r="AC14" s="6"/>
     </row>
-    <row r="15" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" ht="16.2" thickBot="1">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -32866,7 +32866,7 @@
       </c>
       <c r="AC15" s="8"/>
     </row>
-    <row r="16" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="16.2" thickBot="1">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -32909,7 +32909,7 @@
       </c>
       <c r="AC16" s="6"/>
     </row>
-    <row r="17" spans="1:29" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" ht="18" thickBot="1">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -32953,7 +32953,7 @@
       </c>
       <c r="AC17" s="8"/>
     </row>
-    <row r="18" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" ht="16.2" thickBot="1">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -32993,7 +32993,7 @@
       </c>
       <c r="AC18" s="6"/>
     </row>
-    <row r="19" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" ht="16.2" thickBot="1">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -33036,7 +33036,7 @@
       </c>
       <c r="AC19" s="8"/>
     </row>
-    <row r="20" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="17.399999999999999" thickBot="1">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -33080,7 +33080,7 @@
       </c>
       <c r="AC20" s="6"/>
     </row>
-    <row r="21" spans="1:29" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" ht="18" thickBot="1">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -33121,7 +33121,7 @@
       </c>
       <c r="AC21" s="8"/>
     </row>
-    <row r="22" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" ht="21" thickBot="1">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -33164,7 +33164,7 @@
       </c>
       <c r="AC22" s="6"/>
     </row>
-    <row r="23" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" ht="16.2" thickBot="1">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -33207,7 +33207,7 @@
       </c>
       <c r="AC23" s="8"/>
     </row>
-    <row r="24" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" ht="16.2" thickBot="1">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -33247,7 +33247,7 @@
       </c>
       <c r="AC24" s="6"/>
     </row>
-    <row r="25" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" ht="16.2" thickBot="1">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -33287,7 +33287,7 @@
       </c>
       <c r="AC25" s="8"/>
     </row>
-    <row r="26" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" ht="16.2" thickBot="1">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -33327,7 +33327,7 @@
       </c>
       <c r="AC26" s="6"/>
     </row>
-    <row r="27" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" ht="16.2" thickBot="1">
       <c r="A27" s="7">
         <v>25</v>
       </c>
@@ -33367,7 +33367,7 @@
       </c>
       <c r="AC27" s="8"/>
     </row>
-    <row r="28" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" ht="16.2" thickBot="1">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -33407,7 +33407,7 @@
       </c>
       <c r="AC28" s="6"/>
     </row>
-    <row r="29" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" ht="16.2" thickBot="1">
       <c r="A29" s="7">
         <v>27</v>
       </c>
@@ -33447,7 +33447,7 @@
       </c>
       <c r="AC29" s="8"/>
     </row>
-    <row r="30" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" ht="16.2" thickBot="1">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -33487,7 +33487,7 @@
       </c>
       <c r="AC30" s="6"/>
     </row>
-    <row r="31" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" ht="16.2" thickBot="1">
       <c r="A31" s="7">
         <v>29</v>
       </c>
@@ -33527,7 +33527,7 @@
       </c>
       <c r="AC31" s="6"/>
     </row>
-    <row r="32" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" ht="16.2" thickBot="1">
       <c r="A32" s="5">
         <v>30</v>
       </c>
@@ -33567,7 +33567,7 @@
       </c>
       <c r="AC32" s="8"/>
     </row>
-    <row r="33" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" ht="16.2" thickBot="1">
       <c r="A33" s="7">
         <v>31</v>
       </c>
@@ -33607,7 +33607,7 @@
       </c>
       <c r="AC33" s="6"/>
     </row>
-    <row r="34" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" ht="16.2" thickBot="1">
       <c r="A34" s="5">
         <v>32</v>
       </c>
@@ -33647,7 +33647,7 @@
       </c>
       <c r="AC34" s="6"/>
     </row>
-    <row r="35" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" ht="16.2" thickBot="1">
       <c r="A35" s="7">
         <v>33</v>
       </c>
@@ -33687,7 +33687,7 @@
       </c>
       <c r="AC35" s="8"/>
     </row>
-    <row r="36" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" ht="16.2" thickBot="1">
       <c r="A36" s="5">
         <v>34</v>
       </c>
@@ -33727,7 +33727,7 @@
       </c>
       <c r="AC36" s="6"/>
     </row>
-    <row r="37" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" ht="16.2" thickBot="1">
       <c r="A37" s="7">
         <v>35</v>
       </c>
@@ -33767,7 +33767,7 @@
       </c>
       <c r="AC37" s="6"/>
     </row>
-    <row r="38" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" ht="16.2" thickBot="1">
       <c r="A38" s="5">
         <v>36</v>
       </c>
@@ -33807,7 +33807,7 @@
       </c>
       <c r="AC38" s="8"/>
     </row>
-    <row r="39" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" ht="16.2" thickBot="1">
       <c r="A39" s="7">
         <v>37</v>
       </c>
@@ -33847,7 +33847,7 @@
       </c>
       <c r="AC39" s="6"/>
     </row>
-    <row r="40" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" ht="16.2" thickBot="1">
       <c r="A40" s="5">
         <v>38</v>
       </c>
@@ -33887,7 +33887,7 @@
       </c>
       <c r="AC40" s="6"/>
     </row>
-    <row r="41" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" ht="16.2" thickBot="1">
       <c r="A41" s="7">
         <v>39</v>
       </c>
@@ -33927,7 +33927,7 @@
       </c>
       <c r="AC41" s="8"/>
     </row>
-    <row r="42" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" ht="16.2" thickBot="1">
       <c r="A42" s="5">
         <v>40</v>
       </c>
@@ -33967,7 +33967,7 @@
       </c>
       <c r="AC42" s="6"/>
     </row>
-    <row r="43" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" ht="16.2" thickBot="1">
       <c r="A43" s="7">
         <v>41</v>
       </c>
@@ -34007,7 +34007,7 @@
       </c>
       <c r="AC43" s="6"/>
     </row>
-    <row r="44" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" ht="16.2" thickBot="1">
       <c r="A44" s="5">
         <v>42</v>
       </c>
@@ -34047,7 +34047,7 @@
       </c>
       <c r="AC44" s="8"/>
     </row>
-    <row r="45" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" ht="16.2" thickBot="1">
       <c r="A45" s="7">
         <v>43</v>
       </c>
@@ -34087,7 +34087,7 @@
       </c>
       <c r="AC45" s="6"/>
     </row>
-    <row r="46" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" ht="16.2" thickBot="1">
       <c r="A46" s="5">
         <v>44</v>
       </c>
@@ -34127,7 +34127,7 @@
       </c>
       <c r="AC46" s="6"/>
     </row>
-    <row r="47" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" ht="16.2" thickBot="1">
       <c r="A47" s="7">
         <v>45</v>
       </c>
@@ -34167,7 +34167,7 @@
       </c>
       <c r="AC47" s="8"/>
     </row>
-    <row r="48" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" ht="16.2" thickBot="1">
       <c r="A48" s="5">
         <v>46</v>
       </c>
@@ -34207,7 +34207,7 @@
       </c>
       <c r="AC48" s="6"/>
     </row>
-    <row r="49" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" ht="16.2" thickBot="1">
       <c r="A49" s="7">
         <v>47</v>
       </c>
@@ -34247,7 +34247,7 @@
       </c>
       <c r="AC49" s="6"/>
     </row>
-    <row r="50" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" ht="16.2" thickBot="1">
       <c r="A50" s="5">
         <v>48</v>
       </c>
@@ -34287,7 +34287,7 @@
       </c>
       <c r="AC50" s="8"/>
     </row>
-    <row r="51" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" ht="16.2" thickBot="1">
       <c r="A51" s="7">
         <v>49</v>
       </c>
@@ -34327,7 +34327,7 @@
       </c>
       <c r="AC51" s="6"/>
     </row>
-    <row r="52" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" ht="16.2" thickBot="1">
       <c r="A52" s="5">
         <v>50</v>
       </c>
@@ -34367,7 +34367,7 @@
       </c>
       <c r="AC52" s="6"/>
     </row>
-    <row r="53" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" ht="16.2" thickBot="1">
       <c r="A53" s="7">
         <v>51</v>
       </c>
@@ -34407,7 +34407,7 @@
       </c>
       <c r="AC53" s="8"/>
     </row>
-    <row r="54" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" ht="16.2" thickBot="1">
       <c r="A54" s="5">
         <v>52</v>
       </c>
@@ -34447,7 +34447,7 @@
       </c>
       <c r="AC54" s="6"/>
     </row>
-    <row r="55" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" ht="16.2" thickBot="1">
       <c r="A55" s="7">
         <v>53</v>
       </c>
@@ -34487,7 +34487,7 @@
       </c>
       <c r="AC55" s="6"/>
     </row>
-    <row r="56" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" ht="16.2" thickBot="1">
       <c r="A56" s="5">
         <v>54</v>
       </c>
@@ -34527,7 +34527,7 @@
       </c>
       <c r="AC56" s="8"/>
     </row>
-    <row r="57" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" ht="16.2" thickBot="1">
       <c r="A57" s="7">
         <v>55</v>
       </c>
@@ -34567,7 +34567,7 @@
       </c>
       <c r="AC57" s="6"/>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:29">
       <c r="A58" s="5">
         <v>56</v>
       </c>
@@ -34596,11 +34596,11 @@
       <c r="AB58" s="5"/>
       <c r="AC58" s="6"/>
     </row>
-    <row r="59" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" ht="16.2" thickBot="1">
       <c r="AB59" s="5"/>
       <c r="AC59" s="8"/>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:29">
       <c r="B60" s="23" t="s">
         <v>15</v>
       </c>
@@ -34612,7 +34612,7 @@
       <c r="AB60" s="5"/>
       <c r="AC60" s="6"/>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:29">
       <c r="B61" s="24"/>
       <c r="C61" s="24"/>
       <c r="D61" s="24"/>
@@ -34622,11 +34622,11 @@
       <c r="AB61" s="5"/>
       <c r="AC61" s="6"/>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:29">
       <c r="AB62" s="5"/>
       <c r="AC62" s="8"/>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:29">
       <c r="AB63" s="5"/>
       <c r="AC63" s="6"/>
     </row>
@@ -34651,15 +34651,15 @@
       <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="4" width="11.1640625" customWidth="1"/>
+    <col min="1" max="4" width="11.19921875" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.1640625" customWidth="1"/>
-    <col min="28" max="29" width="11.1640625" customWidth="1"/>
+    <col min="13" max="13" width="11.19921875" customWidth="1"/>
+    <col min="28" max="29" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="16.2" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -34697,7 +34697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="16.2" thickBot="1">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -34737,7 +34737,7 @@
       </c>
       <c r="AC2" s="6"/>
     </row>
-    <row r="3" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="16.2" thickBot="1">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -34777,7 +34777,7 @@
       </c>
       <c r="AC3" s="8"/>
     </row>
-    <row r="4" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="16.2" thickBot="1">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -34817,7 +34817,7 @@
       </c>
       <c r="AC4" s="6"/>
     </row>
-    <row r="5" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="16.2" thickBot="1">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -34857,7 +34857,7 @@
       </c>
       <c r="AC5" s="8"/>
     </row>
-    <row r="6" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="16.2" thickBot="1">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -34897,7 +34897,7 @@
       </c>
       <c r="AC6" s="6"/>
     </row>
-    <row r="7" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="16.2" thickBot="1">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -34937,7 +34937,7 @@
       </c>
       <c r="AC7" s="8"/>
     </row>
-    <row r="8" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="16.2" thickBot="1">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -34977,7 +34977,7 @@
       </c>
       <c r="AC8" s="6"/>
     </row>
-    <row r="9" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="16.2" thickBot="1">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -35017,7 +35017,7 @@
       </c>
       <c r="AC9" s="8"/>
     </row>
-    <row r="10" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="16.2" thickBot="1">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -35057,7 +35057,7 @@
       </c>
       <c r="AC10" s="6"/>
     </row>
-    <row r="11" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="16.2" thickBot="1">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -35097,7 +35097,7 @@
       </c>
       <c r="AC11" s="8"/>
     </row>
-    <row r="12" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="16.2" thickBot="1">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -35137,7 +35137,7 @@
       </c>
       <c r="AC12" s="6"/>
     </row>
-    <row r="13" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="16.2" thickBot="1">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -35177,7 +35177,7 @@
       </c>
       <c r="AC13" s="8"/>
     </row>
-    <row r="14" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="16.2" thickBot="1">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -35217,7 +35217,7 @@
       </c>
       <c r="AC14" s="6"/>
     </row>
-    <row r="15" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" ht="16.2" thickBot="1">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -35257,7 +35257,7 @@
       </c>
       <c r="AC15" s="8"/>
     </row>
-    <row r="16" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="16.2" thickBot="1">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -35300,7 +35300,7 @@
       </c>
       <c r="AC16" s="6"/>
     </row>
-    <row r="17" spans="1:29" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" ht="18" thickBot="1">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -35344,7 +35344,7 @@
       </c>
       <c r="AC17" s="8"/>
     </row>
-    <row r="18" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" ht="16.2" thickBot="1">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -35384,7 +35384,7 @@
       </c>
       <c r="AC18" s="6"/>
     </row>
-    <row r="19" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" ht="16.2" thickBot="1">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -35427,7 +35427,7 @@
       </c>
       <c r="AC19" s="8"/>
     </row>
-    <row r="20" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="17.399999999999999" thickBot="1">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -35471,7 +35471,7 @@
       </c>
       <c r="AC20" s="6"/>
     </row>
-    <row r="21" spans="1:29" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" ht="18" thickBot="1">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -35512,7 +35512,7 @@
       </c>
       <c r="AC21" s="8"/>
     </row>
-    <row r="22" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" ht="21" thickBot="1">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -35555,7 +35555,7 @@
       </c>
       <c r="AC22" s="6"/>
     </row>
-    <row r="23" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" ht="16.2" thickBot="1">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -35598,7 +35598,7 @@
       </c>
       <c r="AC23" s="8"/>
     </row>
-    <row r="24" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" ht="16.2" thickBot="1">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -35638,7 +35638,7 @@
       </c>
       <c r="AC24" s="6"/>
     </row>
-    <row r="25" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" ht="16.2" thickBot="1">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -35678,7 +35678,7 @@
       </c>
       <c r="AC25" s="8"/>
     </row>
-    <row r="26" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" ht="16.2" thickBot="1">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -35718,7 +35718,7 @@
       </c>
       <c r="AC26" s="6"/>
     </row>
-    <row r="27" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" ht="16.2" thickBot="1">
       <c r="A27" s="7">
         <v>25</v>
       </c>
@@ -35758,7 +35758,7 @@
       </c>
       <c r="AC27" s="8"/>
     </row>
-    <row r="28" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" ht="16.2" thickBot="1">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -35798,7 +35798,7 @@
       </c>
       <c r="AC28" s="6"/>
     </row>
-    <row r="29" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" ht="16.2" thickBot="1">
       <c r="A29" s="7">
         <v>27</v>
       </c>
@@ -35838,7 +35838,7 @@
       </c>
       <c r="AC29" s="8"/>
     </row>
-    <row r="30" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" ht="16.2" thickBot="1">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -35878,7 +35878,7 @@
       </c>
       <c r="AC30" s="6"/>
     </row>
-    <row r="31" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" ht="16.2" thickBot="1">
       <c r="A31" s="7">
         <v>29</v>
       </c>
@@ -35918,7 +35918,7 @@
       </c>
       <c r="AC31" s="6"/>
     </row>
-    <row r="32" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" ht="16.2" thickBot="1">
       <c r="A32" s="5">
         <v>30</v>
       </c>
@@ -35945,8 +35945,8 @@
         <v>11.240110077866133</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7" ht="16.2" thickBot="1"/>
+    <row r="34" spans="2:7">
       <c r="B34" s="23" t="s">
         <v>15</v>
       </c>
@@ -35956,7 +35956,7 @@
       <c r="F34" s="23"/>
       <c r="G34" s="23"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:7">
       <c r="B35" s="24"/>
       <c r="C35" s="24"/>
       <c r="D35" s="24"/>
@@ -35984,15 +35984,15 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="4" width="11.1640625" customWidth="1"/>
+    <col min="1" max="4" width="11.19921875" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.1640625" customWidth="1"/>
-    <col min="28" max="29" width="11.1640625" customWidth="1"/>
+    <col min="13" max="13" width="11.19921875" customWidth="1"/>
+    <col min="28" max="29" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="16.2" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -36030,7 +36030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="16.2" thickBot="1">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -36071,7 +36071,7 @@
       </c>
       <c r="AC2" s="6"/>
     </row>
-    <row r="3" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="16.2" thickBot="1">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -36111,7 +36111,7 @@
       </c>
       <c r="AC3" s="8"/>
     </row>
-    <row r="4" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="16.2" thickBot="1">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -36151,7 +36151,7 @@
       </c>
       <c r="AC4" s="6"/>
     </row>
-    <row r="5" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="16.2" thickBot="1">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -36191,7 +36191,7 @@
       </c>
       <c r="AC5" s="8"/>
     </row>
-    <row r="6" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="16.2" thickBot="1">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -36231,7 +36231,7 @@
       </c>
       <c r="AC6" s="6"/>
     </row>
-    <row r="7" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="16.2" thickBot="1">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -36271,7 +36271,7 @@
       </c>
       <c r="AC7" s="8"/>
     </row>
-    <row r="8" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="16.2" thickBot="1">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -36311,7 +36311,7 @@
       </c>
       <c r="AC8" s="6"/>
     </row>
-    <row r="9" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="16.2" thickBot="1">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -36351,7 +36351,7 @@
       </c>
       <c r="AC9" s="8"/>
     </row>
-    <row r="10" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="16.2" thickBot="1">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -36391,7 +36391,7 @@
       </c>
       <c r="AC10" s="6"/>
     </row>
-    <row r="11" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="16.2" thickBot="1">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -36431,7 +36431,7 @@
       </c>
       <c r="AC11" s="8"/>
     </row>
-    <row r="12" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="16.2" thickBot="1">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -36471,7 +36471,7 @@
       </c>
       <c r="AC12" s="6"/>
     </row>
-    <row r="13" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="16.2" thickBot="1">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -36511,7 +36511,7 @@
       </c>
       <c r="AC13" s="8"/>
     </row>
-    <row r="14" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="16.2" thickBot="1">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -36551,7 +36551,7 @@
       </c>
       <c r="AC14" s="6"/>
     </row>
-    <row r="15" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" ht="16.2" thickBot="1">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -36591,7 +36591,7 @@
       </c>
       <c r="AC15" s="8"/>
     </row>
-    <row r="16" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="16.2" thickBot="1">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -36634,7 +36634,7 @@
       </c>
       <c r="AC16" s="6"/>
     </row>
-    <row r="17" spans="1:29" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" ht="18" thickBot="1">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -36678,7 +36678,7 @@
       </c>
       <c r="AC17" s="8"/>
     </row>
-    <row r="18" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" ht="16.2" thickBot="1">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -36718,7 +36718,7 @@
       </c>
       <c r="AC18" s="6"/>
     </row>
-    <row r="19" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" ht="16.2" thickBot="1">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -36761,7 +36761,7 @@
       </c>
       <c r="AC19" s="8"/>
     </row>
-    <row r="20" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="17.399999999999999" thickBot="1">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -36805,7 +36805,7 @@
       </c>
       <c r="AC20" s="6"/>
     </row>
-    <row r="21" spans="1:29" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" ht="18" thickBot="1">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -36846,7 +36846,7 @@
       </c>
       <c r="AC21" s="8"/>
     </row>
-    <row r="22" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" ht="21" thickBot="1">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -36889,7 +36889,7 @@
       </c>
       <c r="AC22" s="6"/>
     </row>
-    <row r="23" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" ht="16.2" thickBot="1">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -36932,7 +36932,7 @@
       </c>
       <c r="AC23" s="8"/>
     </row>
-    <row r="24" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" ht="16.2" thickBot="1">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -36959,8 +36959,8 @@
         <v>13.466910915437513</v>
       </c>
     </row>
-    <row r="56" spans="9:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="9:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="9:14" ht="16.2" thickBot="1"/>
+    <row r="57" spans="9:14">
       <c r="I57" s="23" t="s">
         <v>15</v>
       </c>
@@ -36970,7 +36970,7 @@
       <c r="M57" s="23"/>
       <c r="N57" s="23"/>
     </row>
-    <row r="58" spans="9:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="9:14">
       <c r="I58" s="24"/>
       <c r="J58" s="24"/>
       <c r="K58" s="24"/>
@@ -36994,23 +36994,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF5D825E-8ABD-AB46-9243-4AAB60C8E7B6}">
   <dimension ref="A1:AC44"/>
   <sheetViews>
-    <sheetView zoomScale="58" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="58" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37:G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="4" width="11.1640625" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="11.19921875" customWidth="1"/>
+    <col min="6" max="6" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.1640625" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="11.1640625" customWidth="1"/>
+    <col min="13" max="13" width="11.19921875" customWidth="1"/>
+    <col min="14" max="14" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="16.2" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -37048,7 +37048,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="16.2" thickBot="1">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -37090,7 +37090,7 @@
       </c>
       <c r="AC2" s="6"/>
     </row>
-    <row r="3" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="16.2" thickBot="1">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -37132,7 +37132,7 @@
       </c>
       <c r="AC3" s="8"/>
     </row>
-    <row r="4" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="16.2" thickBot="1">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -37174,7 +37174,7 @@
       </c>
       <c r="AC4" s="6"/>
     </row>
-    <row r="5" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="16.2" thickBot="1">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -37216,7 +37216,7 @@
       </c>
       <c r="AC5" s="8"/>
     </row>
-    <row r="6" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="16.2" thickBot="1">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -37258,7 +37258,7 @@
       </c>
       <c r="AC6" s="6"/>
     </row>
-    <row r="7" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="16.2" thickBot="1">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -37300,7 +37300,7 @@
       </c>
       <c r="AC7" s="8"/>
     </row>
-    <row r="8" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="16.2" thickBot="1">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -37342,7 +37342,7 @@
       </c>
       <c r="AC8" s="6"/>
     </row>
-    <row r="9" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="16.2" thickBot="1">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -37384,7 +37384,7 @@
       </c>
       <c r="AC9" s="8"/>
     </row>
-    <row r="10" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="16.2" thickBot="1">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -37426,7 +37426,7 @@
       </c>
       <c r="AC10" s="6"/>
     </row>
-    <row r="11" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="16.2" thickBot="1">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -37468,7 +37468,7 @@
       </c>
       <c r="AC11" s="8"/>
     </row>
-    <row r="12" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="16.2" thickBot="1">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -37510,7 +37510,7 @@
       </c>
       <c r="AC12" s="6"/>
     </row>
-    <row r="13" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="16.2" thickBot="1">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -37552,7 +37552,7 @@
       </c>
       <c r="AC13" s="8"/>
     </row>
-    <row r="14" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="16.2" thickBot="1">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -37594,7 +37594,7 @@
       </c>
       <c r="AC14" s="6"/>
     </row>
-    <row r="15" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" ht="16.2" thickBot="1">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -37636,7 +37636,7 @@
       </c>
       <c r="AC15" s="8"/>
     </row>
-    <row r="16" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="16.2" thickBot="1">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -37678,7 +37678,7 @@
       </c>
       <c r="AC16" s="6"/>
     </row>
-    <row r="17" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" ht="16.2" thickBot="1">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -37720,7 +37720,7 @@
       </c>
       <c r="AC17" s="8"/>
     </row>
-    <row r="18" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" ht="16.2" thickBot="1">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -37762,7 +37762,7 @@
       </c>
       <c r="AC18" s="6"/>
     </row>
-    <row r="19" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" ht="16.2" thickBot="1">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -37804,7 +37804,7 @@
       </c>
       <c r="AC19" s="8"/>
     </row>
-    <row r="20" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="16.2" thickBot="1">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -37846,7 +37846,7 @@
       </c>
       <c r="AC20" s="6"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -37875,8 +37875,8 @@
         <v>1.9813326740246377E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" ht="16.2" thickBot="1"/>
+    <row r="23" spans="1:29">
       <c r="B23" s="23" t="s">
         <v>15</v>
       </c>
@@ -37886,7 +37886,7 @@
       <c r="F23" s="23"/>
       <c r="G23" s="23"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29">
       <c r="B24" s="24"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -37894,42 +37894,42 @@
       <c r="F24" s="24"/>
       <c r="G24" s="24"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29">
       <c r="K27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="7:7">
       <c r="G37" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="7:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="38" spans="7:7" ht="17.399999999999999">
       <c r="G38" s="9">
         <f>1.602176634*10^(-19)</f>
         <v>1.6021766340000001E-19</v>
       </c>
     </row>
-    <row r="40" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="7:7">
       <c r="G40" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="7:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="7:7" ht="16.8">
       <c r="G41" s="11">
         <f>1.3806503*10^(-23)</f>
         <v>1.3806503000000004E-23</v>
       </c>
     </row>
-    <row r="42" spans="7:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="42" spans="7:7" ht="17.399999999999999">
       <c r="G42" s="10"/>
     </row>
-    <row r="43" spans="7:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="43" spans="7:7" ht="20.399999999999999">
       <c r="G43" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="7:7">
       <c r="G44" t="s">
         <v>14</v>
       </c>
@@ -37954,18 +37954,18 @@
       <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="4" width="11.1640625" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="11.19921875" customWidth="1"/>
+    <col min="6" max="6" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.69921875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.1640625" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="11.1640625" customWidth="1"/>
+    <col min="13" max="13" width="11.19921875" customWidth="1"/>
+    <col min="14" max="14" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="16.2" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -38009,7 +38009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="16.2" thickBot="1">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -38051,7 +38051,7 @@
       </c>
       <c r="AC2" s="6"/>
     </row>
-    <row r="3" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="16.2" thickBot="1">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -38093,7 +38093,7 @@
       </c>
       <c r="AC3" s="8"/>
     </row>
-    <row r="4" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="16.2" thickBot="1">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -38135,7 +38135,7 @@
       </c>
       <c r="AC4" s="6"/>
     </row>
-    <row r="5" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="16.2" thickBot="1">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -38177,7 +38177,7 @@
       </c>
       <c r="AC5" s="8"/>
     </row>
-    <row r="6" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="16.2" thickBot="1">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -38219,7 +38219,7 @@
       </c>
       <c r="AC6" s="6"/>
     </row>
-    <row r="7" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="16.2" thickBot="1">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -38261,7 +38261,7 @@
       </c>
       <c r="AC7" s="8"/>
     </row>
-    <row r="8" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="16.2" thickBot="1">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -38303,7 +38303,7 @@
       </c>
       <c r="AC8" s="6"/>
     </row>
-    <row r="9" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="16.2" thickBot="1">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -38345,7 +38345,7 @@
       </c>
       <c r="AC9" s="8"/>
     </row>
-    <row r="10" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="16.2" thickBot="1">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -38387,7 +38387,7 @@
       </c>
       <c r="AC10" s="6"/>
     </row>
-    <row r="11" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="16.2" thickBot="1">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -38429,7 +38429,7 @@
       </c>
       <c r="AC11" s="8"/>
     </row>
-    <row r="12" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="16.2" thickBot="1">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -38471,7 +38471,7 @@
       </c>
       <c r="AC12" s="6"/>
     </row>
-    <row r="13" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="16.2" thickBot="1">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -38513,7 +38513,7 @@
       </c>
       <c r="AC13" s="8"/>
     </row>
-    <row r="14" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="16.2" thickBot="1">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -38555,7 +38555,7 @@
       </c>
       <c r="AC14" s="6"/>
     </row>
-    <row r="15" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" ht="16.2" thickBot="1">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -38597,7 +38597,7 @@
       </c>
       <c r="AC15" s="8"/>
     </row>
-    <row r="16" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="16.2" thickBot="1">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -38639,7 +38639,7 @@
       </c>
       <c r="AC16" s="6"/>
     </row>
-    <row r="17" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" ht="16.2" thickBot="1">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -38681,7 +38681,7 @@
       </c>
       <c r="AC17" s="8"/>
     </row>
-    <row r="18" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" ht="16.2" thickBot="1">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -38723,7 +38723,7 @@
       </c>
       <c r="AC18" s="6"/>
     </row>
-    <row r="19" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" ht="16.2" thickBot="1">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -38765,7 +38765,7 @@
       </c>
       <c r="AC19" s="8"/>
     </row>
-    <row r="20" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="16.2" thickBot="1">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -38807,7 +38807,7 @@
       </c>
       <c r="AC20" s="6"/>
     </row>
-    <row r="21" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" ht="16.2" thickBot="1">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -38849,7 +38849,7 @@
       </c>
       <c r="AC21" s="8"/>
     </row>
-    <row r="22" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" ht="16.2" thickBot="1">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -38891,7 +38891,7 @@
       </c>
       <c r="AC22" s="6"/>
     </row>
-    <row r="23" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" ht="16.2" thickBot="1">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -38933,7 +38933,7 @@
       </c>
       <c r="AC23" s="8"/>
     </row>
-    <row r="24" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" ht="16.2" thickBot="1">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -38975,7 +38975,7 @@
       </c>
       <c r="AC24" s="6"/>
     </row>
-    <row r="25" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" ht="16.2" thickBot="1">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -39017,7 +39017,7 @@
       </c>
       <c r="AC25" s="8"/>
     </row>
-    <row r="26" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" ht="16.2" thickBot="1">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -39059,7 +39059,7 @@
       </c>
       <c r="AC26" s="6"/>
     </row>
-    <row r="27" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" ht="16.2" thickBot="1">
       <c r="A27" s="7">
         <v>25</v>
       </c>
@@ -39101,7 +39101,7 @@
       </c>
       <c r="AC27" s="8"/>
     </row>
-    <row r="28" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" ht="16.2" thickBot="1">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -39143,7 +39143,7 @@
       </c>
       <c r="AC28" s="6"/>
     </row>
-    <row r="29" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" ht="16.2" thickBot="1">
       <c r="A29" s="7">
         <v>27</v>
       </c>
@@ -39185,7 +39185,7 @@
       </c>
       <c r="AC29" s="8"/>
     </row>
-    <row r="30" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" ht="16.2" thickBot="1">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -39227,7 +39227,7 @@
       </c>
       <c r="AC30" s="6"/>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29">
       <c r="A31" s="7">
         <v>29</v>
       </c>
@@ -39256,8 +39256,8 @@
         <v>6.6325231377546354E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" ht="16.2" thickBot="1"/>
+    <row r="33" spans="2:8">
       <c r="B33" s="23" t="s">
         <v>15</v>
       </c>
@@ -39267,7 +39267,7 @@
       <c r="F33" s="23"/>
       <c r="G33" s="23"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8">
       <c r="B34" s="24"/>
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
@@ -39275,37 +39275,37 @@
       <c r="F34" s="24"/>
       <c r="G34" s="24"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8">
       <c r="H43" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8" ht="17.399999999999999">
       <c r="H44" s="9">
         <f>1.602176634*10^(-19)</f>
         <v>1.6021766340000001E-19</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8">
       <c r="H46" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8" ht="16.8">
       <c r="H47" s="11">
         <f>1.3806503*10^(-23)</f>
         <v>1.3806503000000004E-23</v>
       </c>
     </row>
-    <row r="48" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8" ht="17.399999999999999">
       <c r="H48" s="10"/>
     </row>
-    <row r="49" spans="8:8" ht="20" x14ac:dyDescent="0.2">
+    <row r="49" spans="8:8" ht="20.399999999999999">
       <c r="H49" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="8:8">
       <c r="H50" t="s">
         <v>14</v>
       </c>
@@ -39330,15 +39330,15 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="4" width="11.1640625" customWidth="1"/>
+    <col min="1" max="4" width="11.19921875" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.1640625" customWidth="1"/>
-    <col min="28" max="29" width="11.1640625" customWidth="1"/>
+    <col min="13" max="13" width="11.19921875" customWidth="1"/>
+    <col min="28" max="29" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="16.2" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -39376,7 +39376,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="16.2" thickBot="1">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -39417,7 +39417,7 @@
       </c>
       <c r="AC2" s="6"/>
     </row>
-    <row r="3" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="16.2" thickBot="1">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -39458,7 +39458,7 @@
       </c>
       <c r="AC3" s="8"/>
     </row>
-    <row r="4" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="16.2" thickBot="1">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -39499,7 +39499,7 @@
       </c>
       <c r="AC4" s="6"/>
     </row>
-    <row r="5" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="16.2" thickBot="1">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -39540,7 +39540,7 @@
       </c>
       <c r="AC5" s="8"/>
     </row>
-    <row r="6" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="16.2" thickBot="1">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -39581,7 +39581,7 @@
       </c>
       <c r="AC6" s="6"/>
     </row>
-    <row r="7" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="16.2" thickBot="1">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -39622,7 +39622,7 @@
       </c>
       <c r="AC7" s="8"/>
     </row>
-    <row r="8" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="16.2" thickBot="1">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -39663,7 +39663,7 @@
       </c>
       <c r="AC8" s="6"/>
     </row>
-    <row r="9" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="16.2" thickBot="1">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -39704,7 +39704,7 @@
       </c>
       <c r="AC9" s="8"/>
     </row>
-    <row r="10" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="16.2" thickBot="1">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -39745,7 +39745,7 @@
       </c>
       <c r="AC10" s="6"/>
     </row>
-    <row r="11" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="16.2" thickBot="1">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -39786,7 +39786,7 @@
       </c>
       <c r="AC11" s="8"/>
     </row>
-    <row r="12" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="16.2" thickBot="1">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -39827,7 +39827,7 @@
       </c>
       <c r="AC12" s="6"/>
     </row>
-    <row r="13" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="16.2" thickBot="1">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -39868,7 +39868,7 @@
       </c>
       <c r="AC13" s="8"/>
     </row>
-    <row r="14" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="16.2" thickBot="1">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -39909,7 +39909,7 @@
       </c>
       <c r="AC14" s="6"/>
     </row>
-    <row r="15" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" ht="16.2" thickBot="1">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -39950,7 +39950,7 @@
       </c>
       <c r="AC15" s="8"/>
     </row>
-    <row r="16" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="16.2" thickBot="1">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -39994,7 +39994,7 @@
       </c>
       <c r="AC16" s="6"/>
     </row>
-    <row r="17" spans="1:29" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" ht="18" thickBot="1">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -40039,7 +40039,7 @@
       </c>
       <c r="AC17" s="8"/>
     </row>
-    <row r="18" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" ht="16.2" thickBot="1">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -40080,7 +40080,7 @@
       </c>
       <c r="AC18" s="6"/>
     </row>
-    <row r="19" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" ht="16.2" thickBot="1">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -40124,7 +40124,7 @@
       </c>
       <c r="AC19" s="8"/>
     </row>
-    <row r="20" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="17.399999999999999" thickBot="1">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -40157,43 +40157,43 @@
       </c>
       <c r="AB20" s="5"/>
     </row>
-    <row r="21" spans="1:29" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" ht="17.399999999999999">
       <c r="J21" s="10"/>
     </row>
-    <row r="22" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" ht="20.399999999999999">
       <c r="J22" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29">
       <c r="J23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="27:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="27:27">
       <c r="AA44" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="27:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="27:27">
       <c r="AA45">
         <f>SLOPE(AB2:AB19,H2:H19)</f>
         <v>0.55845473451013328</v>
       </c>
     </row>
-    <row r="47" spans="27:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="27:27">
       <c r="AA47" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="27:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="27:27">
       <c r="AA48">
         <f>INTERCEPT(AB2:AB19,H2:H19)</f>
         <v>-93.280856724131766</v>
       </c>
     </row>
-    <row r="56" spans="9:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="9:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="9:14" ht="16.2" thickBot="1"/>
+    <row r="57" spans="9:14">
       <c r="I57" s="23" t="s">
         <v>15</v>
       </c>
@@ -40203,7 +40203,7 @@
       <c r="M57" s="23"/>
       <c r="N57" s="23"/>
     </row>
-    <row r="58" spans="9:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="9:14">
       <c r="I58" s="24"/>
       <c r="J58" s="24"/>
       <c r="K58" s="24"/>
@@ -40231,15 +40231,15 @@
       <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="4" width="11.1640625" customWidth="1"/>
+    <col min="1" max="4" width="11.19921875" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.1640625" customWidth="1"/>
-    <col min="28" max="29" width="11.1640625" customWidth="1"/>
+    <col min="13" max="13" width="11.19921875" customWidth="1"/>
+    <col min="28" max="29" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="16.2" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -40277,7 +40277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="16.2" thickBot="1">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -40317,7 +40317,7 @@
       </c>
       <c r="AC2" s="6"/>
     </row>
-    <row r="3" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="16.2" thickBot="1">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -40357,7 +40357,7 @@
       </c>
       <c r="AC3" s="8"/>
     </row>
-    <row r="4" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="16.2" thickBot="1">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -40397,7 +40397,7 @@
       </c>
       <c r="AC4" s="6"/>
     </row>
-    <row r="5" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="16.2" thickBot="1">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -40437,7 +40437,7 @@
       </c>
       <c r="AC5" s="8"/>
     </row>
-    <row r="6" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="16.2" thickBot="1">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -40477,7 +40477,7 @@
       </c>
       <c r="AC6" s="6"/>
     </row>
-    <row r="7" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="16.2" thickBot="1">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -40517,7 +40517,7 @@
       </c>
       <c r="AC7" s="8"/>
     </row>
-    <row r="8" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="16.2" thickBot="1">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -40557,7 +40557,7 @@
       </c>
       <c r="AC8" s="6"/>
     </row>
-    <row r="9" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="16.2" thickBot="1">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -40597,7 +40597,7 @@
       </c>
       <c r="AC9" s="8"/>
     </row>
-    <row r="10" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="16.2" thickBot="1">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -40637,7 +40637,7 @@
       </c>
       <c r="AC10" s="6"/>
     </row>
-    <row r="11" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="16.2" thickBot="1">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -40677,7 +40677,7 @@
       </c>
       <c r="AC11" s="8"/>
     </row>
-    <row r="12" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="16.2" thickBot="1">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -40717,7 +40717,7 @@
       </c>
       <c r="AC12" s="6"/>
     </row>
-    <row r="13" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="16.2" thickBot="1">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -40757,7 +40757,7 @@
       </c>
       <c r="AC13" s="8"/>
     </row>
-    <row r="14" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="16.2" thickBot="1">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -40797,7 +40797,7 @@
       </c>
       <c r="AC14" s="6"/>
     </row>
-    <row r="15" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" ht="16.2" thickBot="1">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -40837,7 +40837,7 @@
       </c>
       <c r="AC15" s="8"/>
     </row>
-    <row r="16" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="16.2" thickBot="1">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -40865,7 +40865,7 @@
       <c r="AB16" s="5"/>
       <c r="AC16" s="6"/>
     </row>
-    <row r="17" spans="1:29" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" ht="18" thickBot="1">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -40894,7 +40894,7 @@
       <c r="AB17" s="5"/>
       <c r="AC17" s="8"/>
     </row>
-    <row r="18" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" ht="16.2" thickBot="1">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -40919,7 +40919,7 @@
       <c r="AB18" s="5"/>
       <c r="AC18" s="6"/>
     </row>
-    <row r="19" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" ht="16.2" thickBot="1">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -40947,7 +40947,7 @@
       <c r="AB19" s="5"/>
       <c r="AC19" s="8"/>
     </row>
-    <row r="20" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="17.399999999999999" thickBot="1">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -40976,7 +40976,7 @@
       <c r="AB20" s="5"/>
       <c r="AC20" s="6"/>
     </row>
-    <row r="21" spans="1:29" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" ht="18" thickBot="1">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -41002,7 +41002,7 @@
       <c r="AB21" s="5"/>
       <c r="AC21" s="8"/>
     </row>
-    <row r="22" spans="1:29" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" ht="21" thickBot="1">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -41030,7 +41030,7 @@
       <c r="AB22" s="5"/>
       <c r="AC22" s="6"/>
     </row>
-    <row r="23" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" ht="16.2" thickBot="1">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -41058,7 +41058,7 @@
       <c r="AB23" s="5"/>
       <c r="AC23" s="8"/>
     </row>
-    <row r="24" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" ht="16.2" thickBot="1">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -41083,7 +41083,7 @@
       <c r="AB24" s="5"/>
       <c r="AC24" s="6"/>
     </row>
-    <row r="25" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" ht="16.2" thickBot="1">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -41111,7 +41111,7 @@
       </c>
       <c r="AC25" s="8"/>
     </row>
-    <row r="26" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" ht="16.2" thickBot="1">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -41139,7 +41139,7 @@
       </c>
       <c r="AC26" s="6"/>
     </row>
-    <row r="27" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" ht="16.2" thickBot="1">
       <c r="A27" s="7">
         <v>25</v>
       </c>
@@ -41167,7 +41167,7 @@
       </c>
       <c r="AC27" s="8"/>
     </row>
-    <row r="28" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" ht="16.2" thickBot="1">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -41195,7 +41195,7 @@
       </c>
       <c r="AC28" s="6"/>
     </row>
-    <row r="29" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" ht="16.2" thickBot="1">
       <c r="A29" s="7">
         <v>27</v>
       </c>
@@ -41223,7 +41223,7 @@
       </c>
       <c r="AC29" s="8"/>
     </row>
-    <row r="30" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" ht="16.2" thickBot="1">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -41251,7 +41251,7 @@
       </c>
       <c r="AC30" s="6"/>
     </row>
-    <row r="31" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" ht="16.2" thickBot="1">
       <c r="A31" s="7">
         <v>29</v>
       </c>
@@ -41279,7 +41279,7 @@
       </c>
       <c r="AC31" s="6"/>
     </row>
-    <row r="32" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" ht="16.2" thickBot="1">
       <c r="A32" s="5">
         <v>30</v>
       </c>
@@ -41307,7 +41307,7 @@
       </c>
       <c r="AC32" s="8"/>
     </row>
-    <row r="33" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" ht="16.2" thickBot="1">
       <c r="A33" s="7">
         <v>31</v>
       </c>
@@ -41335,7 +41335,7 @@
       </c>
       <c r="AC33" s="6"/>
     </row>
-    <row r="34" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" ht="16.2" thickBot="1">
       <c r="A34" s="5">
         <v>32</v>
       </c>
@@ -41363,7 +41363,7 @@
       </c>
       <c r="AC34" s="6"/>
     </row>
-    <row r="35" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" ht="16.2" thickBot="1">
       <c r="A35" s="7">
         <v>33</v>
       </c>
@@ -41391,7 +41391,7 @@
       </c>
       <c r="AC35" s="8"/>
     </row>
-    <row r="36" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" ht="16.2" thickBot="1">
       <c r="A36" s="5">
         <v>34</v>
       </c>
@@ -41419,7 +41419,7 @@
       </c>
       <c r="AC36" s="6"/>
     </row>
-    <row r="37" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" ht="16.2" thickBot="1">
       <c r="A37" s="7">
         <v>35</v>
       </c>
@@ -41447,7 +41447,7 @@
       </c>
       <c r="AC37" s="6"/>
     </row>
-    <row r="38" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" ht="16.2" thickBot="1">
       <c r="A38" s="5">
         <v>36</v>
       </c>
@@ -41475,7 +41475,7 @@
       </c>
       <c r="AC38" s="8"/>
     </row>
-    <row r="39" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" ht="16.2" thickBot="1">
       <c r="A39" s="7">
         <v>37</v>
       </c>
@@ -41495,7 +41495,7 @@
       </c>
       <c r="AC39" s="6"/>
     </row>
-    <row r="40" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" ht="16.2" thickBot="1">
       <c r="A40" s="5">
         <v>38</v>
       </c>
@@ -41515,7 +41515,7 @@
       </c>
       <c r="AC40" s="6"/>
     </row>
-    <row r="41" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" ht="16.2" thickBot="1">
       <c r="A41" s="7">
         <v>39</v>
       </c>
@@ -41535,7 +41535,7 @@
       </c>
       <c r="AC41" s="8"/>
     </row>
-    <row r="42" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" ht="16.2" thickBot="1">
       <c r="A42" s="5">
         <v>40</v>
       </c>
@@ -41555,7 +41555,7 @@
       </c>
       <c r="AC42" s="6"/>
     </row>
-    <row r="43" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" ht="16.2" thickBot="1">
       <c r="A43" s="7">
         <v>41</v>
       </c>
@@ -41575,7 +41575,7 @@
       </c>
       <c r="AC43" s="6"/>
     </row>
-    <row r="44" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" ht="16.2" thickBot="1">
       <c r="A44" s="5">
         <v>42</v>
       </c>
@@ -41595,7 +41595,7 @@
       </c>
       <c r="AC44" s="8"/>
     </row>
-    <row r="45" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" ht="16.2" thickBot="1">
       <c r="A45" s="7">
         <v>43</v>
       </c>
@@ -41615,7 +41615,7 @@
       </c>
       <c r="AC45" s="6"/>
     </row>
-    <row r="46" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" ht="16.2" thickBot="1">
       <c r="A46" s="5">
         <v>44</v>
       </c>
@@ -41635,7 +41635,7 @@
       </c>
       <c r="AC46" s="6"/>
     </row>
-    <row r="47" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" ht="16.2" thickBot="1">
       <c r="A47" s="7">
         <v>45</v>
       </c>
@@ -41655,7 +41655,7 @@
       </c>
       <c r="AC47" s="8"/>
     </row>
-    <row r="48" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" ht="16.2" thickBot="1">
       <c r="A48" s="5">
         <v>46</v>
       </c>
@@ -41675,7 +41675,7 @@
       </c>
       <c r="AC48" s="6"/>
     </row>
-    <row r="49" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" ht="16.2" thickBot="1">
       <c r="A49" s="7">
         <v>47</v>
       </c>
@@ -41695,7 +41695,7 @@
       </c>
       <c r="AC49" s="6"/>
     </row>
-    <row r="50" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" ht="16.2" thickBot="1">
       <c r="A50" s="5">
         <v>48</v>
       </c>
@@ -41715,7 +41715,7 @@
       </c>
       <c r="AC50" s="8"/>
     </row>
-    <row r="51" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" ht="16.2" thickBot="1">
       <c r="A51" s="7">
         <v>49</v>
       </c>
@@ -41735,7 +41735,7 @@
       </c>
       <c r="AC51" s="6"/>
     </row>
-    <row r="52" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" ht="16.2" thickBot="1">
       <c r="A52" s="5">
         <v>50</v>
       </c>
@@ -41755,7 +41755,7 @@
       </c>
       <c r="AC52" s="6"/>
     </row>
-    <row r="53" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" ht="16.2" thickBot="1">
       <c r="A53" s="7">
         <v>51</v>
       </c>
@@ -41775,7 +41775,7 @@
       </c>
       <c r="AC53" s="8"/>
     </row>
-    <row r="54" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" ht="16.2" thickBot="1">
       <c r="A54" s="5">
         <v>52</v>
       </c>
@@ -41795,7 +41795,7 @@
       </c>
       <c r="AC54" s="6"/>
     </row>
-    <row r="55" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" ht="16.2" thickBot="1">
       <c r="A55" s="7">
         <v>53</v>
       </c>
@@ -41815,7 +41815,7 @@
       </c>
       <c r="AC55" s="6"/>
     </row>
-    <row r="56" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" ht="16.2" thickBot="1">
       <c r="A56" s="5">
         <v>54</v>
       </c>
@@ -41835,7 +41835,7 @@
       </c>
       <c r="AC56" s="8"/>
     </row>
-    <row r="57" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" ht="16.2" thickBot="1">
       <c r="A57" s="7">
         <v>55</v>
       </c>
@@ -41863,7 +41863,7 @@
       </c>
       <c r="AC57" s="6"/>
     </row>
-    <row r="58" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" ht="16.2" thickBot="1">
       <c r="A58" s="5">
         <v>56</v>
       </c>
@@ -41886,7 +41886,7 @@
       <c r="AB58" s="5"/>
       <c r="AC58" s="6"/>
     </row>
-    <row r="59" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" ht="16.2" thickBot="1">
       <c r="A59" s="7">
         <v>57</v>
       </c>
@@ -41903,7 +41903,7 @@
       <c r="AB59" s="5"/>
       <c r="AC59" s="8"/>
     </row>
-    <row r="60" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" ht="16.2" thickBot="1">
       <c r="A60" s="5">
         <v>58</v>
       </c>
@@ -41920,7 +41920,7 @@
       <c r="AB60" s="5"/>
       <c r="AC60" s="6"/>
     </row>
-    <row r="61" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29" ht="16.2" thickBot="1">
       <c r="A61" s="7">
         <v>59</v>
       </c>
@@ -41937,7 +41937,7 @@
       <c r="AB61" s="5"/>
       <c r="AC61" s="6"/>
     </row>
-    <row r="62" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29" ht="16.2" thickBot="1">
       <c r="A62" s="5">
         <v>60</v>
       </c>
@@ -41954,7 +41954,7 @@
       <c r="AB62" s="5"/>
       <c r="AC62" s="8"/>
     </row>
-    <row r="63" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29" ht="16.2" thickBot="1">
       <c r="A63" s="7">
         <v>61</v>
       </c>
@@ -41971,7 +41971,7 @@
       <c r="AB63" s="5"/>
       <c r="AC63" s="6"/>
     </row>
-    <row r="64" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:29" ht="16.2" thickBot="1">
       <c r="A64" s="5">
         <v>62</v>
       </c>
@@ -41986,7 +41986,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="16.2" thickBot="1">
       <c r="A65" s="7">
         <v>63</v>
       </c>
@@ -42001,7 +42001,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="16.2" thickBot="1">
       <c r="A66" s="5">
         <v>64</v>
       </c>
@@ -42016,7 +42016,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="16.2" thickBot="1">
       <c r="A67" s="7">
         <v>65</v>
       </c>
@@ -42031,7 +42031,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="16.2" thickBot="1">
       <c r="A68" s="5">
         <v>66</v>
       </c>
@@ -42046,7 +42046,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="16.2" thickBot="1">
       <c r="A69" s="7">
         <v>67</v>
       </c>
@@ -42061,7 +42061,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="16.2" thickBot="1">
       <c r="A70" s="5">
         <v>68</v>
       </c>
@@ -42076,7 +42076,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="16.2" thickBot="1">
       <c r="A71" s="7">
         <v>69</v>
       </c>
@@ -42091,7 +42091,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="16.2" thickBot="1">
       <c r="A72" s="5">
         <v>70</v>
       </c>
@@ -42106,7 +42106,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="16.2" thickBot="1">
       <c r="A73" s="7">
         <v>71</v>
       </c>
@@ -42121,7 +42121,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="16.2" thickBot="1">
       <c r="A74" s="5">
         <v>72</v>
       </c>
@@ -42136,7 +42136,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="16.2" thickBot="1">
       <c r="A75" s="7">
         <v>73</v>
       </c>
@@ -42151,7 +42151,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="16.2" thickBot="1">
       <c r="A76" s="5">
         <v>74</v>
       </c>
@@ -42166,7 +42166,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="16.2" thickBot="1">
       <c r="A77" s="7">
         <v>75</v>
       </c>
@@ -42181,7 +42181,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="16.2" thickBot="1">
       <c r="A78" s="5">
         <v>76</v>
       </c>
@@ -42196,7 +42196,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="16.2" thickBot="1">
       <c r="A79" s="7">
         <v>77</v>
       </c>
@@ -42211,7 +42211,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="16.2" thickBot="1">
       <c r="A80" s="5">
         <v>78</v>
       </c>
@@ -42226,7 +42226,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="16.2" thickBot="1">
       <c r="A81" s="7">
         <v>79</v>
       </c>
@@ -42241,7 +42241,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="16.2" thickBot="1">
       <c r="A82" s="5">
         <v>80</v>
       </c>
@@ -42276,13 +42276,13 @@
       <selection activeCell="P9" sqref="P7:P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -42317,7 +42317,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22">
       <c r="A2" s="21">
         <f>LN($P$4/K2+1)/I2</f>
         <v>0.57783361346788653</v>
@@ -42359,7 +42359,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22">
       <c r="A3" s="21">
         <f t="shared" ref="A3:A6" si="0">LN($P$4/K3+1)/I3</f>
         <v>0.60314919592841976</v>
@@ -42410,7 +42410,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="17.399999999999999">
       <c r="A4" s="21">
         <f>LN($P$4/K4+1)/I4</f>
         <v>0.64480655629434747</v>
@@ -42460,7 +42460,7 @@
         <v>1.3806503000000004E-23</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22">
       <c r="A5" s="21">
         <f t="shared" si="0"/>
         <v>0.66399628766534324</v>
@@ -42502,7 +42502,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22">
       <c r="A6" s="21">
         <f t="shared" si="0"/>
         <v>0.69509814764159616</v>
@@ -42544,7 +42544,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22">
       <c r="A7" s="21">
         <f>LN($P$4/K7+1)/I7</f>
         <v>1.0454290199790073</v>
@@ -42585,7 +42585,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22">
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
       <c r="P8" s="18">
@@ -42601,13 +42601,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56093DD2-37EC-2948-87AD-2776D461F2EA}">
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -42642,7 +42642,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22">
       <c r="A2" s="21">
         <f>LN($P$4/K2+1)/I2</f>
         <v>0.57783361346788653</v>
@@ -42684,7 +42684,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22">
       <c r="A3" s="21">
         <f t="shared" ref="A3:A6" si="0">LN($P$4/K3+1)/I3</f>
         <v>0.60314919592841976</v>
@@ -42735,7 +42735,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="17.399999999999999">
       <c r="A4" s="21">
         <f>LN($P$4/K4+1)/I4</f>
         <v>0.64480655629434747</v>
@@ -42785,7 +42785,7 @@
         <v>1.3806503000000004E-23</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22">
       <c r="A5" s="21">
         <f t="shared" si="0"/>
         <v>0.66399628766534324</v>
@@ -42827,7 +42827,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22">
       <c r="A6" s="21">
         <f t="shared" si="0"/>
         <v>0.69509814764159616</v>
@@ -42869,17 +42869,17 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22">
       <c r="P7" s="18">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22">
       <c r="P8" s="18">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22">
       <c r="P9" s="18"/>
     </row>
   </sheetData>
@@ -42888,15 +42888,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100150C6E3A01A79A4BB6F66956A6120D17" ma:contentTypeVersion="10" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="675b3873b2b3a50285c27b6e2251c5ac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="21343963-c43f-42a4-b0bc-b203e64410f4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2be159a6f8ccf448de399b2de905d627" ns3:_="">
     <xsd:import namespace="21343963-c43f-42a4-b0bc-b203e64410f4"/>
@@ -43078,6 +43069,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -43087,14 +43087,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB974918-D618-4A8E-9BED-86443E84A1C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D79C0675-5D5E-478C-BB62-C10AAF972813}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -43108,6 +43100,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB974918-D618-4A8E-9BED-86443E84A1C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/relazioni/esperienza_2/codici/Esperienza_2.xlsx
+++ b/relazioni/esperienza_2/codici/Esperienza_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\UNIVERSITA'\II ANNO\LABORATORIO-DI-ELETTROMAGNETISMO\relazioni\esperienza_2\codici\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1C83B8-F0E0-4B38-B208-B5AD247033FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C80558-2790-4692-947D-0D50B2D71584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{9832D23C-5E2D-EB46-85A1-EE46353BB05C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{9832D23C-5E2D-EB46-85A1-EE46353BB05C}"/>
   </bookViews>
   <sheets>
     <sheet name="Temp_1" sheetId="1" r:id="rId1"/>
@@ -36994,7 +36994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF5D825E-8ABD-AB46-9243-4AAB60C8E7B6}">
   <dimension ref="A1:AC44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="58" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScale="58" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="G37" sqref="G37:G38"/>
     </sheetView>
   </sheetViews>
@@ -40227,8 +40227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C9F8CB-8527-E840-9CEF-74962860B9C8}">
   <dimension ref="A1:AC82"/>
   <sheetViews>
-    <sheetView zoomScale="59" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -42272,8 +42272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86401310-AE3F-46D9-BA7D-9008211E0E75}">
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P9" sqref="P7:P9"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6"/>
@@ -42601,8 +42601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56093DD2-37EC-2948-87AD-2776D461F2EA}">
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView zoomScale="83" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -43070,20 +43070,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="21343963-c43f-42a4-b0bc-b203e64410f4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="21343963-c43f-42a4-b0bc-b203e64410f4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -43105,14 +43105,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB974918-D618-4A8E-9BED-86443E84A1C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0E5A08E-764A-49CD-B663-0CFE39F0EF50}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -43126,4 +43118,12 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB974918-D618-4A8E-9BED-86443E84A1C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>